--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -12,6 +12,9 @@
     <sheet name="ServoDyn" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ElastoDyn!$A$510:$J$519</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -5370,7 +5373,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="506">
+  <dxfs count="500">
     <dxf>
       <font>
         <u val="none"/>
@@ -9605,57 +9608,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
           <bgColor theme="2"/>
@@ -10602,8 +10554,8 @@
   <dimension ref="A1:K801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E519" sqref="E519"/>
+      <pane ySplit="11" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34453,8 +34405,8 @@
   <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J154" sqref="J154"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40279,7 +40231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A50" sqref="A50:XFD54"/>
     </sheetView>
   </sheetViews>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9836" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9836" uniqueCount="1830">
   <si>
     <t>###################################################################################################################################</t>
   </si>
@@ -5585,6 +5585,54 @@
   </si>
   <si>
     <t>"Switch that indicates if a particular coupling scheme is required"</t>
+  </si>
+  <si>
+    <t>"Record 28: Use individual pitch control {0: collective pitch; 1: individual pitch control} [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record  6: Minimum pitch angle [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record  5: Below-rated pitch angle set-point [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record  7: Maximum pitch angle [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record  8: Minimum pitch rate (most negative value allowed) [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record  9: Maximum pitch rate [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record 16: Optimal mode gain [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record 17: Minimum generator speed [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record 18: Optimal mode maximum speed [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record 22: Demanded generator torque above rated [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record 13: Demanded power [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record 19: Demanded generator speed above rated [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Record 26: No. of points in torque-speed look-up table {0 = none and use the optimal mode PARAMETERs instead, nonzero = ignore the optimal mode PARAMETERs by setting Gain_OM (Record 16) to 0.0} [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Reference yaw angle of the nacelle when the upwind end points due North [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Records R:2:R+2*DLL_NumTrq-2: Generator speed values in look-up table [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Records R+1:2:R+2*DLL_NumTrq-1: Generator torque values in look-up table [used only with DLL Interface]"</t>
   </si>
 </sst>
 </file>
@@ -5772,41 +5820,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="560">
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="556">
     <dxf>
       <font>
         <u val="none"/>
@@ -11447,10 +11461,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="559" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="555" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="558" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="554" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11464,7 +11478,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A771" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E776" sqref="E776"/>
+      <selection pane="bottomLeft" activeCell="D780" sqref="D780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33929,7 +33943,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="805" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
         <v>22</v>
       </c>
@@ -34347,1354 +34361,1354 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A243:A299 A503:A511 A315 A306 A532:A533 A639:A672 A516 A1:A12 A51 A20:A39 A688:A703 A683:A686 A705:A711 A677:A681 A488 A490:A494 A239:A241 A498:A501 A527 A521:A525 A818:A1048576 A768:A773 A329:A338 A357:A360 A371:A373 A384:A387 A782:A790 A547:A637 A410:A434 A436:A443 A482:A486 A445:A478 A378:A381">
-    <cfRule type="containsText" dxfId="557" priority="799" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="553" priority="799" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="556" priority="800" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="552" priority="800" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="containsText" dxfId="555" priority="787" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="551" priority="787" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="554" priority="788" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="550" priority="788" operator="beginsWith" text="#">
       <formula>LEFT(A242,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17">
-    <cfRule type="containsText" dxfId="553" priority="781" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="549" priority="781" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="552" priority="782" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="548" priority="782" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A53">
-    <cfRule type="containsText" dxfId="551" priority="777" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="547" priority="777" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A52)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="550" priority="778" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="546" priority="778" operator="beginsWith" text="#">
       <formula>LEFT(A52,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="containsText" dxfId="549" priority="775" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="545" priority="775" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A13)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="548" priority="776" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="544" priority="776" operator="beginsWith" text="#">
       <formula>LEFT(A13,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A529">
-    <cfRule type="containsText" dxfId="547" priority="771" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="543" priority="771" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A529)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="546" priority="772" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="542" priority="772" operator="beginsWith" text="#">
       <formula>LEFT(A529,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A528">
-    <cfRule type="containsText" dxfId="545" priority="773" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="541" priority="773" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A528)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="544" priority="774" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="540" priority="774" operator="beginsWith" text="#">
       <formula>LEFT(A528,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A541">
-    <cfRule type="containsText" dxfId="543" priority="769" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="539" priority="769" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A541)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="542" priority="770" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="538" priority="770" operator="beginsWith" text="#">
       <formula>LEFT(A541,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A542">
-    <cfRule type="containsText" dxfId="541" priority="767" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="537" priority="767" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A542)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="540" priority="768" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="536" priority="768" operator="beginsWith" text="#">
       <formula>LEFT(A542,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A539">
-    <cfRule type="containsText" dxfId="539" priority="765" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="535" priority="765" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A539)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="538" priority="766" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="534" priority="766" operator="beginsWith" text="#">
       <formula>LEFT(A539,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A540">
-    <cfRule type="containsText" dxfId="537" priority="763" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="533" priority="763" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A540)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="536" priority="764" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="532" priority="764" operator="beginsWith" text="#">
       <formula>LEFT(A540,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A543">
-    <cfRule type="containsText" dxfId="535" priority="759" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="531" priority="759" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A543)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="534" priority="760" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="530" priority="760" operator="beginsWith" text="#">
       <formula>LEFT(A543,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A502">
-    <cfRule type="containsText" dxfId="533" priority="755" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="529" priority="755" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A502)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="532" priority="756" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="528" priority="756" operator="beginsWith" text="#">
       <formula>LEFT(A502,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A530">
-    <cfRule type="containsText" dxfId="531" priority="753" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="527" priority="753" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A530)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="530" priority="754" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="526" priority="754" operator="beginsWith" text="#">
       <formula>LEFT(A530,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A544">
-    <cfRule type="containsText" dxfId="529" priority="751" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="525" priority="751" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A544)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="528" priority="752" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="524" priority="752" operator="beginsWith" text="#">
       <formula>LEFT(A544,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A638">
-    <cfRule type="containsText" dxfId="527" priority="749" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="523" priority="749" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A638)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="526" priority="750" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="522" priority="750" operator="beginsWith" text="#">
       <formula>LEFT(A638,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A531">
-    <cfRule type="containsText" dxfId="525" priority="743" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="521" priority="743" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A531)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="524" priority="744" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="520" priority="744" operator="beginsWith" text="#">
       <formula>LEFT(A531,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300:A302">
-    <cfRule type="containsText" dxfId="523" priority="741" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="519" priority="741" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A300)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="522" priority="742" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="518" priority="742" operator="beginsWith" text="#">
       <formula>LEFT(A300,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="521" priority="737" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="517" priority="737" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A303)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="520" priority="738" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="516" priority="738" operator="beginsWith" text="#">
       <formula>LEFT(A303,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304:A305 A307:A312">
-    <cfRule type="containsText" dxfId="519" priority="735" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="515" priority="735" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A304)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="518" priority="736" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="514" priority="736" operator="beginsWith" text="#">
       <formula>LEFT(A304,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A313:A314 A316:A322 A535">
-    <cfRule type="containsText" dxfId="517" priority="733" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="513" priority="733" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A313)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="516" priority="734" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="512" priority="734" operator="beginsWith" text="#">
       <formula>LEFT(A313,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A534">
-    <cfRule type="containsText" dxfId="515" priority="689" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="511" priority="689" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A534)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="514" priority="690" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="510" priority="690" operator="beginsWith" text="#">
       <formula>LEFT(A534,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A324">
-    <cfRule type="containsText" dxfId="513" priority="677" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="509" priority="677" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A324)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="512" priority="678" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="508" priority="678" operator="beginsWith" text="#">
       <formula>LEFT(A324,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A323">
-    <cfRule type="containsText" dxfId="511" priority="679" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="507" priority="679" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A323)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="510" priority="680" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="506" priority="680" operator="beginsWith" text="#">
       <formula>LEFT(A323,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A536">
-    <cfRule type="containsText" dxfId="509" priority="675" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="505" priority="675" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A536)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="508" priority="676" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="504" priority="676" operator="beginsWith" text="#">
       <formula>LEFT(A536,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A537">
-    <cfRule type="containsText" dxfId="507" priority="673" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="503" priority="673" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A537)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="506" priority="674" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="502" priority="674" operator="beginsWith" text="#">
       <formula>LEFT(A537,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A325:A326">
-    <cfRule type="containsText" dxfId="505" priority="671" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="501" priority="671" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A325)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="504" priority="672" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="500" priority="672" operator="beginsWith" text="#">
       <formula>LEFT(A325,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A546">
-    <cfRule type="containsText" dxfId="503" priority="663" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="499" priority="663" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A546)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="502" priority="664" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="498" priority="664" operator="beginsWith" text="#">
       <formula>LEFT(A546,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A545">
-    <cfRule type="containsText" dxfId="501" priority="665" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="497" priority="665" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A545)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="500" priority="666" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="496" priority="666" operator="beginsWith" text="#">
       <formula>LEFT(A545,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A674">
-    <cfRule type="containsText" dxfId="499" priority="633" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="495" priority="633" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A674)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="498" priority="634" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="494" priority="634" operator="beginsWith" text="#">
       <formula>LEFT(A674,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A327:A328 A362">
-    <cfRule type="containsText" dxfId="497" priority="629" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="493" priority="629" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A327)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="496" priority="630" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="492" priority="630" operator="beginsWith" text="#">
       <formula>LEFT(A327,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A383">
-    <cfRule type="containsText" dxfId="495" priority="627" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="491" priority="627" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A383)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="494" priority="628" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="490" priority="628" operator="beginsWith" text="#">
       <formula>LEFT(A383,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A512:A513">
-    <cfRule type="containsText" dxfId="493" priority="623" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="489" priority="623" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A512)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="492" priority="624" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="488" priority="624" operator="beginsWith" text="#">
       <formula>LEFT(A512,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A515">
-    <cfRule type="containsText" dxfId="491" priority="621" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="487" priority="621" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A515)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="490" priority="622" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="486" priority="622" operator="beginsWith" text="#">
       <formula>LEFT(A515,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="489" priority="595" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="485" priority="595" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="488" priority="596" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="484" priority="596" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="487" priority="593" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="483" priority="593" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="486" priority="594" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="482" priority="594" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="485" priority="585" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="481" priority="585" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="484" priority="586" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="480" priority="586" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="483" priority="583" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="479" priority="583" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="584" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="478" priority="584" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="481" priority="581" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="477" priority="581" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="480" priority="582" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="476" priority="582" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="479" priority="579" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="475" priority="579" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="478" priority="580" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="474" priority="580" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A712">
-    <cfRule type="containsText" dxfId="477" priority="577" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="473" priority="577" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A712)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="476" priority="578" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="472" priority="578" operator="beginsWith" text="#">
       <formula>LEFT(A712,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A713">
-    <cfRule type="containsText" dxfId="475" priority="575" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="471" priority="575" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A713)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="576" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="470" priority="576" operator="beginsWith" text="#">
       <formula>LEFT(A713,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A714">
-    <cfRule type="containsText" dxfId="473" priority="573" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="469" priority="573" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A714)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="472" priority="574" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="468" priority="574" operator="beginsWith" text="#">
       <formula>LEFT(A714,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="containsText" dxfId="471" priority="571" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="467" priority="571" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A767)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="470" priority="572" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="466" priority="572" operator="beginsWith" text="#">
       <formula>LEFT(A767,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A716:A719">
-    <cfRule type="containsText" dxfId="469" priority="567" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="465" priority="567" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A716)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="568" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="464" priority="568" operator="beginsWith" text="#">
       <formula>LEFT(A716,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A715">
-    <cfRule type="containsText" dxfId="467" priority="563" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="463" priority="563" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A715)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="564" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="462" priority="564" operator="beginsWith" text="#">
       <formula>LEFT(A715,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A720:A727">
-    <cfRule type="containsText" dxfId="465" priority="557" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="461" priority="557" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A720)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="558" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="460" priority="558" operator="beginsWith" text="#">
       <formula>LEFT(A720,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A728:A738">
-    <cfRule type="containsText" dxfId="463" priority="551" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="459" priority="551" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A728)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="462" priority="552" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="458" priority="552" operator="beginsWith" text="#">
       <formula>LEFT(A728,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A739">
-    <cfRule type="containsText" dxfId="461" priority="553" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="457" priority="553" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A739)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="554" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="456" priority="554" operator="beginsWith" text="#">
       <formula>LEFT(A739,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A740:A750">
-    <cfRule type="containsText" dxfId="459" priority="545" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="455" priority="545" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A740)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="546" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="454" priority="546" operator="beginsWith" text="#">
       <formula>LEFT(A740,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A751">
-    <cfRule type="containsText" dxfId="457" priority="547" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="453" priority="547" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A751)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="456" priority="548" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="452" priority="548" operator="beginsWith" text="#">
       <formula>LEFT(A751,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A752">
-    <cfRule type="containsText" dxfId="455" priority="541" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="451" priority="541" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A752)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="454" priority="542" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="450" priority="542" operator="beginsWith" text="#">
       <formula>LEFT(A752,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A756:A757">
-    <cfRule type="containsText" dxfId="453" priority="531" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="449" priority="531" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A756)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="532" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="448" priority="532" operator="beginsWith" text="#">
       <formula>LEFT(A756,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A753">
-    <cfRule type="containsText" dxfId="451" priority="537" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="447" priority="537" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A753)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="450" priority="538" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="446" priority="538" operator="beginsWith" text="#">
       <formula>LEFT(A753,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A754">
-    <cfRule type="containsText" dxfId="449" priority="535" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="445" priority="535" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A754)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="448" priority="536" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="444" priority="536" operator="beginsWith" text="#">
       <formula>LEFT(A754,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="containsText" dxfId="447" priority="533" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="443" priority="533" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A755)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="446" priority="534" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="442" priority="534" operator="beginsWith" text="#">
       <formula>LEFT(A755,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758:A759">
-    <cfRule type="containsText" dxfId="445" priority="527" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="441" priority="527" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A758)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="444" priority="528" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="440" priority="528" operator="beginsWith" text="#">
       <formula>LEFT(A758,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="containsText" dxfId="443" priority="517" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="439" priority="517" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A760)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="442" priority="518" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="438" priority="518" operator="beginsWith" text="#">
       <formula>LEFT(A760,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A538">
-    <cfRule type="containsText" dxfId="441" priority="513" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="437" priority="513" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A538)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="514" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="436" priority="514" operator="beginsWith" text="#">
       <formula>LEFT(A538,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A673">
-    <cfRule type="containsText" dxfId="439" priority="483" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="435" priority="483" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A673)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="438" priority="484" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="434" priority="484" operator="beginsWith" text="#">
       <formula>LEFT(A673,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="437" priority="481" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="433" priority="481" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="482" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="432" priority="482" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="435" priority="479" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="431" priority="479" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="480" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="430" priority="480" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A49">
-    <cfRule type="containsText" dxfId="433" priority="477" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="429" priority="477" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="478" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="428" priority="478" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A704">
-    <cfRule type="containsText" dxfId="431" priority="457" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="427" priority="457" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A704)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="430" priority="458" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="426" priority="458" operator="beginsWith" text="#">
       <formula>LEFT(A704,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A676">
-    <cfRule type="containsText" dxfId="429" priority="463" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="425" priority="463" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A676)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="464" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="424" priority="464" operator="beginsWith" text="#">
       <formula>LEFT(A676,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A682">
-    <cfRule type="containsText" dxfId="427" priority="459" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="423" priority="459" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A682)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="460" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="422" priority="460" operator="beginsWith" text="#">
       <formula>LEFT(A682,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A687">
-    <cfRule type="containsText" dxfId="425" priority="455" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="421" priority="455" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A687)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="456" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="420" priority="456" operator="beginsWith" text="#">
       <formula>LEFT(A687,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A487">
-    <cfRule type="containsText" dxfId="423" priority="453" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="419" priority="453" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A487)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="422" priority="454" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="418" priority="454" operator="beginsWith" text="#">
       <formula>LEFT(A487,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A489">
-    <cfRule type="containsText" dxfId="421" priority="443" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="417" priority="443" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A489)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="444" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="416" priority="444" operator="beginsWith" text="#">
       <formula>LEFT(A489,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A761">
-    <cfRule type="containsText" dxfId="419" priority="441" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="415" priority="441" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A761)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="442" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="414" priority="442" operator="beginsWith" text="#">
       <formula>LEFT(A761,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90 A100:A102">
-    <cfRule type="containsText" dxfId="417" priority="251" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="413" priority="251" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="252" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="412" priority="252" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A109">
-    <cfRule type="containsText" dxfId="415" priority="253" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="411" priority="253" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="414" priority="254" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="410" priority="254" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="413" priority="255" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="409" priority="255" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="412" priority="256" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="408" priority="256" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127 A114">
-    <cfRule type="containsText" dxfId="411" priority="257" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="407" priority="257" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="258" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="406" priority="258" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:A133 A129">
-    <cfRule type="containsText" dxfId="409" priority="259" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="405" priority="259" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="408" priority="260" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="404" priority="260" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="containsText" dxfId="407" priority="261" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="403" priority="261" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="406" priority="262" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="402" priority="262" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="containsText" dxfId="405" priority="263" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="401" priority="263" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="404" priority="264" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="400" priority="264" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="containsText" dxfId="403" priority="265" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="399" priority="265" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="266" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="398" priority="266" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="401" priority="267" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="397" priority="267" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="268" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="396" priority="268" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139">
-    <cfRule type="containsText" dxfId="399" priority="269" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="395" priority="269" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="398" priority="270" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="394" priority="270" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138 A149">
-    <cfRule type="containsText" dxfId="397" priority="271" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="393" priority="271" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="272" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="392" priority="272" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="containsText" dxfId="395" priority="273" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="391" priority="273" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="274" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="390" priority="274" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="containsText" dxfId="393" priority="275" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="389" priority="275" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="392" priority="276" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="388" priority="276" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A495">
-    <cfRule type="containsText" dxfId="391" priority="197" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="387" priority="197" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A495)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="390" priority="198" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="386" priority="198" operator="beginsWith" text="#">
       <formula>LEFT(A495,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A496">
-    <cfRule type="containsText" dxfId="389" priority="195" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="385" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A496)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="196" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="384" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(A496,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A526">
-    <cfRule type="containsText" dxfId="387" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="383" priority="193" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A526)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="386" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="382" priority="194" operator="beginsWith" text="#">
       <formula>LEFT(A526,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A776">
-    <cfRule type="containsText" dxfId="385" priority="191" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="381" priority="191" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A776)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="384" priority="192" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="380" priority="192" operator="beginsWith" text="#">
       <formula>LEFT(A776,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A86">
-    <cfRule type="containsText" dxfId="383" priority="1383" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="379" priority="1383" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="382" priority="1384" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="378" priority="1384" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791">
-    <cfRule type="containsText" dxfId="381" priority="183" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="377" priority="183" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A791)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="380" priority="184" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="376" priority="184" operator="beginsWith" text="#">
       <formula>LEFT(A791,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A793">
-    <cfRule type="containsText" dxfId="379" priority="179" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="375" priority="179" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A793)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="378" priority="180" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="374" priority="180" operator="beginsWith" text="#">
       <formula>LEFT(A793,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A792">
-    <cfRule type="containsText" dxfId="377" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="373" priority="181" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A792)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="372" priority="182" operator="beginsWith" text="#">
       <formula>LEFT(A792,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A795">
-    <cfRule type="containsText" dxfId="375" priority="177" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="371" priority="177" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A795)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="374" priority="178" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="370" priority="178" operator="beginsWith" text="#">
       <formula>LEFT(A795,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A799:A802">
-    <cfRule type="containsText" dxfId="373" priority="169" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="369" priority="169" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="170" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="368" priority="170" operator="beginsWith" text="#">
       <formula>LEFT(A799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A800">
-    <cfRule type="containsText" dxfId="371" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="367" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="366" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(A800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801">
-    <cfRule type="containsText" dxfId="369" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="365" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A801)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="364" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A801,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A802">
-    <cfRule type="containsText" dxfId="367" priority="163" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="363" priority="163" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A802)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="366" priority="164" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="362" priority="164" operator="beginsWith" text="#">
       <formula>LEFT(A802,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796">
-    <cfRule type="containsText" dxfId="365" priority="161" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="361" priority="161" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="162" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="360" priority="162" operator="beginsWith" text="#">
       <formula>LEFT(A796,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A675">
-    <cfRule type="containsText" dxfId="363" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="359" priority="157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A675)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="358" priority="158" operator="beginsWith" text="#">
       <formula>LEFT(A675,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341">
-    <cfRule type="containsText" dxfId="361" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="357" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A341)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="356" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A341,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A339">
-    <cfRule type="containsText" dxfId="359" priority="151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="355" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A339)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="358" priority="152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="354" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A339,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A340">
-    <cfRule type="containsText" dxfId="357" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="353" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A340)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="352" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A340,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A342">
-    <cfRule type="containsText" dxfId="355" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="351" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A342)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="350" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A342,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343">
-    <cfRule type="containsText" dxfId="353" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="349" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A343)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="348" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A343,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A344">
-    <cfRule type="containsText" dxfId="351" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="347" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A344)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="350" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="346" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A344,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345">
-    <cfRule type="containsText" dxfId="349" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="345" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A345)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="348" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="344" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A345,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A346">
-    <cfRule type="containsText" dxfId="347" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="343" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A346)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="342" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A346,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A347">
-    <cfRule type="containsText" dxfId="345" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="341" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A347)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="344" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="340" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A347,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A349">
-    <cfRule type="containsText" dxfId="343" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="339" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A349)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="342" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="338" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A349,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A350">
-    <cfRule type="containsText" dxfId="341" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="337" priority="129" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A350)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="340" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="336" priority="130" operator="beginsWith" text="#">
       <formula>LEFT(A350,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A351">
-    <cfRule type="containsText" dxfId="339" priority="127" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="335" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A351)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="128" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="334" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A351,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A352">
-    <cfRule type="containsText" dxfId="337" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="333" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A352)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="332" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A352,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A353">
-    <cfRule type="containsText" dxfId="335" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="331" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A353)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="334" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="330" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(A353,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A354">
-    <cfRule type="containsText" dxfId="333" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="329" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A354)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="328" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A354,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A355">
-    <cfRule type="containsText" dxfId="331" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="327" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A355)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="326" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A355,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363:A369">
-    <cfRule type="containsText" dxfId="329" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="325" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A363)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="328" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="324" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A363,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A361">
-    <cfRule type="containsText" dxfId="327" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="323" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A361)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="326" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="322" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A361,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A370 A374:A377">
-    <cfRule type="containsText" dxfId="325" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="321" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A370)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="320" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A370,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A382">
-    <cfRule type="containsText" dxfId="323" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="319" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A382)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="318" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A382,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A393">
-    <cfRule type="containsText" dxfId="321" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="317" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A393)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="316" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A393,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A356">
-    <cfRule type="containsText" dxfId="319" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="315" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A356)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="318" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="314" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A356,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A388">
-    <cfRule type="containsText" dxfId="317" priority="105" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="313" priority="105" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A388)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="316" priority="106" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="312" priority="106" operator="beginsWith" text="#">
       <formula>LEFT(A388,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A389">
-    <cfRule type="containsText" dxfId="315" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="311" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A389)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="314" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="310" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A389,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A390">
-    <cfRule type="containsText" dxfId="313" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="309" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A390)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="312" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="308" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A390,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A391">
-    <cfRule type="containsText" dxfId="311" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="307" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A391)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="310" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="306" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A391,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A392">
-    <cfRule type="containsText" dxfId="309" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="305" priority="97" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A392)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="308" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="304" priority="98" operator="beginsWith" text="#">
       <formula>LEFT(A392,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A394">
-    <cfRule type="containsText" dxfId="307" priority="95" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="303" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A394)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="306" priority="96" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="302" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A394,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A395">
-    <cfRule type="containsText" dxfId="305" priority="93" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="301" priority="93" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A395)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="304" priority="94" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="300" priority="94" operator="beginsWith" text="#">
       <formula>LEFT(A395,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A435">
-    <cfRule type="containsText" dxfId="303" priority="91" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="299" priority="91" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A435)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="302" priority="92" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="298" priority="92" operator="beginsWith" text="#">
       <formula>LEFT(A435,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A396">
-    <cfRule type="containsText" dxfId="301" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="297" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A396)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="300" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="296" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(A396,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A397:A404">
-    <cfRule type="containsText" dxfId="299" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="295" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A397)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="298" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="294" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(A397,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A408">
-    <cfRule type="containsText" dxfId="297" priority="77" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="293" priority="77" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A408)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="296" priority="78" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="292" priority="78" operator="beginsWith" text="#">
       <formula>LEFT(A408,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A406">
-    <cfRule type="containsText" dxfId="295" priority="83" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="291" priority="83" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A406)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="294" priority="84" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="290" priority="84" operator="beginsWith" text="#">
       <formula>LEFT(A406,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A405">
-    <cfRule type="containsText" dxfId="293" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="289" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A405)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="292" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="288" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(A405,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A407">
-    <cfRule type="containsText" dxfId="291" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="287" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A407)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="290" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="286" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(A407,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A409">
-    <cfRule type="containsText" dxfId="289" priority="75" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="285" priority="75" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A409)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="288" priority="76" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="284" priority="76" operator="beginsWith" text="#">
       <formula>LEFT(A409,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762">
-    <cfRule type="containsText" dxfId="287" priority="69" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="283" priority="69" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A762)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="286" priority="70" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="282" priority="70" operator="beginsWith" text="#">
       <formula>LEFT(A762,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A763">
-    <cfRule type="containsText" dxfId="285" priority="67" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="281" priority="67" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A763)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="284" priority="68" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="280" priority="68" operator="beginsWith" text="#">
       <formula>LEFT(A763,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A348">
-    <cfRule type="containsText" dxfId="283" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="279" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A348)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="282" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="278" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A348,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A479">
-    <cfRule type="containsText" dxfId="281" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="277" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A479)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="280" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="276" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A479,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A480">
-    <cfRule type="containsText" dxfId="279" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="275" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A480)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="278" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="274" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A480,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A481">
-    <cfRule type="containsText" dxfId="277" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="273" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A481)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="272" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(A481,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A518">
-    <cfRule type="containsText" dxfId="275" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="271" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A518)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="274" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="270" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A518,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A514">
-    <cfRule type="containsText" dxfId="273" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="269" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A514)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="272" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="268" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A514,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A797">
-    <cfRule type="containsText" dxfId="271" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="267" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A797)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="270" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="266" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A797,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764">
-    <cfRule type="containsText" dxfId="269" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="265" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A764)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="264" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A764,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A238">
-    <cfRule type="containsText" dxfId="267" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="263" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A238)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="262" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A238,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798">
-    <cfRule type="containsText" dxfId="265" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="261" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="264" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="260" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:A164 A166:A237">
-    <cfRule type="containsText" dxfId="263" priority="361" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="259" priority="361" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="262" priority="362" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="258" priority="362" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150 A152 A142 A144:A148 A61 A63:A64 A67:A75 A77:A78 A82:A84 A54 A56:A59">
-    <cfRule type="containsText" dxfId="261" priority="249" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="257" priority="249" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="260" priority="250" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="256" priority="250" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="259" priority="1397" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="255" priority="1397" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="258" priority="1398" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="254" priority="1398" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:A137 A140 A115:A126 A97:A98 A89 A87 A91:A95">
-    <cfRule type="containsText" dxfId="257" priority="1679" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="253" priority="1679" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="256" priority="1680" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="252" priority="1680" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110 A103:A104 A106:A107">
-    <cfRule type="containsText" dxfId="255" priority="1739" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="251" priority="1739" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="254" priority="1740" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="250" priority="1740" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="253" priority="1801" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="249" priority="1801" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="252" priority="1802" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="248" priority="1802" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="containsText" dxfId="251" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="247" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="250" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="246" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="containsText" dxfId="249" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="245" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="248" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="244" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A765">
-    <cfRule type="containsText" dxfId="247" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="243" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="246" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="242" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A766">
-    <cfRule type="containsText" dxfId="245" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="241" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="244" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="240" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A803">
-    <cfRule type="containsText" dxfId="243" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="239" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A803)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="238" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A803,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804">
-    <cfRule type="containsText" dxfId="241" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="237" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="240" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="236" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B808:B816">
-    <cfRule type="containsText" dxfId="239" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="235" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B802)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="238" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="234" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(B802,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B805">
-    <cfRule type="containsText" dxfId="237" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="233" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="236" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="232" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(B799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A805">
-    <cfRule type="containsText" dxfId="235" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="231" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="234" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="230" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A805,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A806">
-    <cfRule type="containsText" dxfId="233" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="229" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A806)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="232" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="228" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A806,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B806">
-    <cfRule type="containsText" dxfId="231" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="227" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="230" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="226" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(B800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807">
-    <cfRule type="containsText" dxfId="229" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="225" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A807)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="228" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="224" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A807,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B807">
-    <cfRule type="containsText" dxfId="227" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="223" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B801)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="226" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="222" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(B801,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A808:A816">
-    <cfRule type="containsText" dxfId="225" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="221" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A808)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="224" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="220" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A808,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B817">
-    <cfRule type="containsText" dxfId="209" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="219" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B782)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="208" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="218" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(B782,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A817">
-    <cfRule type="containsText" dxfId="207" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="217" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A788)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="206" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="216" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A788,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35831,7 +35845,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A519 A76</xm:sqref>
+          <xm:sqref>A76 A519:A520</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2317" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
@@ -35885,32 +35899,6 @@
           </x14:cfRule>
           <xm:sqref>A497</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" text="......" id="{E76B3BA0-7902-466D-B05A-4A54E0C3BFDE}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A623)))</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2" operator="beginsWith" text="#" id="{CD79681F-7D52-414F-92A8-8E20BE91155C}">
-            <xm:f>LEFT(ServoDyn!A623,LEN("#"))="#"</xm:f>
-            <x14:dxf>
-              <font>
-                <u val="none"/>
-              </font>
-              <numFmt numFmtId="30" formatCode="@"/>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A520</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -35922,8 +35910,8 @@
   <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37788,516 +37776,516 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="6" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>1754</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>1755</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="6" t="s">
+      <c r="D76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>1777</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>1757</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="6" t="s">
+      <c r="F77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>1778</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>1758</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="6" t="s">
+      <c r="D78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>1759</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="6" t="s">
+      <c r="D79" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>1760</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="6" t="s">
+      <c r="D80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>1761</v>
-      </c>
-      <c r="J81" s="6" t="s">
+      <c r="D81" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J81" s="5" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="6" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>1762</v>
-      </c>
-      <c r="J82" s="6" t="s">
+      <c r="D82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J82" s="5" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="6" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>1765</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="6" t="s">
+      <c r="D83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>1782</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>1763</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="D84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>1766</v>
+      <c r="D85" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>1822</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B86" s="6" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>1783</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>1767</v>
+      <c r="D86" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>1825</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="6" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>1784</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>1768</v>
+      <c r="D87" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>1823</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="6" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>1785</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>1769</v>
+      <c r="D88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>1824</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="6" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>1770</v>
+      <c r="D89" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>1826</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>1771</v>
+      <c r="D90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>1828</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="91" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="6" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>1788</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>1772</v>
+      <c r="D91" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>1829</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>1181</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="92" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43400,466 +43388,466 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A13 A18 A232:A236 A273:A278 A108:A112 A141:A167 A280:A282 A285 A287:A1048576 A170:A196 A131:A134 A101:A104 A114:A127">
-    <cfRule type="containsText" dxfId="203" priority="299" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="201" priority="299" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="202" priority="300" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="200" priority="300" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="201" priority="291" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="199" priority="291" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="200" priority="292" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="198" priority="292" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="199" priority="289" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="197" priority="289" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="290" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="196" priority="290" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="containsText" dxfId="197" priority="287" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="195" priority="287" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="288" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="194" priority="288" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="195" priority="285" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="193" priority="285" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="286" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="192" priority="286" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204">
-    <cfRule type="containsText" dxfId="193" priority="213" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="191" priority="213" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A204)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="192" priority="214" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="190" priority="214" operator="beginsWith" text="#">
       <formula>LEFT(A204,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169">
-    <cfRule type="containsText" dxfId="191" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="189" priority="203" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A169)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="188" priority="204" operator="beginsWith" text="#">
       <formula>LEFT(A169,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="containsText" dxfId="189" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="187" priority="193" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A105)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="188" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="186" priority="194" operator="beginsWith" text="#">
       <formula>LEFT(A105,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="containsText" dxfId="187" priority="171" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="185" priority="171" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A205)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="186" priority="172" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="184" priority="172" operator="beginsWith" text="#">
       <formula>LEFT(A205,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A231">
-    <cfRule type="containsText" dxfId="185" priority="155" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="183" priority="155" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A231)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="184" priority="156" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="182" priority="156" operator="beginsWith" text="#">
       <formula>LEFT(A231,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="183" priority="191" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="181" priority="191" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="192" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="180" priority="192" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A58">
-    <cfRule type="containsText" dxfId="181" priority="1099" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="179" priority="1099" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="1100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="178" priority="1100" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A43">
-    <cfRule type="containsText" dxfId="179" priority="1149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="177" priority="1149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="1150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="176" priority="1150" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="containsText" dxfId="177" priority="1319" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="175" priority="1319" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="1320" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="174" priority="1320" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A63">
-    <cfRule type="containsText" dxfId="175" priority="1489" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="173" priority="1489" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="1490" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="172" priority="1490" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="containsText" dxfId="173" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="171" priority="157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="170" priority="158" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="containsText" dxfId="171" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="169" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A279)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="168" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A279,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A238">
-    <cfRule type="containsText" dxfId="169" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="167" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A238)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="166" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A238,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="containsText" dxfId="167" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="165" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A267)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="164" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A267,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="containsText" dxfId="165" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="163" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A128)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="162" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A128,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="containsText" dxfId="163" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="161" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A129)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="160" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A129,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="161" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="159" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A130)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="158" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(A130,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242:A243">
-    <cfRule type="containsText" dxfId="159" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="157" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="156" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A242,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198">
-    <cfRule type="containsText" dxfId="157" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="155" priority="129" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="156" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="154" priority="130" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="containsText" dxfId="155" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="153" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="152" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="containsText" dxfId="153" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="151" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A244)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="152" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="150" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A244,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="151" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="149" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="148" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
-    <cfRule type="containsText" dxfId="149" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="147" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="146" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A247,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245">
-    <cfRule type="containsText" dxfId="147" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="145" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A245)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="144" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A245,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="containsText" dxfId="145" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="143" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A246)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="142" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A246,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="containsText" dxfId="143" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="141" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="142" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="140" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A241,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A283">
-    <cfRule type="containsText" dxfId="141" priority="105" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="139" priority="105" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A283)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="106" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="138" priority="106" operator="beginsWith" text="#">
       <formula>LEFT(A283,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="139" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="137" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A202)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="136" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A202,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A203">
-    <cfRule type="containsText" dxfId="137" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="135" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A203)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="136" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="134" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A203,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="containsText" dxfId="135" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="133" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="132" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="containsText" dxfId="133" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="131" priority="97" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="130" priority="98" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239">
-    <cfRule type="containsText" dxfId="131" priority="93" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="129" priority="93" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A239)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="94" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="128" priority="94" operator="beginsWith" text="#">
       <formula>LEFT(A239,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A248">
-    <cfRule type="containsText" dxfId="129" priority="91" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="127" priority="91" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A248)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="128" priority="92" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="126" priority="92" operator="beginsWith" text="#">
       <formula>LEFT(A248,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="containsText" dxfId="127" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="125" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A249)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="126" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="124" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(A249,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250">
-    <cfRule type="containsText" dxfId="125" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="123" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A250)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="124" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="122" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(A250,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199:A201 A66:A67 A69">
-    <cfRule type="containsText" dxfId="123" priority="185" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="121" priority="185" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="122" priority="186" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="120" priority="186" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="containsText" dxfId="121" priority="2113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="119" priority="2113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="120" priority="2114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="118" priority="2114" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="containsText" dxfId="119" priority="2225" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="117" priority="2225" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="118" priority="2226" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="116" priority="2226" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="containsText" dxfId="117" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="115" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A68)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="116" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="114" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(A68,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="containsText" dxfId="115" priority="75" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="113" priority="75" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="114" priority="76" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="112" priority="76" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="containsText" dxfId="113" priority="71" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="111" priority="71" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A93)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="112" priority="72" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="110" priority="72" operator="beginsWith" text="#">
       <formula>LEFT(A93,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="containsText" dxfId="111" priority="69" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="109" priority="69" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="70" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="108" priority="70" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A210">
-    <cfRule type="containsText" dxfId="93" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="107" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A210)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="92" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="106" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A210,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="containsText" dxfId="91" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="105" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A95)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="104" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A95,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="containsText" dxfId="89" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="103" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A237)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="102" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A237,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="85" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="101" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A96)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="84" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="100" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A96,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="containsText" dxfId="83" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A97)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="82" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="98" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A97,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="97" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="80" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="96" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A98,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="79" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="95" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A99)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="78" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="94" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A99,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="containsText" dxfId="77" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="93" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A100)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="76" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="92" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A100,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="containsText" dxfId="75" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="91" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A268)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="90" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A268,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:A272">
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A269)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="72" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="88" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A269,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A113)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="86" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A113,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45331,266 +45319,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="71" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="70" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="66" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="68" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="64" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="67" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="62" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A22">
-    <cfRule type="containsText" dxfId="65" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="60" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="62" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="58" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="61" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="56" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="59" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A23)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="54" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A23,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="57" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A26)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="52" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A26,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="55" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="50" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A27,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A29)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="48" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A29,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="46" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A28,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="44" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A30,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="47" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="42" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A31,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="40" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A32,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="38" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A33,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="36" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A34,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A35)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="34" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A35,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A36)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="32" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A36,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A37)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="30" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A37,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="32" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="28" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="26" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="24" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="22" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="20" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="18" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A44)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="16" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A44,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="14" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="12" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="10" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A48)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A48,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A52:A53">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A50)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A50,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A54)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="4" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A54,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A51)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A51,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="14880" windowHeight="7605" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="14880" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9836" uniqueCount="1830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9836" uniqueCount="1834">
   <si>
     <t>###################################################################################################################################</t>
   </si>
@@ -5633,6 +5633,18 @@
   </si>
   <si>
     <t>"Records R+1:2:R+2*DLL_NumTrq-1: Generator torque values in look-up table [used only with DLL Interface]"</t>
+  </si>
+  <si>
+    <t>"Platform reference point positions/orientations/velocities/accelerations"</t>
+  </si>
+  <si>
+    <t>PlatformPtMesh</t>
+  </si>
+  <si>
+    <t># Define inputs that are not on a mesh here:</t>
+  </si>
+  <si>
+    <t>"The surge/xi (1), sway/yi (2), and heave/zi (3)-components of the portion of the platform force at the platform reference (point Z) and the roll/xi (1), pitch/yi (2), and yaw/zi (3)-components of the portion of the platform moment acting at the platform (body X) / platform reference (point Z) associated with everything but the QD2T()s"</t>
   </si>
 </sst>
 </file>
@@ -5820,7 +5832,75 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="556">
+  <dxfs count="564">
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <u val="none"/>
@@ -11461,10 +11541,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="555" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="563" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="554" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="562" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11476,9 +11556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K817"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A771" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D780" sqref="D780"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A764" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D772" sqref="D772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32972,41 +33052,41 @@
       </c>
       <c r="I769" s="12"/>
     </row>
-    <row r="770" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A770" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B770" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C770" s="3" t="s">
+    <row r="770" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A770" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B770" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C770" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D770" s="3" t="s">
+      <c r="D770" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E770" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F770" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G770" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H770" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I770" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J770" s="3" t="s">
-        <v>26</v>
+      <c r="E770" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F770" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G770" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H770" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I770" s="10" t="s">
+        <v>1833</v>
+      </c>
+      <c r="J770" s="17" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="771" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A771" s="3" t="s">
-        <v>18</v>
+        <v>1832</v>
       </c>
       <c r="I771" s="12"/>
     </row>
@@ -33105,7 +33185,7 @@
     </row>
     <row r="775" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A775" s="5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B775" s="5" t="s">
         <v>27</v>
@@ -33393,35 +33473,35 @@
       </c>
       <c r="I786" s="12"/>
     </row>
-    <row r="787" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A787" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B787" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C787" s="3" t="s">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A787" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B787" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C787" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D787" s="3" t="s">
+      <c r="D787" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E787" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F787" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G787" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H787" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I787" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J787" s="3" t="s">
+      <c r="E787" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F787" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G787" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H787" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I787" s="10" t="s">
+        <v>1830</v>
+      </c>
+      <c r="J787" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -34360,1356 +34440,1372 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A243:A299 A503:A511 A315 A306 A532:A533 A639:A672 A516 A1:A12 A51 A20:A39 A688:A703 A683:A686 A705:A711 A677:A681 A488 A490:A494 A239:A241 A498:A501 A527 A521:A525 A818:A1048576 A768:A773 A329:A338 A357:A360 A371:A373 A384:A387 A782:A790 A547:A637 A410:A434 A436:A443 A482:A486 A445:A478 A378:A381">
-    <cfRule type="containsText" dxfId="553" priority="799" operator="containsText" text="......">
+  <conditionalFormatting sqref="A243:A299 A503:A511 A315 A306 A532:A533 A639:A672 A516 A1:A12 A51 A20:A39 A688:A703 A683:A686 A705:A711 A677:A681 A488 A490:A494 A239:A241 A498:A501 A527 A521:A525 A818:A1048576 A768:A769 A329:A338 A357:A360 A371:A373 A384:A387 A782:A786 A547:A637 A410:A434 A436:A443 A482:A486 A445:A478 A378:A381 A788:A790 A771:A773">
+    <cfRule type="containsText" dxfId="561" priority="803" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="552" priority="800" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="560" priority="804" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="containsText" dxfId="551" priority="787" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="559" priority="791" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="550" priority="788" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="558" priority="792" operator="beginsWith" text="#">
       <formula>LEFT(A242,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17">
-    <cfRule type="containsText" dxfId="549" priority="781" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="557" priority="785" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="548" priority="782" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="556" priority="786" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A53">
-    <cfRule type="containsText" dxfId="547" priority="777" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="555" priority="781" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A52)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="546" priority="778" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="554" priority="782" operator="beginsWith" text="#">
       <formula>LEFT(A52,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="containsText" dxfId="545" priority="775" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="553" priority="779" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A13)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="544" priority="776" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="552" priority="780" operator="beginsWith" text="#">
       <formula>LEFT(A13,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A529">
-    <cfRule type="containsText" dxfId="543" priority="771" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="551" priority="775" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A529)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="542" priority="772" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="550" priority="776" operator="beginsWith" text="#">
       <formula>LEFT(A529,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A528">
-    <cfRule type="containsText" dxfId="541" priority="773" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="549" priority="777" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A528)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="540" priority="774" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="548" priority="778" operator="beginsWith" text="#">
       <formula>LEFT(A528,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A541">
-    <cfRule type="containsText" dxfId="539" priority="769" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="547" priority="773" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A541)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="538" priority="770" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="546" priority="774" operator="beginsWith" text="#">
       <formula>LEFT(A541,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A542">
-    <cfRule type="containsText" dxfId="537" priority="767" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="545" priority="771" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A542)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="536" priority="768" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="544" priority="772" operator="beginsWith" text="#">
       <formula>LEFT(A542,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A539">
-    <cfRule type="containsText" dxfId="535" priority="765" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="543" priority="769" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A539)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="534" priority="766" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="542" priority="770" operator="beginsWith" text="#">
       <formula>LEFT(A539,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A540">
-    <cfRule type="containsText" dxfId="533" priority="763" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="541" priority="767" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A540)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="532" priority="764" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="540" priority="768" operator="beginsWith" text="#">
       <formula>LEFT(A540,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A543">
-    <cfRule type="containsText" dxfId="531" priority="759" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="539" priority="763" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A543)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="530" priority="760" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="538" priority="764" operator="beginsWith" text="#">
       <formula>LEFT(A543,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A502">
-    <cfRule type="containsText" dxfId="529" priority="755" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="537" priority="759" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A502)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="528" priority="756" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="536" priority="760" operator="beginsWith" text="#">
       <formula>LEFT(A502,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A530">
-    <cfRule type="containsText" dxfId="527" priority="753" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="535" priority="757" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A530)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="526" priority="754" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="534" priority="758" operator="beginsWith" text="#">
       <formula>LEFT(A530,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A544">
-    <cfRule type="containsText" dxfId="525" priority="751" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="533" priority="755" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A544)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="524" priority="752" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="532" priority="756" operator="beginsWith" text="#">
       <formula>LEFT(A544,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A638">
-    <cfRule type="containsText" dxfId="523" priority="749" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="531" priority="753" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A638)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="522" priority="750" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="530" priority="754" operator="beginsWith" text="#">
       <formula>LEFT(A638,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A531">
-    <cfRule type="containsText" dxfId="521" priority="743" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="529" priority="747" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A531)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="520" priority="744" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="528" priority="748" operator="beginsWith" text="#">
       <formula>LEFT(A531,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300:A302">
-    <cfRule type="containsText" dxfId="519" priority="741" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="527" priority="745" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A300)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="518" priority="742" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="526" priority="746" operator="beginsWith" text="#">
       <formula>LEFT(A300,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303">
-    <cfRule type="containsText" dxfId="517" priority="737" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="525" priority="741" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A303)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="516" priority="738" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="524" priority="742" operator="beginsWith" text="#">
       <formula>LEFT(A303,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304:A305 A307:A312">
-    <cfRule type="containsText" dxfId="515" priority="735" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="523" priority="739" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A304)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="514" priority="736" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="522" priority="740" operator="beginsWith" text="#">
       <formula>LEFT(A304,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A313:A314 A316:A322 A535">
-    <cfRule type="containsText" dxfId="513" priority="733" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="521" priority="737" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A313)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="512" priority="734" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="520" priority="738" operator="beginsWith" text="#">
       <formula>LEFT(A313,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A534">
-    <cfRule type="containsText" dxfId="511" priority="689" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="519" priority="693" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A534)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="510" priority="690" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="518" priority="694" operator="beginsWith" text="#">
       <formula>LEFT(A534,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A324">
-    <cfRule type="containsText" dxfId="509" priority="677" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="517" priority="681" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A324)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="508" priority="678" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="516" priority="682" operator="beginsWith" text="#">
       <formula>LEFT(A324,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A323">
-    <cfRule type="containsText" dxfId="507" priority="679" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="515" priority="683" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A323)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="506" priority="680" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="514" priority="684" operator="beginsWith" text="#">
       <formula>LEFT(A323,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A536">
-    <cfRule type="containsText" dxfId="505" priority="675" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="513" priority="679" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A536)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="504" priority="676" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="512" priority="680" operator="beginsWith" text="#">
       <formula>LEFT(A536,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A537">
-    <cfRule type="containsText" dxfId="503" priority="673" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="511" priority="677" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A537)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="502" priority="674" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="510" priority="678" operator="beginsWith" text="#">
       <formula>LEFT(A537,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A325:A326">
-    <cfRule type="containsText" dxfId="501" priority="671" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="509" priority="675" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A325)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="500" priority="672" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="508" priority="676" operator="beginsWith" text="#">
       <formula>LEFT(A325,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A546">
-    <cfRule type="containsText" dxfId="499" priority="663" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="507" priority="667" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A546)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="498" priority="664" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="506" priority="668" operator="beginsWith" text="#">
       <formula>LEFT(A546,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A545">
-    <cfRule type="containsText" dxfId="497" priority="665" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="505" priority="669" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A545)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="496" priority="666" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="504" priority="670" operator="beginsWith" text="#">
       <formula>LEFT(A545,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A674">
-    <cfRule type="containsText" dxfId="495" priority="633" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="503" priority="637" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A674)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="494" priority="634" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="502" priority="638" operator="beginsWith" text="#">
       <formula>LEFT(A674,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A327:A328 A362">
-    <cfRule type="containsText" dxfId="493" priority="629" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="501" priority="633" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A327)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="492" priority="630" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="500" priority="634" operator="beginsWith" text="#">
       <formula>LEFT(A327,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A383">
-    <cfRule type="containsText" dxfId="491" priority="627" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="499" priority="631" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A383)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="490" priority="628" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="498" priority="632" operator="beginsWith" text="#">
       <formula>LEFT(A383,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A512:A513">
-    <cfRule type="containsText" dxfId="489" priority="623" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="497" priority="627" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A512)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="488" priority="624" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="496" priority="628" operator="beginsWith" text="#">
       <formula>LEFT(A512,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A515">
-    <cfRule type="containsText" dxfId="487" priority="621" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="495" priority="625" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A515)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="486" priority="622" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="494" priority="626" operator="beginsWith" text="#">
       <formula>LEFT(A515,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="485" priority="595" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="493" priority="599" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="484" priority="596" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="492" priority="600" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="483" priority="593" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="491" priority="597" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="594" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="490" priority="598" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="481" priority="585" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="489" priority="589" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="480" priority="586" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="488" priority="590" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="479" priority="583" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="487" priority="587" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="478" priority="584" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="486" priority="588" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="477" priority="581" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="485" priority="585" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="476" priority="582" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="484" priority="586" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="475" priority="579" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="483" priority="583" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="580" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="482" priority="584" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A712">
-    <cfRule type="containsText" dxfId="473" priority="577" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="481" priority="581" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A712)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="472" priority="578" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="480" priority="582" operator="beginsWith" text="#">
       <formula>LEFT(A712,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A713">
-    <cfRule type="containsText" dxfId="471" priority="575" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="479" priority="579" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A713)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="470" priority="576" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="478" priority="580" operator="beginsWith" text="#">
       <formula>LEFT(A713,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A714">
-    <cfRule type="containsText" dxfId="469" priority="573" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="477" priority="577" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A714)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="574" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="476" priority="578" operator="beginsWith" text="#">
       <formula>LEFT(A714,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="containsText" dxfId="467" priority="571" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="475" priority="575" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A767)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="572" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="474" priority="576" operator="beginsWith" text="#">
       <formula>LEFT(A767,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A716:A719">
-    <cfRule type="containsText" dxfId="465" priority="567" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="473" priority="571" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A716)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="568" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="472" priority="572" operator="beginsWith" text="#">
       <formula>LEFT(A716,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A715">
-    <cfRule type="containsText" dxfId="463" priority="563" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="471" priority="567" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A715)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="462" priority="564" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="470" priority="568" operator="beginsWith" text="#">
       <formula>LEFT(A715,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A720:A727">
-    <cfRule type="containsText" dxfId="461" priority="557" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="469" priority="561" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A720)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="558" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="468" priority="562" operator="beginsWith" text="#">
       <formula>LEFT(A720,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A728:A738">
-    <cfRule type="containsText" dxfId="459" priority="551" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="467" priority="555" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A728)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="552" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="466" priority="556" operator="beginsWith" text="#">
       <formula>LEFT(A728,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A739">
-    <cfRule type="containsText" dxfId="457" priority="553" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="465" priority="557" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A739)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="456" priority="554" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="464" priority="558" operator="beginsWith" text="#">
       <formula>LEFT(A739,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A740:A750">
-    <cfRule type="containsText" dxfId="455" priority="545" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="463" priority="549" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A740)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="454" priority="546" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="462" priority="550" operator="beginsWith" text="#">
       <formula>LEFT(A740,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A751">
-    <cfRule type="containsText" dxfId="453" priority="547" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="461" priority="551" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A751)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="548" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="460" priority="552" operator="beginsWith" text="#">
       <formula>LEFT(A751,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A752">
-    <cfRule type="containsText" dxfId="451" priority="541" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="459" priority="545" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A752)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="450" priority="542" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="458" priority="546" operator="beginsWith" text="#">
       <formula>LEFT(A752,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A756:A757">
-    <cfRule type="containsText" dxfId="449" priority="531" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="457" priority="535" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A756)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="448" priority="532" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="456" priority="536" operator="beginsWith" text="#">
       <formula>LEFT(A756,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A753">
-    <cfRule type="containsText" dxfId="447" priority="537" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="455" priority="541" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A753)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="446" priority="538" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="454" priority="542" operator="beginsWith" text="#">
       <formula>LEFT(A753,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A754">
-    <cfRule type="containsText" dxfId="445" priority="535" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="453" priority="539" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A754)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="444" priority="536" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="452" priority="540" operator="beginsWith" text="#">
       <formula>LEFT(A754,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="containsText" dxfId="443" priority="533" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="451" priority="537" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A755)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="442" priority="534" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="450" priority="538" operator="beginsWith" text="#">
       <formula>LEFT(A755,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758:A759">
-    <cfRule type="containsText" dxfId="441" priority="527" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="449" priority="531" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A758)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="528" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="448" priority="532" operator="beginsWith" text="#">
       <formula>LEFT(A758,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="containsText" dxfId="439" priority="517" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="447" priority="521" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A760)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="438" priority="518" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="446" priority="522" operator="beginsWith" text="#">
       <formula>LEFT(A760,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A538">
-    <cfRule type="containsText" dxfId="437" priority="513" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="445" priority="517" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A538)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="514" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="444" priority="518" operator="beginsWith" text="#">
       <formula>LEFT(A538,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A673">
-    <cfRule type="containsText" dxfId="435" priority="483" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="443" priority="487" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A673)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="484" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="442" priority="488" operator="beginsWith" text="#">
       <formula>LEFT(A673,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="433" priority="481" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="441" priority="485" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="482" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="440" priority="486" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="431" priority="479" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="439" priority="483" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="430" priority="480" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="438" priority="484" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A49">
-    <cfRule type="containsText" dxfId="429" priority="477" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="437" priority="481" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="478" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="436" priority="482" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A704">
-    <cfRule type="containsText" dxfId="427" priority="457" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="435" priority="461" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A704)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="458" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="434" priority="462" operator="beginsWith" text="#">
       <formula>LEFT(A704,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A676">
-    <cfRule type="containsText" dxfId="425" priority="463" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="433" priority="467" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A676)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="464" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="432" priority="468" operator="beginsWith" text="#">
       <formula>LEFT(A676,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A682">
-    <cfRule type="containsText" dxfId="423" priority="459" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="431" priority="463" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A682)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="422" priority="460" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="430" priority="464" operator="beginsWith" text="#">
       <formula>LEFT(A682,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A687">
-    <cfRule type="containsText" dxfId="421" priority="455" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="429" priority="459" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A687)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="456" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="428" priority="460" operator="beginsWith" text="#">
       <formula>LEFT(A687,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A487">
-    <cfRule type="containsText" dxfId="419" priority="453" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="427" priority="457" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A487)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="454" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="426" priority="458" operator="beginsWith" text="#">
       <formula>LEFT(A487,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A489">
-    <cfRule type="containsText" dxfId="417" priority="443" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="425" priority="447" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A489)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="444" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="424" priority="448" operator="beginsWith" text="#">
       <formula>LEFT(A489,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A761">
-    <cfRule type="containsText" dxfId="415" priority="441" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="423" priority="445" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A761)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="414" priority="442" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="422" priority="446" operator="beginsWith" text="#">
       <formula>LEFT(A761,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90 A100:A102">
-    <cfRule type="containsText" dxfId="413" priority="251" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="421" priority="255" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="412" priority="252" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="420" priority="256" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A109">
-    <cfRule type="containsText" dxfId="411" priority="253" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="419" priority="257" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="254" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="418" priority="258" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="409" priority="255" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="417" priority="259" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="408" priority="256" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="416" priority="260" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127 A114">
-    <cfRule type="containsText" dxfId="407" priority="257" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="415" priority="261" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="406" priority="258" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="414" priority="262" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:A133 A129">
-    <cfRule type="containsText" dxfId="405" priority="259" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="413" priority="263" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="404" priority="260" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="412" priority="264" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="containsText" dxfId="403" priority="261" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="411" priority="265" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="262" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="410" priority="266" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="containsText" dxfId="401" priority="263" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="409" priority="267" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="264" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="408" priority="268" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="containsText" dxfId="399" priority="265" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="407" priority="269" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="398" priority="266" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="406" priority="270" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="397" priority="267" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="405" priority="271" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="268" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="404" priority="272" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139">
-    <cfRule type="containsText" dxfId="395" priority="269" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="403" priority="273" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="270" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="402" priority="274" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138 A149">
-    <cfRule type="containsText" dxfId="393" priority="271" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="401" priority="275" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="392" priority="272" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="400" priority="276" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="containsText" dxfId="391" priority="273" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="399" priority="277" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="390" priority="274" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="398" priority="278" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="containsText" dxfId="389" priority="275" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="397" priority="279" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="276" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="396" priority="280" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A495">
-    <cfRule type="containsText" dxfId="387" priority="197" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="395" priority="201" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A495)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="386" priority="198" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="394" priority="202" operator="beginsWith" text="#">
       <formula>LEFT(A495,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A496">
-    <cfRule type="containsText" dxfId="385" priority="195" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="393" priority="199" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A496)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="384" priority="196" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="392" priority="200" operator="beginsWith" text="#">
       <formula>LEFT(A496,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A526">
-    <cfRule type="containsText" dxfId="383" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="391" priority="197" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A526)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="382" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="390" priority="198" operator="beginsWith" text="#">
       <formula>LEFT(A526,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A776">
-    <cfRule type="containsText" dxfId="381" priority="191" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="389" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A776)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="380" priority="192" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="388" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(A776,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A86">
-    <cfRule type="containsText" dxfId="379" priority="1383" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="387" priority="1387" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="378" priority="1384" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="386" priority="1388" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791">
-    <cfRule type="containsText" dxfId="377" priority="183" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="385" priority="187" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A791)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="184" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="384" priority="188" operator="beginsWith" text="#">
       <formula>LEFT(A791,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A793">
-    <cfRule type="containsText" dxfId="375" priority="179" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="383" priority="183" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A793)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="374" priority="180" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="382" priority="184" operator="beginsWith" text="#">
       <formula>LEFT(A793,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A792">
-    <cfRule type="containsText" dxfId="373" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="381" priority="185" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A792)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="380" priority="186" operator="beginsWith" text="#">
       <formula>LEFT(A792,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A795">
-    <cfRule type="containsText" dxfId="371" priority="177" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="379" priority="181" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A795)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="178" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="378" priority="182" operator="beginsWith" text="#">
       <formula>LEFT(A795,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A799:A802">
-    <cfRule type="containsText" dxfId="369" priority="169" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="377" priority="173" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="170" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="376" priority="174" operator="beginsWith" text="#">
       <formula>LEFT(A799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A800">
-    <cfRule type="containsText" dxfId="367" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="375" priority="171" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="366" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="374" priority="172" operator="beginsWith" text="#">
       <formula>LEFT(A800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801">
-    <cfRule type="containsText" dxfId="365" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="373" priority="169" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A801)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="372" priority="170" operator="beginsWith" text="#">
       <formula>LEFT(A801,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A802">
-    <cfRule type="containsText" dxfId="363" priority="163" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="371" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A802)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="164" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="370" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(A802,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796">
-    <cfRule type="containsText" dxfId="361" priority="161" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="369" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="162" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="368" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A796,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A675">
-    <cfRule type="containsText" dxfId="359" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="367" priority="161" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A675)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="358" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="366" priority="162" operator="beginsWith" text="#">
       <formula>LEFT(A675,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341">
-    <cfRule type="containsText" dxfId="357" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="365" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A341)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="364" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A341,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A339">
-    <cfRule type="containsText" dxfId="355" priority="151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="363" priority="155" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A339)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="362" priority="156" operator="beginsWith" text="#">
       <formula>LEFT(A339,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A340">
-    <cfRule type="containsText" dxfId="353" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="361" priority="153" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A340)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="360" priority="154" operator="beginsWith" text="#">
       <formula>LEFT(A340,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A342">
-    <cfRule type="containsText" dxfId="351" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="359" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A342)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="350" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="358" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A342,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343">
-    <cfRule type="containsText" dxfId="349" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="357" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A343)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="348" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="356" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A343,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A344">
-    <cfRule type="containsText" dxfId="347" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="355" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A344)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="354" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A344,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345">
-    <cfRule type="containsText" dxfId="345" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="353" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A345)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="344" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="352" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A345,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A346">
-    <cfRule type="containsText" dxfId="343" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="351" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A346)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="342" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="350" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A346,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A347">
-    <cfRule type="containsText" dxfId="341" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="349" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A347)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="340" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="348" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A347,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A349">
-    <cfRule type="containsText" dxfId="339" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="347" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A349)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="346" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A349,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A350">
-    <cfRule type="containsText" dxfId="337" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="345" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A350)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="344" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(A350,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A351">
-    <cfRule type="containsText" dxfId="335" priority="127" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="343" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A351)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="334" priority="128" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="342" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A351,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A352">
-    <cfRule type="containsText" dxfId="333" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="341" priority="129" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A352)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="340" priority="130" operator="beginsWith" text="#">
       <formula>LEFT(A352,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A353">
-    <cfRule type="containsText" dxfId="331" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="339" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A353)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="338" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A353,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A354">
-    <cfRule type="containsText" dxfId="329" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="337" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A354)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="328" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="336" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A354,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A355">
-    <cfRule type="containsText" dxfId="327" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="335" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A355)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="326" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="334" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(A355,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363:A369">
-    <cfRule type="containsText" dxfId="325" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="333" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A363)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="332" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A363,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A361">
-    <cfRule type="containsText" dxfId="323" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="331" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A361)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="330" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A361,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A370 A374:A377">
-    <cfRule type="containsText" dxfId="321" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="329" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A370)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="328" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A370,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A382">
-    <cfRule type="containsText" dxfId="319" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="327" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A382)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="318" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="326" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A382,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A393">
-    <cfRule type="containsText" dxfId="317" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="325" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A393)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="316" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="324" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A393,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A356">
-    <cfRule type="containsText" dxfId="315" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="323" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A356)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="314" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="322" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A356,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A388">
-    <cfRule type="containsText" dxfId="313" priority="105" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="321" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A388)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="312" priority="106" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="320" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A388,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A389">
-    <cfRule type="containsText" dxfId="311" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="319" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A389)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="310" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="318" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A389,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A390">
-    <cfRule type="containsText" dxfId="309" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="317" priority="105" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A390)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="308" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="316" priority="106" operator="beginsWith" text="#">
       <formula>LEFT(A390,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A391">
-    <cfRule type="containsText" dxfId="307" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="315" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A391)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="306" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="314" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A391,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A392">
-    <cfRule type="containsText" dxfId="305" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="313" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A392)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="304" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="312" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A392,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A394">
-    <cfRule type="containsText" dxfId="303" priority="95" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="311" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A394)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="302" priority="96" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="310" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A394,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A395">
-    <cfRule type="containsText" dxfId="301" priority="93" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="309" priority="97" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A395)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="300" priority="94" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="308" priority="98" operator="beginsWith" text="#">
       <formula>LEFT(A395,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A435">
-    <cfRule type="containsText" dxfId="299" priority="91" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="307" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A435)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="298" priority="92" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="306" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A435,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A396">
-    <cfRule type="containsText" dxfId="297" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="305" priority="93" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A396)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="296" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="304" priority="94" operator="beginsWith" text="#">
       <formula>LEFT(A396,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A397:A404">
-    <cfRule type="containsText" dxfId="295" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="303" priority="91" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A397)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="294" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="302" priority="92" operator="beginsWith" text="#">
       <formula>LEFT(A397,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A408">
-    <cfRule type="containsText" dxfId="293" priority="77" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="301" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A408)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="292" priority="78" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="300" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(A408,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A406">
-    <cfRule type="containsText" dxfId="291" priority="83" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="299" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A406)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="290" priority="84" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="298" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(A406,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A405">
-    <cfRule type="containsText" dxfId="289" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="297" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A405)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="288" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="296" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(A405,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A407">
-    <cfRule type="containsText" dxfId="287" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="295" priority="83" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A407)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="286" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="294" priority="84" operator="beginsWith" text="#">
       <formula>LEFT(A407,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A409">
-    <cfRule type="containsText" dxfId="285" priority="75" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="293" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A409)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="284" priority="76" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="292" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(A409,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762">
-    <cfRule type="containsText" dxfId="283" priority="69" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="291" priority="73" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A762)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="282" priority="70" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="290" priority="74" operator="beginsWith" text="#">
       <formula>LEFT(A762,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A763">
-    <cfRule type="containsText" dxfId="281" priority="67" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="289" priority="71" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A763)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="280" priority="68" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="288" priority="72" operator="beginsWith" text="#">
       <formula>LEFT(A763,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A348">
-    <cfRule type="containsText" dxfId="279" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="287" priority="69" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A348)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="278" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="286" priority="70" operator="beginsWith" text="#">
       <formula>LEFT(A348,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A479">
-    <cfRule type="containsText" dxfId="277" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="285" priority="67" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A479)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="284" priority="68" operator="beginsWith" text="#">
       <formula>LEFT(A479,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A480">
-    <cfRule type="containsText" dxfId="275" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="283" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A480)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="274" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="282" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A480,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A481">
-    <cfRule type="containsText" dxfId="273" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="281" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A481)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="272" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="280" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A481,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A518">
-    <cfRule type="containsText" dxfId="271" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="279" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A518)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="270" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="278" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A518,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A514">
-    <cfRule type="containsText" dxfId="269" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="277" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A514)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="276" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(A514,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A797">
-    <cfRule type="containsText" dxfId="267" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="275" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A797)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="274" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A797,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764">
-    <cfRule type="containsText" dxfId="265" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="273" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A764)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="264" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="272" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A764,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A238">
-    <cfRule type="containsText" dxfId="263" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="271" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A238)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="262" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="270" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A238,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798">
-    <cfRule type="containsText" dxfId="261" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="269" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="260" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="268" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:A164 A166:A237">
-    <cfRule type="containsText" dxfId="259" priority="361" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="267" priority="365" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="258" priority="362" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="266" priority="366" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150 A152 A142 A144:A148 A61 A63:A64 A67:A75 A77:A78 A82:A84 A54 A56:A59">
-    <cfRule type="containsText" dxfId="257" priority="249" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="265" priority="253" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="256" priority="250" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="264" priority="254" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="255" priority="1397" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="263" priority="1401" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="254" priority="1398" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="262" priority="1402" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:A137 A140 A115:A126 A97:A98 A89 A87 A91:A95">
-    <cfRule type="containsText" dxfId="253" priority="1679" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="261" priority="1683" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="252" priority="1680" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="260" priority="1684" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110 A103:A104 A106:A107">
-    <cfRule type="containsText" dxfId="251" priority="1739" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="259" priority="1743" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="250" priority="1740" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="258" priority="1744" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="249" priority="1801" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="257" priority="1805" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="248" priority="1802" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="256" priority="1806" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="containsText" dxfId="247" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="255" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="246" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="254" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="containsText" dxfId="245" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="253" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="244" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="252" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A765">
-    <cfRule type="containsText" dxfId="243" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="251" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="250" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A766">
-    <cfRule type="containsText" dxfId="241" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="249" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="240" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="248" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A803">
-    <cfRule type="containsText" dxfId="239" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="247" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A803)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="238" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="246" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A803,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804">
-    <cfRule type="containsText" dxfId="237" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="245" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="236" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="244" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B808:B816">
-    <cfRule type="containsText" dxfId="235" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="243" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B802)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="234" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="242" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(B802,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B805">
-    <cfRule type="containsText" dxfId="233" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="241" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="232" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="240" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(B799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A805">
-    <cfRule type="containsText" dxfId="231" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="239" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="230" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="238" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A805,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A806">
-    <cfRule type="containsText" dxfId="229" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="237" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A806)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="228" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="236" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A806,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B806">
-    <cfRule type="containsText" dxfId="227" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="235" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="226" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="234" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(B800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807">
-    <cfRule type="containsText" dxfId="225" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="233" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A807)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="224" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="232" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A807,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B807">
-    <cfRule type="containsText" dxfId="223" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="231" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B801)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="222" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="230" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(B801,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A808:A816">
-    <cfRule type="containsText" dxfId="221" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="229" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A808)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="220" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="228" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A808,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B817">
-    <cfRule type="containsText" dxfId="219" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="227" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B782)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="218" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="226" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(B782,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A817">
-    <cfRule type="containsText" dxfId="217" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="225" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A788)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="216" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="224" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A788,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A787">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A787)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="6" priority="4" operator="beginsWith" text="#">
+      <formula>LEFT(A787,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A770">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A770)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+      <formula>LEFT(A770,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35718,7 +35814,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="511" operator="containsText" text="......" id="{465F9812-1C00-47A7-97E2-89B77398E1B1}">
+          <x14:cfRule type="containsText" priority="515" operator="containsText" text="......" id="{465F9812-1C00-47A7-97E2-89B77398E1B1}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A805)))</xm:f>
             <x14:dxf>
               <font>
@@ -35727,7 +35823,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="512" operator="beginsWith" text="#" id="{900241AA-A787-44C0-BE12-6FDEB9E0011A}">
+          <x14:cfRule type="beginsWith" priority="516" operator="beginsWith" text="#" id="{900241AA-A787-44C0-BE12-6FDEB9E0011A}">
             <xm:f>LEFT(ServoDyn!A805,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -35744,7 +35840,7 @@
           <xm:sqref>A774:A775 A778:A779</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="235" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="239" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A621)))</xm:f>
             <x14:dxf>
               <font>
@@ -35753,7 +35849,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="236" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="240" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A621,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -35770,7 +35866,7 @@
           <xm:sqref>A517</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="175" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
+          <x14:cfRule type="containsText" priority="179" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A812)))</xm:f>
             <x14:dxf>
               <font>
@@ -35779,7 +35875,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="176" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
+          <x14:cfRule type="beginsWith" priority="180" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
             <xm:f>LEFT(ServoDyn!A812,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -35796,7 +35892,7 @@
           <xm:sqref>A780:A781</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="159" operator="containsText" text="......" id="{5A5F5B76-44F7-40B2-B037-173F2905189B}">
+          <x14:cfRule type="containsText" priority="163" operator="containsText" text="......" id="{5A5F5B76-44F7-40B2-B037-173F2905189B}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A815)))</xm:f>
             <x14:dxf>
               <font>
@@ -35805,7 +35901,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="160" operator="beginsWith" text="#" id="{804DB11F-C4AE-4232-8FBE-AF82706C5D95}">
+          <x14:cfRule type="beginsWith" priority="164" operator="beginsWith" text="#" id="{804DB11F-C4AE-4232-8FBE-AF82706C5D95}">
             <xm:f>LEFT(ServoDyn!A815,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -35822,7 +35918,7 @@
           <xm:sqref>A794</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2283" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="2287" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A179)))</xm:f>
             <x14:dxf>
               <font>
@@ -35831,7 +35927,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2284" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="2288" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A179,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -35848,7 +35944,7 @@
           <xm:sqref>A76 A519:A520</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2317" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
+          <x14:cfRule type="containsText" priority="2321" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A807)))</xm:f>
             <x14:dxf>
               <font>
@@ -35857,7 +35953,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2318" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
+          <x14:cfRule type="beginsWith" priority="2322" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
             <xm:f>LEFT(ServoDyn!A807,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -35874,7 +35970,7 @@
           <xm:sqref>A777</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2323" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="2327" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A599)))</xm:f>
             <x14:dxf>
               <font>
@@ -35883,7 +35979,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2324" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="2328" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A599,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -35909,7 +36005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -43388,466 +43484,466 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A13 A18 A232:A236 A273:A278 A108:A112 A141:A167 A280:A282 A285 A287:A1048576 A170:A196 A131:A134 A101:A104 A114:A127">
-    <cfRule type="containsText" dxfId="201" priority="299" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="209" priority="299" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="200" priority="300" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="208" priority="300" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="199" priority="291" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="207" priority="291" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="292" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="206" priority="292" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="197" priority="289" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="205" priority="289" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="290" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="204" priority="290" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="containsText" dxfId="195" priority="287" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="203" priority="287" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="288" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="202" priority="288" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="193" priority="285" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="201" priority="285" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="192" priority="286" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="200" priority="286" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204">
-    <cfRule type="containsText" dxfId="191" priority="213" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="199" priority="213" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A204)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="214" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="198" priority="214" operator="beginsWith" text="#">
       <formula>LEFT(A204,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169">
-    <cfRule type="containsText" dxfId="189" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="197" priority="203" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A169)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="188" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="196" priority="204" operator="beginsWith" text="#">
       <formula>LEFT(A169,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="containsText" dxfId="187" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="195" priority="193" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A105)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="186" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="194" priority="194" operator="beginsWith" text="#">
       <formula>LEFT(A105,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="containsText" dxfId="185" priority="171" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="193" priority="171" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A205)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="184" priority="172" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="192" priority="172" operator="beginsWith" text="#">
       <formula>LEFT(A205,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A231">
-    <cfRule type="containsText" dxfId="183" priority="155" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="191" priority="155" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A231)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="156" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="190" priority="156" operator="beginsWith" text="#">
       <formula>LEFT(A231,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="181" priority="191" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="192" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="188" priority="192" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A58">
-    <cfRule type="containsText" dxfId="179" priority="1099" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="187" priority="1099" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="1100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="186" priority="1100" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A43">
-    <cfRule type="containsText" dxfId="177" priority="1149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="185" priority="1149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="1150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="184" priority="1150" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="containsText" dxfId="175" priority="1319" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="183" priority="1319" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="1320" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="182" priority="1320" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A63">
-    <cfRule type="containsText" dxfId="173" priority="1489" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="181" priority="1489" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="1490" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="180" priority="1490" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="containsText" dxfId="171" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="179" priority="157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="178" priority="158" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="containsText" dxfId="169" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="177" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A279)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="176" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A279,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A238">
-    <cfRule type="containsText" dxfId="167" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="175" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A238)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="174" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A238,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="containsText" dxfId="165" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="173" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A267)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="172" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A267,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="containsText" dxfId="163" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="171" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A128)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="170" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A128,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="containsText" dxfId="161" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="169" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A129)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="168" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A129,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="159" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="167" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A130)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="166" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(A130,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242:A243">
-    <cfRule type="containsText" dxfId="157" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="165" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="156" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="164" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A242,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198">
-    <cfRule type="containsText" dxfId="155" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="163" priority="129" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="162" priority="130" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="containsText" dxfId="153" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="161" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="152" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="160" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="containsText" dxfId="151" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="159" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A244)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="158" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A244,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="149" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="157" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="156" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
-    <cfRule type="containsText" dxfId="147" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="155" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="154" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A247,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245">
-    <cfRule type="containsText" dxfId="145" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="153" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A245)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="152" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A245,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="containsText" dxfId="143" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="151" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A246)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="142" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="150" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A246,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="containsText" dxfId="141" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="149" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="148" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A241,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A283">
-    <cfRule type="containsText" dxfId="139" priority="105" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="147" priority="105" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A283)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="106" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="146" priority="106" operator="beginsWith" text="#">
       <formula>LEFT(A283,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="137" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="145" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A202)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="136" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="144" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A202,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A203">
-    <cfRule type="containsText" dxfId="135" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="143" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A203)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="142" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A203,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="containsText" dxfId="133" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="141" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="140" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="containsText" dxfId="131" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="139" priority="97" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="138" priority="98" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239">
-    <cfRule type="containsText" dxfId="129" priority="93" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="137" priority="93" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A239)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="128" priority="94" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="136" priority="94" operator="beginsWith" text="#">
       <formula>LEFT(A239,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A248">
-    <cfRule type="containsText" dxfId="127" priority="91" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="135" priority="91" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A248)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="126" priority="92" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="134" priority="92" operator="beginsWith" text="#">
       <formula>LEFT(A248,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="containsText" dxfId="125" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="133" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A249)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="124" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="132" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(A249,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250">
-    <cfRule type="containsText" dxfId="123" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="131" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A250)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="122" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="130" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(A250,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199:A201 A66:A67 A69">
-    <cfRule type="containsText" dxfId="121" priority="185" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="129" priority="185" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="120" priority="186" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="128" priority="186" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="containsText" dxfId="119" priority="2113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="127" priority="2113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="118" priority="2114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="126" priority="2114" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="containsText" dxfId="117" priority="2225" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="125" priority="2225" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="116" priority="2226" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="124" priority="2226" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="containsText" dxfId="115" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="123" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A68)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="114" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="122" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(A68,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="containsText" dxfId="113" priority="75" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="121" priority="75" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="112" priority="76" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="120" priority="76" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="containsText" dxfId="111" priority="71" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="119" priority="71" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A93)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="72" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="118" priority="72" operator="beginsWith" text="#">
       <formula>LEFT(A93,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="containsText" dxfId="109" priority="69" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="117" priority="69" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="70" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="116" priority="70" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A210">
-    <cfRule type="containsText" dxfId="107" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="115" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A210)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="106" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="114" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A210,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="containsText" dxfId="105" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="113" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A95)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="104" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="112" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A95,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="containsText" dxfId="103" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="111" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A237)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="102" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="110" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A237,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="101" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="109" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A96)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="108" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A96,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="107" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A97)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="98" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="106" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A97,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="containsText" dxfId="97" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="105" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="104" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A98,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="95" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="103" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A99)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="102" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A99,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="containsText" dxfId="93" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="101" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A100)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="92" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="100" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A100,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="containsText" dxfId="91" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="99" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A268)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="98" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A268,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:A272">
-    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="97" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A269)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="96" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A269,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A113)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="86" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="94" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A113,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45319,266 +45415,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="75" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="74" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="73" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="72" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="71" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="62" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="70" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A22">
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="69" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="68" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="67" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="66" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="64" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A23)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="62" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A23,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="61" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A26)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="60" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A26,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="58" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A27,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="57" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A29)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="56" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A29,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="55" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="54" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A28,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="52" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A30,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="50" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A31,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="49" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="48" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A32,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="46" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A33,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="44" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A34,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="43" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A35)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="42" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A35,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A36)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="32" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="40" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A36,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A37)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="38" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A37,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="37" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="36" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="34" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="32" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="30" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="28" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="26" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A44)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="24" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A44,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="22" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="20" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="18" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A48)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="16" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A48,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A52:A53">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A50)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="14" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A50,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A54)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="12" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A54,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A51)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="10" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A51,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="14880" windowHeight="7605" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="14880" windowHeight="7605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12557" uniqueCount="2253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12567" uniqueCount="2255">
   <si>
     <t>###################################################################################################################################</t>
   </si>
@@ -6903,6 +6903,12 @@
   </si>
   <si>
     <t># used in VIND</t>
+  </si>
+  <si>
+    <t>LastTimeCalled</t>
+  </si>
+  <si>
+    <t>"last time the CalcOutput/Bladed DLL was called"</t>
   </si>
 </sst>
 </file>
@@ -7090,7 +7096,41 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="632">
+  <dxfs count="636">
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <u val="none"/>
@@ -13377,10 +13417,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="609" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="613" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="608" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="612" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36220,1394 +36260,1394 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A241:A297 A501:A509 A313 A304 A530:A531 A636:A669 A514 A1:A12 A51 A20:A39 A685:A700 A680:A683 A702:A708 A674:A678 A486 A488:A492 A237:A239 A496:A499 A525 A519:A523 A816:A1048576 A765:A766 A327:A336 A355:A358 A369:A371 A382:A385 A779:A783 A545:A616 A408:A432 A434:A441 A480:A484 A443:A476 A376:A379 A786:A788 A770:A771 A618:A634">
-    <cfRule type="containsText" dxfId="607" priority="819" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="611" priority="819" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="606" priority="820" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="610" priority="820" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="605" priority="807" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="609" priority="807" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="604" priority="808" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="608" priority="808" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17">
-    <cfRule type="containsText" dxfId="603" priority="801" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="607" priority="801" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="602" priority="802" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="606" priority="802" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A53">
-    <cfRule type="containsText" dxfId="601" priority="797" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="605" priority="797" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A52)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="600" priority="798" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="604" priority="798" operator="beginsWith" text="#">
       <formula>LEFT(A52,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="containsText" dxfId="599" priority="795" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="603" priority="795" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A13)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="598" priority="796" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="602" priority="796" operator="beginsWith" text="#">
       <formula>LEFT(A13,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A527">
-    <cfRule type="containsText" dxfId="597" priority="791" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="601" priority="791" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A527)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="596" priority="792" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="600" priority="792" operator="beginsWith" text="#">
       <formula>LEFT(A527,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A526">
-    <cfRule type="containsText" dxfId="595" priority="793" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="599" priority="793" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A526)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="594" priority="794" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="598" priority="794" operator="beginsWith" text="#">
       <formula>LEFT(A526,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A539">
-    <cfRule type="containsText" dxfId="593" priority="789" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="597" priority="789" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A539)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="592" priority="790" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="596" priority="790" operator="beginsWith" text="#">
       <formula>LEFT(A539,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A540">
-    <cfRule type="containsText" dxfId="591" priority="787" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="595" priority="787" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A540)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="590" priority="788" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="594" priority="788" operator="beginsWith" text="#">
       <formula>LEFT(A540,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A537">
-    <cfRule type="containsText" dxfId="589" priority="785" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="593" priority="785" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A537)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="588" priority="786" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="592" priority="786" operator="beginsWith" text="#">
       <formula>LEFT(A537,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A538">
-    <cfRule type="containsText" dxfId="587" priority="783" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="591" priority="783" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A538)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="586" priority="784" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="590" priority="784" operator="beginsWith" text="#">
       <formula>LEFT(A538,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A541">
-    <cfRule type="containsText" dxfId="585" priority="779" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="589" priority="779" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A541)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="584" priority="780" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="588" priority="780" operator="beginsWith" text="#">
       <formula>LEFT(A541,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A500">
-    <cfRule type="containsText" dxfId="583" priority="775" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="587" priority="775" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A500)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="582" priority="776" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="586" priority="776" operator="beginsWith" text="#">
       <formula>LEFT(A500,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A528">
-    <cfRule type="containsText" dxfId="581" priority="773" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="585" priority="773" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A528)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="580" priority="774" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="584" priority="774" operator="beginsWith" text="#">
       <formula>LEFT(A528,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A542">
-    <cfRule type="containsText" dxfId="579" priority="771" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="583" priority="771" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A542)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="578" priority="772" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="582" priority="772" operator="beginsWith" text="#">
       <formula>LEFT(A542,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A635">
-    <cfRule type="containsText" dxfId="577" priority="769" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="581" priority="769" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A635)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="576" priority="770" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="580" priority="770" operator="beginsWith" text="#">
       <formula>LEFT(A635,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A529">
-    <cfRule type="containsText" dxfId="575" priority="763" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="579" priority="763" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A529)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="574" priority="764" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="578" priority="764" operator="beginsWith" text="#">
       <formula>LEFT(A529,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A298:A300">
-    <cfRule type="containsText" dxfId="573" priority="761" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="577" priority="761" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A298)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="572" priority="762" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="576" priority="762" operator="beginsWith" text="#">
       <formula>LEFT(A298,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="571" priority="757" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="575" priority="757" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A301)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="570" priority="758" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="574" priority="758" operator="beginsWith" text="#">
       <formula>LEFT(A301,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302:A303 A305:A310">
-    <cfRule type="containsText" dxfId="569" priority="755" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="573" priority="755" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A302)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="568" priority="756" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="572" priority="756" operator="beginsWith" text="#">
       <formula>LEFT(A302,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A311:A312 A314:A320 A533">
-    <cfRule type="containsText" dxfId="567" priority="753" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="571" priority="753" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A311)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="566" priority="754" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="570" priority="754" operator="beginsWith" text="#">
       <formula>LEFT(A311,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A532">
-    <cfRule type="containsText" dxfId="565" priority="709" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="569" priority="709" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A532)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="564" priority="710" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="568" priority="710" operator="beginsWith" text="#">
       <formula>LEFT(A532,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A322">
-    <cfRule type="containsText" dxfId="563" priority="697" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="567" priority="697" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A322)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="562" priority="698" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="566" priority="698" operator="beginsWith" text="#">
       <formula>LEFT(A322,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A321">
-    <cfRule type="containsText" dxfId="561" priority="699" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="565" priority="699" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A321)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="560" priority="700" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="564" priority="700" operator="beginsWith" text="#">
       <formula>LEFT(A321,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A534">
-    <cfRule type="containsText" dxfId="559" priority="695" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="563" priority="695" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A534)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="558" priority="696" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="562" priority="696" operator="beginsWith" text="#">
       <formula>LEFT(A534,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A535">
-    <cfRule type="containsText" dxfId="557" priority="693" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="561" priority="693" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A535)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="556" priority="694" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="560" priority="694" operator="beginsWith" text="#">
       <formula>LEFT(A535,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A323:A324">
-    <cfRule type="containsText" dxfId="555" priority="691" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="559" priority="691" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A323)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="554" priority="692" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="558" priority="692" operator="beginsWith" text="#">
       <formula>LEFT(A323,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A544">
-    <cfRule type="containsText" dxfId="553" priority="683" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="557" priority="683" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A544)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="552" priority="684" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="556" priority="684" operator="beginsWith" text="#">
       <formula>LEFT(A544,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A543">
-    <cfRule type="containsText" dxfId="551" priority="685" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="555" priority="685" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A543)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="550" priority="686" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="554" priority="686" operator="beginsWith" text="#">
       <formula>LEFT(A543,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A671">
-    <cfRule type="containsText" dxfId="549" priority="653" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="553" priority="653" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A671)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="548" priority="654" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="552" priority="654" operator="beginsWith" text="#">
       <formula>LEFT(A671,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A325:A326 A360">
-    <cfRule type="containsText" dxfId="547" priority="649" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="551" priority="649" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A325)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="546" priority="650" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="550" priority="650" operator="beginsWith" text="#">
       <formula>LEFT(A325,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A381">
-    <cfRule type="containsText" dxfId="545" priority="647" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="549" priority="647" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A381)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="544" priority="648" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="548" priority="648" operator="beginsWith" text="#">
       <formula>LEFT(A381,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A510:A511">
-    <cfRule type="containsText" dxfId="543" priority="643" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="547" priority="643" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A510)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="542" priority="644" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="546" priority="644" operator="beginsWith" text="#">
       <formula>LEFT(A510,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A513">
-    <cfRule type="containsText" dxfId="541" priority="641" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="545" priority="641" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A513)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="540" priority="642" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="544" priority="642" operator="beginsWith" text="#">
       <formula>LEFT(A513,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="539" priority="615" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="543" priority="615" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="538" priority="616" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="542" priority="616" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="537" priority="613" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="541" priority="613" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="536" priority="614" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="540" priority="614" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="535" priority="605" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="539" priority="605" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="534" priority="606" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="538" priority="606" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="533" priority="603" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="537" priority="603" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="532" priority="604" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="536" priority="604" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="531" priority="601" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="535" priority="601" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="530" priority="602" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="534" priority="602" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="529" priority="599" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="533" priority="599" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="528" priority="600" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="532" priority="600" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A709">
-    <cfRule type="containsText" dxfId="527" priority="597" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="531" priority="597" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A709)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="526" priority="598" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="530" priority="598" operator="beginsWith" text="#">
       <formula>LEFT(A709,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A710">
-    <cfRule type="containsText" dxfId="525" priority="595" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="529" priority="595" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A710)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="524" priority="596" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="528" priority="596" operator="beginsWith" text="#">
       <formula>LEFT(A710,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A711">
-    <cfRule type="containsText" dxfId="523" priority="593" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="527" priority="593" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A711)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="522" priority="594" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="526" priority="594" operator="beginsWith" text="#">
       <formula>LEFT(A711,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764">
-    <cfRule type="containsText" dxfId="521" priority="591" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="525" priority="591" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A764)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="520" priority="592" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="524" priority="592" operator="beginsWith" text="#">
       <formula>LEFT(A764,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A713:A716">
-    <cfRule type="containsText" dxfId="519" priority="587" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="523" priority="587" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A713)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="518" priority="588" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="522" priority="588" operator="beginsWith" text="#">
       <formula>LEFT(A713,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A712">
-    <cfRule type="containsText" dxfId="517" priority="583" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="521" priority="583" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A712)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="516" priority="584" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="520" priority="584" operator="beginsWith" text="#">
       <formula>LEFT(A712,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A717:A724">
-    <cfRule type="containsText" dxfId="515" priority="577" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="519" priority="577" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A717)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="514" priority="578" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="518" priority="578" operator="beginsWith" text="#">
       <formula>LEFT(A717,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A725:A735">
-    <cfRule type="containsText" dxfId="513" priority="571" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="517" priority="571" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A725)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="512" priority="572" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="516" priority="572" operator="beginsWith" text="#">
       <formula>LEFT(A725,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736">
-    <cfRule type="containsText" dxfId="511" priority="573" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="515" priority="573" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A736)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="510" priority="574" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="514" priority="574" operator="beginsWith" text="#">
       <formula>LEFT(A736,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A737:A747">
-    <cfRule type="containsText" dxfId="509" priority="565" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="513" priority="565" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A737)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="508" priority="566" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="512" priority="566" operator="beginsWith" text="#">
       <formula>LEFT(A737,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A748">
-    <cfRule type="containsText" dxfId="507" priority="567" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="511" priority="567" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A748)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="506" priority="568" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="510" priority="568" operator="beginsWith" text="#">
       <formula>LEFT(A748,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A749">
-    <cfRule type="containsText" dxfId="505" priority="561" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="509" priority="561" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A749)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="504" priority="562" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="508" priority="562" operator="beginsWith" text="#">
       <formula>LEFT(A749,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A753:A754">
-    <cfRule type="containsText" dxfId="503" priority="551" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="507" priority="551" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A753)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="502" priority="552" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="506" priority="552" operator="beginsWith" text="#">
       <formula>LEFT(A753,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A750">
-    <cfRule type="containsText" dxfId="501" priority="557" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="505" priority="557" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A750)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="500" priority="558" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="504" priority="558" operator="beginsWith" text="#">
       <formula>LEFT(A750,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A751">
-    <cfRule type="containsText" dxfId="499" priority="555" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="503" priority="555" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A751)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="498" priority="556" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="502" priority="556" operator="beginsWith" text="#">
       <formula>LEFT(A751,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A752">
-    <cfRule type="containsText" dxfId="497" priority="553" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="501" priority="553" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A752)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="496" priority="554" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="500" priority="554" operator="beginsWith" text="#">
       <formula>LEFT(A752,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755:A756">
-    <cfRule type="containsText" dxfId="495" priority="547" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="499" priority="547" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A755)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="494" priority="548" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="498" priority="548" operator="beginsWith" text="#">
       <formula>LEFT(A755,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="containsText" dxfId="493" priority="537" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="497" priority="537" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A757)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="492" priority="538" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="496" priority="538" operator="beginsWith" text="#">
       <formula>LEFT(A757,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A536">
-    <cfRule type="containsText" dxfId="491" priority="533" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="495" priority="533" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A536)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="490" priority="534" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="494" priority="534" operator="beginsWith" text="#">
       <formula>LEFT(A536,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A670">
-    <cfRule type="containsText" dxfId="489" priority="503" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="493" priority="503" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A670)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="488" priority="504" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="492" priority="504" operator="beginsWith" text="#">
       <formula>LEFT(A670,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="487" priority="501" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="491" priority="501" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="486" priority="502" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="490" priority="502" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="485" priority="499" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="489" priority="499" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="484" priority="500" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="488" priority="500" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A49">
-    <cfRule type="containsText" dxfId="483" priority="497" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="487" priority="497" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="498" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="486" priority="498" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A701">
-    <cfRule type="containsText" dxfId="481" priority="477" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="485" priority="477" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A701)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="480" priority="478" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="484" priority="478" operator="beginsWith" text="#">
       <formula>LEFT(A701,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A673">
-    <cfRule type="containsText" dxfId="479" priority="483" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="483" priority="483" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A673)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="478" priority="484" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="482" priority="484" operator="beginsWith" text="#">
       <formula>LEFT(A673,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679">
-    <cfRule type="containsText" dxfId="477" priority="479" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="481" priority="479" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A679)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="476" priority="480" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="480" priority="480" operator="beginsWith" text="#">
       <formula>LEFT(A679,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A684">
-    <cfRule type="containsText" dxfId="475" priority="475" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="479" priority="475" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A684)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="476" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="478" priority="476" operator="beginsWith" text="#">
       <formula>LEFT(A684,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A485">
-    <cfRule type="containsText" dxfId="473" priority="473" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="477" priority="473" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A485)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="472" priority="474" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="476" priority="474" operator="beginsWith" text="#">
       <formula>LEFT(A485,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A487">
-    <cfRule type="containsText" dxfId="471" priority="463" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="475" priority="463" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A487)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="470" priority="464" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="474" priority="464" operator="beginsWith" text="#">
       <formula>LEFT(A487,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="containsText" dxfId="469" priority="461" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="473" priority="461" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A758)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="462" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="472" priority="462" operator="beginsWith" text="#">
       <formula>LEFT(A758,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90 A100:A102">
-    <cfRule type="containsText" dxfId="467" priority="271" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="471" priority="271" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="272" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="470" priority="272" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="containsText" dxfId="465" priority="275" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="469" priority="275" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="276" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="468" priority="276" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126 A113">
-    <cfRule type="containsText" dxfId="463" priority="277" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="467" priority="277" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="462" priority="278" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="466" priority="278" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A132 A128">
-    <cfRule type="containsText" dxfId="461" priority="279" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="465" priority="279" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="280" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="464" priority="280" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="containsText" dxfId="459" priority="281" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="463" priority="281" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="282" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="462" priority="282" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="457" priority="283" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="461" priority="283" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="456" priority="284" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="460" priority="284" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="containsText" dxfId="455" priority="285" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="459" priority="285" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="454" priority="286" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="458" priority="286" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="containsText" dxfId="453" priority="287" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="457" priority="287" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="288" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="456" priority="288" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="containsText" dxfId="451" priority="289" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="455" priority="289" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="450" priority="290" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="454" priority="290" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136 A147">
-    <cfRule type="containsText" dxfId="449" priority="291" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="453" priority="291" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="448" priority="292" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="452" priority="292" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149">
-    <cfRule type="containsText" dxfId="447" priority="293" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="451" priority="293" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="446" priority="294" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="450" priority="294" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="containsText" dxfId="445" priority="295" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="449" priority="295" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="444" priority="296" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="448" priority="296" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A493">
-    <cfRule type="containsText" dxfId="443" priority="217" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="447" priority="217" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A493)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="442" priority="218" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="446" priority="218" operator="beginsWith" text="#">
       <formula>LEFT(A493,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A494">
-    <cfRule type="containsText" dxfId="441" priority="215" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="445" priority="215" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A494)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="216" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="444" priority="216" operator="beginsWith" text="#">
       <formula>LEFT(A494,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A524">
-    <cfRule type="containsText" dxfId="439" priority="213" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="443" priority="213" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A524)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="438" priority="214" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="442" priority="214" operator="beginsWith" text="#">
       <formula>LEFT(A524,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A773">
-    <cfRule type="containsText" dxfId="437" priority="211" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="441" priority="211" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A773)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="212" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="440" priority="212" operator="beginsWith" text="#">
       <formula>LEFT(A773,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A86">
-    <cfRule type="containsText" dxfId="435" priority="1403" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="439" priority="1403" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="1404" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="438" priority="1404" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A789">
-    <cfRule type="containsText" dxfId="433" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="437" priority="203" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A789)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="436" priority="204" operator="beginsWith" text="#">
       <formula>LEFT(A789,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791">
-    <cfRule type="containsText" dxfId="431" priority="199" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="435" priority="199" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A791)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="430" priority="200" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="434" priority="200" operator="beginsWith" text="#">
       <formula>LEFT(A791,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A790">
-    <cfRule type="containsText" dxfId="429" priority="201" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="433" priority="201" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A790)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="202" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="432" priority="202" operator="beginsWith" text="#">
       <formula>LEFT(A790,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A793">
-    <cfRule type="containsText" dxfId="427" priority="197" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="431" priority="197" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A793)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="198" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="430" priority="198" operator="beginsWith" text="#">
       <formula>LEFT(A793,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A797:A800">
-    <cfRule type="containsText" dxfId="425" priority="189" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="429" priority="189" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A797)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="190" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="428" priority="190" operator="beginsWith" text="#">
       <formula>LEFT(A797,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798">
-    <cfRule type="containsText" dxfId="423" priority="187" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="427" priority="187" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="422" priority="188" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="426" priority="188" operator="beginsWith" text="#">
       <formula>LEFT(A798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A799">
-    <cfRule type="containsText" dxfId="421" priority="185" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="425" priority="185" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="186" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="424" priority="186" operator="beginsWith" text="#">
       <formula>LEFT(A799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A800">
-    <cfRule type="containsText" dxfId="419" priority="183" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="423" priority="183" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="184" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="422" priority="184" operator="beginsWith" text="#">
       <formula>LEFT(A800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A794">
-    <cfRule type="containsText" dxfId="417" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="421" priority="181" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A794)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="420" priority="182" operator="beginsWith" text="#">
       <formula>LEFT(A794,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A672">
-    <cfRule type="containsText" dxfId="415" priority="177" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="419" priority="177" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A672)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="414" priority="178" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="418" priority="178" operator="beginsWith" text="#">
       <formula>LEFT(A672,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A339">
-    <cfRule type="containsText" dxfId="413" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="417" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A339)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="412" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="416" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(A339,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A337">
-    <cfRule type="containsText" dxfId="411" priority="171" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="415" priority="171" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A337)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="172" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="414" priority="172" operator="beginsWith" text="#">
       <formula>LEFT(A337,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A338">
-    <cfRule type="containsText" dxfId="409" priority="169" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="413" priority="169" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A338)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="408" priority="170" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="412" priority="170" operator="beginsWith" text="#">
       <formula>LEFT(A338,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A340">
-    <cfRule type="containsText" dxfId="407" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="411" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A340)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="406" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="410" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A340,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341">
-    <cfRule type="containsText" dxfId="405" priority="163" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="409" priority="163" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A341)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="404" priority="164" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="408" priority="164" operator="beginsWith" text="#">
       <formula>LEFT(A341,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A342">
-    <cfRule type="containsText" dxfId="403" priority="161" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="407" priority="161" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A342)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="162" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="406" priority="162" operator="beginsWith" text="#">
       <formula>LEFT(A342,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343">
-    <cfRule type="containsText" dxfId="401" priority="159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="405" priority="159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A343)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="404" priority="160" operator="beginsWith" text="#">
       <formula>LEFT(A343,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A344">
-    <cfRule type="containsText" dxfId="399" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="403" priority="157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A344)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="398" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="402" priority="158" operator="beginsWith" text="#">
       <formula>LEFT(A344,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345">
-    <cfRule type="containsText" dxfId="397" priority="155" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="401" priority="155" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A345)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="156" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="400" priority="156" operator="beginsWith" text="#">
       <formula>LEFT(A345,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A347">
-    <cfRule type="containsText" dxfId="395" priority="151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="399" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A347)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="398" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A347,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A348">
-    <cfRule type="containsText" dxfId="393" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="397" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A348)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="392" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="396" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A348,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A349">
-    <cfRule type="containsText" dxfId="391" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="395" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A349)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="390" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="394" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A349,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A350">
-    <cfRule type="containsText" dxfId="389" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="393" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A350)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="392" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A350,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A351">
-    <cfRule type="containsText" dxfId="387" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="391" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A351)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="386" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="390" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A351,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A352">
-    <cfRule type="containsText" dxfId="385" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="389" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A352)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="384" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="388" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A352,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A353">
-    <cfRule type="containsText" dxfId="383" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="387" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A353)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="382" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="386" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A353,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A361:A367">
-    <cfRule type="containsText" dxfId="381" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="385" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A361)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="380" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="384" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A361,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A359">
-    <cfRule type="containsText" dxfId="379" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="383" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A359)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="378" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="382" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A359,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A368 A372:A375">
-    <cfRule type="containsText" dxfId="377" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="381" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A368)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="380" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(A368,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A380">
-    <cfRule type="containsText" dxfId="375" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="379" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A380)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="374" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="378" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A380,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A391">
-    <cfRule type="containsText" dxfId="373" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="377" priority="129" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A391)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="376" priority="130" operator="beginsWith" text="#">
       <formula>LEFT(A391,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A354">
-    <cfRule type="containsText" dxfId="371" priority="127" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="375" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A354)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="128" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="374" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A354,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A386">
-    <cfRule type="containsText" dxfId="369" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="373" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A386)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="372" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A386,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A387">
-    <cfRule type="containsText" dxfId="367" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="371" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A387)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="366" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="370" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(A387,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A388">
-    <cfRule type="containsText" dxfId="365" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="369" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A388)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="368" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A388,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A389">
-    <cfRule type="containsText" dxfId="363" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="367" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A389)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="366" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A389,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A390">
-    <cfRule type="containsText" dxfId="361" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="365" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A390)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="364" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A390,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A392">
-    <cfRule type="containsText" dxfId="359" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="363" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A392)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="358" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="362" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A392,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A393">
-    <cfRule type="containsText" dxfId="357" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="361" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A393)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="360" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A393,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A433">
-    <cfRule type="containsText" dxfId="355" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="359" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A433)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="358" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A433,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A394">
-    <cfRule type="containsText" dxfId="353" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="357" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A394)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="356" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A394,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A395:A402">
-    <cfRule type="containsText" dxfId="351" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="355" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A395)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="350" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="354" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A395,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A406">
-    <cfRule type="containsText" dxfId="349" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="353" priority="97" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A406)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="348" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="352" priority="98" operator="beginsWith" text="#">
       <formula>LEFT(A406,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A404">
-    <cfRule type="containsText" dxfId="347" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="351" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A404)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="350" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A404,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A403">
-    <cfRule type="containsText" dxfId="345" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="349" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A403)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="344" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="348" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A403,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A405">
-    <cfRule type="containsText" dxfId="343" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="347" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A405)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="342" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="346" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A405,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A407">
-    <cfRule type="containsText" dxfId="341" priority="95" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="345" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A407)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="340" priority="96" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="344" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A407,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A759">
-    <cfRule type="containsText" dxfId="339" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="343" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A759)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="342" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(A759,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="containsText" dxfId="337" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="341" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A760)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="340" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(A760,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A346">
-    <cfRule type="containsText" dxfId="335" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="339" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A346)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="334" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="338" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(A346,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A477">
-    <cfRule type="containsText" dxfId="333" priority="83" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="337" priority="83" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A477)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="84" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="336" priority="84" operator="beginsWith" text="#">
       <formula>LEFT(A477,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A478">
-    <cfRule type="containsText" dxfId="331" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="335" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A478)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="334" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(A478,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A479">
-    <cfRule type="containsText" dxfId="329" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="333" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A479)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="328" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="332" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(A479,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A516">
-    <cfRule type="containsText" dxfId="327" priority="77" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="331" priority="77" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A516)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="326" priority="78" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="330" priority="78" operator="beginsWith" text="#">
       <formula>LEFT(A516,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A512">
-    <cfRule type="containsText" dxfId="325" priority="75" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="329" priority="75" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A512)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="76" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="328" priority="76" operator="beginsWith" text="#">
       <formula>LEFT(A512,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A795">
-    <cfRule type="containsText" dxfId="323" priority="71" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="327" priority="71" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A795)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="72" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="326" priority="72" operator="beginsWith" text="#">
       <formula>LEFT(A795,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A761">
-    <cfRule type="containsText" dxfId="321" priority="67" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="325" priority="67" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A761)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="68" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="324" priority="68" operator="beginsWith" text="#">
       <formula>LEFT(A761,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A236">
-    <cfRule type="containsText" dxfId="319" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="323" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A236)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="318" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="322" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A236,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796">
-    <cfRule type="containsText" dxfId="317" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="321" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="316" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="320" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A796,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:A162 A164:A235">
-    <cfRule type="containsText" dxfId="315" priority="381" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="319" priority="381" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="314" priority="382" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="318" priority="382" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148 A150 A140 A142:A146 A61 A63:A64 A67:A75 A77:A78 A82:A84 A54 A56:A59">
-    <cfRule type="containsText" dxfId="313" priority="269" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="317" priority="269" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="312" priority="270" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="316" priority="270" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="311" priority="1417" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="315" priority="1417" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="310" priority="1418" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="314" priority="1418" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:A135 A138 A114:A125 A97:A98 A89 A87 A91:A95">
-    <cfRule type="containsText" dxfId="309" priority="1699" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="313" priority="1699" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="308" priority="1700" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="312" priority="1700" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109 A103:A104 A106:A107">
-    <cfRule type="containsText" dxfId="307" priority="1759" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="311" priority="1759" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="306" priority="1760" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="310" priority="1760" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="305" priority="1821" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="309" priority="1821" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="304" priority="1822" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="308" priority="1822" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="containsText" dxfId="303" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="307" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="302" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="306" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="containsText" dxfId="301" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="305" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="300" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="304" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762">
-    <cfRule type="containsText" dxfId="299" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="303" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="298" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="302" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A763">
-    <cfRule type="containsText" dxfId="297" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="301" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="296" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="300" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801">
-    <cfRule type="containsText" dxfId="295" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="299" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A801)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="294" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="298" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A801,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A802">
-    <cfRule type="containsText" dxfId="293" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="297" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="292" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="296" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A796,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B806:B814">
-    <cfRule type="containsText" dxfId="291" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="295" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="290" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="294" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(B800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B803">
-    <cfRule type="containsText" dxfId="289" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="293" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B797)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="288" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="292" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(B797,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A803">
-    <cfRule type="containsText" dxfId="287" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="291" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A803)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="286" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="290" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A803,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804">
-    <cfRule type="containsText" dxfId="285" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="289" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A804)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="284" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="288" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A804,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B804">
-    <cfRule type="containsText" dxfId="283" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="287" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="282" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="286" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(B798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A805">
-    <cfRule type="containsText" dxfId="281" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="285" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="280" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="284" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A805,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B805">
-    <cfRule type="containsText" dxfId="279" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="283" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="278" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="282" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(B799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A806:A814">
-    <cfRule type="containsText" dxfId="277" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="281" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A806)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="280" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A806,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B815">
-    <cfRule type="containsText" dxfId="275" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="279" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B779)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="274" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="278" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(B779,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A815">
-    <cfRule type="containsText" dxfId="273" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="277" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A786)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="272" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="276" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A786,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A784:A785">
-    <cfRule type="containsText" dxfId="271" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="275" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A784)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="270" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="274" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A784,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="containsText" dxfId="269" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="273" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A768)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="272" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A768,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769">
-    <cfRule type="containsText" dxfId="267" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="271" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A769)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="270" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A769,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="containsText" dxfId="265" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="269" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="264" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="268" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A617">
-    <cfRule type="containsText" dxfId="263" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="267" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="262" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="266" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="containsText" dxfId="245" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="249" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A767)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="244" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="248" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A767,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37834,9 +37874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A273" sqref="A273:XFD276"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41267,6 +41307,38 @@
         <v>26</v>
       </c>
     </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" s="10" t="s">
+        <v>2254</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>1173</v>
+      </c>
+    </row>
     <row r="142" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>13</v>
@@ -45312,467 +45384,475 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A13 A18 A232:A236 A273:A278 A108:A112 A141:A167 A280:A282 A285 A287:A1048576 A170:A196 A131:A134 A101:A104 A114:A127">
-    <cfRule type="containsText" dxfId="243" priority="299" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="247" priority="301" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="300" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="246" priority="302" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="241" priority="291" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="245" priority="293" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="240" priority="292" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="244" priority="294" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="239" priority="289" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="243" priority="291" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="238" priority="290" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="242" priority="292" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="containsText" dxfId="237" priority="287" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="241" priority="289" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="236" priority="288" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="240" priority="290" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="235" priority="285" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="239" priority="287" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="234" priority="286" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="238" priority="288" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204">
-    <cfRule type="containsText" dxfId="233" priority="213" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="237" priority="215" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A204)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="232" priority="214" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="236" priority="216" operator="beginsWith" text="#">
       <formula>LEFT(A204,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169">
-    <cfRule type="containsText" dxfId="231" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="235" priority="205" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A169)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="230" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="234" priority="206" operator="beginsWith" text="#">
       <formula>LEFT(A169,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="containsText" dxfId="229" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="233" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A105)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="228" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="232" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(A105,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="containsText" dxfId="227" priority="171" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="231" priority="173" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A205)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="226" priority="172" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="230" priority="174" operator="beginsWith" text="#">
       <formula>LEFT(A205,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A231">
-    <cfRule type="containsText" dxfId="225" priority="155" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="229" priority="157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A231)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="224" priority="156" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="228" priority="158" operator="beginsWith" text="#">
       <formula>LEFT(A231,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="223" priority="191" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="227" priority="193" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="222" priority="192" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="226" priority="194" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A58">
-    <cfRule type="containsText" dxfId="221" priority="1099" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="225" priority="1101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="220" priority="1100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="224" priority="1102" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A43">
-    <cfRule type="containsText" dxfId="219" priority="1149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="223" priority="1151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="218" priority="1150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="222" priority="1152" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="containsText" dxfId="217" priority="1319" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="221" priority="1321" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="216" priority="1320" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="220" priority="1322" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A63">
-    <cfRule type="containsText" dxfId="215" priority="1489" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="219" priority="1491" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="214" priority="1490" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="218" priority="1492" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="containsText" dxfId="213" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="217" priority="159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="212" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="216" priority="160" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="containsText" dxfId="211" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="215" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A279)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="210" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="214" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A279,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A238">
-    <cfRule type="containsText" dxfId="209" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="213" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A238)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="208" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="212" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A238,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="containsText" dxfId="207" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="211" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A267)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="206" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="210" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A267,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="containsText" dxfId="205" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="209" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A128)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="204" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="208" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A128,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="containsText" dxfId="203" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="207" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A129)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="202" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="206" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A129,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="201" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="205" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A130)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="200" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="204" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A130,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242:A243">
-    <cfRule type="containsText" dxfId="199" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="203" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="202" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(A242,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198">
-    <cfRule type="containsText" dxfId="197" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="201" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="200" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="containsText" dxfId="195" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="199" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="198" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="containsText" dxfId="193" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="197" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A244)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="192" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="196" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(A244,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="191" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="195" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="194" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
-    <cfRule type="containsText" dxfId="189" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="193" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="188" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="192" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A247,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245">
-    <cfRule type="containsText" dxfId="187" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="191" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A245)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="186" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="190" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A245,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="containsText" dxfId="185" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="189" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A246)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="184" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="188" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A246,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="containsText" dxfId="183" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="187" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="186" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A241,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A283">
-    <cfRule type="containsText" dxfId="181" priority="105" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="185" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A283)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="106" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="184" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A283,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="179" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="183" priority="105" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A202)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="182" priority="106" operator="beginsWith" text="#">
       <formula>LEFT(A202,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A203">
-    <cfRule type="containsText" dxfId="177" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="181" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A203)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="180" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A203,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="containsText" dxfId="175" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="179" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="178" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="containsText" dxfId="173" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="177" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="176" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239">
-    <cfRule type="containsText" dxfId="171" priority="93" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="175" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A239)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="94" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="174" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A239,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A248">
-    <cfRule type="containsText" dxfId="169" priority="91" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="173" priority="93" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A248)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="92" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="172" priority="94" operator="beginsWith" text="#">
       <formula>LEFT(A248,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="containsText" dxfId="167" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="171" priority="91" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A249)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="170" priority="92" operator="beginsWith" text="#">
       <formula>LEFT(A249,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250">
-    <cfRule type="containsText" dxfId="165" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="169" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A250)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="168" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(A250,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199:A201 A66:A67 A69">
-    <cfRule type="containsText" dxfId="163" priority="185" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="167" priority="187" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="186" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="166" priority="188" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="containsText" dxfId="161" priority="2113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="165" priority="2115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="2114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="164" priority="2116" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="containsText" dxfId="159" priority="2225" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="163" priority="2227" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="2226" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="162" priority="2228" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="containsText" dxfId="157" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="161" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A68)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="156" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="160" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(A68,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="containsText" dxfId="155" priority="75" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="159" priority="77" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="76" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="158" priority="78" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="containsText" dxfId="153" priority="71" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="157" priority="73" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A93)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="152" priority="72" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="156" priority="74" operator="beginsWith" text="#">
       <formula>LEFT(A93,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="containsText" dxfId="151" priority="69" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="155" priority="71" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="70" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="154" priority="72" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A210">
-    <cfRule type="containsText" dxfId="149" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="153" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A210)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="152" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A210,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="containsText" dxfId="147" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="151" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A95)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="150" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A95,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="containsText" dxfId="145" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="149" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A237)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="148" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A237,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="143" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="147" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A96)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="142" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="146" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A96,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="containsText" dxfId="141" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="145" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A97)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="144" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A97,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="containsText" dxfId="139" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="143" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="142" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A98,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="137" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="141" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A99)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="136" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="140" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A99,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="containsText" dxfId="135" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="139" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A100)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="138" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A100,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="containsText" dxfId="133" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="137" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A268)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="136" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A268,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:A272">
-    <cfRule type="containsText" dxfId="131" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="135" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A269)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="134" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A269,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="129" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="133" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A113)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="128" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="132" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A113,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45781,7 +45861,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="557" operator="containsText" text="......" id="{2740CB74-BF81-4E7E-8816-79D33A17FB72}">
+          <x14:cfRule type="containsText" priority="559" operator="containsText" text="......" id="{2740CB74-BF81-4E7E-8816-79D33A17FB72}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!#REF!)))</xm:f>
             <x14:dxf>
               <font>
@@ -45790,7 +45870,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="558" operator="beginsWith" text="#" id="{3C7446DC-621E-41C0-8BDA-9CEAF8FB8B99}">
+          <x14:cfRule type="beginsWith" priority="560" operator="beginsWith" text="#" id="{3C7446DC-621E-41C0-8BDA-9CEAF8FB8B99}">
             <xm:f>LEFT(ElastoDyn!#REF!,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45807,7 +45887,7 @@
           <xm:sqref>A168</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="179" operator="containsText" text="......" id="{45986398-BDBB-476E-B707-6E1702F9F4C3}">
+          <x14:cfRule type="containsText" priority="181" operator="containsText" text="......" id="{45986398-BDBB-476E-B707-6E1702F9F4C3}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!#REF!)))</xm:f>
             <x14:dxf>
               <font>
@@ -45816,7 +45896,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="180" operator="beginsWith" text="#" id="{17FE44F8-569E-4B0A-84CB-2C9B419F47BC}">
+          <x14:cfRule type="beginsWith" priority="182" operator="beginsWith" text="#" id="{17FE44F8-569E-4B0A-84CB-2C9B419F47BC}">
             <xm:f>LEFT(ElastoDyn!#REF!,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45833,7 +45913,7 @@
           <xm:sqref>A70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="177" operator="containsText" text="......" id="{FAD408D6-5A15-41F2-AF74-CCCC70BAEABE}">
+          <x14:cfRule type="containsText" priority="179" operator="containsText" text="......" id="{FAD408D6-5A15-41F2-AF74-CCCC70BAEABE}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!#REF!)))</xm:f>
             <x14:dxf>
               <font>
@@ -45842,7 +45922,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="178" operator="beginsWith" text="#" id="{4E32124F-2922-4C24-9834-412E8E65D5FE}">
+          <x14:cfRule type="beginsWith" priority="180" operator="beginsWith" text="#" id="{4E32124F-2922-4C24-9834-412E8E65D5FE}">
             <xm:f>LEFT(ElastoDyn!#REF!,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45859,7 +45939,7 @@
           <xm:sqref>A206</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="175" operator="containsText" text="......" id="{8F043A1C-8E80-49F6-BC48-5D97B0A79BA8}">
+          <x14:cfRule type="containsText" priority="177" operator="containsText" text="......" id="{8F043A1C-8E80-49F6-BC48-5D97B0A79BA8}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A180)))</xm:f>
             <x14:dxf>
               <font>
@@ -45868,7 +45948,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="176" operator="beginsWith" text="#" id="{AA404B8F-E7B1-4F0B-87EB-73313E57DE1F}">
+          <x14:cfRule type="beginsWith" priority="178" operator="beginsWith" text="#" id="{AA404B8F-E7B1-4F0B-87EB-73313E57DE1F}">
             <xm:f>LEFT(ElastoDyn!A180,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45885,7 +45965,7 @@
           <xm:sqref>A208:A209</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="173" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
+          <x14:cfRule type="containsText" priority="175" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A178)))</xm:f>
             <x14:dxf>
               <font>
@@ -45894,7 +45974,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="174" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
+          <x14:cfRule type="beginsWith" priority="176" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
             <xm:f>LEFT(ElastoDyn!A178,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45911,7 +45991,7 @@
           <xm:sqref>A211:A213 A207</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2411" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
+          <x14:cfRule type="containsText" priority="2413" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A207)))</xm:f>
             <x14:dxf>
               <font>
@@ -45920,7 +46000,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2412" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
+          <x14:cfRule type="beginsWith" priority="2414" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
             <xm:f>LEFT(ElastoDyn!A207,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45937,7 +46017,7 @@
           <xm:sqref>A251:A253</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="41" operator="containsText" text="......" id="{1DD295AF-2F2B-4BC3-91EB-4FE7E936BCCB}">
+          <x14:cfRule type="containsText" priority="43" operator="containsText" text="......" id="{1DD295AF-2F2B-4BC3-91EB-4FE7E936BCCB}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!B213)))</xm:f>
             <x14:dxf>
               <font>
@@ -45946,7 +46026,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="42" operator="beginsWith" text="#" id="{FF82794E-64B3-4F5D-9FD7-5316A3A54FC4}">
+          <x14:cfRule type="beginsWith" priority="44" operator="beginsWith" text="#" id="{FF82794E-64B3-4F5D-9FD7-5316A3A54FC4}">
             <xm:f>LEFT(ElastoDyn!B213,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45963,7 +46043,7 @@
           <xm:sqref>B254:B266</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="51" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
+          <x14:cfRule type="containsText" priority="53" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A219)))</xm:f>
             <x14:dxf>
               <font>
@@ -45972,7 +46052,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="52" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
+          <x14:cfRule type="beginsWith" priority="54" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
             <xm:f>LEFT(ElastoDyn!A219,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45989,7 +46069,7 @@
           <xm:sqref>A254:A266</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2455" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
+          <x14:cfRule type="containsText" priority="2457" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A75)))</xm:f>
             <x14:dxf>
               <font>
@@ -45998,7 +46078,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2456" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
+          <x14:cfRule type="beginsWith" priority="2458" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
             <xm:f>LEFT(ElastoDyn!A75,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -47266,266 +47346,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="109" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="113" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="112" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="107" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="111" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="106" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="110" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="105" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="109" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="104" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="108" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A22">
-    <cfRule type="containsText" dxfId="103" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="107" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="102" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="106" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="101" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="105" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="104" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="99" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="103" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="98" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="102" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="97" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="101" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A23)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="100" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A23,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="95" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="99" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A26)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="98" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A26,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="93" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="97" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="92" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="96" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A27,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="91" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="95" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A29)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="94" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A29,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="89" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="93" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="92" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A28,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="87" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="91" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="86" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="90" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A30,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="85" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="89" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="84" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="88" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A31,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="83" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="87" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="82" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="86" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A32,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="81" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="85" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="80" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="84" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A33,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="79" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="83" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="78" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="82" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A34,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="77" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="81" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A35)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="76" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="80" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A35,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="75" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A36)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="78" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A36,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="73" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="77" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A37)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="72" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="76" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A37,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="71" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="75" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="70" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="74" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="69" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="73" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="68" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="72" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="70" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="65" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="68" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="63" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="62" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="66" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="64" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A44)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="62" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A44,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="60" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="58" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="56" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A48)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="54" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A48,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A52:A53">
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A50)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="52" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A50,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A54)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="50" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A54,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A51)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="48" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A51,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47569,9 +47649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56914,42 +56994,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A339:A341">
-    <cfRule type="containsText" dxfId="31" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A339)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="34" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A339,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A287)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="28" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A287,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A294">
-    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A294)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="24" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A294,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A297">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A297)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="22" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A297,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A301)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="20" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A301,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12567" uniqueCount="2255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12567" uniqueCount="2261">
   <si>
     <t>###################################################################################################################################</t>
   </si>
@@ -6909,6 +6909,24 @@
   </si>
   <si>
     <t>"last time the CalcOutput/Bladed DLL was called"</t>
+  </si>
+  <si>
+    <t>DLL_Type</t>
+  </si>
+  <si>
+    <t>DLL_Trgt</t>
+  </si>
+  <si>
+    <t>"The addresses and names of the Bladed DLL and its procedure"</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>FirstWarning</t>
+  </si>
+  <si>
+    <t>"Whether or not this is the first warning about the DLL being called without Explicit-Loose coupling."</t>
   </si>
 </sst>
 </file>
@@ -7096,7 +7114,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="636">
+  <dxfs count="630">
     <dxf>
       <font>
         <u val="none"/>
@@ -12300,19 +12318,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <u val="none"/>
       </font>
@@ -12347,44 +12352,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
           <bgColor theme="2"/>
@@ -13417,10 +13384,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="613" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="617" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="612" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="616" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36260,1394 +36227,1394 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A241:A297 A501:A509 A313 A304 A530:A531 A636:A669 A514 A1:A12 A51 A20:A39 A685:A700 A680:A683 A702:A708 A674:A678 A486 A488:A492 A237:A239 A496:A499 A525 A519:A523 A816:A1048576 A765:A766 A327:A336 A355:A358 A369:A371 A382:A385 A779:A783 A545:A616 A408:A432 A434:A441 A480:A484 A443:A476 A376:A379 A786:A788 A770:A771 A618:A634">
-    <cfRule type="containsText" dxfId="611" priority="819" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="615" priority="819" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="610" priority="820" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="614" priority="820" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="609" priority="807" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="613" priority="807" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="608" priority="808" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="612" priority="808" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17">
-    <cfRule type="containsText" dxfId="607" priority="801" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="611" priority="801" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="606" priority="802" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="610" priority="802" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A53">
-    <cfRule type="containsText" dxfId="605" priority="797" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="609" priority="797" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A52)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="604" priority="798" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="608" priority="798" operator="beginsWith" text="#">
       <formula>LEFT(A52,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="containsText" dxfId="603" priority="795" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="607" priority="795" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A13)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="602" priority="796" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="606" priority="796" operator="beginsWith" text="#">
       <formula>LEFT(A13,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A527">
-    <cfRule type="containsText" dxfId="601" priority="791" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="605" priority="791" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A527)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="600" priority="792" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="604" priority="792" operator="beginsWith" text="#">
       <formula>LEFT(A527,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A526">
-    <cfRule type="containsText" dxfId="599" priority="793" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="603" priority="793" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A526)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="598" priority="794" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="602" priority="794" operator="beginsWith" text="#">
       <formula>LEFT(A526,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A539">
-    <cfRule type="containsText" dxfId="597" priority="789" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="601" priority="789" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A539)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="596" priority="790" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="600" priority="790" operator="beginsWith" text="#">
       <formula>LEFT(A539,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A540">
-    <cfRule type="containsText" dxfId="595" priority="787" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="599" priority="787" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A540)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="594" priority="788" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="598" priority="788" operator="beginsWith" text="#">
       <formula>LEFT(A540,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A537">
-    <cfRule type="containsText" dxfId="593" priority="785" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="597" priority="785" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A537)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="592" priority="786" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="596" priority="786" operator="beginsWith" text="#">
       <formula>LEFT(A537,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A538">
-    <cfRule type="containsText" dxfId="591" priority="783" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="595" priority="783" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A538)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="590" priority="784" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="594" priority="784" operator="beginsWith" text="#">
       <formula>LEFT(A538,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A541">
-    <cfRule type="containsText" dxfId="589" priority="779" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="593" priority="779" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A541)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="588" priority="780" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="592" priority="780" operator="beginsWith" text="#">
       <formula>LEFT(A541,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A500">
-    <cfRule type="containsText" dxfId="587" priority="775" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="591" priority="775" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A500)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="586" priority="776" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="590" priority="776" operator="beginsWith" text="#">
       <formula>LEFT(A500,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A528">
-    <cfRule type="containsText" dxfId="585" priority="773" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="589" priority="773" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A528)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="584" priority="774" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="588" priority="774" operator="beginsWith" text="#">
       <formula>LEFT(A528,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A542">
-    <cfRule type="containsText" dxfId="583" priority="771" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="587" priority="771" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A542)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="582" priority="772" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="586" priority="772" operator="beginsWith" text="#">
       <formula>LEFT(A542,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A635">
-    <cfRule type="containsText" dxfId="581" priority="769" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="585" priority="769" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A635)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="580" priority="770" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="584" priority="770" operator="beginsWith" text="#">
       <formula>LEFT(A635,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A529">
-    <cfRule type="containsText" dxfId="579" priority="763" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="583" priority="763" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A529)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="578" priority="764" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="582" priority="764" operator="beginsWith" text="#">
       <formula>LEFT(A529,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A298:A300">
-    <cfRule type="containsText" dxfId="577" priority="761" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="581" priority="761" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A298)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="576" priority="762" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="580" priority="762" operator="beginsWith" text="#">
       <formula>LEFT(A298,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="575" priority="757" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="579" priority="757" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A301)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="574" priority="758" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="578" priority="758" operator="beginsWith" text="#">
       <formula>LEFT(A301,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302:A303 A305:A310">
-    <cfRule type="containsText" dxfId="573" priority="755" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="577" priority="755" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A302)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="572" priority="756" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="576" priority="756" operator="beginsWith" text="#">
       <formula>LEFT(A302,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A311:A312 A314:A320 A533">
-    <cfRule type="containsText" dxfId="571" priority="753" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="575" priority="753" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A311)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="570" priority="754" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="574" priority="754" operator="beginsWith" text="#">
       <formula>LEFT(A311,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A532">
-    <cfRule type="containsText" dxfId="569" priority="709" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="573" priority="709" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A532)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="568" priority="710" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="572" priority="710" operator="beginsWith" text="#">
       <formula>LEFT(A532,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A322">
-    <cfRule type="containsText" dxfId="567" priority="697" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="571" priority="697" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A322)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="566" priority="698" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="570" priority="698" operator="beginsWith" text="#">
       <formula>LEFT(A322,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A321">
-    <cfRule type="containsText" dxfId="565" priority="699" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="569" priority="699" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A321)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="564" priority="700" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="568" priority="700" operator="beginsWith" text="#">
       <formula>LEFT(A321,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A534">
-    <cfRule type="containsText" dxfId="563" priority="695" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="567" priority="695" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A534)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="562" priority="696" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="566" priority="696" operator="beginsWith" text="#">
       <formula>LEFT(A534,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A535">
-    <cfRule type="containsText" dxfId="561" priority="693" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="565" priority="693" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A535)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="560" priority="694" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="564" priority="694" operator="beginsWith" text="#">
       <formula>LEFT(A535,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A323:A324">
-    <cfRule type="containsText" dxfId="559" priority="691" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="563" priority="691" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A323)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="558" priority="692" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="562" priority="692" operator="beginsWith" text="#">
       <formula>LEFT(A323,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A544">
-    <cfRule type="containsText" dxfId="557" priority="683" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="561" priority="683" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A544)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="556" priority="684" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="560" priority="684" operator="beginsWith" text="#">
       <formula>LEFT(A544,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A543">
-    <cfRule type="containsText" dxfId="555" priority="685" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="559" priority="685" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A543)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="554" priority="686" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="558" priority="686" operator="beginsWith" text="#">
       <formula>LEFT(A543,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A671">
-    <cfRule type="containsText" dxfId="553" priority="653" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="557" priority="653" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A671)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="552" priority="654" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="556" priority="654" operator="beginsWith" text="#">
       <formula>LEFT(A671,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A325:A326 A360">
-    <cfRule type="containsText" dxfId="551" priority="649" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="555" priority="649" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A325)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="550" priority="650" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="554" priority="650" operator="beginsWith" text="#">
       <formula>LEFT(A325,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A381">
-    <cfRule type="containsText" dxfId="549" priority="647" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="553" priority="647" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A381)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="548" priority="648" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="552" priority="648" operator="beginsWith" text="#">
       <formula>LEFT(A381,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A510:A511">
-    <cfRule type="containsText" dxfId="547" priority="643" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="551" priority="643" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A510)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="546" priority="644" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="550" priority="644" operator="beginsWith" text="#">
       <formula>LEFT(A510,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A513">
-    <cfRule type="containsText" dxfId="545" priority="641" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="549" priority="641" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A513)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="544" priority="642" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="548" priority="642" operator="beginsWith" text="#">
       <formula>LEFT(A513,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="543" priority="615" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="547" priority="615" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="542" priority="616" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="546" priority="616" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="541" priority="613" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="545" priority="613" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="540" priority="614" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="544" priority="614" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="539" priority="605" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="543" priority="605" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="538" priority="606" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="542" priority="606" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="537" priority="603" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="541" priority="603" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="536" priority="604" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="540" priority="604" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="535" priority="601" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="539" priority="601" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="534" priority="602" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="538" priority="602" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="533" priority="599" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="537" priority="599" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="532" priority="600" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="536" priority="600" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A709">
-    <cfRule type="containsText" dxfId="531" priority="597" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="535" priority="597" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A709)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="530" priority="598" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="534" priority="598" operator="beginsWith" text="#">
       <formula>LEFT(A709,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A710">
-    <cfRule type="containsText" dxfId="529" priority="595" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="533" priority="595" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A710)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="528" priority="596" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="532" priority="596" operator="beginsWith" text="#">
       <formula>LEFT(A710,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A711">
-    <cfRule type="containsText" dxfId="527" priority="593" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="531" priority="593" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A711)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="526" priority="594" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="530" priority="594" operator="beginsWith" text="#">
       <formula>LEFT(A711,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764">
-    <cfRule type="containsText" dxfId="525" priority="591" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="529" priority="591" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A764)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="524" priority="592" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="528" priority="592" operator="beginsWith" text="#">
       <formula>LEFT(A764,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A713:A716">
-    <cfRule type="containsText" dxfId="523" priority="587" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="527" priority="587" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A713)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="522" priority="588" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="526" priority="588" operator="beginsWith" text="#">
       <formula>LEFT(A713,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A712">
-    <cfRule type="containsText" dxfId="521" priority="583" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="525" priority="583" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A712)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="520" priority="584" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="524" priority="584" operator="beginsWith" text="#">
       <formula>LEFT(A712,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A717:A724">
-    <cfRule type="containsText" dxfId="519" priority="577" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="523" priority="577" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A717)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="518" priority="578" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="522" priority="578" operator="beginsWith" text="#">
       <formula>LEFT(A717,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A725:A735">
-    <cfRule type="containsText" dxfId="517" priority="571" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="521" priority="571" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A725)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="516" priority="572" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="520" priority="572" operator="beginsWith" text="#">
       <formula>LEFT(A725,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736">
-    <cfRule type="containsText" dxfId="515" priority="573" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="519" priority="573" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A736)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="514" priority="574" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="518" priority="574" operator="beginsWith" text="#">
       <formula>LEFT(A736,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A737:A747">
-    <cfRule type="containsText" dxfId="513" priority="565" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="517" priority="565" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A737)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="512" priority="566" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="516" priority="566" operator="beginsWith" text="#">
       <formula>LEFT(A737,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A748">
-    <cfRule type="containsText" dxfId="511" priority="567" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="515" priority="567" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A748)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="510" priority="568" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="514" priority="568" operator="beginsWith" text="#">
       <formula>LEFT(A748,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A749">
-    <cfRule type="containsText" dxfId="509" priority="561" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="513" priority="561" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A749)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="508" priority="562" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="512" priority="562" operator="beginsWith" text="#">
       <formula>LEFT(A749,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A753:A754">
-    <cfRule type="containsText" dxfId="507" priority="551" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="511" priority="551" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A753)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="506" priority="552" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="510" priority="552" operator="beginsWith" text="#">
       <formula>LEFT(A753,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A750">
-    <cfRule type="containsText" dxfId="505" priority="557" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="509" priority="557" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A750)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="504" priority="558" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="508" priority="558" operator="beginsWith" text="#">
       <formula>LEFT(A750,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A751">
-    <cfRule type="containsText" dxfId="503" priority="555" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="507" priority="555" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A751)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="502" priority="556" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="506" priority="556" operator="beginsWith" text="#">
       <formula>LEFT(A751,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A752">
-    <cfRule type="containsText" dxfId="501" priority="553" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="505" priority="553" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A752)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="500" priority="554" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="504" priority="554" operator="beginsWith" text="#">
       <formula>LEFT(A752,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755:A756">
-    <cfRule type="containsText" dxfId="499" priority="547" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="503" priority="547" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A755)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="498" priority="548" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="502" priority="548" operator="beginsWith" text="#">
       <formula>LEFT(A755,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="containsText" dxfId="497" priority="537" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="501" priority="537" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A757)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="496" priority="538" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="500" priority="538" operator="beginsWith" text="#">
       <formula>LEFT(A757,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A536">
-    <cfRule type="containsText" dxfId="495" priority="533" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="499" priority="533" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A536)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="494" priority="534" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="498" priority="534" operator="beginsWith" text="#">
       <formula>LEFT(A536,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A670">
-    <cfRule type="containsText" dxfId="493" priority="503" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="497" priority="503" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A670)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="492" priority="504" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="496" priority="504" operator="beginsWith" text="#">
       <formula>LEFT(A670,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="491" priority="501" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="495" priority="501" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="490" priority="502" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="494" priority="502" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="489" priority="499" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="493" priority="499" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="488" priority="500" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="492" priority="500" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A49">
-    <cfRule type="containsText" dxfId="487" priority="497" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="491" priority="497" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="486" priority="498" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="490" priority="498" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A701">
-    <cfRule type="containsText" dxfId="485" priority="477" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="489" priority="477" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A701)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="484" priority="478" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="488" priority="478" operator="beginsWith" text="#">
       <formula>LEFT(A701,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A673">
-    <cfRule type="containsText" dxfId="483" priority="483" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="487" priority="483" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A673)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="484" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="486" priority="484" operator="beginsWith" text="#">
       <formula>LEFT(A673,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679">
-    <cfRule type="containsText" dxfId="481" priority="479" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="485" priority="479" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A679)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="480" priority="480" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="484" priority="480" operator="beginsWith" text="#">
       <formula>LEFT(A679,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A684">
-    <cfRule type="containsText" dxfId="479" priority="475" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="483" priority="475" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A684)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="478" priority="476" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="482" priority="476" operator="beginsWith" text="#">
       <formula>LEFT(A684,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A485">
-    <cfRule type="containsText" dxfId="477" priority="473" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="481" priority="473" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A485)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="476" priority="474" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="480" priority="474" operator="beginsWith" text="#">
       <formula>LEFT(A485,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A487">
-    <cfRule type="containsText" dxfId="475" priority="463" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="479" priority="463" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A487)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="464" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="478" priority="464" operator="beginsWith" text="#">
       <formula>LEFT(A487,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="containsText" dxfId="473" priority="461" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="477" priority="461" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A758)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="472" priority="462" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="476" priority="462" operator="beginsWith" text="#">
       <formula>LEFT(A758,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90 A100:A102">
-    <cfRule type="containsText" dxfId="471" priority="271" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="475" priority="271" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="470" priority="272" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="474" priority="272" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="containsText" dxfId="469" priority="275" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="473" priority="275" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="276" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="472" priority="276" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126 A113">
-    <cfRule type="containsText" dxfId="467" priority="277" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="471" priority="277" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="278" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="470" priority="278" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A132 A128">
-    <cfRule type="containsText" dxfId="465" priority="279" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="469" priority="279" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="280" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="468" priority="280" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="containsText" dxfId="463" priority="281" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="467" priority="281" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="462" priority="282" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="466" priority="282" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="461" priority="283" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="465" priority="283" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="284" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="464" priority="284" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="containsText" dxfId="459" priority="285" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="463" priority="285" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="286" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="462" priority="286" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="containsText" dxfId="457" priority="287" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="461" priority="287" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="456" priority="288" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="460" priority="288" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="containsText" dxfId="455" priority="289" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="459" priority="289" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="454" priority="290" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="458" priority="290" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136 A147">
-    <cfRule type="containsText" dxfId="453" priority="291" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="457" priority="291" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="292" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="456" priority="292" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149">
-    <cfRule type="containsText" dxfId="451" priority="293" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="455" priority="293" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="450" priority="294" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="454" priority="294" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="containsText" dxfId="449" priority="295" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="453" priority="295" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="448" priority="296" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="452" priority="296" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A493">
-    <cfRule type="containsText" dxfId="447" priority="217" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="451" priority="217" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A493)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="446" priority="218" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="450" priority="218" operator="beginsWith" text="#">
       <formula>LEFT(A493,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A494">
-    <cfRule type="containsText" dxfId="445" priority="215" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="449" priority="215" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A494)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="444" priority="216" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="448" priority="216" operator="beginsWith" text="#">
       <formula>LEFT(A494,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A524">
-    <cfRule type="containsText" dxfId="443" priority="213" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="447" priority="213" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A524)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="442" priority="214" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="446" priority="214" operator="beginsWith" text="#">
       <formula>LEFT(A524,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A773">
-    <cfRule type="containsText" dxfId="441" priority="211" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="445" priority="211" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A773)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="212" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="444" priority="212" operator="beginsWith" text="#">
       <formula>LEFT(A773,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A86">
-    <cfRule type="containsText" dxfId="439" priority="1403" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="443" priority="1403" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="438" priority="1404" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="442" priority="1404" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A789">
-    <cfRule type="containsText" dxfId="437" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="441" priority="203" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A789)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="440" priority="204" operator="beginsWith" text="#">
       <formula>LEFT(A789,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791">
-    <cfRule type="containsText" dxfId="435" priority="199" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="439" priority="199" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A791)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="200" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="438" priority="200" operator="beginsWith" text="#">
       <formula>LEFT(A791,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A790">
-    <cfRule type="containsText" dxfId="433" priority="201" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="437" priority="201" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A790)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="202" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="436" priority="202" operator="beginsWith" text="#">
       <formula>LEFT(A790,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A793">
-    <cfRule type="containsText" dxfId="431" priority="197" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="435" priority="197" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A793)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="430" priority="198" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="434" priority="198" operator="beginsWith" text="#">
       <formula>LEFT(A793,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A797:A800">
-    <cfRule type="containsText" dxfId="429" priority="189" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="433" priority="189" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A797)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="190" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="432" priority="190" operator="beginsWith" text="#">
       <formula>LEFT(A797,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798">
-    <cfRule type="containsText" dxfId="427" priority="187" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="431" priority="187" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="188" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="430" priority="188" operator="beginsWith" text="#">
       <formula>LEFT(A798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A799">
-    <cfRule type="containsText" dxfId="425" priority="185" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="429" priority="185" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="186" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="428" priority="186" operator="beginsWith" text="#">
       <formula>LEFT(A799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A800">
-    <cfRule type="containsText" dxfId="423" priority="183" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="427" priority="183" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="422" priority="184" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="426" priority="184" operator="beginsWith" text="#">
       <formula>LEFT(A800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A794">
-    <cfRule type="containsText" dxfId="421" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="425" priority="181" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A794)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="424" priority="182" operator="beginsWith" text="#">
       <formula>LEFT(A794,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A672">
-    <cfRule type="containsText" dxfId="419" priority="177" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="423" priority="177" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A672)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="178" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="422" priority="178" operator="beginsWith" text="#">
       <formula>LEFT(A672,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A339">
-    <cfRule type="containsText" dxfId="417" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="421" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A339)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="420" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(A339,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A337">
-    <cfRule type="containsText" dxfId="415" priority="171" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="419" priority="171" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A337)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="414" priority="172" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="418" priority="172" operator="beginsWith" text="#">
       <formula>LEFT(A337,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A338">
-    <cfRule type="containsText" dxfId="413" priority="169" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="417" priority="169" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A338)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="412" priority="170" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="416" priority="170" operator="beginsWith" text="#">
       <formula>LEFT(A338,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A340">
-    <cfRule type="containsText" dxfId="411" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="415" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A340)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="414" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A340,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341">
-    <cfRule type="containsText" dxfId="409" priority="163" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="413" priority="163" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A341)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="408" priority="164" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="412" priority="164" operator="beginsWith" text="#">
       <formula>LEFT(A341,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A342">
-    <cfRule type="containsText" dxfId="407" priority="161" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="411" priority="161" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A342)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="406" priority="162" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="410" priority="162" operator="beginsWith" text="#">
       <formula>LEFT(A342,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343">
-    <cfRule type="containsText" dxfId="405" priority="159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="409" priority="159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A343)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="404" priority="160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="408" priority="160" operator="beginsWith" text="#">
       <formula>LEFT(A343,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A344">
-    <cfRule type="containsText" dxfId="403" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="407" priority="157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A344)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="406" priority="158" operator="beginsWith" text="#">
       <formula>LEFT(A344,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345">
-    <cfRule type="containsText" dxfId="401" priority="155" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="405" priority="155" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A345)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="156" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="404" priority="156" operator="beginsWith" text="#">
       <formula>LEFT(A345,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A347">
-    <cfRule type="containsText" dxfId="399" priority="151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="403" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A347)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="398" priority="152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="402" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A347,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A348">
-    <cfRule type="containsText" dxfId="397" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="401" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A348)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="400" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A348,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A349">
-    <cfRule type="containsText" dxfId="395" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="399" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A349)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="398" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A349,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A350">
-    <cfRule type="containsText" dxfId="393" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="397" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A350)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="392" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="396" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A350,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A351">
-    <cfRule type="containsText" dxfId="391" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="395" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A351)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="390" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="394" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A351,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A352">
-    <cfRule type="containsText" dxfId="389" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="393" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A352)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="392" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A352,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A353">
-    <cfRule type="containsText" dxfId="387" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="391" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A353)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="386" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="390" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A353,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A361:A367">
-    <cfRule type="containsText" dxfId="385" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="389" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A361)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="384" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="388" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A361,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A359">
-    <cfRule type="containsText" dxfId="383" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="387" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A359)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="382" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="386" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A359,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A368 A372:A375">
-    <cfRule type="containsText" dxfId="381" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="385" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A368)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="380" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="384" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(A368,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A380">
-    <cfRule type="containsText" dxfId="379" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="383" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A380)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="378" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="382" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A380,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A391">
-    <cfRule type="containsText" dxfId="377" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="381" priority="129" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A391)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="380" priority="130" operator="beginsWith" text="#">
       <formula>LEFT(A391,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A354">
-    <cfRule type="containsText" dxfId="375" priority="127" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="379" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A354)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="374" priority="128" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="378" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A354,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A386">
-    <cfRule type="containsText" dxfId="373" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="377" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A386)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="376" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A386,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A387">
-    <cfRule type="containsText" dxfId="371" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="375" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A387)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="374" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(A387,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A388">
-    <cfRule type="containsText" dxfId="369" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="373" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A388)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="372" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A388,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A389">
-    <cfRule type="containsText" dxfId="367" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="371" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A389)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="366" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="370" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A389,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A390">
-    <cfRule type="containsText" dxfId="365" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="369" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A390)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="368" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A390,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A392">
-    <cfRule type="containsText" dxfId="363" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="367" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A392)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="366" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A392,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A393">
-    <cfRule type="containsText" dxfId="361" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="365" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A393)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="364" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A393,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A433">
-    <cfRule type="containsText" dxfId="359" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="363" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A433)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="358" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="362" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A433,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A394">
-    <cfRule type="containsText" dxfId="357" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="361" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A394)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="360" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A394,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A395:A402">
-    <cfRule type="containsText" dxfId="355" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="359" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A395)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="358" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A395,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A406">
-    <cfRule type="containsText" dxfId="353" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="357" priority="97" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A406)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="356" priority="98" operator="beginsWith" text="#">
       <formula>LEFT(A406,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A404">
-    <cfRule type="containsText" dxfId="351" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="355" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A404)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="350" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="354" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A404,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A403">
-    <cfRule type="containsText" dxfId="349" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="353" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A403)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="348" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="352" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A403,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A405">
-    <cfRule type="containsText" dxfId="347" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="351" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A405)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="350" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A405,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A407">
-    <cfRule type="containsText" dxfId="345" priority="95" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="349" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A407)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="344" priority="96" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="348" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A407,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A759">
-    <cfRule type="containsText" dxfId="343" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="347" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A759)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="342" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="346" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(A759,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="containsText" dxfId="341" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="345" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A760)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="340" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="344" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(A760,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A346">
-    <cfRule type="containsText" dxfId="339" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="343" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A346)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="342" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(A346,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A477">
-    <cfRule type="containsText" dxfId="337" priority="83" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="341" priority="83" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A477)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="84" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="340" priority="84" operator="beginsWith" text="#">
       <formula>LEFT(A477,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A478">
-    <cfRule type="containsText" dxfId="335" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="339" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A478)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="334" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="338" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(A478,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A479">
-    <cfRule type="containsText" dxfId="333" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="337" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A479)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="336" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(A479,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A516">
-    <cfRule type="containsText" dxfId="331" priority="77" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="335" priority="77" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A516)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="78" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="334" priority="78" operator="beginsWith" text="#">
       <formula>LEFT(A516,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A512">
-    <cfRule type="containsText" dxfId="329" priority="75" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="333" priority="75" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A512)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="328" priority="76" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="332" priority="76" operator="beginsWith" text="#">
       <formula>LEFT(A512,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A795">
-    <cfRule type="containsText" dxfId="327" priority="71" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="331" priority="71" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A795)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="326" priority="72" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="330" priority="72" operator="beginsWith" text="#">
       <formula>LEFT(A795,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A761">
-    <cfRule type="containsText" dxfId="325" priority="67" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="329" priority="67" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A761)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="68" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="328" priority="68" operator="beginsWith" text="#">
       <formula>LEFT(A761,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A236">
-    <cfRule type="containsText" dxfId="323" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="327" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A236)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="326" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A236,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796">
-    <cfRule type="containsText" dxfId="321" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="325" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="324" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A796,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:A162 A164:A235">
-    <cfRule type="containsText" dxfId="319" priority="381" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="323" priority="381" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="318" priority="382" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="322" priority="382" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148 A150 A140 A142:A146 A61 A63:A64 A67:A75 A77:A78 A82:A84 A54 A56:A59">
-    <cfRule type="containsText" dxfId="317" priority="269" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="321" priority="269" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="316" priority="270" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="320" priority="270" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="315" priority="1417" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="319" priority="1417" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="314" priority="1418" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="318" priority="1418" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:A135 A138 A114:A125 A97:A98 A89 A87 A91:A95">
-    <cfRule type="containsText" dxfId="313" priority="1699" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="317" priority="1699" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="312" priority="1700" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="316" priority="1700" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109 A103:A104 A106:A107">
-    <cfRule type="containsText" dxfId="311" priority="1759" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="315" priority="1759" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="310" priority="1760" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="314" priority="1760" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="309" priority="1821" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="313" priority="1821" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="308" priority="1822" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="312" priority="1822" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="containsText" dxfId="307" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="311" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="306" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="310" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="containsText" dxfId="305" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="309" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="304" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="308" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762">
-    <cfRule type="containsText" dxfId="303" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="307" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="302" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="306" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A763">
-    <cfRule type="containsText" dxfId="301" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="305" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="300" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="304" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801">
-    <cfRule type="containsText" dxfId="299" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="303" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A801)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="298" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="302" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A801,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A802">
-    <cfRule type="containsText" dxfId="297" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="301" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="296" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="300" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A796,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B806:B814">
-    <cfRule type="containsText" dxfId="295" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="299" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="294" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="298" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(B800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B803">
-    <cfRule type="containsText" dxfId="293" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="297" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B797)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="292" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="296" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(B797,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A803">
-    <cfRule type="containsText" dxfId="291" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="295" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A803)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="290" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="294" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A803,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804">
-    <cfRule type="containsText" dxfId="289" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="293" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A804)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="288" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="292" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A804,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B804">
-    <cfRule type="containsText" dxfId="287" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="291" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="286" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="290" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(B798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A805">
-    <cfRule type="containsText" dxfId="285" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="289" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="284" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="288" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A805,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B805">
-    <cfRule type="containsText" dxfId="283" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="287" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="282" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="286" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(B799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A806:A814">
-    <cfRule type="containsText" dxfId="281" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="285" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A806)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="280" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="284" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A806,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B815">
-    <cfRule type="containsText" dxfId="279" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="283" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B779)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="278" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="282" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(B779,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A815">
-    <cfRule type="containsText" dxfId="277" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="281" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A786)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="280" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A786,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A784:A785">
-    <cfRule type="containsText" dxfId="275" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="279" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A784)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="274" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="278" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A784,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="containsText" dxfId="273" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="277" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A768)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="272" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="276" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A768,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769">
-    <cfRule type="containsText" dxfId="271" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="275" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A769)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="270" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="274" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A769,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="containsText" dxfId="269" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="273" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="272" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A617">
-    <cfRule type="containsText" dxfId="267" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="271" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="270" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="containsText" dxfId="249" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="255" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A767)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="248" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="254" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A767,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37658,7 +37625,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="531" operator="containsText" text="......" id="{465F9812-1C00-47A7-97E2-89B77398E1B1}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A809)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A808)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -37667,7 +37634,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="532" operator="beginsWith" text="#" id="{900241AA-A787-44C0-BE12-6FDEB9E0011A}">
-            <xm:f>LEFT(ServoDyn!A809,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A808,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -37684,7 +37651,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="255" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A621)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A620)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -37693,7 +37660,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="256" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
-            <xm:f>LEFT(ServoDyn!A621,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A620,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -37710,7 +37677,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="195" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A812)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A811)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -37719,7 +37686,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="196" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
-            <xm:f>LEFT(ServoDyn!A812,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A811,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -37736,7 +37703,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="179" operator="containsText" text="......" id="{5A5F5B76-44F7-40B2-B037-173F2905189B}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A815)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A814)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -37745,7 +37712,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="180" operator="beginsWith" text="#" id="{804DB11F-C4AE-4232-8FBE-AF82706C5D95}">
-            <xm:f>LEFT(ServoDyn!A815,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A814,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -37762,7 +37729,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2303" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A622)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A621)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -37771,7 +37738,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="2304" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
-            <xm:f>LEFT(ServoDyn!A622,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A621,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -37788,7 +37755,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2337" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A805)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A804)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -37797,7 +37764,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="2338" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
-            <xm:f>LEFT(ServoDyn!A805,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A804,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -37814,7 +37781,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2343" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A599)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A179)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -37823,32 +37790,6 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="2344" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
-            <xm:f>LEFT(ServoDyn!A599,LEN("#"))="#"</xm:f>
-            <x14:dxf>
-              <font>
-                <u val="none"/>
-              </font>
-              <numFmt numFmtId="30" formatCode="@"/>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A495</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2465" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A179)))</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2466" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A179,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -37862,7 +37803,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A76</xm:sqref>
+          <xm:sqref>A495 A76</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -37872,11 +37813,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J283"/>
+  <dimension ref="A1:J282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+      <pane ySplit="11" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41339,6 +41280,38 @@
         <v>1173</v>
       </c>
     </row>
+    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>2260</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="142" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>13</v>
@@ -43365,67 +43338,67 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B212" s="5" t="s">
+    <row r="212" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D212" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>1666</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H212" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I212" s="10" t="s">
-        <v>1670</v>
-      </c>
-      <c r="J212" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B213" s="5" t="s">
+      <c r="D212" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H212" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J212" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D213" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H213" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I213" s="10" t="s">
-        <v>1669</v>
-      </c>
-      <c r="J213" s="5" t="s">
+      <c r="D213" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H213" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J213" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -43440,10 +43413,10 @@
         <v>43</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>1739</v>
+        <v>1763</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>26</v>
@@ -43455,10 +43428,10 @@
         <v>26</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="J214" s="6" t="s">
-        <v>26</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="215" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43472,10 +43445,10 @@
         <v>43</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>26</v>
@@ -43487,10 +43460,10 @@
         <v>26</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="J215" s="6" t="s">
-        <v>26</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="216" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43507,7 +43480,7 @@
         <v>34</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>26</v>
@@ -43519,10 +43492,10 @@
         <v>26</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>1741</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="217" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43539,7 +43512,7 @@
         <v>34</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>26</v>
@@ -43551,10 +43524,10 @@
         <v>26</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>1493</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="218" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43571,7 +43544,7 @@
         <v>34</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>26</v>
@@ -43583,7 +43556,7 @@
         <v>26</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="J218" s="6" t="s">
         <v>1170</v>
@@ -43603,10 +43576,10 @@
         <v>34</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>26</v>
@@ -43615,7 +43588,7 @@
         <v>26</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="J219" s="6" t="s">
         <v>1170</v>
@@ -43635,7 +43608,7 @@
         <v>34</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>26</v>
@@ -43647,10 +43620,10 @@
         <v>26</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>1170</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="221" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43667,7 +43640,7 @@
         <v>34</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="F221" s="6" t="s">
         <v>31</v>
@@ -43679,10 +43652,10 @@
         <v>26</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>1750</v>
-      </c>
-      <c r="J221" s="6" t="s">
-        <v>1170</v>
+        <v>1751</v>
+      </c>
+      <c r="J221" s="5" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="222" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43699,7 +43672,7 @@
         <v>34</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>26</v>
@@ -43711,10 +43684,10 @@
         <v>26</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>1748</v>
-      </c>
-      <c r="J222" s="6" t="s">
-        <v>1749</v>
+        <v>1752</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="223" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43731,10 +43704,10 @@
         <v>34</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>1760</v>
+        <v>1769</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>26</v>
@@ -43743,10 +43716,10 @@
         <v>26</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="J223" s="5" t="s">
-        <v>1749</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="224" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43763,7 +43736,7 @@
         <v>34</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>26</v>
@@ -43775,7 +43748,7 @@
         <v>26</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="J224" s="5" t="s">
         <v>1169</v>
@@ -43795,7 +43768,7 @@
         <v>34</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>26</v>
@@ -43807,10 +43780,10 @@
         <v>26</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="J225" s="5" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="226" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43827,7 +43800,7 @@
         <v>34</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>26</v>
@@ -43839,10 +43812,10 @@
         <v>26</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="J226" s="5" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="227" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -43859,7 +43832,7 @@
         <v>34</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>26</v>
@@ -43871,157 +43844,157 @@
         <v>26</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="J227" s="5" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D228" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>1772</v>
-      </c>
-      <c r="F228" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H228" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I228" s="6" t="s">
-        <v>1756</v>
+      <c r="D228" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I228" s="10" t="s">
+        <v>1671</v>
       </c>
       <c r="J228" s="5" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D229" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F229" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H229" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I229" s="6" t="s">
-        <v>1757</v>
+      <c r="D229" s="5" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I229" s="10" t="s">
+        <v>2257</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>1668</v>
-      </c>
-      <c r="F230" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G230" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H230" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I230" s="10" t="s">
-        <v>1671</v>
-      </c>
-      <c r="J230" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I231" s="12"/>
     </row>
     <row r="232" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I232" s="12"/>
     </row>
     <row r="233" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I233" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I233" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="234" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I234" s="12"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D234" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H234" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I234" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J234" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I235" s="12"/>
+      <c r="D235" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I235" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
@@ -44037,10 +44010,10 @@
         <v>34</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>1097</v>
+        <v>1472</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>26</v>
@@ -44048,8 +44021,8 @@
       <c r="H236" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I236" s="10" t="s">
-        <v>1466</v>
+      <c r="I236" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="J236" s="5" t="s">
         <v>256</v>
@@ -44069,7 +44042,7 @@
         <v>34</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>26</v>
@@ -44081,10 +44054,10 @@
         <v>26</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="J237" s="5" t="s">
-        <v>256</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -44101,7 +44074,7 @@
         <v>34</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>1473</v>
+        <v>1492</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>26</v>
@@ -44113,7 +44086,7 @@
         <v>26</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>1474</v>
+        <v>1661</v>
       </c>
       <c r="J238" s="5" t="s">
         <v>1170</v>
@@ -44133,7 +44106,7 @@
         <v>34</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>1492</v>
+        <v>1515</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>26</v>
@@ -44145,7 +44118,7 @@
         <v>26</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>1661</v>
+        <v>1516</v>
       </c>
       <c r="J239" s="5" t="s">
         <v>1170</v>
@@ -44165,7 +44138,7 @@
         <v>34</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>1515</v>
+        <v>1082</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>26</v>
@@ -44177,7 +44150,7 @@
         <v>26</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="J240" s="5" t="s">
         <v>1170</v>
@@ -44197,7 +44170,7 @@
         <v>34</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>1082</v>
+        <v>1481</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>26</v>
@@ -44209,10 +44182,10 @@
         <v>26</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>1508</v>
+        <v>1782</v>
       </c>
       <c r="J241" s="5" t="s">
-        <v>1170</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -44229,7 +44202,7 @@
         <v>34</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>26</v>
@@ -44241,10 +44214,10 @@
         <v>26</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>256</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -44261,10 +44234,10 @@
         <v>34</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>1482</v>
+        <v>1488</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>26</v>
@@ -44273,10 +44246,10 @@
         <v>26</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>1783</v>
+        <v>1489</v>
       </c>
       <c r="J243" s="5" t="s">
-        <v>1170</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -44293,10 +44266,10 @@
         <v>34</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>1488</v>
+        <v>1505</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>26</v>
@@ -44304,11 +44277,11 @@
       <c r="H244" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I244" s="5" t="s">
-        <v>1489</v>
+      <c r="I244" s="10" t="s">
+        <v>1785</v>
       </c>
       <c r="J244" s="5" t="s">
-        <v>256</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -44325,7 +44298,7 @@
         <v>34</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>26</v>
@@ -44337,13 +44310,13 @@
         <v>26</v>
       </c>
       <c r="I245" s="10" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J245" s="5" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>22</v>
       </c>
@@ -44357,7 +44330,7 @@
         <v>34</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>26</v>
@@ -44369,141 +44342,141 @@
         <v>26</v>
       </c>
       <c r="I246" s="10" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C247" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B247" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C247" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D247" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F247" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G247" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H247" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I247" s="10" t="s">
-        <v>1786</v>
-      </c>
-      <c r="J247" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B248" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C248" s="15" t="s">
+      <c r="D247" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E247" s="15" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F247" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G247" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H247" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I247" s="16" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J247" s="15" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C248" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D248" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E248" s="15" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F248" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G248" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H248" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I248" s="16" t="s">
-        <v>1645</v>
-      </c>
-      <c r="J248" s="15" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C249" s="5" t="s">
+      <c r="D248" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I248" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D249" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E249" s="5" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G249" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H249" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I249" s="10" t="s">
-        <v>1656</v>
-      </c>
-      <c r="J249" s="5" t="s">
+      <c r="D249" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E249" s="18" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F249" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G249" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H249" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I249" s="19" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J249" s="18" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="250" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B250" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C250" s="18" t="s">
+    <row r="250" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D250" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E250" s="18" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F250" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G250" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H250" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I250" s="19" t="s">
-        <v>1658</v>
-      </c>
-      <c r="J250" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D250" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I250" s="10" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>22</v>
       </c>
@@ -44517,10 +44490,10 @@
         <v>34</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>753</v>
+        <v>26</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>26</v>
@@ -44529,13 +44502,13 @@
         <v>26</v>
       </c>
       <c r="I251" s="10" t="s">
-        <v>1679</v>
+        <v>1686</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>22</v>
       </c>
@@ -44549,7 +44522,7 @@
         <v>34</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>26</v>
@@ -44561,13 +44534,13 @@
         <v>26</v>
       </c>
       <c r="I252" s="10" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J252" s="5" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>22</v>
       </c>
@@ -44581,7 +44554,7 @@
         <v>34</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="F253" s="5" t="s">
         <v>26</v>
@@ -44593,13 +44566,13 @@
         <v>26</v>
       </c>
       <c r="I253" s="10" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>22</v>
       </c>
@@ -44613,10 +44586,10 @@
         <v>34</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>26</v>
+        <v>753</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>26</v>
@@ -44625,10 +44598,10 @@
         <v>26</v>
       </c>
       <c r="I254" s="10" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>256</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -44645,10 +44618,10 @@
         <v>34</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>753</v>
+        <v>26</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>26</v>
@@ -44657,7 +44630,7 @@
         <v>26</v>
       </c>
       <c r="I255" s="10" t="s">
-        <v>1690</v>
+        <v>1701</v>
       </c>
       <c r="J255" s="5" t="s">
         <v>1165</v>
@@ -44677,7 +44650,7 @@
         <v>34</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>26</v>
@@ -44709,7 +44682,7 @@
         <v>34</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>26</v>
@@ -44721,7 +44694,7 @@
         <v>26</v>
       </c>
       <c r="I257" s="10" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="J257" s="5" t="s">
         <v>1165</v>
@@ -44741,7 +44714,7 @@
         <v>34</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>26</v>
@@ -44759,7 +44732,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>22</v>
       </c>
@@ -44773,7 +44746,7 @@
         <v>34</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="F259" s="5" t="s">
         <v>26</v>
@@ -44785,7 +44758,7 @@
         <v>26</v>
       </c>
       <c r="I259" s="10" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="J259" s="5" t="s">
         <v>1165</v>
@@ -44805,7 +44778,7 @@
         <v>34</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>26</v>
@@ -44817,13 +44790,13 @@
         <v>26</v>
       </c>
       <c r="I260" s="10" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="J260" s="5" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>22</v>
       </c>
@@ -44837,7 +44810,7 @@
         <v>34</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>26</v>
@@ -44849,10 +44822,10 @@
         <v>26</v>
       </c>
       <c r="I261" s="10" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="J261" s="5" t="s">
-        <v>1165</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -44869,7 +44842,7 @@
         <v>34</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="F262" s="5" t="s">
         <v>26</v>
@@ -44901,7 +44874,7 @@
         <v>34</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>26</v>
@@ -44919,7 +44892,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>22</v>
       </c>
@@ -44932,23 +44905,23 @@
       <c r="D264" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E264" s="5" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G264" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H264" s="5" t="s">
+      <c r="E264" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F264" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G264" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H264" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I264" s="10" t="s">
-        <v>1705</v>
-      </c>
-      <c r="J264" s="5" t="s">
-        <v>1706</v>
+        <v>1775</v>
+      </c>
+      <c r="J264" s="10" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="265" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -44965,7 +44938,7 @@
         <v>34</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="F265" s="10" t="s">
         <v>26</v>
@@ -44977,13 +44950,13 @@
         <v>26</v>
       </c>
       <c r="I265" s="10" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="J265" s="10" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>22</v>
       </c>
@@ -44996,23 +44969,23 @@
       <c r="D266" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E266" s="10" t="s">
-        <v>1777</v>
-      </c>
-      <c r="F266" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G266" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H266" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I266" s="10" t="s">
-        <v>1778</v>
-      </c>
-      <c r="J266" s="10" t="s">
-        <v>1779</v>
+      <c r="E266" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J266" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -45029,7 +45002,7 @@
         <v>34</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>1672</v>
+        <v>1791</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>26</v>
@@ -45040,11 +45013,11 @@
       <c r="H267" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I267" s="5" t="s">
-        <v>1780</v>
+      <c r="I267" s="10" t="s">
+        <v>1792</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>256</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -45061,7 +45034,7 @@
         <v>34</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>26</v>
@@ -45073,95 +45046,95 @@
         <v>26</v>
       </c>
       <c r="I268" s="10" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G269" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H269" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I269" s="10" t="s">
-        <v>1796</v>
-      </c>
-      <c r="J269" s="5" t="s">
         <v>1165</v>
       </c>
+    </row>
+    <row r="272" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I272" s="12"/>
     </row>
     <row r="273" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I273" s="12"/>
     </row>
     <row r="274" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I274" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I274" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="275" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C275" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I275" s="12"/>
+    </row>
+    <row r="276" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D275" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G275" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H275" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I275" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J275" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I276" s="12"/>
-    </row>
-    <row r="277" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D276" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I276" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>22</v>
       </c>
@@ -45175,7 +45148,7 @@
         <v>34</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>52</v>
+        <v>1098</v>
       </c>
       <c r="F277" s="5" t="s">
         <v>31</v>
@@ -45187,10 +45160,10 @@
         <v>26</v>
       </c>
       <c r="I277" s="10" t="s">
-        <v>85</v>
+        <v>1099</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -45207,10 +45180,10 @@
         <v>34</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>1098</v>
+        <v>1469</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G278" s="5" t="s">
         <v>26</v>
@@ -45219,10 +45192,10 @@
         <v>26</v>
       </c>
       <c r="I278" s="10" t="s">
-        <v>1099</v>
+        <v>1470</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>256</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -45239,7 +45212,7 @@
         <v>34</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>1469</v>
+        <v>1003</v>
       </c>
       <c r="F279" s="5" t="s">
         <v>26</v>
@@ -45251,7 +45224,7 @@
         <v>26</v>
       </c>
       <c r="I279" s="10" t="s">
-        <v>1470</v>
+        <v>1044</v>
       </c>
       <c r="J279" s="5" t="s">
         <v>1165</v>
@@ -45271,7 +45244,7 @@
         <v>34</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="F280" s="5" t="s">
         <v>26</v>
@@ -45283,7 +45256,7 @@
         <v>26</v>
       </c>
       <c r="I280" s="10" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="J280" s="5" t="s">
         <v>1165</v>
@@ -45303,7 +45276,7 @@
         <v>34</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="F281" s="5" t="s">
         <v>26</v>
@@ -45315,10 +45288,10 @@
         <v>26</v>
       </c>
       <c r="I281" s="10" t="s">
-        <v>1047</v>
+        <v>1507</v>
       </c>
       <c r="J281" s="5" t="s">
-        <v>1165</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -45335,10 +45308,10 @@
         <v>34</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>995</v>
+        <v>1510</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G282" s="5" t="s">
         <v>26</v>
@@ -45347,507 +45320,483 @@
         <v>26</v>
       </c>
       <c r="I282" s="10" t="s">
-        <v>1507</v>
-      </c>
-      <c r="J282" s="5" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D283" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F283" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G283" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H283" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I283" s="10" t="s">
         <v>1509</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A13 A18 A232:A236 A273:A278 A108:A112 A141:A167 A280:A282 A285 A287:A1048576 A170:A196 A131:A134 A101:A104 A114:A127">
-    <cfRule type="containsText" dxfId="247" priority="301" operator="containsText" text="......">
+  <conditionalFormatting sqref="A1:A13 A18 A231:A235 A272:A277 A108:A112 A141:A167 A279:A281 A284 A286:A1048576 A170:A196 A131:A134 A101:A104 A114:A127">
+    <cfRule type="containsText" dxfId="253" priority="303" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="246" priority="302" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="252" priority="304" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="245" priority="293" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="251" priority="295" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="244" priority="294" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="250" priority="296" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="243" priority="291" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="249" priority="293" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="292" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="248" priority="294" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="containsText" dxfId="241" priority="289" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="247" priority="291" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="240" priority="290" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="246" priority="292" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="containsText" dxfId="239" priority="287" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="245" priority="289" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="238" priority="288" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="244" priority="290" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204">
-    <cfRule type="containsText" dxfId="237" priority="215" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="243" priority="217" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A204)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="236" priority="216" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="242" priority="218" operator="beginsWith" text="#">
       <formula>LEFT(A204,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169">
-    <cfRule type="containsText" dxfId="235" priority="205" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="241" priority="207" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A169)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="234" priority="206" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="240" priority="208" operator="beginsWith" text="#">
       <formula>LEFT(A169,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="containsText" dxfId="233" priority="195" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="239" priority="197" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A105)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="232" priority="196" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="238" priority="198" operator="beginsWith" text="#">
       <formula>LEFT(A105,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="containsText" dxfId="231" priority="173" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="237" priority="175" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A205)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="230" priority="174" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="236" priority="176" operator="beginsWith" text="#">
       <formula>LEFT(A205,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A231">
-    <cfRule type="containsText" dxfId="229" priority="157" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A231)))</formula>
+  <conditionalFormatting sqref="A230">
+    <cfRule type="containsText" dxfId="235" priority="159" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A230)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="228" priority="158" operator="beginsWith" text="#">
-      <formula>LEFT(A231,LEN("#"))="#"</formula>
+    <cfRule type="beginsWith" dxfId="234" priority="160" operator="beginsWith" text="#">
+      <formula>LEFT(A230,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="227" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="233" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="226" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="232" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A58">
-    <cfRule type="containsText" dxfId="225" priority="1101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="231" priority="1103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="224" priority="1102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="230" priority="1104" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A43">
-    <cfRule type="containsText" dxfId="223" priority="1151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="229" priority="1153" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="222" priority="1152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="228" priority="1154" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="containsText" dxfId="221" priority="1321" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="227" priority="1323" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="220" priority="1322" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="226" priority="1324" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A63">
-    <cfRule type="containsText" dxfId="219" priority="1491" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="225" priority="1493" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="218" priority="1492" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="224" priority="1494" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="containsText" dxfId="217" priority="159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="223" priority="161" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="216" priority="160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="222" priority="162" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A279">
-    <cfRule type="containsText" dxfId="215" priority="151" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A279)))</formula>
+  <conditionalFormatting sqref="A278">
+    <cfRule type="containsText" dxfId="221" priority="153" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A278)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="214" priority="152" operator="beginsWith" text="#">
-      <formula>LEFT(A279,LEN("#"))="#"</formula>
+    <cfRule type="beginsWith" dxfId="220" priority="154" operator="beginsWith" text="#">
+      <formula>LEFT(A278,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A238">
-    <cfRule type="containsText" dxfId="213" priority="141" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A238)))</formula>
+  <conditionalFormatting sqref="A237">
+    <cfRule type="containsText" dxfId="219" priority="143" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A237)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="212" priority="142" operator="beginsWith" text="#">
-      <formula>LEFT(A238,LEN("#"))="#"</formula>
+    <cfRule type="beginsWith" dxfId="218" priority="144" operator="beginsWith" text="#">
+      <formula>LEFT(A237,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A267">
-    <cfRule type="containsText" dxfId="211" priority="143" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A267)))</formula>
+  <conditionalFormatting sqref="A266">
+    <cfRule type="containsText" dxfId="217" priority="145" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A266)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="210" priority="144" operator="beginsWith" text="#">
-      <formula>LEFT(A267,LEN("#"))="#"</formula>
+    <cfRule type="beginsWith" dxfId="216" priority="146" operator="beginsWith" text="#">
+      <formula>LEFT(A266,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="containsText" dxfId="209" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="215" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A128)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="208" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="214" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A128,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="containsText" dxfId="207" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="213" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A129)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="206" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="212" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A129,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="205" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="211" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A130)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="204" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="210" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A130,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A242:A243">
-    <cfRule type="containsText" dxfId="203" priority="133" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
+  <conditionalFormatting sqref="A241:A242">
+    <cfRule type="containsText" dxfId="209" priority="135" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="202" priority="134" operator="beginsWith" text="#">
-      <formula>LEFT(A242,LEN("#"))="#"</formula>
+    <cfRule type="beginsWith" dxfId="208" priority="136" operator="beginsWith" text="#">
+      <formula>LEFT(A241,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198">
-    <cfRule type="containsText" dxfId="201" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="207" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="200" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="206" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="containsText" dxfId="199" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="205" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="204" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A243">
+    <cfRule type="containsText" dxfId="203" priority="125" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A243)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="202" priority="126" operator="beginsWith" text="#">
+      <formula>LEFT(A243,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A239">
+    <cfRule type="containsText" dxfId="201" priority="121" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A239)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="200" priority="122" operator="beginsWith" text="#">
+      <formula>LEFT(A239,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A246">
+    <cfRule type="containsText" dxfId="199" priority="119" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A246)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="198" priority="120" operator="beginsWith" text="#">
+      <formula>LEFT(A246,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="containsText" dxfId="197" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="197" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A244)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="196" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A244,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A245">
+    <cfRule type="containsText" dxfId="195" priority="113" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A245)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="194" priority="114" operator="beginsWith" text="#">
+      <formula>LEFT(A245,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="195" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="193" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="192" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A247">
-    <cfRule type="containsText" dxfId="193" priority="117" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
+  <conditionalFormatting sqref="A282">
+    <cfRule type="containsText" dxfId="191" priority="109" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A282)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="192" priority="118" operator="beginsWith" text="#">
-      <formula>LEFT(A247,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A245">
-    <cfRule type="containsText" dxfId="191" priority="113" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A245)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="114" operator="beginsWith" text="#">
-      <formula>LEFT(A245,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A246">
-    <cfRule type="containsText" dxfId="189" priority="111" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A246)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="188" priority="112" operator="beginsWith" text="#">
-      <formula>LEFT(A246,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A241">
-    <cfRule type="containsText" dxfId="187" priority="109" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="186" priority="110" operator="beginsWith" text="#">
-      <formula>LEFT(A241,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A283">
-    <cfRule type="containsText" dxfId="185" priority="107" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A283)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="184" priority="108" operator="beginsWith" text="#">
-      <formula>LEFT(A283,LEN("#"))="#"</formula>
+    <cfRule type="beginsWith" dxfId="190" priority="110" operator="beginsWith" text="#">
+      <formula>LEFT(A282,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="183" priority="105" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="189" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A202)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="106" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="188" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A202,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A203">
-    <cfRule type="containsText" dxfId="181" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="187" priority="105" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A203)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="186" priority="106" operator="beginsWith" text="#">
       <formula>LEFT(A203,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="containsText" dxfId="179" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="185" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="184" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="containsText" dxfId="177" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="183" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="182" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A239">
-    <cfRule type="containsText" dxfId="175" priority="95" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A239)))</formula>
+  <conditionalFormatting sqref="A238">
+    <cfRule type="containsText" dxfId="181" priority="97" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A238)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="96" operator="beginsWith" text="#">
-      <formula>LEFT(A239,LEN("#"))="#"</formula>
+    <cfRule type="beginsWith" dxfId="180" priority="98" operator="beginsWith" text="#">
+      <formula>LEFT(A238,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A247">
+    <cfRule type="containsText" dxfId="179" priority="95" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="178" priority="96" operator="beginsWith" text="#">
+      <formula>LEFT(A247,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A248">
-    <cfRule type="containsText" dxfId="173" priority="93" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="177" priority="93" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A248)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="94" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="176" priority="94" operator="beginsWith" text="#">
       <formula>LEFT(A248,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="containsText" dxfId="171" priority="91" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="175" priority="91" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A249)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="92" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="174" priority="92" operator="beginsWith" text="#">
       <formula>LEFT(A249,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A250">
-    <cfRule type="containsText" dxfId="169" priority="89" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A250)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="90" operator="beginsWith" text="#">
-      <formula>LEFT(A250,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A199:A201 A66:A67 A69">
-    <cfRule type="containsText" dxfId="167" priority="187" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="173" priority="189" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="188" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="172" priority="190" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="containsText" dxfId="165" priority="2115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="171" priority="2117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="2116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="170" priority="2118" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="containsText" dxfId="163" priority="2227" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="169" priority="2229" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="2228" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="168" priority="2230" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="containsText" dxfId="161" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="167" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A68)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="166" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(A68,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="containsText" dxfId="159" priority="77" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="165" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="78" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="164" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="containsText" dxfId="157" priority="73" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="163" priority="75" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A93)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="156" priority="74" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="162" priority="76" operator="beginsWith" text="#">
       <formula>LEFT(A93,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="containsText" dxfId="155" priority="71" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="161" priority="73" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="72" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="160" priority="74" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A210">
-    <cfRule type="containsText" dxfId="153" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="159" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A210)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="152" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="158" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A210,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="containsText" dxfId="151" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="157" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A95)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="156" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A95,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A237">
-    <cfRule type="containsText" dxfId="149" priority="23" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A237)))</formula>
+  <conditionalFormatting sqref="A236">
+    <cfRule type="containsText" dxfId="155" priority="25" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A236)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="24" operator="beginsWith" text="#">
-      <formula>LEFT(A237,LEN("#"))="#"</formula>
+    <cfRule type="beginsWith" dxfId="154" priority="26" operator="beginsWith" text="#">
+      <formula>LEFT(A236,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="147" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="153" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A96)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="152" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A96,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="containsText" dxfId="145" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="151" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A97)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="150" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A97,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="containsText" dxfId="143" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="149" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="142" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="148" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A98,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="141" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="147" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A99)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="146" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A99,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="containsText" dxfId="139" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="145" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A100)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="144" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A100,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A268">
-    <cfRule type="containsText" dxfId="137" priority="9" operator="containsText" text="......">
+  <conditionalFormatting sqref="A267">
+    <cfRule type="containsText" dxfId="143" priority="11" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A267)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="142" priority="12" operator="beginsWith" text="#">
+      <formula>LEFT(A267,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A268:A271">
+    <cfRule type="containsText" dxfId="141" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A268)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="136" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="140" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A268,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A269:A272">
-    <cfRule type="containsText" dxfId="135" priority="5" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A269)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="6" operator="beginsWith" text="#">
-      <formula>LEFT(A269,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="133" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="139" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A113)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="138" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A113,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139">
+    <cfRule type="containsText" dxfId="119" priority="3" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="118" priority="4" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
@@ -45861,7 +45810,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="559" operator="containsText" text="......" id="{2740CB74-BF81-4E7E-8816-79D33A17FB72}">
+          <x14:cfRule type="containsText" priority="561" operator="containsText" text="......" id="{2740CB74-BF81-4E7E-8816-79D33A17FB72}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!#REF!)))</xm:f>
             <x14:dxf>
               <font>
@@ -45870,7 +45819,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="560" operator="beginsWith" text="#" id="{3C7446DC-621E-41C0-8BDA-9CEAF8FB8B99}">
+          <x14:cfRule type="beginsWith" priority="562" operator="beginsWith" text="#" id="{3C7446DC-621E-41C0-8BDA-9CEAF8FB8B99}">
             <xm:f>LEFT(ElastoDyn!#REF!,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45887,7 +45836,7 @@
           <xm:sqref>A168</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="181" operator="containsText" text="......" id="{45986398-BDBB-476E-B707-6E1702F9F4C3}">
+          <x14:cfRule type="containsText" priority="183" operator="containsText" text="......" id="{45986398-BDBB-476E-B707-6E1702F9F4C3}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!#REF!)))</xm:f>
             <x14:dxf>
               <font>
@@ -45896,7 +45845,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="182" operator="beginsWith" text="#" id="{17FE44F8-569E-4B0A-84CB-2C9B419F47BC}">
+          <x14:cfRule type="beginsWith" priority="184" operator="beginsWith" text="#" id="{17FE44F8-569E-4B0A-84CB-2C9B419F47BC}">
             <xm:f>LEFT(ElastoDyn!#REF!,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45913,7 +45862,7 @@
           <xm:sqref>A70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="179" operator="containsText" text="......" id="{FAD408D6-5A15-41F2-AF74-CCCC70BAEABE}">
+          <x14:cfRule type="containsText" priority="181" operator="containsText" text="......" id="{FAD408D6-5A15-41F2-AF74-CCCC70BAEABE}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!#REF!)))</xm:f>
             <x14:dxf>
               <font>
@@ -45922,7 +45871,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="180" operator="beginsWith" text="#" id="{4E32124F-2922-4C24-9834-412E8E65D5FE}">
+          <x14:cfRule type="beginsWith" priority="182" operator="beginsWith" text="#" id="{4E32124F-2922-4C24-9834-412E8E65D5FE}">
             <xm:f>LEFT(ElastoDyn!#REF!,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45939,7 +45888,7 @@
           <xm:sqref>A206</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="177" operator="containsText" text="......" id="{8F043A1C-8E80-49F6-BC48-5D97B0A79BA8}">
+          <x14:cfRule type="containsText" priority="179" operator="containsText" text="......" id="{8F043A1C-8E80-49F6-BC48-5D97B0A79BA8}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A180)))</xm:f>
             <x14:dxf>
               <font>
@@ -45948,7 +45897,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="178" operator="beginsWith" text="#" id="{AA404B8F-E7B1-4F0B-87EB-73313E57DE1F}">
+          <x14:cfRule type="beginsWith" priority="180" operator="beginsWith" text="#" id="{AA404B8F-E7B1-4F0B-87EB-73313E57DE1F}">
             <xm:f>LEFT(ElastoDyn!A180,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45965,7 +45914,7 @@
           <xm:sqref>A208:A209</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="175" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
+          <x14:cfRule type="containsText" priority="177" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A178)))</xm:f>
             <x14:dxf>
               <font>
@@ -45974,7 +45923,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="176" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
+          <x14:cfRule type="beginsWith" priority="178" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
             <xm:f>LEFT(ElastoDyn!A178,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -45988,10 +45937,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A211:A213 A207</xm:sqref>
+          <xm:sqref>A211 A207</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2413" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
+          <x14:cfRule type="containsText" priority="2415" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A207)))</xm:f>
             <x14:dxf>
               <font>
@@ -46000,7 +45949,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2414" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
+          <x14:cfRule type="beginsWith" priority="2416" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
             <xm:f>LEFT(ElastoDyn!A207,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -46014,10 +45963,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A251:A253</xm:sqref>
+          <xm:sqref>A250:A252</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="43" operator="containsText" text="......" id="{1DD295AF-2F2B-4BC3-91EB-4FE7E936BCCB}">
+          <x14:cfRule type="containsText" priority="45" operator="containsText" text="......" id="{1DD295AF-2F2B-4BC3-91EB-4FE7E936BCCB}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!B213)))</xm:f>
             <x14:dxf>
               <font>
@@ -46026,7 +45975,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="44" operator="beginsWith" text="#" id="{FF82794E-64B3-4F5D-9FD7-5316A3A54FC4}">
+          <x14:cfRule type="beginsWith" priority="46" operator="beginsWith" text="#" id="{FF82794E-64B3-4F5D-9FD7-5316A3A54FC4}">
             <xm:f>LEFT(ElastoDyn!B213,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -46040,10 +45989,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B254:B266</xm:sqref>
+          <xm:sqref>B253:B265</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="53" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
+          <x14:cfRule type="containsText" priority="55" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A219)))</xm:f>
             <x14:dxf>
               <font>
@@ -46052,7 +46001,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="54" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
+          <x14:cfRule type="beginsWith" priority="56" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
             <xm:f>LEFT(ElastoDyn!A219,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -46066,10 +46015,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A254:A266</xm:sqref>
+          <xm:sqref>A253:A265</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2457" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
+          <x14:cfRule type="containsText" priority="2459" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A75)))</xm:f>
             <x14:dxf>
               <font>
@@ -46078,7 +46027,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2458" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
+          <x14:cfRule type="beginsWith" priority="2460" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
             <xm:f>LEFT(ElastoDyn!A75,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -47346,266 +47295,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="113" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="117" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="112" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="116" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="111" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="115" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="114" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="109" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="113" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="112" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A22">
-    <cfRule type="containsText" dxfId="107" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="111" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="106" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="110" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="105" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="109" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="104" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="108" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="103" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="107" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="102" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="106" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="101" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="105" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A23)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="104" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A23,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="99" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="103" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A26)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="98" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="102" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A26,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="97" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="101" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="100" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A27,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="95" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A29)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="98" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A29,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="93" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="97" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="92" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="96" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A28,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="91" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="95" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="94" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A30,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="89" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="93" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="92" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A31,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="87" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="91" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="86" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="90" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A32,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="85" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="89" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="84" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="88" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A33,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="83" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="87" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="82" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="86" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A34,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="81" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="85" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A35)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="80" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="84" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A35,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="83" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A36)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="78" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="82" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A36,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="77" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A37)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="76" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="80" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A37,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="75" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="79" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="74" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="78" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="73" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="72" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="76" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="70" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="74" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="68" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="72" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="71" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="70" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="68" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="67" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A44)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="62" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="66" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A44,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="64" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="62" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="60" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A48)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="58" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A48,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A52:A53">
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A50)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="56" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A50,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A54)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="54" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A54,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A51)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="52" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A51,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47650,8 +47599,8 @@
   <dimension ref="A1:K401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <pane ySplit="10" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56994,42 +56943,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A339:A341">
-    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A339)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="38" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A339,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A287)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="32" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A287,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A294">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A294)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="28" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A294,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A297">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A297)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="26" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A297,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A301)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="24" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A301,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57039,7 +56988,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="207" operator="containsText" text="......" id="{A6AF73A4-D651-4EC4-9CE5-1492F6DCA1FD}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A315)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A314)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -57048,7 +56997,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="208" operator="beginsWith" text="#" id="{7D43FCEE-7A2E-47D2-9C54-F0DD21DA97A4}">
-            <xm:f>LEFT(ServoDyn!A315,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A314,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -57169,7 +57118,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2519" operator="containsText" text="......" id="{A6AF73A4-D651-4EC4-9CE5-1492F6DCA1FD}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A1)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A235)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -57178,7 +57127,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="2520" operator="beginsWith" text="#" id="{7D43FCEE-7A2E-47D2-9C54-F0DD21DA97A4}">
-            <xm:f>LEFT(ServoDyn!A1,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A235,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -57191,7 +57140,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A1:A11 A14 A20 A26 A37 A40 A56 A128 A135 A171 A185 A213 A224 A236 A257 A267 A290:A291 A389:A392 A396:A399</xm:sqref>
+          <xm:sqref>A236 A257 A267 A290:A291 A389:A392 A396:A399</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2621" operator="containsText" text="......" id="{8E9670E5-8872-4BD4-B6BC-5A177426E8EE}">
@@ -57221,7 +57170,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2731" operator="containsText" text="......" id="{E88F4F87-0682-429F-8C8D-9A5499B7D31A}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A271)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A222)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -57230,7 +57179,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="2732" operator="beginsWith" text="#" id="{7BB8C74E-9D1E-41F3-AD39-9B7E995B478D}">
-            <xm:f>LEFT(ServoDyn!A271,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A222,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -57243,11 +57192,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A272:A273</xm:sqref>
+          <xm:sqref>A272:A273 A224</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2765" operator="containsText" text="......" id="{A6AF73A4-D651-4EC4-9CE5-1492F6DCA1FD}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A295)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A294)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -57256,7 +57205,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="2766" operator="beginsWith" text="#" id="{7D43FCEE-7A2E-47D2-9C54-F0DD21DA97A4}">
-            <xm:f>LEFT(ServoDyn!A295,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A294,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -57453,6 +57402,58 @@
           </x14:cfRule>
           <xm:sqref>B342:B386 B338 A361:A364 A274:A281 B274:B286 A283 B288:B289</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3231" operator="containsText" text="......" id="{E88F4F87-0682-429F-8C8D-9A5499B7D31A}">
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A1)))</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="beginsWith" priority="3232" operator="beginsWith" text="#" id="{7BB8C74E-9D1E-41F3-AD39-9B7E995B478D}">
+            <xm:f>LEFT(ServoDyn!A1,LEN("#"))="#"</xm:f>
+            <x14:dxf>
+              <font>
+                <u val="none"/>
+              </font>
+              <numFmt numFmtId="30" formatCode="@"/>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A1:A11 A14 A20 A26 A37 A40 A56 A128 A135 A171 A185</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3253" operator="containsText" text="......" id="{E88F4F87-0682-429F-8C8D-9A5499B7D31A}">
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!#REF!)))</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="beginsWith" priority="3254" operator="beginsWith" text="#" id="{7BB8C74E-9D1E-41F3-AD39-9B7E995B478D}">
+            <xm:f>LEFT(ServoDyn!#REF!,LEN("#"))="#"</xm:f>
+            <x14:dxf>
+              <font>
+                <u val="none"/>
+              </font>
+              <numFmt numFmtId="30" formatCode="@"/>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A213</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="14880" windowHeight="7545" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="14880" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="2" r:id="rId1"/>
@@ -5686,13 +5686,13 @@
     <t>"For AeroDyn: motions of the tower"</t>
   </si>
   <si>
-    <t># File last changed: $Date$</t>
-  </si>
-  <si>
     <t># (File) Revision #: $Rev$</t>
   </si>
   <si>
     <t># URL: $HeadURL$</t>
+  </si>
+  <si>
+    <t># File last committed $Date$</t>
   </si>
 </sst>
 </file>
@@ -5880,7 +5880,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="582">
+  <dxfs count="580">
     <dxf>
       <font>
         <u val="none"/>
@@ -10761,19 +10761,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <u val="none"/>
       </font>
@@ -10808,10 +10795,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
           <bgColor theme="2"/>
@@ -11742,10 +11725,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="575" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="579" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="574" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="578" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11757,9 +11740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K820"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD15"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11870,19 +11853,19 @@
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I14" s="12"/>
     </row>
@@ -34595,1428 +34578,1436 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A244:A300 A506:A514 A316 A307 A536:A537 A642:A675 A519 A54 A23:A42 A691:A706 A686:A689 A708:A714 A680:A684 A490 A492:A496 A240:A242 A501:A504 A531 A821:A1048576 A771:A772 A330:A339 A358:A361 A372:A374 A385:A388 A551:A622 A411:A435 A437:A444 A483 A446:A479 A379:A382 A776:A777 A624:A640 A783:A785 A796:A797 A524:A529 A485:A488 A1:A14">
-    <cfRule type="containsText" dxfId="573" priority="841" operator="containsText" text="......">
+  <conditionalFormatting sqref="A244:A300 A506:A514 A316 A307 A536:A537 A642:A675 A519 A54 A23:A42 A691:A706 A686:A689 A708:A714 A680:A684 A490 A492:A496 A240:A242 A501:A504 A531 A821:A1048576 A771:A772 A330:A339 A358:A361 A372:A374 A385:A388 A551:A622 A411:A435 A437:A444 A483 A446:A479 A379:A382 A776:A777 A624:A640 A783:A785 A796:A797 A524:A529 A485:A488 A1:A11 A13:A14">
+    <cfRule type="containsText" dxfId="577" priority="843" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="572" priority="842" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="576" priority="844" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A243">
-    <cfRule type="containsText" dxfId="571" priority="829" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="575" priority="831" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A243)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="570" priority="830" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="574" priority="832" operator="beginsWith" text="#">
       <formula>LEFT(A243,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A20">
-    <cfRule type="containsText" dxfId="569" priority="823" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="573" priority="825" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="568" priority="824" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="572" priority="826" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="containsText" dxfId="567" priority="819" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="571" priority="821" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A55)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="566" priority="820" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="570" priority="822" operator="beginsWith" text="#">
       <formula>LEFT(A55,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="containsText" dxfId="565" priority="817" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="569" priority="819" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="564" priority="818" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="568" priority="820" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A533">
-    <cfRule type="containsText" dxfId="563" priority="813" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="567" priority="815" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A533)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="562" priority="814" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="566" priority="816" operator="beginsWith" text="#">
       <formula>LEFT(A533,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A532">
-    <cfRule type="containsText" dxfId="561" priority="815" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="565" priority="817" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A532)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="560" priority="816" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="564" priority="818" operator="beginsWith" text="#">
       <formula>LEFT(A532,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A545">
-    <cfRule type="containsText" dxfId="559" priority="811" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="563" priority="813" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A545)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="558" priority="812" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="562" priority="814" operator="beginsWith" text="#">
       <formula>LEFT(A545,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A546">
-    <cfRule type="containsText" dxfId="557" priority="809" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="561" priority="811" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A546)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="556" priority="810" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="560" priority="812" operator="beginsWith" text="#">
       <formula>LEFT(A546,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A543">
-    <cfRule type="containsText" dxfId="555" priority="807" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="559" priority="809" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A543)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="554" priority="808" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="558" priority="810" operator="beginsWith" text="#">
       <formula>LEFT(A543,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A544">
-    <cfRule type="containsText" dxfId="553" priority="805" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="557" priority="807" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A544)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="552" priority="806" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="556" priority="808" operator="beginsWith" text="#">
       <formula>LEFT(A544,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A547">
-    <cfRule type="containsText" dxfId="551" priority="801" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="555" priority="803" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A547)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="550" priority="802" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="554" priority="804" operator="beginsWith" text="#">
       <formula>LEFT(A547,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A505">
-    <cfRule type="containsText" dxfId="549" priority="797" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="553" priority="799" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A505)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="548" priority="798" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="552" priority="800" operator="beginsWith" text="#">
       <formula>LEFT(A505,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A534">
-    <cfRule type="containsText" dxfId="547" priority="795" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="551" priority="797" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A534)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="546" priority="796" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="550" priority="798" operator="beginsWith" text="#">
       <formula>LEFT(A534,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A548">
-    <cfRule type="containsText" dxfId="545" priority="793" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="549" priority="795" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A548)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="544" priority="794" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="548" priority="796" operator="beginsWith" text="#">
       <formula>LEFT(A548,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A641">
-    <cfRule type="containsText" dxfId="543" priority="791" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="547" priority="793" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A641)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="542" priority="792" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="546" priority="794" operator="beginsWith" text="#">
       <formula>LEFT(A641,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A535">
-    <cfRule type="containsText" dxfId="541" priority="785" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="545" priority="787" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A535)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="540" priority="786" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="544" priority="788" operator="beginsWith" text="#">
       <formula>LEFT(A535,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301:A303">
-    <cfRule type="containsText" dxfId="539" priority="783" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="543" priority="785" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A301)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="538" priority="784" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="542" priority="786" operator="beginsWith" text="#">
       <formula>LEFT(A301,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="537" priority="779" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="541" priority="781" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A304)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="536" priority="780" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="540" priority="782" operator="beginsWith" text="#">
       <formula>LEFT(A304,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305:A306 A308:A313">
-    <cfRule type="containsText" dxfId="535" priority="777" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="539" priority="779" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A305)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="534" priority="778" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="538" priority="780" operator="beginsWith" text="#">
       <formula>LEFT(A305,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A314:A315 A317:A323 A539">
-    <cfRule type="containsText" dxfId="533" priority="775" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="537" priority="777" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A314)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="532" priority="776" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="536" priority="778" operator="beginsWith" text="#">
       <formula>LEFT(A314,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A538">
-    <cfRule type="containsText" dxfId="531" priority="731" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="535" priority="733" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A538)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="530" priority="732" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="534" priority="734" operator="beginsWith" text="#">
       <formula>LEFT(A538,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A325">
-    <cfRule type="containsText" dxfId="529" priority="719" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="533" priority="721" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A325)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="528" priority="720" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="532" priority="722" operator="beginsWith" text="#">
       <formula>LEFT(A325,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A324">
-    <cfRule type="containsText" dxfId="527" priority="721" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="531" priority="723" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A324)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="526" priority="722" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="530" priority="724" operator="beginsWith" text="#">
       <formula>LEFT(A324,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A540">
-    <cfRule type="containsText" dxfId="525" priority="717" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="529" priority="719" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A540)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="524" priority="718" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="528" priority="720" operator="beginsWith" text="#">
       <formula>LEFT(A540,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A541">
-    <cfRule type="containsText" dxfId="523" priority="715" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="527" priority="717" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A541)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="522" priority="716" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="526" priority="718" operator="beginsWith" text="#">
       <formula>LEFT(A541,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A326:A327">
-    <cfRule type="containsText" dxfId="521" priority="713" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="525" priority="715" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A326)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="520" priority="714" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="524" priority="716" operator="beginsWith" text="#">
       <formula>LEFT(A326,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A550">
-    <cfRule type="containsText" dxfId="519" priority="705" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="523" priority="707" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A550)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="518" priority="706" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="522" priority="708" operator="beginsWith" text="#">
       <formula>LEFT(A550,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A549">
-    <cfRule type="containsText" dxfId="517" priority="707" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="521" priority="709" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A549)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="516" priority="708" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="520" priority="710" operator="beginsWith" text="#">
       <formula>LEFT(A549,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677">
-    <cfRule type="containsText" dxfId="515" priority="675" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="519" priority="677" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A677)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="514" priority="676" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="518" priority="678" operator="beginsWith" text="#">
       <formula>LEFT(A677,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A328:A329 A363">
-    <cfRule type="containsText" dxfId="513" priority="671" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="517" priority="673" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A328)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="512" priority="672" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="516" priority="674" operator="beginsWith" text="#">
       <formula>LEFT(A328,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A384">
-    <cfRule type="containsText" dxfId="511" priority="669" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="515" priority="671" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A384)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="510" priority="670" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="514" priority="672" operator="beginsWith" text="#">
       <formula>LEFT(A384,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A515:A516">
-    <cfRule type="containsText" dxfId="509" priority="665" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="513" priority="667" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A515)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="508" priority="666" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="512" priority="668" operator="beginsWith" text="#">
       <formula>LEFT(A515,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A518">
-    <cfRule type="containsText" dxfId="507" priority="663" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="511" priority="665" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A518)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="506" priority="664" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="510" priority="666" operator="beginsWith" text="#">
       <formula>LEFT(A518,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="505" priority="637" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="509" priority="639" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A21)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="504" priority="638" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="508" priority="640" operator="beginsWith" text="#">
       <formula>LEFT(A21,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="503" priority="635" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="507" priority="637" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A22)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="502" priority="636" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="506" priority="638" operator="beginsWith" text="#">
       <formula>LEFT(A22,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="501" priority="627" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="505" priority="629" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="500" priority="628" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="504" priority="630" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="499" priority="625" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="503" priority="627" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A44)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="498" priority="626" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="502" priority="628" operator="beginsWith" text="#">
       <formula>LEFT(A44,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="497" priority="623" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="501" priority="625" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="496" priority="624" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="500" priority="626" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="495" priority="621" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="499" priority="623" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="494" priority="622" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="498" priority="624" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A715">
-    <cfRule type="containsText" dxfId="493" priority="619" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="497" priority="621" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A715)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="492" priority="620" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="496" priority="622" operator="beginsWith" text="#">
       <formula>LEFT(A715,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A716">
-    <cfRule type="containsText" dxfId="491" priority="617" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="495" priority="619" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A716)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="490" priority="618" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="494" priority="620" operator="beginsWith" text="#">
       <formula>LEFT(A716,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A717">
-    <cfRule type="containsText" dxfId="489" priority="615" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="493" priority="617" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A717)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="488" priority="616" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="492" priority="618" operator="beginsWith" text="#">
       <formula>LEFT(A717,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A770">
-    <cfRule type="containsText" dxfId="487" priority="613" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="491" priority="615" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A770)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="486" priority="614" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="490" priority="616" operator="beginsWith" text="#">
       <formula>LEFT(A770,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A719:A722">
-    <cfRule type="containsText" dxfId="485" priority="609" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="489" priority="611" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A719)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="484" priority="610" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="488" priority="612" operator="beginsWith" text="#">
       <formula>LEFT(A719,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A718">
-    <cfRule type="containsText" dxfId="483" priority="605" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="487" priority="607" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A718)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="606" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="486" priority="608" operator="beginsWith" text="#">
       <formula>LEFT(A718,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A723:A730">
-    <cfRule type="containsText" dxfId="481" priority="599" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="485" priority="601" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A723)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="480" priority="600" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="484" priority="602" operator="beginsWith" text="#">
       <formula>LEFT(A723,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731:A741">
-    <cfRule type="containsText" dxfId="479" priority="593" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="483" priority="595" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A731)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="478" priority="594" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="482" priority="596" operator="beginsWith" text="#">
       <formula>LEFT(A731,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A742">
-    <cfRule type="containsText" dxfId="477" priority="595" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="481" priority="597" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A742)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="476" priority="596" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="480" priority="598" operator="beginsWith" text="#">
       <formula>LEFT(A742,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A743:A753">
-    <cfRule type="containsText" dxfId="475" priority="587" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="479" priority="589" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A743)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="588" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="478" priority="590" operator="beginsWith" text="#">
       <formula>LEFT(A743,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A754">
-    <cfRule type="containsText" dxfId="473" priority="589" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="477" priority="591" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A754)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="472" priority="590" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="476" priority="592" operator="beginsWith" text="#">
       <formula>LEFT(A754,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="containsText" dxfId="471" priority="583" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="475" priority="585" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A755)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="470" priority="584" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="474" priority="586" operator="beginsWith" text="#">
       <formula>LEFT(A755,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A759:A760">
-    <cfRule type="containsText" dxfId="469" priority="573" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="473" priority="575" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A759)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="574" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="472" priority="576" operator="beginsWith" text="#">
       <formula>LEFT(A759,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A756">
-    <cfRule type="containsText" dxfId="467" priority="579" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="471" priority="581" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A756)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="580" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="470" priority="582" operator="beginsWith" text="#">
       <formula>LEFT(A756,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="containsText" dxfId="465" priority="577" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="469" priority="579" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A757)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="578" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="468" priority="580" operator="beginsWith" text="#">
       <formula>LEFT(A757,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="containsText" dxfId="463" priority="575" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="467" priority="577" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A758)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="462" priority="576" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="466" priority="578" operator="beginsWith" text="#">
       <formula>LEFT(A758,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A761:A762">
-    <cfRule type="containsText" dxfId="461" priority="569" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="465" priority="571" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A761)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="570" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="464" priority="572" operator="beginsWith" text="#">
       <formula>LEFT(A761,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A763">
-    <cfRule type="containsText" dxfId="459" priority="559" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="463" priority="561" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A763)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="560" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="462" priority="562" operator="beginsWith" text="#">
       <formula>LEFT(A763,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A542">
-    <cfRule type="containsText" dxfId="457" priority="555" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="461" priority="557" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A542)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="456" priority="556" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="460" priority="558" operator="beginsWith" text="#">
       <formula>LEFT(A542,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A676">
-    <cfRule type="containsText" dxfId="455" priority="525" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="459" priority="527" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A676)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="454" priority="526" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="458" priority="528" operator="beginsWith" text="#">
       <formula>LEFT(A676,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="containsText" dxfId="453" priority="523" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="457" priority="525" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A48)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="524" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="456" priority="526" operator="beginsWith" text="#">
       <formula>LEFT(A48,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="containsText" dxfId="451" priority="521" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="455" priority="523" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A49)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="450" priority="522" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="454" priority="524" operator="beginsWith" text="#">
       <formula>LEFT(A49,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A52">
-    <cfRule type="containsText" dxfId="449" priority="519" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="453" priority="521" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A50)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="448" priority="520" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="452" priority="522" operator="beginsWith" text="#">
       <formula>LEFT(A50,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A707">
-    <cfRule type="containsText" dxfId="447" priority="499" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="451" priority="501" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A707)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="446" priority="500" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="450" priority="502" operator="beginsWith" text="#">
       <formula>LEFT(A707,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679">
-    <cfRule type="containsText" dxfId="445" priority="505" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="449" priority="507" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A679)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="444" priority="506" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="448" priority="508" operator="beginsWith" text="#">
       <formula>LEFT(A679,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A685">
-    <cfRule type="containsText" dxfId="443" priority="501" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="447" priority="503" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A685)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="442" priority="502" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="446" priority="504" operator="beginsWith" text="#">
       <formula>LEFT(A685,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A690">
-    <cfRule type="containsText" dxfId="441" priority="497" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="445" priority="499" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A690)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="498" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="444" priority="500" operator="beginsWith" text="#">
       <formula>LEFT(A690,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A489">
-    <cfRule type="containsText" dxfId="439" priority="495" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="443" priority="497" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A489)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="438" priority="496" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="442" priority="498" operator="beginsWith" text="#">
       <formula>LEFT(A489,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A491">
-    <cfRule type="containsText" dxfId="437" priority="485" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="441" priority="487" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A491)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="486" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="440" priority="488" operator="beginsWith" text="#">
       <formula>LEFT(A491,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764">
-    <cfRule type="containsText" dxfId="435" priority="483" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="439" priority="485" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A764)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="484" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="438" priority="486" operator="beginsWith" text="#">
       <formula>LEFT(A764,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93 A103:A105">
-    <cfRule type="containsText" dxfId="433" priority="293" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="437" priority="295" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="294" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="436" priority="296" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="containsText" dxfId="431" priority="297" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="435" priority="299" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="430" priority="298" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="434" priority="300" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129 A116">
-    <cfRule type="containsText" dxfId="429" priority="299" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="433" priority="301" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="300" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="432" priority="302" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:A135 A131">
-    <cfRule type="containsText" dxfId="427" priority="301" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="431" priority="303" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="302" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="430" priority="304" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="425" priority="303" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="429" priority="305" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="304" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="428" priority="306" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="containsText" dxfId="423" priority="305" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="427" priority="307" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="422" priority="306" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="426" priority="308" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="containsText" dxfId="421" priority="307" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="425" priority="309" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="308" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="424" priority="310" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="containsText" dxfId="419" priority="309" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="423" priority="311" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="310" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="422" priority="312" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140">
-    <cfRule type="containsText" dxfId="417" priority="311" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="421" priority="313" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="312" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="420" priority="314" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139 A150">
-    <cfRule type="containsText" dxfId="415" priority="313" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="419" priority="315" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="414" priority="314" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="418" priority="316" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="containsText" dxfId="413" priority="315" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="417" priority="317" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="412" priority="316" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="416" priority="318" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154">
-    <cfRule type="containsText" dxfId="411" priority="317" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="415" priority="319" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="318" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="414" priority="320" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A497">
-    <cfRule type="containsText" dxfId="409" priority="239" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="413" priority="241" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A497)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="408" priority="240" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="412" priority="242" operator="beginsWith" text="#">
       <formula>LEFT(A497,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A498">
-    <cfRule type="containsText" dxfId="407" priority="237" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="411" priority="239" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A498)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="406" priority="238" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="410" priority="240" operator="beginsWith" text="#">
       <formula>LEFT(A498,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A530">
-    <cfRule type="containsText" dxfId="405" priority="235" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="409" priority="237" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A530)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="404" priority="236" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="408" priority="238" operator="beginsWith" text="#">
       <formula>LEFT(A530,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A779">
-    <cfRule type="containsText" dxfId="403" priority="233" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="407" priority="235" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A779)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="234" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="406" priority="236" operator="beginsWith" text="#">
       <formula>LEFT(A779,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A89">
-    <cfRule type="containsText" dxfId="401" priority="1425" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="405" priority="1427" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="1426" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="404" priority="1428" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798">
-    <cfRule type="containsText" dxfId="399" priority="225" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="403" priority="227" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="398" priority="226" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="402" priority="228" operator="beginsWith" text="#">
       <formula>LEFT(A798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A800">
-    <cfRule type="containsText" dxfId="397" priority="221" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="401" priority="223" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="222" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="400" priority="224" operator="beginsWith" text="#">
       <formula>LEFT(A800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A799">
-    <cfRule type="containsText" dxfId="395" priority="223" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="399" priority="225" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="224" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="398" priority="226" operator="beginsWith" text="#">
       <formula>LEFT(A799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A802">
-    <cfRule type="containsText" dxfId="393" priority="219" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="397" priority="221" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A802)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="392" priority="220" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="396" priority="222" operator="beginsWith" text="#">
       <formula>LEFT(A802,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A803">
-    <cfRule type="containsText" dxfId="391" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="395" priority="205" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A803)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="390" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="394" priority="206" operator="beginsWith" text="#">
       <formula>LEFT(A803,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A678">
-    <cfRule type="containsText" dxfId="389" priority="199" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="393" priority="201" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A678)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="200" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="392" priority="202" operator="beginsWith" text="#">
       <formula>LEFT(A678,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A342">
-    <cfRule type="containsText" dxfId="387" priority="189" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="391" priority="191" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A342)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="386" priority="190" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="390" priority="192" operator="beginsWith" text="#">
       <formula>LEFT(A342,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A340">
-    <cfRule type="containsText" dxfId="385" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="389" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A340)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="384" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="388" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(A340,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341">
-    <cfRule type="containsText" dxfId="383" priority="191" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="387" priority="193" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A341)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="382" priority="192" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="386" priority="194" operator="beginsWith" text="#">
       <formula>LEFT(A341,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343">
-    <cfRule type="containsText" dxfId="381" priority="187" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="385" priority="189" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A343)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="380" priority="188" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="384" priority="190" operator="beginsWith" text="#">
       <formula>LEFT(A343,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A344">
-    <cfRule type="containsText" dxfId="379" priority="185" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="383" priority="187" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A344)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="378" priority="186" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="382" priority="188" operator="beginsWith" text="#">
       <formula>LEFT(A344,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345">
-    <cfRule type="containsText" dxfId="377" priority="183" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="381" priority="185" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A345)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="184" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="380" priority="186" operator="beginsWith" text="#">
       <formula>LEFT(A345,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A346">
-    <cfRule type="containsText" dxfId="375" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="379" priority="183" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A346)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="374" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="378" priority="184" operator="beginsWith" text="#">
       <formula>LEFT(A346,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A347">
-    <cfRule type="containsText" dxfId="373" priority="179" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="377" priority="181" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A347)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="180" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="376" priority="182" operator="beginsWith" text="#">
       <formula>LEFT(A347,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A348">
-    <cfRule type="containsText" dxfId="371" priority="177" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="375" priority="179" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A348)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="178" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="374" priority="180" operator="beginsWith" text="#">
       <formula>LEFT(A348,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A350">
-    <cfRule type="containsText" dxfId="369" priority="173" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="373" priority="175" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A350)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="174" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="372" priority="176" operator="beginsWith" text="#">
       <formula>LEFT(A350,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A351">
-    <cfRule type="containsText" dxfId="367" priority="171" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="371" priority="173" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A351)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="366" priority="172" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="370" priority="174" operator="beginsWith" text="#">
       <formula>LEFT(A351,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A352">
-    <cfRule type="containsText" dxfId="365" priority="169" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="369" priority="171" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A352)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="170" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="368" priority="172" operator="beginsWith" text="#">
       <formula>LEFT(A352,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A353">
-    <cfRule type="containsText" dxfId="363" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="367" priority="169" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A353)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="366" priority="170" operator="beginsWith" text="#">
       <formula>LEFT(A353,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A354">
-    <cfRule type="containsText" dxfId="361" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="365" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A354)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="364" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(A354,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A355">
-    <cfRule type="containsText" dxfId="359" priority="163" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="363" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A355)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="358" priority="164" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="362" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A355,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A356">
-    <cfRule type="containsText" dxfId="357" priority="161" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="361" priority="163" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A356)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="162" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="360" priority="164" operator="beginsWith" text="#">
       <formula>LEFT(A356,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A364:A370">
-    <cfRule type="containsText" dxfId="355" priority="159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="359" priority="161" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A364)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="358" priority="162" operator="beginsWith" text="#">
       <formula>LEFT(A364,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A362">
-    <cfRule type="containsText" dxfId="353" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="357" priority="159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A362)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="356" priority="160" operator="beginsWith" text="#">
       <formula>LEFT(A362,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A371 A375:A378">
-    <cfRule type="containsText" dxfId="351" priority="155" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="355" priority="157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A371)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="350" priority="156" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="354" priority="158" operator="beginsWith" text="#">
       <formula>LEFT(A371,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A383">
-    <cfRule type="containsText" dxfId="349" priority="153" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="353" priority="155" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A383)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="348" priority="154" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="352" priority="156" operator="beginsWith" text="#">
       <formula>LEFT(A383,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A394">
-    <cfRule type="containsText" dxfId="347" priority="151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="351" priority="153" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A394)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="350" priority="154" operator="beginsWith" text="#">
       <formula>LEFT(A394,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A357">
-    <cfRule type="containsText" dxfId="345" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="349" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A357)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="344" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="348" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A357,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A389">
-    <cfRule type="containsText" dxfId="343" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="347" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A389)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="342" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="346" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A389,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A390">
-    <cfRule type="containsText" dxfId="341" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="345" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A390)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="340" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="344" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A390,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A391">
-    <cfRule type="containsText" dxfId="339" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="343" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A391)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="342" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A391,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A392">
-    <cfRule type="containsText" dxfId="337" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="341" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A392)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="340" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A392,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A393">
-    <cfRule type="containsText" dxfId="335" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="339" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A393)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="334" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="338" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A393,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A395">
-    <cfRule type="containsText" dxfId="333" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="337" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A395)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="336" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A395,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A396">
-    <cfRule type="containsText" dxfId="331" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="335" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A396)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="334" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A396,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A436">
-    <cfRule type="containsText" dxfId="329" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="333" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A436)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="328" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="332" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A436,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A397">
-    <cfRule type="containsText" dxfId="327" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="331" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A397)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="326" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="330" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(A397,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A398:A405">
-    <cfRule type="containsText" dxfId="325" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="329" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A398)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="328" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A398,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A409">
-    <cfRule type="containsText" dxfId="323" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="327" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A409)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="326" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A409,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A407">
-    <cfRule type="containsText" dxfId="321" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="325" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A407)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="324" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A407,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A406">
-    <cfRule type="containsText" dxfId="319" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="323" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A406)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="318" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="322" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A406,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A408">
-    <cfRule type="containsText" dxfId="317" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="321" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A408)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="316" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="320" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(A408,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A410">
-    <cfRule type="containsText" dxfId="315" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="319" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A410)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="314" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="318" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A410,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A765">
-    <cfRule type="containsText" dxfId="313" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="317" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A765)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="312" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="316" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A765,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A766">
-    <cfRule type="containsText" dxfId="311" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="315" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A766)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="310" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="314" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A766,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A349">
-    <cfRule type="containsText" dxfId="309" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="313" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A349)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="308" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="312" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A349,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A480">
-    <cfRule type="containsText" dxfId="307" priority="105" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="311" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A480)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="306" priority="106" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="310" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A480,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A481">
-    <cfRule type="containsText" dxfId="305" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="309" priority="105" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A481)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="304" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="308" priority="106" operator="beginsWith" text="#">
       <formula>LEFT(A481,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A482">
-    <cfRule type="containsText" dxfId="303" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="307" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A482)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="302" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="306" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A482,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A521">
-    <cfRule type="containsText" dxfId="301" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="305" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A521)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="300" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="304" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A521,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A517">
-    <cfRule type="containsText" dxfId="299" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="303" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A517)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="298" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="302" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A517,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804">
-    <cfRule type="containsText" dxfId="297" priority="93" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="301" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A804)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="296" priority="94" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="300" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A804,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="containsText" dxfId="295" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="299" priority="91" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A767)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="294" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="298" priority="92" operator="beginsWith" text="#">
       <formula>LEFT(A767,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239">
-    <cfRule type="containsText" dxfId="293" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="297" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A239)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="292" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="296" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(A239,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A805">
-    <cfRule type="containsText" dxfId="291" priority="77" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="295" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="290" priority="78" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="294" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(A805,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:A165 A167:A238">
-    <cfRule type="containsText" dxfId="289" priority="403" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="293" priority="405" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="288" priority="404" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="292" priority="406" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151 A153 A143 A145:A149 A64 A66:A67 A70:A78 A80:A81 A85:A87 A57 A59:A62">
-    <cfRule type="containsText" dxfId="287" priority="291" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="291" priority="293" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="286" priority="292" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="290" priority="294" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="285" priority="1439" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="289" priority="1441" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="284" priority="1440" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="288" priority="1442" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A138 A141 A117:A128 A100:A101 A92 A90 A94:A98">
-    <cfRule type="containsText" dxfId="283" priority="1721" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="287" priority="1723" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="282" priority="1722" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="286" priority="1724" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112 A106:A107 A109:A110">
-    <cfRule type="containsText" dxfId="281" priority="1781" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="285" priority="1783" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="280" priority="1782" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="284" priority="1784" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="containsText" dxfId="279" priority="1843" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="283" priority="1845" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="278" priority="1844" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="282" priority="1846" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="containsText" dxfId="277" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="281" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="280" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="275" priority="83" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="279" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="274" priority="84" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="278" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="containsText" dxfId="273" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="277" priority="83" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="272" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="276" priority="84" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769">
-    <cfRule type="containsText" dxfId="271" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="275" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="270" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="274" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A806">
-    <cfRule type="containsText" dxfId="269" priority="75" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="273" priority="77" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A806)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="76" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="272" priority="78" operator="beginsWith" text="#">
       <formula>LEFT(A806,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807">
-    <cfRule type="containsText" dxfId="267" priority="73" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="271" priority="75" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="74" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="270" priority="76" operator="beginsWith" text="#">
       <formula>LEFT(A805,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B812:B819">
-    <cfRule type="containsText" dxfId="265" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="269" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B806)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="264" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="268" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(B806,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B808 B811">
-    <cfRule type="containsText" dxfId="263" priority="67" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="267" priority="69" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="262" priority="68" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="266" priority="70" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A808">
-    <cfRule type="containsText" dxfId="261" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="265" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A808)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="260" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="264" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A808,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A809">
-    <cfRule type="containsText" dxfId="259" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="263" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A809)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="258" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="262" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A809,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B809">
-    <cfRule type="containsText" dxfId="257" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="261" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="256" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="260" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810">
-    <cfRule type="containsText" dxfId="255" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="259" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A810)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="254" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="258" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A810,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B810">
-    <cfRule type="containsText" dxfId="253" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="257" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="252" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="256" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A811:A819">
-    <cfRule type="containsText" dxfId="251" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="255" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A811)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="250" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="254" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A811,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B820">
-    <cfRule type="containsText" dxfId="249" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="253" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="248" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="252" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A820">
-    <cfRule type="containsText" dxfId="247" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="251" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="246" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="250" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A796,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A787:A789 A795">
-    <cfRule type="containsText" dxfId="245" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="249" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A787)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="244" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="248" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A787,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A774">
-    <cfRule type="containsText" dxfId="243" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="247" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A774)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="246" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A774,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A775">
-    <cfRule type="containsText" dxfId="241" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="245" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A775)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="240" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="244" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A775,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="containsText" dxfId="239" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="243" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="238" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="242" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A623">
-    <cfRule type="containsText" dxfId="237" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="241" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="236" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="240" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A773">
-    <cfRule type="containsText" dxfId="235" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="239" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A773)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="234" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="238" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A773,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A786">
-    <cfRule type="containsText" dxfId="233" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="237" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A786)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="232" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="236" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A786,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A484">
-    <cfRule type="containsText" dxfId="231" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="235" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A484)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="230" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="234" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A484,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A790">
-    <cfRule type="containsText" dxfId="229" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="233" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A790)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="228" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="232" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A790,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791">
-    <cfRule type="containsText" dxfId="227" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="231" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A791)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="226" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="230" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A791,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A792">
-    <cfRule type="containsText" dxfId="225" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="229" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A792)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="224" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="228" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A792,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A793">
-    <cfRule type="containsText" dxfId="223" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="227" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A793)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="222" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="226" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A793,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A794">
-    <cfRule type="containsText" dxfId="221" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="225" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A794)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="220" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="224" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A794,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="209" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="223" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="208" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="222" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+      <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36025,7 +36016,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="553" operator="containsText" text="......" id="{465F9812-1C00-47A7-97E2-89B77398E1B1}">
+          <x14:cfRule type="containsText" priority="555" operator="containsText" text="......" id="{465F9812-1C00-47A7-97E2-89B77398E1B1}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A811)))</xm:f>
             <x14:dxf>
               <font>
@@ -36034,7 +36025,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="554" operator="beginsWith" text="#" id="{900241AA-A787-44C0-BE12-6FDEB9E0011A}">
+          <x14:cfRule type="beginsWith" priority="556" operator="beginsWith" text="#" id="{900241AA-A787-44C0-BE12-6FDEB9E0011A}">
             <xm:f>LEFT(ServoDyn!A811,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36051,7 +36042,7 @@
           <xm:sqref>A781:A782</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="277" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="279" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A182)))</xm:f>
             <x14:dxf>
               <font>
@@ -36060,7 +36051,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="278" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="280" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A182,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36077,7 +36068,7 @@
           <xm:sqref>A520 A79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="201" operator="containsText" text="......" id="{5A5F5B76-44F7-40B2-B037-173F2905189B}">
+          <x14:cfRule type="containsText" priority="203" operator="containsText" text="......" id="{5A5F5B76-44F7-40B2-B037-173F2905189B}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A817)))</xm:f>
             <x14:dxf>
               <font>
@@ -36086,7 +36077,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="202" operator="beginsWith" text="#" id="{804DB11F-C4AE-4232-8FBE-AF82706C5D95}">
+          <x14:cfRule type="beginsWith" priority="204" operator="beginsWith" text="#" id="{804DB11F-C4AE-4232-8FBE-AF82706C5D95}">
             <xm:f>LEFT(ServoDyn!A817,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36103,7 +36094,7 @@
           <xm:sqref>A801</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2325" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="2327" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A601)))</xm:f>
             <x14:dxf>
               <font>
@@ -36112,7 +36103,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2326" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="2328" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A601,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36129,7 +36120,7 @@
           <xm:sqref>A522:A523 A499:A500</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2359" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
+          <x14:cfRule type="containsText" priority="2361" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A807)))</xm:f>
             <x14:dxf>
               <font>
@@ -36138,7 +36129,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2360" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
+          <x14:cfRule type="beginsWith" priority="2362" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
             <xm:f>LEFT(ServoDyn!A807,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36164,9 +36155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36277,19 +36268,19 @@
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I14" s="12"/>
     </row>
@@ -43692,482 +43683,482 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A11 A21 A234:A238 A275:A280 A111:A115 A144:A170 A282:A284 A287 A289:A1048576 A173:A199 A134:A137 A104:A107 A117:A130 A16">
-    <cfRule type="containsText" dxfId="207" priority="307" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="211" priority="307" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="206" priority="308" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="210" priority="308" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="205" priority="299" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="209" priority="299" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A20)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="204" priority="300" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="208" priority="300" operator="beginsWith" text="#">
       <formula>LEFT(A20,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="203" priority="297" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="207" priority="297" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="202" priority="298" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="206" priority="298" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A23">
-    <cfRule type="containsText" dxfId="201" priority="295" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="205" priority="295" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A22)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="200" priority="296" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="204" priority="296" operator="beginsWith" text="#">
       <formula>LEFT(A22,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="containsText" dxfId="199" priority="293" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="203" priority="293" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="294" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="202" priority="294" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="containsText" dxfId="197" priority="221" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="201" priority="221" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A207)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="222" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="200" priority="222" operator="beginsWith" text="#">
       <formula>LEFT(A207,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="containsText" dxfId="195" priority="211" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="199" priority="211" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A172)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="212" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="198" priority="212" operator="beginsWith" text="#">
       <formula>LEFT(A172,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="containsText" dxfId="193" priority="201" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="197" priority="201" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A108)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="192" priority="202" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="196" priority="202" operator="beginsWith" text="#">
       <formula>LEFT(A108,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="191" priority="179" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="195" priority="179" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A208)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="180" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="194" priority="180" operator="beginsWith" text="#">
       <formula>LEFT(A208,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A233">
-    <cfRule type="containsText" dxfId="189" priority="163" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="193" priority="163" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A233)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="188" priority="164" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="192" priority="164" operator="beginsWith" text="#">
       <formula>LEFT(A233,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="187" priority="199" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="191" priority="199" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="186" priority="200" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="190" priority="200" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A61">
-    <cfRule type="containsText" dxfId="185" priority="1107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="189" priority="1107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="184" priority="1108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="188" priority="1108" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A46">
-    <cfRule type="containsText" dxfId="183" priority="1157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="187" priority="1157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="1158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="186" priority="1158" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A50">
-    <cfRule type="containsText" dxfId="181" priority="1327" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="185" priority="1327" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="1328" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="184" priority="1328" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A66">
-    <cfRule type="containsText" dxfId="179" priority="1497" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="183" priority="1497" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="1498" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="182" priority="1498" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A200">
-    <cfRule type="containsText" dxfId="177" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="181" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="180" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281">
-    <cfRule type="containsText" dxfId="175" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="179" priority="157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A281)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="178" priority="158" operator="beginsWith" text="#">
       <formula>LEFT(A281,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="173" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="177" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="176" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="containsText" dxfId="171" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="175" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A269)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="174" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A269,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="containsText" dxfId="169" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="173" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A131)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="172" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A131,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="containsText" dxfId="167" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="171" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A132)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="170" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A132,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="containsText" dxfId="165" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="169" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A133)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="168" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A133,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244:A245">
-    <cfRule type="containsText" dxfId="163" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="167" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A244)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="166" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A244,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="containsText" dxfId="161" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="165" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="164" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="containsText" dxfId="159" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="163" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="162" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="containsText" dxfId="157" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="161" priority="129" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A246)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="156" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="160" priority="130" operator="beginsWith" text="#">
       <formula>LEFT(A246,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="containsText" dxfId="155" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="159" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="158" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A242,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="containsText" dxfId="153" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="157" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A249)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="152" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="156" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(A249,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
-    <cfRule type="containsText" dxfId="151" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="155" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="154" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A247,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A248">
-    <cfRule type="containsText" dxfId="149" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="153" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A248)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="152" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A248,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A243">
-    <cfRule type="containsText" dxfId="147" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="151" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A243)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="150" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A243,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A285">
-    <cfRule type="containsText" dxfId="145" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="149" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A285)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="148" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A285,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="containsText" dxfId="143" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="147" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A205)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="142" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="146" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A205,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206">
-    <cfRule type="containsText" dxfId="141" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="145" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A206)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="144" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A206,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139">
-    <cfRule type="containsText" dxfId="139" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="143" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="142" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140">
-    <cfRule type="containsText" dxfId="137" priority="105" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="141" priority="105" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="136" priority="106" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="140" priority="106" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="containsText" dxfId="135" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="139" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="138" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A241,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250">
-    <cfRule type="containsText" dxfId="133" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="137" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A250)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="136" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A250,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251">
-    <cfRule type="containsText" dxfId="131" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="135" priority="97" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A251)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="134" priority="98" operator="beginsWith" text="#">
       <formula>LEFT(A251,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252">
-    <cfRule type="containsText" dxfId="129" priority="95" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="133" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A252)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="128" priority="96" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="132" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A252,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:A204 A69:A70 A72">
-    <cfRule type="containsText" dxfId="127" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="131" priority="193" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="126" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="130" priority="194" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="containsText" dxfId="125" priority="2121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="129" priority="2121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="124" priority="2122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="128" priority="2122" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="containsText" dxfId="123" priority="2233" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="127" priority="2233" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="122" priority="2234" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="126" priority="2234" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="121" priority="93" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="125" priority="93" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A71)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="120" priority="94" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="124" priority="94" operator="beginsWith" text="#">
       <formula>LEFT(A71,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="containsText" dxfId="119" priority="83" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="123" priority="83" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="118" priority="84" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="122" priority="84" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="117" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="121" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A96)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="116" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="120" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(A96,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="containsText" dxfId="115" priority="77" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="119" priority="77" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="114" priority="78" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="118" priority="78" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="113" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="117" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A213)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="112" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="116" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A213,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="containsText" dxfId="111" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="115" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="114" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A98,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239">
-    <cfRule type="containsText" dxfId="109" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="113" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A239)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="112" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A239,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="107" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="111" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A99)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="106" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="110" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A99,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="containsText" dxfId="105" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A100)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="104" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="108" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A100,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="containsText" dxfId="103" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="107" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A101)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="102" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="106" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A101,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="containsText" dxfId="101" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="105" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A102)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="104" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A102,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="containsText" dxfId="99" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="103" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A103)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="98" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="102" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A103,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="containsText" dxfId="97" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="101" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A270)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="100" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A270,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271:A274">
-    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="99" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A271)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="98" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A271,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="97" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A116)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="92" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="96" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A116,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="containsText" dxfId="91" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="94" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="containsText" dxfId="89" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="93" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="92" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45686,266 +45677,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="71" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="70" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="68" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="67" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="62" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="66" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A22">
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="65" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="64" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="62" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="61" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="60" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="59" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A23)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="58" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A23,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="57" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A26)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="56" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A26,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="55" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="54" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A27,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A29)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="52" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A29,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="50" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A28,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="48" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A30,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="47" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="46" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A31,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="44" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A32,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="42" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A33,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="40" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A34,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A35)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="38" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A35,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A36)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="32" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="36" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A36,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A37)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="34" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A37,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="32" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="30" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="28" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="26" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="24" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="22" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A44)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="20" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A44,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="18" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="16" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="14" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A48)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="12" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A48,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A52:A53">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A50)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="10" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A50,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A54)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="8" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A54,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A51)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="6" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A51,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="14880" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="14880" windowHeight="7545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9839" uniqueCount="1850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9849" uniqueCount="1852">
   <si>
     <t>###################################################################################################################################</t>
   </si>
@@ -5693,6 +5693,12 @@
   </si>
   <si>
     <t># File last committed $Date$</t>
+  </si>
+  <si>
+    <t>FirstWarn_THSSBrDp</t>
+  </si>
+  <si>
+    <t>"Whether or not this is the first warning about the THSSBrDp not being enabled in this version of SrvD."</t>
   </si>
 </sst>
 </file>
@@ -5880,7 +5886,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="580">
+  <dxfs count="582">
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <u val="none"/>
@@ -11725,10 +11748,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="579" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="581" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="578" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="580" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11740,9 +11763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K820"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D523" sqref="D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34579,1434 +34602,1434 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A244:A300 A506:A514 A316 A307 A536:A537 A642:A675 A519 A54 A23:A42 A691:A706 A686:A689 A708:A714 A680:A684 A490 A492:A496 A240:A242 A501:A504 A531 A821:A1048576 A771:A772 A330:A339 A358:A361 A372:A374 A385:A388 A551:A622 A411:A435 A437:A444 A483 A446:A479 A379:A382 A776:A777 A624:A640 A783:A785 A796:A797 A524:A529 A485:A488 A1:A11 A13:A14">
-    <cfRule type="containsText" dxfId="577" priority="843" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="579" priority="843" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="576" priority="844" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="578" priority="844" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A243">
-    <cfRule type="containsText" dxfId="575" priority="831" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="577" priority="831" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A243)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="574" priority="832" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="576" priority="832" operator="beginsWith" text="#">
       <formula>LEFT(A243,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A20">
-    <cfRule type="containsText" dxfId="573" priority="825" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="575" priority="825" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="572" priority="826" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="574" priority="826" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="containsText" dxfId="571" priority="821" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="573" priority="821" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A55)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="570" priority="822" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="572" priority="822" operator="beginsWith" text="#">
       <formula>LEFT(A55,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="containsText" dxfId="569" priority="819" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="571" priority="819" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="568" priority="820" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="570" priority="820" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A533">
-    <cfRule type="containsText" dxfId="567" priority="815" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="569" priority="815" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A533)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="566" priority="816" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="568" priority="816" operator="beginsWith" text="#">
       <formula>LEFT(A533,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A532">
-    <cfRule type="containsText" dxfId="565" priority="817" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="567" priority="817" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A532)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="564" priority="818" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="566" priority="818" operator="beginsWith" text="#">
       <formula>LEFT(A532,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A545">
-    <cfRule type="containsText" dxfId="563" priority="813" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="565" priority="813" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A545)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="562" priority="814" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="564" priority="814" operator="beginsWith" text="#">
       <formula>LEFT(A545,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A546">
-    <cfRule type="containsText" dxfId="561" priority="811" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="563" priority="811" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A546)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="560" priority="812" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="562" priority="812" operator="beginsWith" text="#">
       <formula>LEFT(A546,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A543">
-    <cfRule type="containsText" dxfId="559" priority="809" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="561" priority="809" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A543)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="558" priority="810" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="560" priority="810" operator="beginsWith" text="#">
       <formula>LEFT(A543,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A544">
-    <cfRule type="containsText" dxfId="557" priority="807" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="559" priority="807" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A544)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="556" priority="808" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="558" priority="808" operator="beginsWith" text="#">
       <formula>LEFT(A544,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A547">
-    <cfRule type="containsText" dxfId="555" priority="803" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="557" priority="803" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A547)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="554" priority="804" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="556" priority="804" operator="beginsWith" text="#">
       <formula>LEFT(A547,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A505">
-    <cfRule type="containsText" dxfId="553" priority="799" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="555" priority="799" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A505)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="552" priority="800" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="554" priority="800" operator="beginsWith" text="#">
       <formula>LEFT(A505,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A534">
-    <cfRule type="containsText" dxfId="551" priority="797" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="553" priority="797" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A534)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="550" priority="798" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="552" priority="798" operator="beginsWith" text="#">
       <formula>LEFT(A534,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A548">
-    <cfRule type="containsText" dxfId="549" priority="795" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="551" priority="795" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A548)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="548" priority="796" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="550" priority="796" operator="beginsWith" text="#">
       <formula>LEFT(A548,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A641">
-    <cfRule type="containsText" dxfId="547" priority="793" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="549" priority="793" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A641)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="546" priority="794" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="548" priority="794" operator="beginsWith" text="#">
       <formula>LEFT(A641,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A535">
-    <cfRule type="containsText" dxfId="545" priority="787" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="547" priority="787" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A535)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="544" priority="788" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="546" priority="788" operator="beginsWith" text="#">
       <formula>LEFT(A535,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301:A303">
-    <cfRule type="containsText" dxfId="543" priority="785" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="545" priority="785" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A301)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="542" priority="786" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="544" priority="786" operator="beginsWith" text="#">
       <formula>LEFT(A301,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304">
-    <cfRule type="containsText" dxfId="541" priority="781" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="543" priority="781" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A304)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="540" priority="782" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="542" priority="782" operator="beginsWith" text="#">
       <formula>LEFT(A304,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305:A306 A308:A313">
-    <cfRule type="containsText" dxfId="539" priority="779" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="541" priority="779" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A305)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="538" priority="780" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="540" priority="780" operator="beginsWith" text="#">
       <formula>LEFT(A305,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A314:A315 A317:A323 A539">
-    <cfRule type="containsText" dxfId="537" priority="777" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="539" priority="777" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A314)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="536" priority="778" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="538" priority="778" operator="beginsWith" text="#">
       <formula>LEFT(A314,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A538">
-    <cfRule type="containsText" dxfId="535" priority="733" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="537" priority="733" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A538)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="534" priority="734" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="536" priority="734" operator="beginsWith" text="#">
       <formula>LEFT(A538,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A325">
-    <cfRule type="containsText" dxfId="533" priority="721" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="535" priority="721" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A325)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="532" priority="722" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="534" priority="722" operator="beginsWith" text="#">
       <formula>LEFT(A325,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A324">
-    <cfRule type="containsText" dxfId="531" priority="723" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="533" priority="723" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A324)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="530" priority="724" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="532" priority="724" operator="beginsWith" text="#">
       <formula>LEFT(A324,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A540">
-    <cfRule type="containsText" dxfId="529" priority="719" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="531" priority="719" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A540)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="528" priority="720" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="530" priority="720" operator="beginsWith" text="#">
       <formula>LEFT(A540,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A541">
-    <cfRule type="containsText" dxfId="527" priority="717" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="529" priority="717" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A541)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="526" priority="718" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="528" priority="718" operator="beginsWith" text="#">
       <formula>LEFT(A541,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A326:A327">
-    <cfRule type="containsText" dxfId="525" priority="715" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="527" priority="715" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A326)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="524" priority="716" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="526" priority="716" operator="beginsWith" text="#">
       <formula>LEFT(A326,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A550">
-    <cfRule type="containsText" dxfId="523" priority="707" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="525" priority="707" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A550)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="522" priority="708" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="524" priority="708" operator="beginsWith" text="#">
       <formula>LEFT(A550,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A549">
-    <cfRule type="containsText" dxfId="521" priority="709" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="523" priority="709" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A549)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="520" priority="710" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="522" priority="710" operator="beginsWith" text="#">
       <formula>LEFT(A549,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677">
-    <cfRule type="containsText" dxfId="519" priority="677" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="521" priority="677" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A677)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="518" priority="678" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="520" priority="678" operator="beginsWith" text="#">
       <formula>LEFT(A677,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A328:A329 A363">
-    <cfRule type="containsText" dxfId="517" priority="673" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="519" priority="673" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A328)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="516" priority="674" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="518" priority="674" operator="beginsWith" text="#">
       <formula>LEFT(A328,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A384">
-    <cfRule type="containsText" dxfId="515" priority="671" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="517" priority="671" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A384)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="514" priority="672" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="516" priority="672" operator="beginsWith" text="#">
       <formula>LEFT(A384,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A515:A516">
-    <cfRule type="containsText" dxfId="513" priority="667" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="515" priority="667" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A515)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="512" priority="668" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="514" priority="668" operator="beginsWith" text="#">
       <formula>LEFT(A515,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A518">
-    <cfRule type="containsText" dxfId="511" priority="665" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="513" priority="665" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A518)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="510" priority="666" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="512" priority="666" operator="beginsWith" text="#">
       <formula>LEFT(A518,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="509" priority="639" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="511" priority="639" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A21)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="508" priority="640" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="510" priority="640" operator="beginsWith" text="#">
       <formula>LEFT(A21,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="507" priority="637" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="509" priority="637" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A22)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="506" priority="638" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="508" priority="638" operator="beginsWith" text="#">
       <formula>LEFT(A22,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="505" priority="629" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="507" priority="629" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="504" priority="630" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="506" priority="630" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="503" priority="627" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="505" priority="627" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A44)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="502" priority="628" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="504" priority="628" operator="beginsWith" text="#">
       <formula>LEFT(A44,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="501" priority="625" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="503" priority="625" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="500" priority="626" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="502" priority="626" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="499" priority="623" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="501" priority="623" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="498" priority="624" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="500" priority="624" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A715">
-    <cfRule type="containsText" dxfId="497" priority="621" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="499" priority="621" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A715)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="496" priority="622" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="498" priority="622" operator="beginsWith" text="#">
       <formula>LEFT(A715,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A716">
-    <cfRule type="containsText" dxfId="495" priority="619" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="497" priority="619" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A716)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="494" priority="620" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="496" priority="620" operator="beginsWith" text="#">
       <formula>LEFT(A716,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A717">
-    <cfRule type="containsText" dxfId="493" priority="617" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="495" priority="617" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A717)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="492" priority="618" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="494" priority="618" operator="beginsWith" text="#">
       <formula>LEFT(A717,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A770">
-    <cfRule type="containsText" dxfId="491" priority="615" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="493" priority="615" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A770)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="490" priority="616" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="492" priority="616" operator="beginsWith" text="#">
       <formula>LEFT(A770,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A719:A722">
-    <cfRule type="containsText" dxfId="489" priority="611" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="491" priority="611" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A719)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="488" priority="612" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="490" priority="612" operator="beginsWith" text="#">
       <formula>LEFT(A719,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A718">
-    <cfRule type="containsText" dxfId="487" priority="607" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="489" priority="607" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A718)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="486" priority="608" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="488" priority="608" operator="beginsWith" text="#">
       <formula>LEFT(A718,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A723:A730">
-    <cfRule type="containsText" dxfId="485" priority="601" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="487" priority="601" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A723)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="484" priority="602" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="486" priority="602" operator="beginsWith" text="#">
       <formula>LEFT(A723,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731:A741">
-    <cfRule type="containsText" dxfId="483" priority="595" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="485" priority="595" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A731)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="596" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="484" priority="596" operator="beginsWith" text="#">
       <formula>LEFT(A731,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A742">
-    <cfRule type="containsText" dxfId="481" priority="597" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="483" priority="597" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A742)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="480" priority="598" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="482" priority="598" operator="beginsWith" text="#">
       <formula>LEFT(A742,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A743:A753">
-    <cfRule type="containsText" dxfId="479" priority="589" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="481" priority="589" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A743)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="478" priority="590" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="480" priority="590" operator="beginsWith" text="#">
       <formula>LEFT(A743,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A754">
-    <cfRule type="containsText" dxfId="477" priority="591" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="479" priority="591" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A754)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="476" priority="592" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="478" priority="592" operator="beginsWith" text="#">
       <formula>LEFT(A754,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="containsText" dxfId="475" priority="585" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="477" priority="585" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A755)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="586" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="476" priority="586" operator="beginsWith" text="#">
       <formula>LEFT(A755,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A759:A760">
-    <cfRule type="containsText" dxfId="473" priority="575" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="475" priority="575" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A759)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="472" priority="576" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="474" priority="576" operator="beginsWith" text="#">
       <formula>LEFT(A759,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A756">
-    <cfRule type="containsText" dxfId="471" priority="581" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="473" priority="581" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A756)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="470" priority="582" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="472" priority="582" operator="beginsWith" text="#">
       <formula>LEFT(A756,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="containsText" dxfId="469" priority="579" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="471" priority="579" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A757)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="580" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="470" priority="580" operator="beginsWith" text="#">
       <formula>LEFT(A757,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="containsText" dxfId="467" priority="577" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="469" priority="577" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A758)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="578" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="468" priority="578" operator="beginsWith" text="#">
       <formula>LEFT(A758,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A761:A762">
-    <cfRule type="containsText" dxfId="465" priority="571" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="467" priority="571" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A761)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="572" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="466" priority="572" operator="beginsWith" text="#">
       <formula>LEFT(A761,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A763">
-    <cfRule type="containsText" dxfId="463" priority="561" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="465" priority="561" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A763)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="462" priority="562" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="464" priority="562" operator="beginsWith" text="#">
       <formula>LEFT(A763,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A542">
-    <cfRule type="containsText" dxfId="461" priority="557" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="463" priority="557" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A542)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="558" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="462" priority="558" operator="beginsWith" text="#">
       <formula>LEFT(A542,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A676">
-    <cfRule type="containsText" dxfId="459" priority="527" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="461" priority="527" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A676)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="528" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="460" priority="528" operator="beginsWith" text="#">
       <formula>LEFT(A676,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="containsText" dxfId="457" priority="525" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="459" priority="525" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A48)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="456" priority="526" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="458" priority="526" operator="beginsWith" text="#">
       <formula>LEFT(A48,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="containsText" dxfId="455" priority="523" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="457" priority="523" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A49)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="454" priority="524" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="456" priority="524" operator="beginsWith" text="#">
       <formula>LEFT(A49,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A52">
-    <cfRule type="containsText" dxfId="453" priority="521" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="455" priority="521" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A50)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="522" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="454" priority="522" operator="beginsWith" text="#">
       <formula>LEFT(A50,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A707">
-    <cfRule type="containsText" dxfId="451" priority="501" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="453" priority="501" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A707)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="450" priority="502" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="452" priority="502" operator="beginsWith" text="#">
       <formula>LEFT(A707,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679">
-    <cfRule type="containsText" dxfId="449" priority="507" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="451" priority="507" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A679)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="448" priority="508" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="450" priority="508" operator="beginsWith" text="#">
       <formula>LEFT(A679,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A685">
-    <cfRule type="containsText" dxfId="447" priority="503" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="449" priority="503" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A685)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="446" priority="504" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="448" priority="504" operator="beginsWith" text="#">
       <formula>LEFT(A685,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A690">
-    <cfRule type="containsText" dxfId="445" priority="499" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="447" priority="499" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A690)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="444" priority="500" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="446" priority="500" operator="beginsWith" text="#">
       <formula>LEFT(A690,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A489">
-    <cfRule type="containsText" dxfId="443" priority="497" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="445" priority="497" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A489)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="442" priority="498" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="444" priority="498" operator="beginsWith" text="#">
       <formula>LEFT(A489,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A491">
-    <cfRule type="containsText" dxfId="441" priority="487" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="443" priority="487" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A491)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="488" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="442" priority="488" operator="beginsWith" text="#">
       <formula>LEFT(A491,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764">
-    <cfRule type="containsText" dxfId="439" priority="485" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="441" priority="485" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A764)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="438" priority="486" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="440" priority="486" operator="beginsWith" text="#">
       <formula>LEFT(A764,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93 A103:A105">
-    <cfRule type="containsText" dxfId="437" priority="295" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="439" priority="295" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="296" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="438" priority="296" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="containsText" dxfId="435" priority="299" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="437" priority="299" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="300" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="436" priority="300" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129 A116">
-    <cfRule type="containsText" dxfId="433" priority="301" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="435" priority="301" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="302" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="434" priority="302" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:A135 A131">
-    <cfRule type="containsText" dxfId="431" priority="303" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="433" priority="303" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="430" priority="304" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="432" priority="304" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="429" priority="305" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="431" priority="305" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="306" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="430" priority="306" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="containsText" dxfId="427" priority="307" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="429" priority="307" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="308" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="428" priority="308" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="containsText" dxfId="425" priority="309" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="427" priority="309" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="310" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="426" priority="310" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="containsText" dxfId="423" priority="311" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="425" priority="311" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="422" priority="312" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="424" priority="312" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140">
-    <cfRule type="containsText" dxfId="421" priority="313" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="423" priority="313" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="314" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="422" priority="314" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139 A150">
-    <cfRule type="containsText" dxfId="419" priority="315" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="421" priority="315" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="316" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="420" priority="316" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="containsText" dxfId="417" priority="317" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="419" priority="317" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="318" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="418" priority="318" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154">
-    <cfRule type="containsText" dxfId="415" priority="319" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="417" priority="319" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="414" priority="320" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="416" priority="320" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A497">
-    <cfRule type="containsText" dxfId="413" priority="241" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="415" priority="241" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A497)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="412" priority="242" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="414" priority="242" operator="beginsWith" text="#">
       <formula>LEFT(A497,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A498">
-    <cfRule type="containsText" dxfId="411" priority="239" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="413" priority="239" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A498)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="240" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="412" priority="240" operator="beginsWith" text="#">
       <formula>LEFT(A498,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A530">
-    <cfRule type="containsText" dxfId="409" priority="237" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="411" priority="237" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A530)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="408" priority="238" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="410" priority="238" operator="beginsWith" text="#">
       <formula>LEFT(A530,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A779">
-    <cfRule type="containsText" dxfId="407" priority="235" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="409" priority="235" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A779)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="406" priority="236" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="408" priority="236" operator="beginsWith" text="#">
       <formula>LEFT(A779,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A89">
-    <cfRule type="containsText" dxfId="405" priority="1427" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="407" priority="1427" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="404" priority="1428" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="406" priority="1428" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798">
-    <cfRule type="containsText" dxfId="403" priority="227" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="405" priority="227" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="228" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="404" priority="228" operator="beginsWith" text="#">
       <formula>LEFT(A798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A800">
-    <cfRule type="containsText" dxfId="401" priority="223" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="403" priority="223" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="224" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="402" priority="224" operator="beginsWith" text="#">
       <formula>LEFT(A800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A799">
-    <cfRule type="containsText" dxfId="399" priority="225" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="401" priority="225" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="398" priority="226" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="400" priority="226" operator="beginsWith" text="#">
       <formula>LEFT(A799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A802">
-    <cfRule type="containsText" dxfId="397" priority="221" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="399" priority="221" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A802)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="222" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="398" priority="222" operator="beginsWith" text="#">
       <formula>LEFT(A802,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A803">
-    <cfRule type="containsText" dxfId="395" priority="205" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="397" priority="205" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A803)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="206" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="396" priority="206" operator="beginsWith" text="#">
       <formula>LEFT(A803,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A678">
-    <cfRule type="containsText" dxfId="393" priority="201" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="395" priority="201" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A678)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="392" priority="202" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="394" priority="202" operator="beginsWith" text="#">
       <formula>LEFT(A678,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A342">
-    <cfRule type="containsText" dxfId="391" priority="191" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="393" priority="191" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A342)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="390" priority="192" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="392" priority="192" operator="beginsWith" text="#">
       <formula>LEFT(A342,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A340">
-    <cfRule type="containsText" dxfId="389" priority="195" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="391" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A340)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="196" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="390" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(A340,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341">
-    <cfRule type="containsText" dxfId="387" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="389" priority="193" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A341)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="386" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="388" priority="194" operator="beginsWith" text="#">
       <formula>LEFT(A341,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343">
-    <cfRule type="containsText" dxfId="385" priority="189" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="387" priority="189" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A343)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="384" priority="190" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="386" priority="190" operator="beginsWith" text="#">
       <formula>LEFT(A343,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A344">
-    <cfRule type="containsText" dxfId="383" priority="187" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="385" priority="187" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A344)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="382" priority="188" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="384" priority="188" operator="beginsWith" text="#">
       <formula>LEFT(A344,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345">
-    <cfRule type="containsText" dxfId="381" priority="185" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="383" priority="185" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A345)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="380" priority="186" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="382" priority="186" operator="beginsWith" text="#">
       <formula>LEFT(A345,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A346">
-    <cfRule type="containsText" dxfId="379" priority="183" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="381" priority="183" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A346)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="378" priority="184" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="380" priority="184" operator="beginsWith" text="#">
       <formula>LEFT(A346,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A347">
-    <cfRule type="containsText" dxfId="377" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="379" priority="181" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A347)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="378" priority="182" operator="beginsWith" text="#">
       <formula>LEFT(A347,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A348">
-    <cfRule type="containsText" dxfId="375" priority="179" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="377" priority="179" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A348)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="374" priority="180" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="376" priority="180" operator="beginsWith" text="#">
       <formula>LEFT(A348,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A350">
-    <cfRule type="containsText" dxfId="373" priority="175" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="375" priority="175" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A350)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="176" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="374" priority="176" operator="beginsWith" text="#">
       <formula>LEFT(A350,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A351">
-    <cfRule type="containsText" dxfId="371" priority="173" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="373" priority="173" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A351)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="174" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="372" priority="174" operator="beginsWith" text="#">
       <formula>LEFT(A351,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A352">
-    <cfRule type="containsText" dxfId="369" priority="171" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="371" priority="171" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A352)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="172" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="370" priority="172" operator="beginsWith" text="#">
       <formula>LEFT(A352,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A353">
-    <cfRule type="containsText" dxfId="367" priority="169" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="369" priority="169" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A353)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="366" priority="170" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="368" priority="170" operator="beginsWith" text="#">
       <formula>LEFT(A353,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A354">
-    <cfRule type="containsText" dxfId="365" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="367" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A354)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="366" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(A354,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A355">
-    <cfRule type="containsText" dxfId="363" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="365" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A355)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="364" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A355,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A356">
-    <cfRule type="containsText" dxfId="361" priority="163" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="363" priority="163" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A356)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="164" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="362" priority="164" operator="beginsWith" text="#">
       <formula>LEFT(A356,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A364:A370">
-    <cfRule type="containsText" dxfId="359" priority="161" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="361" priority="161" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A364)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="358" priority="162" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="360" priority="162" operator="beginsWith" text="#">
       <formula>LEFT(A364,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A362">
-    <cfRule type="containsText" dxfId="357" priority="159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="359" priority="159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A362)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="358" priority="160" operator="beginsWith" text="#">
       <formula>LEFT(A362,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A371 A375:A378">
-    <cfRule type="containsText" dxfId="355" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="357" priority="157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A371)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="356" priority="158" operator="beginsWith" text="#">
       <formula>LEFT(A371,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A383">
-    <cfRule type="containsText" dxfId="353" priority="155" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="355" priority="155" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A383)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="156" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="354" priority="156" operator="beginsWith" text="#">
       <formula>LEFT(A383,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A394">
-    <cfRule type="containsText" dxfId="351" priority="153" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="353" priority="153" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A394)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="350" priority="154" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="352" priority="154" operator="beginsWith" text="#">
       <formula>LEFT(A394,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A357">
-    <cfRule type="containsText" dxfId="349" priority="151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="351" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A357)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="348" priority="152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="350" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A357,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A389">
-    <cfRule type="containsText" dxfId="347" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="349" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A389)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="348" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A389,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A390">
-    <cfRule type="containsText" dxfId="345" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="347" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A390)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="344" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="346" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A390,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A391">
-    <cfRule type="containsText" dxfId="343" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="345" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A391)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="342" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="344" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A391,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A392">
-    <cfRule type="containsText" dxfId="341" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="343" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A392)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="340" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="342" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A392,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A393">
-    <cfRule type="containsText" dxfId="339" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="341" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A393)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="340" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A393,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A395">
-    <cfRule type="containsText" dxfId="337" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="339" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A395)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="338" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A395,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A396">
-    <cfRule type="containsText" dxfId="335" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="337" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A396)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="334" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="336" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A396,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A436">
-    <cfRule type="containsText" dxfId="333" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="335" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A436)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="334" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A436,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A397">
-    <cfRule type="containsText" dxfId="331" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="333" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A397)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="332" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(A397,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A398:A405">
-    <cfRule type="containsText" dxfId="329" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="331" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A398)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="328" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="330" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A398,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A409">
-    <cfRule type="containsText" dxfId="327" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="329" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A409)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="326" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="328" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A409,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A407">
-    <cfRule type="containsText" dxfId="325" priority="127" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="327" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A407)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="128" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="326" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A407,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A406">
-    <cfRule type="containsText" dxfId="323" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="325" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A406)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="324" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A406,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A408">
-    <cfRule type="containsText" dxfId="321" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="323" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A408)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="322" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(A408,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A410">
-    <cfRule type="containsText" dxfId="319" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="321" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A410)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="318" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="320" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A410,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A765">
-    <cfRule type="containsText" dxfId="317" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="319" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A765)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="316" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="318" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A765,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A766">
-    <cfRule type="containsText" dxfId="315" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="317" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A766)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="314" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="316" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A766,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A349">
-    <cfRule type="containsText" dxfId="313" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="315" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A349)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="312" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="314" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A349,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A480">
-    <cfRule type="containsText" dxfId="311" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="313" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A480)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="310" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="312" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A480,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A481">
-    <cfRule type="containsText" dxfId="309" priority="105" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="311" priority="105" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A481)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="308" priority="106" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="310" priority="106" operator="beginsWith" text="#">
       <formula>LEFT(A481,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A482">
-    <cfRule type="containsText" dxfId="307" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="309" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A482)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="306" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="308" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A482,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A521">
-    <cfRule type="containsText" dxfId="305" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="307" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A521)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="304" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="306" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A521,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A517">
-    <cfRule type="containsText" dxfId="303" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="305" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A517)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="302" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="304" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A517,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804">
-    <cfRule type="containsText" dxfId="301" priority="95" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="303" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A804)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="300" priority="96" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="302" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A804,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="containsText" dxfId="299" priority="91" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="301" priority="91" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A767)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="298" priority="92" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="300" priority="92" operator="beginsWith" text="#">
       <formula>LEFT(A767,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239">
-    <cfRule type="containsText" dxfId="297" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="299" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A239)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="296" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="298" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(A239,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A805">
-    <cfRule type="containsText" dxfId="295" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="297" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="294" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="296" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(A805,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:A165 A167:A238">
-    <cfRule type="containsText" dxfId="293" priority="405" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="295" priority="405" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="292" priority="406" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="294" priority="406" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151 A153 A143 A145:A149 A64 A66:A67 A70:A78 A80:A81 A85:A87 A57 A59:A62">
-    <cfRule type="containsText" dxfId="291" priority="293" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="293" priority="293" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="290" priority="294" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="292" priority="294" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="289" priority="1441" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="291" priority="1441" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="288" priority="1442" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="290" priority="1442" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A138 A141 A117:A128 A100:A101 A92 A90 A94:A98">
-    <cfRule type="containsText" dxfId="287" priority="1723" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="289" priority="1723" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="286" priority="1724" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="288" priority="1724" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112 A106:A107 A109:A110">
-    <cfRule type="containsText" dxfId="285" priority="1783" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="287" priority="1783" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="284" priority="1784" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="286" priority="1784" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="containsText" dxfId="283" priority="1845" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="285" priority="1845" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="282" priority="1846" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="284" priority="1846" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="containsText" dxfId="281" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="283" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="280" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="282" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="279" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="281" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="278" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="280" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="containsText" dxfId="277" priority="83" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="279" priority="83" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="84" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="278" priority="84" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769">
-    <cfRule type="containsText" dxfId="275" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="277" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="274" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="276" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A806">
-    <cfRule type="containsText" dxfId="273" priority="77" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="275" priority="77" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A806)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="272" priority="78" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="274" priority="78" operator="beginsWith" text="#">
       <formula>LEFT(A806,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807">
-    <cfRule type="containsText" dxfId="271" priority="75" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="273" priority="75" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="270" priority="76" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="272" priority="76" operator="beginsWith" text="#">
       <formula>LEFT(A805,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B812:B819">
-    <cfRule type="containsText" dxfId="269" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="271" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B806)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="270" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(B806,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B808 B811">
-    <cfRule type="containsText" dxfId="267" priority="69" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="269" priority="69" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="70" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="268" priority="70" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A808">
-    <cfRule type="containsText" dxfId="265" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="267" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A808)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="264" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="266" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A808,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A809">
-    <cfRule type="containsText" dxfId="263" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="265" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A809)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="262" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="264" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A809,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B809">
-    <cfRule type="containsText" dxfId="261" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="263" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="260" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="262" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810">
-    <cfRule type="containsText" dxfId="259" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="261" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A810)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="258" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="260" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A810,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B810">
-    <cfRule type="containsText" dxfId="257" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="259" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="256" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="258" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A811:A819">
-    <cfRule type="containsText" dxfId="255" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="257" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A811)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="254" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="256" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A811,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B820">
-    <cfRule type="containsText" dxfId="253" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="255" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="252" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="254" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A820">
-    <cfRule type="containsText" dxfId="251" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="253" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="250" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="252" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A796,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A787:A789 A795">
-    <cfRule type="containsText" dxfId="249" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="251" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A787)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="248" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="250" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A787,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A774">
-    <cfRule type="containsText" dxfId="247" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="249" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A774)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="246" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="248" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A774,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A775">
-    <cfRule type="containsText" dxfId="245" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="247" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A775)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="244" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="246" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A775,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="containsText" dxfId="243" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="245" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="244" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A623">
-    <cfRule type="containsText" dxfId="241" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="243" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="240" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="242" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A773">
-    <cfRule type="containsText" dxfId="239" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="241" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A773)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="238" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="240" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A773,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A786">
-    <cfRule type="containsText" dxfId="237" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="239" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A786)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="236" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="238" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A786,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A484">
-    <cfRule type="containsText" dxfId="235" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="237" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A484)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="234" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="236" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A484,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A790">
-    <cfRule type="containsText" dxfId="233" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="235" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A790)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="232" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="234" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A790,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A791">
-    <cfRule type="containsText" dxfId="231" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="233" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A791)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="230" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="232" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A791,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A792">
-    <cfRule type="containsText" dxfId="229" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="231" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A792)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="228" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="230" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A792,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A793">
-    <cfRule type="containsText" dxfId="227" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="229" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A793)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="226" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="228" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A793,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A794">
-    <cfRule type="containsText" dxfId="225" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="227" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A794)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="224" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="226" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A794,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="223" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="225" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="222" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="224" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="223" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="222" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36017,7 +36040,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="555" operator="containsText" text="......" id="{465F9812-1C00-47A7-97E2-89B77398E1B1}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A811)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A812)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -36026,7 +36049,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="556" operator="beginsWith" text="#" id="{900241AA-A787-44C0-BE12-6FDEB9E0011A}">
-            <xm:f>LEFT(ServoDyn!A811,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A812,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -36043,7 +36066,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="279" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A182)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A183)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -36052,7 +36075,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="280" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
-            <xm:f>LEFT(ServoDyn!A182,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A183,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -36069,7 +36092,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="203" operator="containsText" text="......" id="{5A5F5B76-44F7-40B2-B037-173F2905189B}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A817)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A818)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -36078,7 +36101,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="204" operator="beginsWith" text="#" id="{804DB11F-C4AE-4232-8FBE-AF82706C5D95}">
-            <xm:f>LEFT(ServoDyn!A817,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A818,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -36095,7 +36118,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2327" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A601)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A602)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -36104,7 +36127,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="2328" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
-            <xm:f>LEFT(ServoDyn!A601,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A602,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -36121,7 +36144,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2361" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
-            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A807)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A808)))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -36130,7 +36153,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="beginsWith" priority="2362" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
-            <xm:f>LEFT(ServoDyn!A807,LEN("#"))="#"</xm:f>
+            <xm:f>LEFT(ServoDyn!A808,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
                 <u val="none"/>
@@ -36153,11 +36176,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J285"/>
+  <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39670,55 +39693,55 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I145" s="12"/>
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>1851</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="146" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I146" s="12"/>
     </row>
     <row r="147" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I147" s="12"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I148" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J148" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="I148" s="12"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
@@ -39734,7 +39757,7 @@
         <v>44</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>995</v>
+        <v>45</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>26</v>
@@ -39746,7 +39769,7 @@
         <v>26</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>1036</v>
+        <v>80</v>
       </c>
       <c r="J149" s="5" t="s">
         <v>46</v>
@@ -39763,10 +39786,10 @@
         <v>43</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>26</v>
@@ -39778,10 +39801,10 @@
         <v>26</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>1641</v>
+        <v>1036</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -39798,7 +39821,7 @@
         <v>34</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>26</v>
@@ -39810,7 +39833,10 @@
         <v>26</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>1037</v>
+        <v>1641</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -39827,7 +39853,7 @@
         <v>34</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>26</v>
@@ -39839,7 +39865,7 @@
         <v>26</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -39856,7 +39882,7 @@
         <v>34</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>26</v>
@@ -39868,7 +39894,7 @@
         <v>26</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -39885,7 +39911,7 @@
         <v>34</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>26</v>
@@ -39897,7 +39923,7 @@
         <v>26</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -39914,7 +39940,7 @@
         <v>34</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>26</v>
@@ -39926,7 +39952,7 @@
         <v>26</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -39943,7 +39969,7 @@
         <v>34</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>26</v>
@@ -39955,10 +39981,7 @@
         <v>26</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J156" s="5" t="s">
-        <v>1161</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -39975,7 +39998,7 @@
         <v>34</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>26</v>
@@ -39987,7 +40010,10 @@
         <v>26</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>1045</v>
+        <v>1044</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -40004,7 +40030,7 @@
         <v>34</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>26</v>
@@ -40016,7 +40042,7 @@
         <v>26</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -40033,7 +40059,7 @@
         <v>34</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>26</v>
@@ -40045,7 +40071,7 @@
         <v>26</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -40062,7 +40088,7 @@
         <v>34</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>26</v>
@@ -40074,7 +40100,7 @@
         <v>26</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -40091,7 +40117,7 @@
         <v>34</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>26</v>
@@ -40103,7 +40129,7 @@
         <v>26</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -40120,7 +40146,7 @@
         <v>34</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>26</v>
@@ -40132,10 +40158,7 @@
         <v>26</v>
       </c>
       <c r="I162" s="10" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J162" s="5" t="s">
-        <v>1406</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -40152,7 +40175,7 @@
         <v>34</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>26</v>
@@ -40164,7 +40187,7 @@
         <v>26</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J163" s="5" t="s">
         <v>1406</v>
@@ -40184,7 +40207,7 @@
         <v>34</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>26</v>
@@ -40196,7 +40219,10 @@
         <v>26</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>1052</v>
+        <v>1051</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -40213,7 +40239,7 @@
         <v>34</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>26</v>
@@ -40225,7 +40251,7 @@
         <v>26</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -40242,7 +40268,7 @@
         <v>34</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>26</v>
@@ -40254,7 +40280,7 @@
         <v>26</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -40271,7 +40297,7 @@
         <v>34</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>26</v>
@@ -40283,7 +40309,7 @@
         <v>26</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -40300,7 +40326,7 @@
         <v>34</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>26</v>
@@ -40312,7 +40338,7 @@
         <v>26</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -40329,7 +40355,7 @@
         <v>34</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>26</v>
@@ -40341,7 +40367,7 @@
         <v>26</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -40358,7 +40384,7 @@
         <v>34</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>26</v>
@@ -40370,10 +40396,7 @@
         <v>26</v>
       </c>
       <c r="I170" s="10" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J170" s="5" t="s">
-        <v>1406</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -40390,7 +40413,7 @@
         <v>34</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>990</v>
+        <v>1022</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>26</v>
@@ -40402,7 +40425,10 @@
         <v>26</v>
       </c>
       <c r="I171" s="10" t="s">
-        <v>1031</v>
+        <v>1058</v>
+      </c>
+      <c r="J171" s="5" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -40419,10 +40445,10 @@
         <v>34</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>1062</v>
+        <v>990</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>26</v>
@@ -40431,10 +40457,7 @@
         <v>26</v>
       </c>
       <c r="I172" s="10" t="s">
-        <v>1362</v>
-      </c>
-      <c r="J172" s="5" t="s">
-        <v>255</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -40451,7 +40474,7 @@
         <v>34</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>1091</v>
+        <v>1062</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>31</v>
@@ -40463,7 +40486,10 @@
         <v>26</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>1127</v>
+        <v>1362</v>
+      </c>
+      <c r="J173" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -40480,10 +40506,10 @@
         <v>34</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>26</v>
@@ -40492,7 +40518,7 @@
         <v>26</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -40509,7 +40535,7 @@
         <v>34</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>26</v>
@@ -40521,7 +40547,7 @@
         <v>26</v>
       </c>
       <c r="I175" s="10" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -40535,10 +40561,10 @@
         <v>43</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>26</v>
@@ -40550,10 +40576,7 @@
         <v>26</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>1133</v>
-      </c>
-      <c r="J176" s="5" t="s">
-        <v>1164</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -40570,7 +40593,7 @@
         <v>44</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>26</v>
@@ -40582,7 +40605,7 @@
         <v>26</v>
       </c>
       <c r="I177" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J177" s="5" t="s">
         <v>1164</v>
@@ -40602,7 +40625,7 @@
         <v>44</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>26</v>
@@ -40614,7 +40637,7 @@
         <v>26</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="J178" s="5" t="s">
         <v>1164</v>
@@ -40634,7 +40657,7 @@
         <v>44</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>26</v>
@@ -40646,7 +40669,7 @@
         <v>26</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J179" s="5" t="s">
         <v>1164</v>
@@ -40666,7 +40689,7 @@
         <v>44</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>26</v>
@@ -40678,7 +40701,7 @@
         <v>26</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J180" s="5" t="s">
         <v>1164</v>
@@ -40698,10 +40721,10 @@
         <v>44</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>26</v>
@@ -40710,7 +40733,7 @@
         <v>26</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="J181" s="5" t="s">
         <v>1164</v>
@@ -40730,10 +40753,10 @@
         <v>44</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>26</v>
@@ -40742,7 +40765,7 @@
         <v>26</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="J182" s="5" t="s">
         <v>1164</v>
@@ -40762,7 +40785,7 @@
         <v>44</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>26</v>
@@ -40774,7 +40797,7 @@
         <v>26</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J183" s="5" t="s">
         <v>1164</v>
@@ -40791,10 +40814,10 @@
         <v>43</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>26</v>
@@ -40806,10 +40829,10 @@
         <v>26</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>1165</v>
+        <v>1145</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -40826,7 +40849,7 @@
         <v>34</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>26</v>
@@ -40838,10 +40861,10 @@
         <v>26</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -40858,7 +40881,7 @@
         <v>34</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>26</v>
@@ -40870,7 +40893,10 @@
         <v>26</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>1146</v>
+        <v>1157</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -40887,7 +40913,7 @@
         <v>34</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>26</v>
@@ -40899,10 +40925,7 @@
         <v>26</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>1158</v>
-      </c>
-      <c r="J187" s="5" t="s">
-        <v>26</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -40919,7 +40942,7 @@
         <v>34</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>26</v>
@@ -40931,7 +40954,10 @@
         <v>26</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>1147</v>
+        <v>1158</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -40948,7 +40974,7 @@
         <v>34</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>26</v>
@@ -40960,7 +40986,7 @@
         <v>26</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -40977,7 +41003,7 @@
         <v>34</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>26</v>
@@ -40989,10 +41015,7 @@
         <v>26</v>
       </c>
       <c r="I190" s="10" t="s">
-        <v>1163</v>
-      </c>
-      <c r="J190" s="5" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -41009,7 +41032,7 @@
         <v>34</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>26</v>
@@ -41021,10 +41044,10 @@
         <v>26</v>
       </c>
       <c r="I191" s="10" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="J191" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -41038,10 +41061,10 @@
         <v>43</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>26</v>
@@ -41053,10 +41076,10 @@
         <v>26</v>
       </c>
       <c r="I192" s="10" t="s">
-        <v>1149</v>
+        <v>1162</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>26</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -41073,7 +41096,7 @@
         <v>197</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>26</v>
@@ -41085,7 +41108,7 @@
         <v>26</v>
       </c>
       <c r="I193" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J193" s="5" t="s">
         <v>26</v>
@@ -41105,7 +41128,7 @@
         <v>197</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>26</v>
@@ -41117,7 +41140,7 @@
         <v>26</v>
       </c>
       <c r="I194" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J194" s="5" t="s">
         <v>26</v>
@@ -41137,7 +41160,7 @@
         <v>197</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>26</v>
@@ -41149,7 +41172,7 @@
         <v>26</v>
       </c>
       <c r="I195" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J195" s="5" t="s">
         <v>26</v>
@@ -41169,7 +41192,7 @@
         <v>197</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>26</v>
@@ -41181,7 +41204,7 @@
         <v>26</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J196" s="5" t="s">
         <v>26</v>
@@ -41198,10 +41221,10 @@
         <v>43</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>26</v>
@@ -41213,7 +41236,10 @@
         <v>26</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
+      </c>
+      <c r="J197" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -41230,7 +41256,7 @@
         <v>242</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>26</v>
@@ -41242,7 +41268,7 @@
         <v>26</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -41256,13 +41282,13 @@
         <v>43</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>1096</v>
+        <v>1126</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>26</v>
@@ -41271,10 +41297,7 @@
         <v>26</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>1132</v>
-      </c>
-      <c r="J199" s="5" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -41291,10 +41314,10 @@
         <v>34</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>26</v>
@@ -41302,11 +41325,11 @@
       <c r="H200" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I200" s="5" t="s">
-        <v>1414</v>
+      <c r="I200" s="10" t="s">
+        <v>1132</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>1453</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -41323,7 +41346,7 @@
         <v>34</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>788</v>
+        <v>1110</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>26</v>
@@ -41335,10 +41358,10 @@
         <v>26</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>1436</v>
+        <v>1414</v>
       </c>
       <c r="J201" s="5" t="s">
-        <v>255</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -41355,7 +41378,7 @@
         <v>34</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>26</v>
@@ -41366,11 +41389,11 @@
       <c r="H202" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I202" s="10" t="s">
-        <v>790</v>
+      <c r="I202" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>1346</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -41387,7 +41410,7 @@
         <v>34</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>26</v>
@@ -41399,10 +41422,10 @@
         <v>26</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J203" s="5" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -41416,10 +41439,10 @@
         <v>43</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>1475</v>
+        <v>787</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>26</v>
@@ -41430,11 +41453,11 @@
       <c r="H204" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I204" s="5" t="s">
-        <v>1476</v>
+      <c r="I204" s="10" t="s">
+        <v>791</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>1164</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -41448,10 +41471,10 @@
         <v>43</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>1495</v>
+        <v>1475</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>26</v>
@@ -41462,8 +41485,11 @@
       <c r="H205" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I205" s="10" t="s">
-        <v>1494</v>
+      <c r="I205" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J205" s="5" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -41480,7 +41506,7 @@
         <v>34</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>26</v>
@@ -41492,7 +41518,7 @@
         <v>26</v>
       </c>
       <c r="I206" s="10" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -41506,61 +41532,58 @@
         <v>43</v>
       </c>
       <c r="D207" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I207" s="10" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E207" s="5" t="s">
+      <c r="E208" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F207" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H207" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I207" s="10" t="s">
+      <c r="F208" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I208" s="10" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="208" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
+    <row r="209" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="I208" s="12"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H209" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I209" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="J209" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="I209" s="12"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
@@ -41573,10 +41596,10 @@
         <v>43</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>1339</v>
+        <v>236</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>26</v>
@@ -41588,13 +41611,13 @@
         <v>26</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>1340</v>
+        <v>237</v>
       </c>
       <c r="J210" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>22</v>
       </c>
@@ -41605,13 +41628,13 @@
         <v>43</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>244</v>
+        <v>1339</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>26</v>
@@ -41620,13 +41643,13 @@
         <v>26</v>
       </c>
       <c r="I211" s="10" t="s">
-        <v>245</v>
+        <v>1340</v>
       </c>
       <c r="J211" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>22</v>
       </c>
@@ -41637,94 +41660,94 @@
         <v>43</v>
       </c>
       <c r="D212" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I212" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J212" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E212" s="5" t="s">
+      <c r="E213" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F212" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H212" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I212" s="10" t="s">
+      <c r="F213" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I213" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="J212" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
+      <c r="J213" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
         <v>1737</v>
       </c>
-      <c r="I213" s="12"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H214" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I214" s="10" t="s">
-        <v>1644</v>
-      </c>
-      <c r="J214" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B215" s="6" t="s">
+      <c r="I214" s="12"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D215" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F215" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G215" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H215" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I215" s="6" t="s">
-        <v>1719</v>
-      </c>
-      <c r="J215" s="6" t="s">
+      <c r="D215" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I215" s="10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J215" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -41742,7 +41765,7 @@
         <v>197</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>1741</v>
+        <v>1718</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>26</v>
@@ -41754,7 +41777,7 @@
         <v>26</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="J216" s="6" t="s">
         <v>26</v>
@@ -41771,10 +41794,10 @@
         <v>43</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>26</v>
@@ -41786,10 +41809,10 @@
         <v>26</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>1720</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -41806,7 +41829,7 @@
         <v>34</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>26</v>
@@ -41818,10 +41841,10 @@
         <v>26</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>1484</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="219" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -41838,7 +41861,7 @@
         <v>34</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="F219" s="6" t="s">
         <v>26</v>
@@ -41850,10 +41873,10 @@
         <v>26</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>1161</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="220" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -41870,7 +41893,7 @@
         <v>34</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>26</v>
@@ -41882,7 +41905,7 @@
         <v>26</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="J220" s="6" t="s">
         <v>1161</v>
@@ -41902,7 +41925,7 @@
         <v>34</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F221" s="6" t="s">
         <v>26</v>
@@ -41914,7 +41937,7 @@
         <v>26</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="J221" s="6" t="s">
         <v>1161</v>
@@ -41934,10 +41957,10 @@
         <v>34</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>1738</v>
+        <v>1745</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G222" s="6" t="s">
         <v>26</v>
@@ -41946,7 +41969,7 @@
         <v>26</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="J222" s="6" t="s">
         <v>1161</v>
@@ -41966,10 +41989,10 @@
         <v>34</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>26</v>
@@ -41978,10 +42001,10 @@
         <v>26</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>1728</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="224" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -41998,10 +42021,10 @@
         <v>34</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>1739</v>
+        <v>1746</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G224" s="6" t="s">
         <v>26</v>
@@ -42010,9 +42033,9 @@
         <v>26</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>1730</v>
-      </c>
-      <c r="J224" s="5" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J224" s="6" t="s">
         <v>1728</v>
       </c>
     </row>
@@ -42030,10 +42053,10 @@
         <v>34</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>26</v>
@@ -42042,10 +42065,10 @@
         <v>26</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="J225" s="5" t="s">
-        <v>1160</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="226" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -42062,7 +42085,7 @@
         <v>34</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>26</v>
@@ -42074,7 +42097,7 @@
         <v>26</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J226" s="5" t="s">
         <v>1160</v>
@@ -42094,7 +42117,7 @@
         <v>34</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>26</v>
@@ -42106,7 +42129,7 @@
         <v>26</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="J227" s="5" t="s">
         <v>1160</v>
@@ -42126,7 +42149,7 @@
         <v>34</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>26</v>
@@ -42138,10 +42161,10 @@
         <v>26</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="J228" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="229" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -42158,7 +42181,7 @@
         <v>34</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>26</v>
@@ -42170,7 +42193,7 @@
         <v>26</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="J229" s="5" t="s">
         <v>1161</v>
@@ -42190,7 +42213,7 @@
         <v>34</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>26</v>
@@ -42202,42 +42225,42 @@
         <v>26</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="J230" s="5" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D231" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>1647</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G231" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H231" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I231" s="10" t="s">
-        <v>1650</v>
+      <c r="D231" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H231" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I231" s="6" t="s">
+        <v>1736</v>
       </c>
       <c r="J231" s="5" t="s">
-        <v>26</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -42251,108 +42274,108 @@
         <v>43</v>
       </c>
       <c r="D232" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I232" s="10" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D233" s="5" t="s">
         <v>1822</v>
       </c>
-      <c r="E232" s="5" t="s">
+      <c r="E233" s="5" t="s">
         <v>1823</v>
       </c>
-      <c r="F232" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G232" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H232" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I232" s="10" t="s">
+      <c r="F233" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I233" s="10" t="s">
         <v>1824</v>
       </c>
-      <c r="J232" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I234" s="12"/>
+      <c r="J233" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="235" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I235" s="12"/>
     </row>
     <row r="236" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G236" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H236" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I236" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J236" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I236" s="12"/>
     </row>
     <row r="237" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I237" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I237" s="12"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G238" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H238" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I238" s="10" t="s">
-        <v>1457</v>
-      </c>
-      <c r="J238" s="5" t="s">
-        <v>255</v>
-      </c>
+      <c r="I238" s="12"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
@@ -42368,10 +42391,10 @@
         <v>34</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>1463</v>
+        <v>1088</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>26</v>
@@ -42379,8 +42402,8 @@
       <c r="H239" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I239" s="5" t="s">
-        <v>1462</v>
+      <c r="I239" s="10" t="s">
+        <v>1457</v>
       </c>
       <c r="J239" s="5" t="s">
         <v>255</v>
@@ -42400,7 +42423,7 @@
         <v>34</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>26</v>
@@ -42412,10 +42435,10 @@
         <v>26</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="J240" s="5" t="s">
-        <v>1161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -42432,7 +42455,7 @@
         <v>34</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>1483</v>
+        <v>1464</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>26</v>
@@ -42444,7 +42467,7 @@
         <v>26</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>1640</v>
+        <v>1465</v>
       </c>
       <c r="J241" s="5" t="s">
         <v>1161</v>
@@ -42464,7 +42487,7 @@
         <v>34</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>1498</v>
+        <v>1483</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>26</v>
@@ -42476,7 +42499,7 @@
         <v>26</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>1499</v>
+        <v>1640</v>
       </c>
       <c r="J242" s="5" t="s">
         <v>1161</v>
@@ -42496,7 +42519,7 @@
         <v>34</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>1073</v>
+        <v>1498</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>26</v>
@@ -42508,7 +42531,7 @@
         <v>26</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>1491</v>
+        <v>1499</v>
       </c>
       <c r="J243" s="5" t="s">
         <v>1161</v>
@@ -42528,7 +42551,7 @@
         <v>34</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>1472</v>
+        <v>1073</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>26</v>
@@ -42540,10 +42563,10 @@
         <v>26</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>1761</v>
+        <v>1491</v>
       </c>
       <c r="J244" s="5" t="s">
-        <v>255</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -42560,7 +42583,7 @@
         <v>34</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>26</v>
@@ -42572,10 +42595,10 @@
         <v>26</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="J245" s="5" t="s">
-        <v>1161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -42592,10 +42615,10 @@
         <v>34</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>26</v>
@@ -42604,10 +42627,10 @@
         <v>26</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>1480</v>
+        <v>1762</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>255</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -42624,10 +42647,10 @@
         <v>34</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>26</v>
@@ -42635,11 +42658,11 @@
       <c r="H247" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I247" s="10" t="s">
-        <v>1764</v>
+      <c r="I247" s="5" t="s">
+        <v>1480</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>1156</v>
+        <v>255</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -42656,7 +42679,7 @@
         <v>34</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>26</v>
@@ -42668,13 +42691,13 @@
         <v>26</v>
       </c>
       <c r="I248" s="10" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J248" s="5" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>22</v>
       </c>
@@ -42688,153 +42711,153 @@
         <v>34</v>
       </c>
       <c r="E249" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I249" s="10" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J249" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E250" s="5" t="s">
         <v>1486</v>
       </c>
-      <c r="F249" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G249" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H249" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I249" s="10" t="s">
+      <c r="F250" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I250" s="10" t="s">
         <v>1765</v>
       </c>
-      <c r="J249" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B250" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C250" s="15" t="s">
+      <c r="J250" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C251" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D250" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E250" s="15" t="s">
+      <c r="D251" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E251" s="15" t="s">
         <v>1506</v>
       </c>
-      <c r="F250" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G250" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H250" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I250" s="16" t="s">
+      <c r="F251" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G251" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H251" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I251" s="16" t="s">
         <v>1624</v>
       </c>
-      <c r="J250" s="15" t="s">
+      <c r="J251" s="15" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C251" s="5" t="s">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C252" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D251" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E251" s="5" t="s">
+      <c r="D252" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E252" s="5" t="s">
         <v>1634</v>
       </c>
-      <c r="F251" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G251" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H251" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I251" s="10" t="s">
+      <c r="F252" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I252" s="10" t="s">
         <v>1635</v>
       </c>
-      <c r="J251" s="5" t="s">
+      <c r="J252" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="252" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B252" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C252" s="18" t="s">
+    <row r="253" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C253" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D252" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E252" s="18" t="s">
+      <c r="D253" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E253" s="18" t="s">
         <v>1636</v>
       </c>
-      <c r="F252" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G252" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H252" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I252" s="19" t="s">
+      <c r="F253" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G253" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H253" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I253" s="19" t="s">
         <v>1637</v>
       </c>
-      <c r="J252" s="18" t="s">
+      <c r="J253" s="18" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E253" s="5" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F253" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="G253" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H253" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I253" s="10" t="s">
-        <v>1658</v>
-      </c>
-      <c r="J253" s="5" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>22</v>
       </c>
@@ -42848,10 +42871,10 @@
         <v>34</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>26</v>
+        <v>748</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>26</v>
@@ -42860,13 +42883,13 @@
         <v>26</v>
       </c>
       <c r="I254" s="10" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>22</v>
       </c>
@@ -42880,7 +42903,7 @@
         <v>34</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>26</v>
@@ -42892,13 +42915,13 @@
         <v>26</v>
       </c>
       <c r="I255" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="J255" s="5" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>22</v>
       </c>
@@ -42912,7 +42935,7 @@
         <v>34</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>26</v>
@@ -42924,13 +42947,13 @@
         <v>26</v>
       </c>
       <c r="I256" s="10" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>22</v>
       </c>
@@ -42944,10 +42967,10 @@
         <v>34</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>748</v>
+        <v>26</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>26</v>
@@ -42956,10 +42979,10 @@
         <v>26</v>
       </c>
       <c r="I257" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="J257" s="5" t="s">
-        <v>1156</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -42976,10 +42999,10 @@
         <v>34</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>26</v>
+        <v>748</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>26</v>
@@ -42988,7 +43011,7 @@
         <v>26</v>
       </c>
       <c r="I258" s="10" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="J258" s="5" t="s">
         <v>1156</v>
@@ -43008,7 +43031,7 @@
         <v>34</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F259" s="5" t="s">
         <v>26</v>
@@ -43040,7 +43063,7 @@
         <v>34</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>26</v>
@@ -43052,7 +43075,7 @@
         <v>26</v>
       </c>
       <c r="I260" s="10" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="J260" s="5" t="s">
         <v>1156</v>
@@ -43072,7 +43095,7 @@
         <v>34</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>26</v>
@@ -43090,7 +43113,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>22</v>
       </c>
@@ -43104,7 +43127,7 @@
         <v>34</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F262" s="5" t="s">
         <v>26</v>
@@ -43116,7 +43139,7 @@
         <v>26</v>
       </c>
       <c r="I262" s="10" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="J262" s="5" t="s">
         <v>1156</v>
@@ -43136,7 +43159,7 @@
         <v>34</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>26</v>
@@ -43148,13 +43171,13 @@
         <v>26</v>
       </c>
       <c r="I263" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="J263" s="5" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>22</v>
       </c>
@@ -43168,7 +43191,7 @@
         <v>34</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>26</v>
@@ -43180,10 +43203,10 @@
         <v>26</v>
       </c>
       <c r="I264" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>1685</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -43200,7 +43223,7 @@
         <v>34</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F265" s="5" t="s">
         <v>26</v>
@@ -43232,7 +43255,7 @@
         <v>34</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F266" s="5" t="s">
         <v>26</v>
@@ -43250,7 +43273,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="267" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>22</v>
       </c>
@@ -43263,23 +43286,23 @@
       <c r="D267" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E267" s="10" t="s">
-        <v>1753</v>
-      </c>
-      <c r="F267" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G267" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H267" s="10" t="s">
+      <c r="E267" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H267" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I267" s="10" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J267" s="10" t="s">
-        <v>1484</v>
+        <v>1684</v>
+      </c>
+      <c r="J267" s="5" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -43296,7 +43319,7 @@
         <v>34</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="F268" s="10" t="s">
         <v>26</v>
@@ -43308,13 +43331,13 @@
         <v>26</v>
       </c>
       <c r="I268" s="10" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="J268" s="10" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>22</v>
       </c>
@@ -43327,23 +43350,23 @@
       <c r="D269" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E269" s="5" t="s">
-        <v>1651</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G269" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H269" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I269" s="5" t="s">
-        <v>1759</v>
-      </c>
-      <c r="J269" s="5" t="s">
-        <v>255</v>
+      <c r="E269" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F269" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G269" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H269" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I269" s="10" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J269" s="10" t="s">
+        <v>1758</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -43360,7 +43383,7 @@
         <v>34</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>1770</v>
+        <v>1651</v>
       </c>
       <c r="F270" s="5" t="s">
         <v>26</v>
@@ -43371,11 +43394,11 @@
       <c r="H270" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I270" s="10" t="s">
-        <v>1771</v>
+      <c r="I270" s="5" t="s">
+        <v>1759</v>
       </c>
       <c r="J270" s="5" t="s">
-        <v>1484</v>
+        <v>255</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -43392,107 +43415,107 @@
         <v>34</v>
       </c>
       <c r="E271" s="5" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I271" s="10" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E272" s="5" t="s">
         <v>1774</v>
       </c>
-      <c r="F271" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G271" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H271" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I271" s="10" t="s">
+      <c r="F272" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I272" s="10" t="s">
         <v>1775</v>
       </c>
-      <c r="J271" s="5" t="s">
+      <c r="J272" s="5" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I275" s="12"/>
     </row>
     <row r="276" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I276" s="12"/>
     </row>
     <row r="277" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G277" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H277" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I277" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J277" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I277" s="12"/>
     </row>
     <row r="278" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I278" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I278" s="12"/>
-    </row>
-    <row r="279" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A279" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F279" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G279" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H279" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I279" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J279" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I279" s="12"/>
+    </row>
+    <row r="280" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>22</v>
       </c>
@@ -43506,7 +43529,7 @@
         <v>34</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>1089</v>
+        <v>52</v>
       </c>
       <c r="F280" s="5" t="s">
         <v>31</v>
@@ -43518,10 +43541,10 @@
         <v>26</v>
       </c>
       <c r="I280" s="10" t="s">
-        <v>1090</v>
+        <v>85</v>
       </c>
       <c r="J280" s="5" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -43538,10 +43561,10 @@
         <v>34</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>1460</v>
+        <v>1089</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G281" s="5" t="s">
         <v>26</v>
@@ -43550,10 +43573,10 @@
         <v>26</v>
       </c>
       <c r="I281" s="10" t="s">
-        <v>1461</v>
+        <v>1090</v>
       </c>
       <c r="J281" s="5" t="s">
-        <v>1156</v>
+        <v>255</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -43570,7 +43593,7 @@
         <v>34</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>994</v>
+        <v>1460</v>
       </c>
       <c r="F282" s="5" t="s">
         <v>26</v>
@@ -43582,7 +43605,7 @@
         <v>26</v>
       </c>
       <c r="I282" s="10" t="s">
-        <v>1035</v>
+        <v>1461</v>
       </c>
       <c r="J282" s="5" t="s">
         <v>1156</v>
@@ -43602,7 +43625,7 @@
         <v>34</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F283" s="5" t="s">
         <v>26</v>
@@ -43614,7 +43637,7 @@
         <v>26</v>
       </c>
       <c r="I283" s="10" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="J283" s="5" t="s">
         <v>1156</v>
@@ -43634,7 +43657,7 @@
         <v>34</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="F284" s="5" t="s">
         <v>26</v>
@@ -43646,10 +43669,10 @@
         <v>26</v>
       </c>
       <c r="I284" s="10" t="s">
-        <v>1490</v>
+        <v>1038</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>1484</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -43666,499 +43689,539 @@
         <v>34</v>
       </c>
       <c r="E285" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G285" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H285" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I285" s="10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J285" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E286" s="5" t="s">
         <v>1493</v>
       </c>
-      <c r="F285" s="5" t="s">
+      <c r="F286" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G285" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H285" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I285" s="10" t="s">
+      <c r="G286" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I286" s="10" t="s">
         <v>1492</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A11 A21 A234:A238 A275:A280 A111:A115 A144:A170 A282:A284 A287 A289:A1048576 A173:A199 A134:A137 A104:A107 A117:A130 A16">
-    <cfRule type="containsText" dxfId="211" priority="307" operator="containsText" text="......">
+  <conditionalFormatting sqref="A1:A11 A21 A235:A239 A276:A281 A111:A115 A145:A171 A283:A285 A288 A290:A1048576 A174:A200 A134:A137 A104:A107 A117:A130 A16">
+    <cfRule type="containsText" dxfId="211" priority="309" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="210" priority="308" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="210" priority="310" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="209" priority="299" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="209" priority="301" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A20)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="208" priority="300" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="208" priority="302" operator="beginsWith" text="#">
       <formula>LEFT(A20,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="207" priority="297" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="207" priority="299" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="206" priority="298" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="206" priority="300" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A23">
-    <cfRule type="containsText" dxfId="205" priority="295" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="205" priority="297" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A22)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="204" priority="296" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="204" priority="298" operator="beginsWith" text="#">
       <formula>LEFT(A22,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="containsText" dxfId="203" priority="293" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="203" priority="295" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="202" priority="294" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="202" priority="296" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208">
+    <cfRule type="containsText" dxfId="201" priority="223" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A208)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="200" priority="224" operator="beginsWith" text="#">
+      <formula>LEFT(A208,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173">
+    <cfRule type="containsText" dxfId="199" priority="213" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A173)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="198" priority="214" operator="beginsWith" text="#">
+      <formula>LEFT(A173,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="containsText" dxfId="197" priority="203" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A108)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="196" priority="204" operator="beginsWith" text="#">
+      <formula>LEFT(A108,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209">
+    <cfRule type="containsText" dxfId="195" priority="181" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A209)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="194" priority="182" operator="beginsWith" text="#">
+      <formula>LEFT(A209,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A234">
+    <cfRule type="containsText" dxfId="193" priority="165" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A234)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="192" priority="166" operator="beginsWith" text="#">
+      <formula>LEFT(A234,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="containsText" dxfId="191" priority="201" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="190" priority="202" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A61">
+    <cfRule type="containsText" dxfId="189" priority="1109" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="188" priority="1110" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A46">
+    <cfRule type="containsText" dxfId="187" priority="1159" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="186" priority="1160" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:A50">
+    <cfRule type="containsText" dxfId="185" priority="1329" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="184" priority="1330" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A66">
+    <cfRule type="containsText" dxfId="183" priority="1499" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="182" priority="1500" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201">
+    <cfRule type="containsText" dxfId="181" priority="167" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="180" priority="168" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A282">
+    <cfRule type="containsText" dxfId="179" priority="159" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A282)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="178" priority="160" operator="beginsWith" text="#">
+      <formula>LEFT(A282,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A241">
+    <cfRule type="containsText" dxfId="177" priority="149" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="176" priority="150" operator="beginsWith" text="#">
+      <formula>LEFT(A241,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A270">
+    <cfRule type="containsText" dxfId="175" priority="151" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A270)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="174" priority="152" operator="beginsWith" text="#">
+      <formula>LEFT(A270,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="containsText" dxfId="173" priority="147" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A131)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="172" priority="148" operator="beginsWith" text="#">
+      <formula>LEFT(A131,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="containsText" dxfId="171" priority="145" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A132)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="170" priority="146" operator="beginsWith" text="#">
+      <formula>LEFT(A132,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
+    <cfRule type="containsText" dxfId="169" priority="143" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A133)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="168" priority="144" operator="beginsWith" text="#">
+      <formula>LEFT(A133,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A245:A246">
+    <cfRule type="containsText" dxfId="167" priority="141" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A245)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="166" priority="142" operator="beginsWith" text="#">
+      <formula>LEFT(A245,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A202">
+    <cfRule type="containsText" dxfId="165" priority="139" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="164" priority="140" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="containsText" dxfId="163" priority="133" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="162" priority="134" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A247">
+    <cfRule type="containsText" dxfId="161" priority="131" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="160" priority="132" operator="beginsWith" text="#">
+      <formula>LEFT(A247,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A243">
+    <cfRule type="containsText" dxfId="159" priority="127" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A243)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="158" priority="128" operator="beginsWith" text="#">
+      <formula>LEFT(A243,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A250">
+    <cfRule type="containsText" dxfId="157" priority="125" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A250)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="156" priority="126" operator="beginsWith" text="#">
+      <formula>LEFT(A250,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A248">
+    <cfRule type="containsText" dxfId="155" priority="121" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A248)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="154" priority="122" operator="beginsWith" text="#">
+      <formula>LEFT(A248,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A249">
+    <cfRule type="containsText" dxfId="153" priority="119" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A249)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="152" priority="120" operator="beginsWith" text="#">
+      <formula>LEFT(A249,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A244">
+    <cfRule type="containsText" dxfId="151" priority="117" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A244)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="150" priority="118" operator="beginsWith" text="#">
+      <formula>LEFT(A244,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A286">
+    <cfRule type="containsText" dxfId="149" priority="115" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A286)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="148" priority="116" operator="beginsWith" text="#">
+      <formula>LEFT(A286,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
+    <cfRule type="containsText" dxfId="147" priority="113" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A206)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="146" priority="114" operator="beginsWith" text="#">
+      <formula>LEFT(A206,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="containsText" dxfId="201" priority="221" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="145" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A207)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="200" priority="222" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="144" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A207,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A172">
-    <cfRule type="containsText" dxfId="199" priority="211" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A172)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="212" operator="beginsWith" text="#">
-      <formula>LEFT(A172,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="containsText" dxfId="143" priority="109" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="142" priority="110" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
-    <cfRule type="containsText" dxfId="197" priority="201" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A108)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="202" operator="beginsWith" text="#">
-      <formula>LEFT(A108,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A140">
+    <cfRule type="containsText" dxfId="141" priority="107" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="140" priority="108" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="195" priority="179" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A208)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="180" operator="beginsWith" text="#">
-      <formula>LEFT(A208,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A242">
+    <cfRule type="containsText" dxfId="139" priority="103" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="138" priority="104" operator="beginsWith" text="#">
+      <formula>LEFT(A242,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A233">
-    <cfRule type="containsText" dxfId="193" priority="163" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A233)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="192" priority="164" operator="beginsWith" text="#">
-      <formula>LEFT(A233,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A251">
+    <cfRule type="containsText" dxfId="137" priority="101" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A251)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="136" priority="102" operator="beginsWith" text="#">
+      <formula>LEFT(A251,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="191" priority="199" operator="containsText" text="......">
+  <conditionalFormatting sqref="A252">
+    <cfRule type="containsText" dxfId="135" priority="99" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A252)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="134" priority="100" operator="beginsWith" text="#">
+      <formula>LEFT(A252,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A253">
+    <cfRule type="containsText" dxfId="133" priority="97" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A253)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="132" priority="98" operator="beginsWith" text="#">
+      <formula>LEFT(A253,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A203:A205 A69:A70 A72">
+    <cfRule type="containsText" dxfId="131" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="200" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="130" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A61">
-    <cfRule type="containsText" dxfId="189" priority="1107" operator="containsText" text="......">
+  <conditionalFormatting sqref="A62:A63">
+    <cfRule type="containsText" dxfId="129" priority="2123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="188" priority="1108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="128" priority="2124" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A46">
-    <cfRule type="containsText" dxfId="187" priority="1157" operator="containsText" text="......">
+  <conditionalFormatting sqref="A67">
+    <cfRule type="containsText" dxfId="127" priority="2235" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="186" priority="1158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="126" priority="2236" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:A50">
-    <cfRule type="containsText" dxfId="185" priority="1327" operator="containsText" text="......">
+  <conditionalFormatting sqref="A71">
+    <cfRule type="containsText" dxfId="125" priority="95" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A71)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="124" priority="96" operator="beginsWith" text="#">
+      <formula>LEFT(A71,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="containsText" dxfId="123" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="184" priority="1328" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="122" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A66">
-    <cfRule type="containsText" dxfId="183" priority="1497" operator="containsText" text="......">
+  <conditionalFormatting sqref="A96">
+    <cfRule type="containsText" dxfId="121" priority="81" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A96)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="120" priority="82" operator="beginsWith" text="#">
+      <formula>LEFT(A96,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="containsText" dxfId="119" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="1498" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="118" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A200">
-    <cfRule type="containsText" dxfId="181" priority="165" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="166" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A214">
+    <cfRule type="containsText" dxfId="117" priority="47" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A214)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="116" priority="48" operator="beginsWith" text="#">
+      <formula>LEFT(A214,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A281">
-    <cfRule type="containsText" dxfId="179" priority="157" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A281)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="158" operator="beginsWith" text="#">
-      <formula>LEFT(A281,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="containsText" dxfId="115" priority="37" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="114" priority="38" operator="beginsWith" text="#">
+      <formula>LEFT(A98,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="177" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="113" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="112" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A269">
-    <cfRule type="containsText" dxfId="175" priority="149" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A269)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="150" operator="beginsWith" text="#">
-      <formula>LEFT(A269,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
-    <cfRule type="containsText" dxfId="173" priority="145" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A131)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="146" operator="beginsWith" text="#">
-      <formula>LEFT(A131,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
-    <cfRule type="containsText" dxfId="171" priority="143" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A132)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="144" operator="beginsWith" text="#">
-      <formula>LEFT(A132,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
-    <cfRule type="containsText" dxfId="169" priority="141" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A133)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="142" operator="beginsWith" text="#">
-      <formula>LEFT(A133,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A244:A245">
-    <cfRule type="containsText" dxfId="167" priority="139" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A244)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="140" operator="beginsWith" text="#">
-      <formula>LEFT(A244,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201">
-    <cfRule type="containsText" dxfId="165" priority="137" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="138" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
-    <cfRule type="containsText" dxfId="163" priority="131" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="132" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A246">
-    <cfRule type="containsText" dxfId="161" priority="129" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A246)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="130" operator="beginsWith" text="#">
-      <formula>LEFT(A246,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A242">
-    <cfRule type="containsText" dxfId="159" priority="125" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="126" operator="beginsWith" text="#">
-      <formula>LEFT(A242,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A249">
-    <cfRule type="containsText" dxfId="157" priority="123" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A249)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="156" priority="124" operator="beginsWith" text="#">
-      <formula>LEFT(A249,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A247">
-    <cfRule type="containsText" dxfId="155" priority="119" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="120" operator="beginsWith" text="#">
-      <formula>LEFT(A247,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A248">
-    <cfRule type="containsText" dxfId="153" priority="117" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A248)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="152" priority="118" operator="beginsWith" text="#">
-      <formula>LEFT(A248,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A243">
-    <cfRule type="containsText" dxfId="151" priority="115" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A243)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="116" operator="beginsWith" text="#">
-      <formula>LEFT(A243,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A285">
-    <cfRule type="containsText" dxfId="149" priority="113" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A285)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="114" operator="beginsWith" text="#">
-      <formula>LEFT(A285,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
-    <cfRule type="containsText" dxfId="147" priority="111" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A205)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="112" operator="beginsWith" text="#">
-      <formula>LEFT(A205,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
-    <cfRule type="containsText" dxfId="145" priority="109" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A206)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="110" operator="beginsWith" text="#">
-      <formula>LEFT(A206,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
-    <cfRule type="containsText" dxfId="143" priority="107" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="142" priority="108" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140">
-    <cfRule type="containsText" dxfId="141" priority="105" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="106" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A241">
-    <cfRule type="containsText" dxfId="139" priority="101" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="102" operator="beginsWith" text="#">
-      <formula>LEFT(A241,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A250">
-    <cfRule type="containsText" dxfId="137" priority="99" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A250)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="136" priority="100" operator="beginsWith" text="#">
-      <formula>LEFT(A250,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A251">
-    <cfRule type="containsText" dxfId="135" priority="97" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A251)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="98" operator="beginsWith" text="#">
-      <formula>LEFT(A251,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A252">
-    <cfRule type="containsText" dxfId="133" priority="95" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A252)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="96" operator="beginsWith" text="#">
-      <formula>LEFT(A252,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A202:A204 A69:A70 A72">
-    <cfRule type="containsText" dxfId="131" priority="193" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="194" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:A63">
-    <cfRule type="containsText" dxfId="129" priority="2121" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="128" priority="2122" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="containsText" dxfId="127" priority="2233" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="126" priority="2234" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="125" priority="93" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A71)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="124" priority="94" operator="beginsWith" text="#">
-      <formula>LEFT(A71,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="containsText" dxfId="123" priority="83" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="122" priority="84" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="121" priority="79" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A96)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="120" priority="80" operator="beginsWith" text="#">
-      <formula>LEFT(A96,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A141">
-    <cfRule type="containsText" dxfId="119" priority="77" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="118" priority="78" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213">
-    <cfRule type="containsText" dxfId="117" priority="45" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A213)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="116" priority="46" operator="beginsWith" text="#">
-      <formula>LEFT(A213,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="containsText" dxfId="115" priority="35" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="114" priority="36" operator="beginsWith" text="#">
-      <formula>LEFT(A98,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A239">
-    <cfRule type="containsText" dxfId="113" priority="29" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A239)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="112" priority="30" operator="beginsWith" text="#">
-      <formula>LEFT(A239,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="111" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="111" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A99)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="110" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A99,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="109" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A100)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="108" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A100,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="containsText" dxfId="107" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="107" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A101)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="106" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="106" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A101,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="containsText" dxfId="105" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="105" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A102)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="104" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="104" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A102,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="containsText" dxfId="103" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="103" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A103)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="102" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="102" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A103,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A270">
-    <cfRule type="containsText" dxfId="101" priority="15" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A270)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="16" operator="beginsWith" text="#">
-      <formula>LEFT(A270,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A271">
+    <cfRule type="containsText" dxfId="101" priority="17" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A271)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="100" priority="18" operator="beginsWith" text="#">
+      <formula>LEFT(A271,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A271:A274">
-    <cfRule type="containsText" dxfId="99" priority="11" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A271)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="98" priority="12" operator="beginsWith" text="#">
-      <formula>LEFT(A271,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A272:A275">
+    <cfRule type="containsText" dxfId="99" priority="13" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A272)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="98" priority="14" operator="beginsWith" text="#">
+      <formula>LEFT(A272,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="containsText" dxfId="97" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A116)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="96" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A116,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="94" priority="10" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="containsText" dxfId="93" priority="7" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="92" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="containsText" dxfId="93" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="92" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44168,7 +44231,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="565" operator="containsText" text="......" id="{2740CB74-BF81-4E7E-8816-79D33A17FB72}">
+          <x14:cfRule type="containsText" priority="567" operator="containsText" text="......" id="{2740CB74-BF81-4E7E-8816-79D33A17FB72}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!#REF!)))</xm:f>
             <x14:dxf>
               <font>
@@ -44177,7 +44240,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="566" operator="beginsWith" text="#" id="{3C7446DC-621E-41C0-8BDA-9CEAF8FB8B99}">
+          <x14:cfRule type="beginsWith" priority="568" operator="beginsWith" text="#" id="{3C7446DC-621E-41C0-8BDA-9CEAF8FB8B99}">
             <xm:f>LEFT(ElastoDyn!#REF!,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -44191,10 +44254,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A171</xm:sqref>
+          <xm:sqref>A172</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="187" operator="containsText" text="......" id="{45986398-BDBB-476E-B707-6E1702F9F4C3}">
+          <x14:cfRule type="containsText" priority="189" operator="containsText" text="......" id="{45986398-BDBB-476E-B707-6E1702F9F4C3}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!#REF!)))</xm:f>
             <x14:dxf>
               <font>
@@ -44203,7 +44266,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="188" operator="beginsWith" text="#" id="{17FE44F8-569E-4B0A-84CB-2C9B419F47BC}">
+          <x14:cfRule type="beginsWith" priority="190" operator="beginsWith" text="#" id="{17FE44F8-569E-4B0A-84CB-2C9B419F47BC}">
             <xm:f>LEFT(ElastoDyn!#REF!,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -44220,7 +44283,7 @@
           <xm:sqref>A73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="185" operator="containsText" text="......" id="{FAD408D6-5A15-41F2-AF74-CCCC70BAEABE}">
+          <x14:cfRule type="containsText" priority="187" operator="containsText" text="......" id="{FAD408D6-5A15-41F2-AF74-CCCC70BAEABE}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!#REF!)))</xm:f>
             <x14:dxf>
               <font>
@@ -44229,7 +44292,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="186" operator="beginsWith" text="#" id="{4E32124F-2922-4C24-9834-412E8E65D5FE}">
+          <x14:cfRule type="beginsWith" priority="188" operator="beginsWith" text="#" id="{4E32124F-2922-4C24-9834-412E8E65D5FE}">
             <xm:f>LEFT(ElastoDyn!#REF!,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -44243,10 +44306,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A209</xm:sqref>
+          <xm:sqref>A210</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="183" operator="containsText" text="......" id="{8F043A1C-8E80-49F6-BC48-5D97B0A79BA8}">
+          <x14:cfRule type="containsText" priority="185" operator="containsText" text="......" id="{8F043A1C-8E80-49F6-BC48-5D97B0A79BA8}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A183)))</xm:f>
             <x14:dxf>
               <font>
@@ -44255,7 +44318,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="184" operator="beginsWith" text="#" id="{AA404B8F-E7B1-4F0B-87EB-73313E57DE1F}">
+          <x14:cfRule type="beginsWith" priority="186" operator="beginsWith" text="#" id="{AA404B8F-E7B1-4F0B-87EB-73313E57DE1F}">
             <xm:f>LEFT(ElastoDyn!A183,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -44269,10 +44332,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A211:A212</xm:sqref>
+          <xm:sqref>A212:A213</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="181" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
+          <x14:cfRule type="containsText" priority="183" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A181)))</xm:f>
             <x14:dxf>
               <font>
@@ -44281,7 +44344,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="182" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
+          <x14:cfRule type="beginsWith" priority="184" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
             <xm:f>LEFT(ElastoDyn!A181,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -44295,10 +44358,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A214 A210</xm:sqref>
+          <xm:sqref>A215 A211</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2419" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
+          <x14:cfRule type="containsText" priority="2421" operator="containsText" text="......" id="{3AEF5FEB-1B08-4D05-A169-DF747818D30D}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A210)))</xm:f>
             <x14:dxf>
               <font>
@@ -44307,7 +44370,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2420" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
+          <x14:cfRule type="beginsWith" priority="2422" operator="beginsWith" text="#" id="{8A127C95-F11B-4718-87B6-AFEBE091E974}">
             <xm:f>LEFT(ElastoDyn!A210,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -44321,10 +44384,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A253:A255</xm:sqref>
+          <xm:sqref>A254:A256</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="49" operator="containsText" text="......" id="{1DD295AF-2F2B-4BC3-91EB-4FE7E936BCCB}">
+          <x14:cfRule type="containsText" priority="51" operator="containsText" text="......" id="{1DD295AF-2F2B-4BC3-91EB-4FE7E936BCCB}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!B216)))</xm:f>
             <x14:dxf>
               <font>
@@ -44333,7 +44396,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="50" operator="beginsWith" text="#" id="{FF82794E-64B3-4F5D-9FD7-5316A3A54FC4}">
+          <x14:cfRule type="beginsWith" priority="52" operator="beginsWith" text="#" id="{FF82794E-64B3-4F5D-9FD7-5316A3A54FC4}">
             <xm:f>LEFT(ElastoDyn!B216,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -44347,10 +44410,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B256:B268</xm:sqref>
+          <xm:sqref>B257:B269</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="59" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
+          <x14:cfRule type="containsText" priority="61" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A222)))</xm:f>
             <x14:dxf>
               <font>
@@ -44359,7 +44422,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="60" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
+          <x14:cfRule type="beginsWith" priority="62" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
             <xm:f>LEFT(ElastoDyn!A222,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -44373,10 +44436,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A256:A268</xm:sqref>
+          <xm:sqref>A257:A269</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2463" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
+          <x14:cfRule type="containsText" priority="2465" operator="containsText" text="......" id="{3FA700AC-2A60-422E-8C8F-0D102D778139}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A78)))</xm:f>
             <x14:dxf>
               <font>
@@ -44385,7 +44448,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2464" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
+          <x14:cfRule type="beginsWith" priority="2466" operator="beginsWith" text="#" id="{319FB54B-F448-4F54-B194-26089DA786F3}">
             <xm:f>LEFT(ElastoDyn!A78,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -44402,7 +44465,7 @@
           <xm:sqref>A109:A110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" text="......" id="{3D2F6312-B13B-4248-9EC4-4712946E1C85}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" text="......" id="{3D2F6312-B13B-4248-9EC4-4712946E1C85}">
             <xm:f>NOT(ISERROR(SEARCH("......",ElastoDyn!A12)))</xm:f>
             <x14:dxf>
               <font>
@@ -44411,7 +44474,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="4" operator="beginsWith" text="#" id="{6F90DE45-56D9-46C8-97AD-6F575FE2B313}">
+          <x14:cfRule type="beginsWith" priority="6" operator="beginsWith" text="#" id="{6F90DE45-56D9-46C8-97AD-6F575FE2B313}">
             <xm:f>LEFT(ElastoDyn!A12,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -36180,7 +36180,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D133" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="14880" windowHeight="7545" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="14880" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="2" r:id="rId1"/>
@@ -11150,8 +11150,8 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11783,9 +11783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K821"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36261,7 +36261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -5895,7 +5895,41 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="586">
+  <dxfs count="590">
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <u val="none"/>
@@ -11791,10 +11825,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="585" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="589" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="584" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="588" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11807,8 +11841,8 @@
   <dimension ref="A1:K822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="A1:XFD1048576"/>
+      <pane ySplit="11" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A525" sqref="A525:XFD525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26255,35 +26289,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A525" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B525" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C525" s="5" t="s">
+    <row r="525" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C525" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D525" s="5" t="s">
+      <c r="D525" s="3" t="s">
         <v>1623</v>
       </c>
-      <c r="E525" s="5" t="s">
+      <c r="E525" s="3" t="s">
         <v>1770</v>
       </c>
-      <c r="F525" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G525" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H525" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I525" s="5" t="s">
+      <c r="F525" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H525" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I525" s="12" t="s">
         <v>1771</v>
       </c>
-      <c r="J525" s="5" t="s">
+      <c r="J525" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -34706,1443 +34740,1451 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A261:A317 A508:A516 A333 A324 A538:A539 A644:A677 A521 A71 A40:A59 A693:A708 A688:A691 A710:A716 A682:A686 A25:A26 A28:A32 A257:A259 A533 A823:A1048576 A773:A774 A347:A356 A375:A378 A389:A391 A402:A405 A553:A624 A428:A452 A455:A462 A501 A464:A497 A396:A399 A778:A779 A626:A642 A785:A787 A798:A799 A526:A531 A1:A11 A13:A14 A503:A506 A20:A23">
-    <cfRule type="containsText" dxfId="583" priority="845" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="587" priority="847" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="582" priority="846" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="586" priority="848" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A260">
-    <cfRule type="containsText" dxfId="581" priority="833" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="585" priority="835" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A260)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="580" priority="834" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="584" priority="836" operator="beginsWith" text="#">
       <formula>LEFT(A260,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 A37">
-    <cfRule type="containsText" dxfId="579" priority="827" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="583" priority="829" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="578" priority="828" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="582" priority="830" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A73">
-    <cfRule type="containsText" dxfId="577" priority="823" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="581" priority="825" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A72)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="576" priority="824" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="580" priority="826" operator="beginsWith" text="#">
       <formula>LEFT(A72,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="containsText" dxfId="575" priority="821" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="579" priority="823" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="574" priority="822" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="578" priority="824" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A535">
-    <cfRule type="containsText" dxfId="573" priority="817" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="577" priority="819" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A535)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="572" priority="818" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="576" priority="820" operator="beginsWith" text="#">
       <formula>LEFT(A535,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A534">
-    <cfRule type="containsText" dxfId="571" priority="819" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="575" priority="821" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A534)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="570" priority="820" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="574" priority="822" operator="beginsWith" text="#">
       <formula>LEFT(A534,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A547">
-    <cfRule type="containsText" dxfId="569" priority="815" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="573" priority="817" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A547)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="568" priority="816" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="572" priority="818" operator="beginsWith" text="#">
       <formula>LEFT(A547,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A548">
-    <cfRule type="containsText" dxfId="567" priority="813" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="571" priority="815" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A548)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="566" priority="814" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="570" priority="816" operator="beginsWith" text="#">
       <formula>LEFT(A548,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A545">
-    <cfRule type="containsText" dxfId="565" priority="811" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="569" priority="813" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A545)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="564" priority="812" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="568" priority="814" operator="beginsWith" text="#">
       <formula>LEFT(A545,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A546">
-    <cfRule type="containsText" dxfId="563" priority="809" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="567" priority="811" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A546)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="562" priority="810" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="566" priority="812" operator="beginsWith" text="#">
       <formula>LEFT(A546,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A549">
-    <cfRule type="containsText" dxfId="561" priority="805" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="565" priority="807" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A549)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="560" priority="806" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="564" priority="808" operator="beginsWith" text="#">
       <formula>LEFT(A549,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A507">
-    <cfRule type="containsText" dxfId="559" priority="801" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="563" priority="803" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A507)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="558" priority="802" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="562" priority="804" operator="beginsWith" text="#">
       <formula>LEFT(A507,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A536">
-    <cfRule type="containsText" dxfId="557" priority="799" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="561" priority="801" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A536)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="556" priority="800" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="560" priority="802" operator="beginsWith" text="#">
       <formula>LEFT(A536,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A550">
-    <cfRule type="containsText" dxfId="555" priority="797" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="559" priority="799" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A550)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="554" priority="798" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="558" priority="800" operator="beginsWith" text="#">
       <formula>LEFT(A550,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A643">
-    <cfRule type="containsText" dxfId="553" priority="795" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="557" priority="797" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A643)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="552" priority="796" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="556" priority="798" operator="beginsWith" text="#">
       <formula>LEFT(A643,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A537">
-    <cfRule type="containsText" dxfId="551" priority="789" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="555" priority="791" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A537)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="550" priority="790" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="554" priority="792" operator="beginsWith" text="#">
       <formula>LEFT(A537,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A318:A320">
-    <cfRule type="containsText" dxfId="549" priority="787" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="553" priority="789" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A318)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="548" priority="788" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="552" priority="790" operator="beginsWith" text="#">
       <formula>LEFT(A318,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A321">
-    <cfRule type="containsText" dxfId="547" priority="783" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="551" priority="785" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A321)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="546" priority="784" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="550" priority="786" operator="beginsWith" text="#">
       <formula>LEFT(A321,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A322:A323 A325:A330">
-    <cfRule type="containsText" dxfId="545" priority="781" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="549" priority="783" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A322)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="544" priority="782" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="548" priority="784" operator="beginsWith" text="#">
       <formula>LEFT(A322,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A331:A332 A334:A340 A541">
-    <cfRule type="containsText" dxfId="543" priority="779" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="547" priority="781" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A331)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="542" priority="780" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="546" priority="782" operator="beginsWith" text="#">
       <formula>LEFT(A331,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A540">
-    <cfRule type="containsText" dxfId="541" priority="735" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="545" priority="737" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A540)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="540" priority="736" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="544" priority="738" operator="beginsWith" text="#">
       <formula>LEFT(A540,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A342">
-    <cfRule type="containsText" dxfId="539" priority="723" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="543" priority="725" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A342)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="538" priority="724" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="542" priority="726" operator="beginsWith" text="#">
       <formula>LEFT(A342,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341">
-    <cfRule type="containsText" dxfId="537" priority="725" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="541" priority="727" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A341)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="536" priority="726" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="540" priority="728" operator="beginsWith" text="#">
       <formula>LEFT(A341,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A542">
-    <cfRule type="containsText" dxfId="535" priority="721" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="539" priority="723" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A542)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="534" priority="722" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="538" priority="724" operator="beginsWith" text="#">
       <formula>LEFT(A542,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A543">
-    <cfRule type="containsText" dxfId="533" priority="719" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="537" priority="721" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A543)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="532" priority="720" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="536" priority="722" operator="beginsWith" text="#">
       <formula>LEFT(A543,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343:A344">
-    <cfRule type="containsText" dxfId="531" priority="717" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="535" priority="719" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A343)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="530" priority="718" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="534" priority="720" operator="beginsWith" text="#">
       <formula>LEFT(A343,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A552">
-    <cfRule type="containsText" dxfId="529" priority="709" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="533" priority="711" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A552)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="528" priority="710" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="532" priority="712" operator="beginsWith" text="#">
       <formula>LEFT(A552,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A551">
-    <cfRule type="containsText" dxfId="527" priority="711" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="531" priority="713" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A551)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="526" priority="712" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="530" priority="714" operator="beginsWith" text="#">
       <formula>LEFT(A551,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679">
-    <cfRule type="containsText" dxfId="525" priority="679" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="529" priority="681" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A679)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="524" priority="680" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="528" priority="682" operator="beginsWith" text="#">
       <formula>LEFT(A679,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345:A346 A380">
-    <cfRule type="containsText" dxfId="523" priority="675" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="527" priority="677" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A345)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="522" priority="676" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="526" priority="678" operator="beginsWith" text="#">
       <formula>LEFT(A345,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A401">
-    <cfRule type="containsText" dxfId="521" priority="673" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="525" priority="675" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A401)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="520" priority="674" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="524" priority="676" operator="beginsWith" text="#">
       <formula>LEFT(A401,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A517:A518">
-    <cfRule type="containsText" dxfId="519" priority="669" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="523" priority="671" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A517)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="518" priority="670" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="522" priority="672" operator="beginsWith" text="#">
       <formula>LEFT(A517,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A520">
-    <cfRule type="containsText" dxfId="517" priority="667" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="521" priority="669" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A520)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="516" priority="668" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="520" priority="670" operator="beginsWith" text="#">
       <formula>LEFT(A520,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="515" priority="641" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="519" priority="643" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="514" priority="642" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="518" priority="644" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="513" priority="639" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="517" priority="641" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="512" priority="640" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="516" priority="642" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="511" priority="631" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="515" priority="633" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A60)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="510" priority="632" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="514" priority="634" operator="beginsWith" text="#">
       <formula>LEFT(A60,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="509" priority="629" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="513" priority="631" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A61)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="508" priority="630" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="512" priority="632" operator="beginsWith" text="#">
       <formula>LEFT(A61,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="containsText" dxfId="507" priority="627" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="511" priority="629" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A62)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="506" priority="628" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="510" priority="630" operator="beginsWith" text="#">
       <formula>LEFT(A62,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="containsText" dxfId="505" priority="625" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="509" priority="627" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A63)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="504" priority="626" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="508" priority="628" operator="beginsWith" text="#">
       <formula>LEFT(A63,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A717">
-    <cfRule type="containsText" dxfId="503" priority="623" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="507" priority="625" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A717)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="502" priority="624" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="506" priority="626" operator="beginsWith" text="#">
       <formula>LEFT(A717,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A718">
-    <cfRule type="containsText" dxfId="501" priority="621" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="505" priority="623" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A718)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="500" priority="622" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="504" priority="624" operator="beginsWith" text="#">
       <formula>LEFT(A718,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A719">
-    <cfRule type="containsText" dxfId="499" priority="619" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="503" priority="621" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A719)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="498" priority="620" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="502" priority="622" operator="beginsWith" text="#">
       <formula>LEFT(A719,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A772">
-    <cfRule type="containsText" dxfId="497" priority="617" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="501" priority="619" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A772)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="496" priority="618" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="500" priority="620" operator="beginsWith" text="#">
       <formula>LEFT(A772,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A721:A724">
-    <cfRule type="containsText" dxfId="495" priority="613" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="499" priority="615" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A721)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="494" priority="614" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="498" priority="616" operator="beginsWith" text="#">
       <formula>LEFT(A721,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A720">
-    <cfRule type="containsText" dxfId="493" priority="609" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="497" priority="611" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A720)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="492" priority="610" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="496" priority="612" operator="beginsWith" text="#">
       <formula>LEFT(A720,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A725:A732">
-    <cfRule type="containsText" dxfId="491" priority="603" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="495" priority="605" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A725)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="490" priority="604" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="494" priority="606" operator="beginsWith" text="#">
       <formula>LEFT(A725,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A733:A743">
-    <cfRule type="containsText" dxfId="489" priority="597" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="493" priority="599" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A733)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="488" priority="598" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="492" priority="600" operator="beginsWith" text="#">
       <formula>LEFT(A733,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A744">
-    <cfRule type="containsText" dxfId="487" priority="599" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="491" priority="601" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A744)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="486" priority="600" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="490" priority="602" operator="beginsWith" text="#">
       <formula>LEFT(A744,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A745:A755">
-    <cfRule type="containsText" dxfId="485" priority="591" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="489" priority="593" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A745)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="484" priority="592" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="488" priority="594" operator="beginsWith" text="#">
       <formula>LEFT(A745,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A756">
-    <cfRule type="containsText" dxfId="483" priority="593" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="487" priority="595" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A756)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="594" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="486" priority="596" operator="beginsWith" text="#">
       <formula>LEFT(A756,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="containsText" dxfId="481" priority="587" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="485" priority="589" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A757)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="480" priority="588" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="484" priority="590" operator="beginsWith" text="#">
       <formula>LEFT(A757,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A761:A762">
-    <cfRule type="containsText" dxfId="479" priority="577" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="483" priority="579" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A761)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="478" priority="578" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="482" priority="580" operator="beginsWith" text="#">
       <formula>LEFT(A761,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="containsText" dxfId="477" priority="583" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="481" priority="585" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A758)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="476" priority="584" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="480" priority="586" operator="beginsWith" text="#">
       <formula>LEFT(A758,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A759">
-    <cfRule type="containsText" dxfId="475" priority="581" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="479" priority="583" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A759)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="582" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="478" priority="584" operator="beginsWith" text="#">
       <formula>LEFT(A759,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="containsText" dxfId="473" priority="579" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="477" priority="581" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A760)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="472" priority="580" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="476" priority="582" operator="beginsWith" text="#">
       <formula>LEFT(A760,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A763:A764">
-    <cfRule type="containsText" dxfId="471" priority="573" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="475" priority="575" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A763)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="470" priority="574" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="474" priority="576" operator="beginsWith" text="#">
       <formula>LEFT(A763,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A765">
-    <cfRule type="containsText" dxfId="469" priority="563" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="473" priority="565" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A765)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="564" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="472" priority="566" operator="beginsWith" text="#">
       <formula>LEFT(A765,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A544">
-    <cfRule type="containsText" dxfId="467" priority="559" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="471" priority="561" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A544)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="560" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="470" priority="562" operator="beginsWith" text="#">
       <formula>LEFT(A544,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A678">
-    <cfRule type="containsText" dxfId="465" priority="529" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="469" priority="531" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A678)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="530" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="468" priority="532" operator="beginsWith" text="#">
       <formula>LEFT(A678,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="containsText" dxfId="463" priority="527" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="467" priority="529" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A65)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="462" priority="528" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="466" priority="530" operator="beginsWith" text="#">
       <formula>LEFT(A65,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="containsText" dxfId="461" priority="525" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="465" priority="527" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A66)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="526" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="464" priority="528" operator="beginsWith" text="#">
       <formula>LEFT(A66,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A69">
-    <cfRule type="containsText" dxfId="459" priority="523" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="463" priority="525" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A67)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="524" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="462" priority="526" operator="beginsWith" text="#">
       <formula>LEFT(A67,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A709">
-    <cfRule type="containsText" dxfId="457" priority="503" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="461" priority="505" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A709)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="456" priority="504" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="460" priority="506" operator="beginsWith" text="#">
       <formula>LEFT(A709,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A681">
-    <cfRule type="containsText" dxfId="455" priority="509" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="459" priority="511" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A681)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="454" priority="510" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="458" priority="512" operator="beginsWith" text="#">
       <formula>LEFT(A681,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A687">
-    <cfRule type="containsText" dxfId="453" priority="505" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="457" priority="507" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A687)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="506" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="456" priority="508" operator="beginsWith" text="#">
       <formula>LEFT(A687,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A692">
-    <cfRule type="containsText" dxfId="451" priority="501" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="455" priority="503" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A692)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="450" priority="502" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="454" priority="504" operator="beginsWith" text="#">
       <formula>LEFT(A692,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="449" priority="499" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="453" priority="501" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A24)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="448" priority="500" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="452" priority="502" operator="beginsWith" text="#">
       <formula>LEFT(A24,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="447" priority="489" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="451" priority="491" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="446" priority="490" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="450" priority="492" operator="beginsWith" text="#">
       <formula>LEFT(A27,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A766">
-    <cfRule type="containsText" dxfId="445" priority="487" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="449" priority="489" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A766)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="444" priority="488" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="448" priority="490" operator="beginsWith" text="#">
       <formula>LEFT(A766,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110 A120:A122">
-    <cfRule type="containsText" dxfId="443" priority="297" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="447" priority="299" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="442" priority="298" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="446" priority="300" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="containsText" dxfId="441" priority="301" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="445" priority="303" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="302" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="444" priority="304" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146 A133">
-    <cfRule type="containsText" dxfId="439" priority="303" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="443" priority="305" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="438" priority="304" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="442" priority="306" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A152 A148">
-    <cfRule type="containsText" dxfId="437" priority="305" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="441" priority="307" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="306" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="440" priority="308" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147">
-    <cfRule type="containsText" dxfId="435" priority="307" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="439" priority="309" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="308" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="438" priority="310" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="containsText" dxfId="433" priority="309" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="437" priority="311" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="310" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="436" priority="312" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="containsText" dxfId="431" priority="311" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="435" priority="313" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="430" priority="312" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="434" priority="314" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149">
-    <cfRule type="containsText" dxfId="429" priority="313" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="433" priority="315" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="314" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="432" priority="316" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157">
-    <cfRule type="containsText" dxfId="427" priority="315" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="431" priority="317" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="316" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="430" priority="318" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156 A167">
-    <cfRule type="containsText" dxfId="425" priority="317" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="429" priority="319" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="318" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="428" priority="320" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169">
-    <cfRule type="containsText" dxfId="423" priority="319" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="427" priority="321" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="422" priority="320" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="426" priority="322" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171">
-    <cfRule type="containsText" dxfId="421" priority="321" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="425" priority="323" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="322" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="424" priority="324" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="419" priority="243" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="423" priority="245" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="244" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="422" priority="246" operator="beginsWith" text="#">
       <formula>LEFT(A33,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="417" priority="241" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="421" priority="243" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="242" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="420" priority="244" operator="beginsWith" text="#">
       <formula>LEFT(A34,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A532">
-    <cfRule type="containsText" dxfId="415" priority="239" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="419" priority="241" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A532)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="414" priority="240" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="418" priority="242" operator="beginsWith" text="#">
       <formula>LEFT(A532,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A781">
-    <cfRule type="containsText" dxfId="413" priority="237" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="417" priority="239" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A781)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="412" priority="238" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="416" priority="240" operator="beginsWith" text="#">
       <formula>LEFT(A781,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A106">
-    <cfRule type="containsText" dxfId="411" priority="1429" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="415" priority="1431" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="1430" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="414" priority="1432" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A800">
-    <cfRule type="containsText" dxfId="409" priority="229" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="413" priority="231" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="408" priority="230" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="412" priority="232" operator="beginsWith" text="#">
       <formula>LEFT(A800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A802">
-    <cfRule type="containsText" dxfId="407" priority="225" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="411" priority="227" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A802)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="406" priority="226" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="410" priority="228" operator="beginsWith" text="#">
       <formula>LEFT(A802,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A801">
-    <cfRule type="containsText" dxfId="405" priority="227" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="409" priority="229" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A801)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="404" priority="228" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="408" priority="230" operator="beginsWith" text="#">
       <formula>LEFT(A801,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804">
-    <cfRule type="containsText" dxfId="403" priority="223" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="407" priority="225" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A804)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="224" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="406" priority="226" operator="beginsWith" text="#">
       <formula>LEFT(A804,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A805">
-    <cfRule type="containsText" dxfId="401" priority="207" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="405" priority="209" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="208" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="404" priority="210" operator="beginsWith" text="#">
       <formula>LEFT(A805,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A680">
-    <cfRule type="containsText" dxfId="399" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="403" priority="205" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A680)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="398" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="402" priority="206" operator="beginsWith" text="#">
       <formula>LEFT(A680,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A359">
-    <cfRule type="containsText" dxfId="397" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="401" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A359)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="400" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(A359,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A357">
-    <cfRule type="containsText" dxfId="395" priority="197" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="399" priority="199" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A357)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="198" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="398" priority="200" operator="beginsWith" text="#">
       <formula>LEFT(A357,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A358">
-    <cfRule type="containsText" dxfId="393" priority="195" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="397" priority="197" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A358)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="392" priority="196" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="396" priority="198" operator="beginsWith" text="#">
       <formula>LEFT(A358,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A360">
-    <cfRule type="containsText" dxfId="391" priority="191" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="395" priority="193" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A360)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="390" priority="192" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="394" priority="194" operator="beginsWith" text="#">
       <formula>LEFT(A360,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A361">
-    <cfRule type="containsText" dxfId="389" priority="189" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="393" priority="191" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A361)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="190" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="392" priority="192" operator="beginsWith" text="#">
       <formula>LEFT(A361,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A362">
-    <cfRule type="containsText" dxfId="387" priority="187" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="391" priority="189" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A362)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="386" priority="188" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="390" priority="190" operator="beginsWith" text="#">
       <formula>LEFT(A362,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363">
-    <cfRule type="containsText" dxfId="385" priority="185" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="389" priority="187" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A363)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="384" priority="186" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="388" priority="188" operator="beginsWith" text="#">
       <formula>LEFT(A363,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A364">
-    <cfRule type="containsText" dxfId="383" priority="183" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="387" priority="185" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A364)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="382" priority="184" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="386" priority="186" operator="beginsWith" text="#">
       <formula>LEFT(A364,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A365">
-    <cfRule type="containsText" dxfId="381" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="385" priority="183" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A365)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="380" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="384" priority="184" operator="beginsWith" text="#">
       <formula>LEFT(A365,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A367">
-    <cfRule type="containsText" dxfId="379" priority="177" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="383" priority="179" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A367)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="378" priority="178" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="382" priority="180" operator="beginsWith" text="#">
       <formula>LEFT(A367,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A368">
-    <cfRule type="containsText" dxfId="377" priority="175" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="381" priority="177" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A368)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="176" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="380" priority="178" operator="beginsWith" text="#">
       <formula>LEFT(A368,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A369">
-    <cfRule type="containsText" dxfId="375" priority="173" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="379" priority="175" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A369)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="374" priority="174" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="378" priority="176" operator="beginsWith" text="#">
       <formula>LEFT(A369,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A370">
-    <cfRule type="containsText" dxfId="373" priority="171" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="377" priority="173" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A370)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="172" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="376" priority="174" operator="beginsWith" text="#">
       <formula>LEFT(A370,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A371">
-    <cfRule type="containsText" dxfId="371" priority="169" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="375" priority="171" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A371)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="170" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="374" priority="172" operator="beginsWith" text="#">
       <formula>LEFT(A371,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A372">
-    <cfRule type="containsText" dxfId="369" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="373" priority="169" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A372)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="372" priority="170" operator="beginsWith" text="#">
       <formula>LEFT(A372,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A373">
-    <cfRule type="containsText" dxfId="367" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="371" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A373)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="366" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="370" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(A373,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A381:A387">
-    <cfRule type="containsText" dxfId="365" priority="163" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="369" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A381)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="164" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="368" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A381,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A379">
-    <cfRule type="containsText" dxfId="363" priority="161" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="367" priority="163" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A379)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="162" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="366" priority="164" operator="beginsWith" text="#">
       <formula>LEFT(A379,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A388 A392:A395">
-    <cfRule type="containsText" dxfId="361" priority="159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="365" priority="161" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A388)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="364" priority="162" operator="beginsWith" text="#">
       <formula>LEFT(A388,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A400">
-    <cfRule type="containsText" dxfId="359" priority="157" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="363" priority="159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A400)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="358" priority="158" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="362" priority="160" operator="beginsWith" text="#">
       <formula>LEFT(A400,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A411">
-    <cfRule type="containsText" dxfId="357" priority="155" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="361" priority="157" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A411)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="156" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="360" priority="158" operator="beginsWith" text="#">
       <formula>LEFT(A411,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A374">
-    <cfRule type="containsText" dxfId="355" priority="153" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="359" priority="155" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A374)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="154" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="358" priority="156" operator="beginsWith" text="#">
       <formula>LEFT(A374,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A406">
-    <cfRule type="containsText" dxfId="353" priority="151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="357" priority="153" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A406)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="356" priority="154" operator="beginsWith" text="#">
       <formula>LEFT(A406,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A407">
-    <cfRule type="containsText" dxfId="351" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="355" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A407)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="350" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="354" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A407,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A408">
-    <cfRule type="containsText" dxfId="349" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="353" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A408)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="348" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="352" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A408,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A409">
-    <cfRule type="containsText" dxfId="347" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="351" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A409)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="350" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A409,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A410">
-    <cfRule type="containsText" dxfId="345" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="349" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A410)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="344" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="348" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A410,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A412">
-    <cfRule type="containsText" dxfId="343" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="347" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A412)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="342" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="346" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A412,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A413">
-    <cfRule type="containsText" dxfId="341" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="345" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A413)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="340" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="344" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A413,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A454">
-    <cfRule type="containsText" dxfId="339" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="343" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A454)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="342" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A454,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A414">
-    <cfRule type="containsText" dxfId="337" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="341" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A414)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="340" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A414,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A415:A422">
-    <cfRule type="containsText" dxfId="335" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="339" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A415)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="334" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="338" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A415,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A426">
-    <cfRule type="containsText" dxfId="333" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="337" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A426)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="336" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A426,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A424">
-    <cfRule type="containsText" dxfId="331" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="335" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A424)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="334" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A424,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A423">
-    <cfRule type="containsText" dxfId="329" priority="127" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="333" priority="129" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A423)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="328" priority="128" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="332" priority="130" operator="beginsWith" text="#">
       <formula>LEFT(A423,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A425">
-    <cfRule type="containsText" dxfId="327" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="331" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A425)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="326" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="330" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A425,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A427">
-    <cfRule type="containsText" dxfId="325" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="329" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A427)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="328" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(A427,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="containsText" dxfId="323" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="327" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A767)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="326" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A767,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="containsText" dxfId="321" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="325" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A768)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="324" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A768,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A366">
-    <cfRule type="containsText" dxfId="319" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="323" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A366)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="318" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="322" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A366,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A498">
-    <cfRule type="containsText" dxfId="317" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="321" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A498)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="316" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="320" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A498,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A499">
-    <cfRule type="containsText" dxfId="315" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="319" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A499)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="314" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="318" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A499,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A500">
-    <cfRule type="containsText" dxfId="313" priority="105" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="317" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A500)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="312" priority="106" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="316" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A500,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A523">
-    <cfRule type="containsText" dxfId="311" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="315" priority="105" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A523)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="310" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="314" priority="106" operator="beginsWith" text="#">
       <formula>LEFT(A523,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519">
-    <cfRule type="containsText" dxfId="309" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="313" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A519)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="308" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="312" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A519,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A806">
-    <cfRule type="containsText" dxfId="307" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="311" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A806)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="306" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="310" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A806,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769">
-    <cfRule type="containsText" dxfId="305" priority="93" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="309" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A769)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="304" priority="94" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="308" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A769,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A256">
-    <cfRule type="containsText" dxfId="303" priority="91" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="307" priority="93" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A256)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="302" priority="92" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="306" priority="94" operator="beginsWith" text="#">
       <formula>LEFT(A256,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A807">
-    <cfRule type="containsText" dxfId="301" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="305" priority="83" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A807)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="300" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="304" priority="84" operator="beginsWith" text="#">
       <formula>LEFT(A807,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:A182 A184:A255">
-    <cfRule type="containsText" dxfId="299" priority="407" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="303" priority="409" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="298" priority="408" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="302" priority="410" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168 A170 A160 A162:A166 A81 A83:A84 A87:A95 A97:A98 A102:A104 A74 A76:A79">
-    <cfRule type="containsText" dxfId="297" priority="295" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="301" priority="297" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="296" priority="296" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="300" priority="298" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="containsText" dxfId="295" priority="1443" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="299" priority="1445" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="294" priority="1444" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="298" priority="1446" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:A155 A158 A134:A145 A117:A118 A109 A107 A111:A115">
-    <cfRule type="containsText" dxfId="293" priority="1725" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="297" priority="1727" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="292" priority="1726" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="296" priority="1728" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129 A123:A124 A126:A127">
-    <cfRule type="containsText" dxfId="291" priority="1785" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="295" priority="1787" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="290" priority="1786" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="294" priority="1788" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="containsText" dxfId="289" priority="1847" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="293" priority="1849" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="288" priority="1848" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="292" priority="1850" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="containsText" dxfId="287" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="291" priority="91" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="286" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="290" priority="92" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="285" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="289" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="284" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="288" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A770">
-    <cfRule type="containsText" dxfId="283" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="287" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="282" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="286" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A771">
-    <cfRule type="containsText" dxfId="281" priority="83" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="285" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="280" priority="84" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="284" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A808">
-    <cfRule type="containsText" dxfId="279" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="283" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A808)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="278" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="282" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(A808,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A809">
-    <cfRule type="containsText" dxfId="277" priority="77" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="281" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A807)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="78" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="280" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(A807,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B814:B821">
-    <cfRule type="containsText" dxfId="275" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="279" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B808)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="274" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="278" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(B808,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B810 B813">
-    <cfRule type="containsText" dxfId="273" priority="71" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="277" priority="73" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="272" priority="72" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="276" priority="74" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810">
-    <cfRule type="containsText" dxfId="271" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="275" priority="67" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A810)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="270" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="274" priority="68" operator="beginsWith" text="#">
       <formula>LEFT(A810,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A811">
-    <cfRule type="containsText" dxfId="269" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="273" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A811)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="272" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A811,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B811">
-    <cfRule type="containsText" dxfId="267" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="271" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="270" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A812">
-    <cfRule type="containsText" dxfId="265" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="269" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A812)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="264" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="268" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A812,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B812">
-    <cfRule type="containsText" dxfId="263" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="267" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="262" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="266" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813:A821">
-    <cfRule type="containsText" dxfId="261" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="265" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A813)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="260" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="264" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A813,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B822">
-    <cfRule type="containsText" dxfId="259" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="263" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="258" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="262" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A822">
-    <cfRule type="containsText" dxfId="257" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="261" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="256" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="260" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A789:A791 A797">
-    <cfRule type="containsText" dxfId="255" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="259" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A789)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="254" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="258" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A789,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A776">
-    <cfRule type="containsText" dxfId="253" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="257" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A776)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="252" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="256" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A776,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A777">
-    <cfRule type="containsText" dxfId="251" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="255" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A777)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="250" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="254" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A777,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="containsText" dxfId="249" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="253" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="248" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="252" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A625">
-    <cfRule type="containsText" dxfId="247" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="251" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="246" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="250" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A775">
-    <cfRule type="containsText" dxfId="245" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="249" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A775)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="244" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="248" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A775,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A788">
-    <cfRule type="containsText" dxfId="243" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="247" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A788)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="246" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A788,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A502">
-    <cfRule type="containsText" dxfId="241" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="245" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A502)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="240" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="244" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A502,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A792">
-    <cfRule type="containsText" dxfId="239" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="243" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A792)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="238" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="242" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A792,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A793">
-    <cfRule type="containsText" dxfId="237" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="241" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A793)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="236" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="240" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A793,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A794">
-    <cfRule type="containsText" dxfId="235" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="239" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A794)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="234" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="238" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A794,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A795">
-    <cfRule type="containsText" dxfId="233" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="237" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A795)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="232" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="236" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A795,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796">
-    <cfRule type="containsText" dxfId="231" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="235" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="230" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="234" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A796,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="229" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="233" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="228" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="232" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="227" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="231" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="226" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="230" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A453">
-    <cfRule type="containsText" dxfId="225" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="229" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A453)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="224" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="228" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A453,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A525">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A525)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+      <formula>LEFT(A525,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36151,7 +36193,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="557" operator="containsText" text="......" id="{465F9812-1C00-47A7-97E2-89B77398E1B1}">
+          <x14:cfRule type="containsText" priority="559" operator="containsText" text="......" id="{465F9812-1C00-47A7-97E2-89B77398E1B1}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A812)))</xm:f>
             <x14:dxf>
               <font>
@@ -36160,7 +36202,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="558" operator="beginsWith" text="#" id="{900241AA-A787-44C0-BE12-6FDEB9E0011A}">
+          <x14:cfRule type="beginsWith" priority="560" operator="beginsWith" text="#" id="{900241AA-A787-44C0-BE12-6FDEB9E0011A}">
             <xm:f>LEFT(ServoDyn!A812,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36177,7 +36219,7 @@
           <xm:sqref>A783:A784</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="281" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="283" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A624)))</xm:f>
             <x14:dxf>
               <font>
@@ -36186,7 +36228,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="282" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="284" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A624,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36203,7 +36245,7 @@
           <xm:sqref>A522</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="205" operator="containsText" text="......" id="{5A5F5B76-44F7-40B2-B037-173F2905189B}">
+          <x14:cfRule type="containsText" priority="207" operator="containsText" text="......" id="{5A5F5B76-44F7-40B2-B037-173F2905189B}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A818)))</xm:f>
             <x14:dxf>
               <font>
@@ -36212,7 +36254,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="206" operator="beginsWith" text="#" id="{804DB11F-C4AE-4232-8FBE-AF82706C5D95}">
+          <x14:cfRule type="beginsWith" priority="208" operator="beginsWith" text="#" id="{804DB11F-C4AE-4232-8FBE-AF82706C5D95}">
             <xm:f>LEFT(ServoDyn!A818,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36229,7 +36271,7 @@
           <xm:sqref>A803</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2329" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="2331" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A602)))</xm:f>
             <x14:dxf>
               <font>
@@ -36238,7 +36280,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2330" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="2332" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A602,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36255,7 +36297,7 @@
           <xm:sqref>A35:A36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2363" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
+          <x14:cfRule type="containsText" priority="2365" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A808)))</xm:f>
             <x14:dxf>
               <font>
@@ -36264,7 +36306,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2364" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
+          <x14:cfRule type="beginsWith" priority="2366" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
             <xm:f>LEFT(ServoDyn!A808,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36281,7 +36323,7 @@
           <xm:sqref>A782 A780</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2469" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="2471" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A183)))</xm:f>
             <x14:dxf>
               <font>
@@ -36290,7 +36332,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2470" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="2472" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A183,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36307,7 +36349,7 @@
           <xm:sqref>A96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2485" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="2487" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A625)))</xm:f>
             <x14:dxf>
               <font>
@@ -36316,7 +36358,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2486" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="2488" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A625,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36330,7 +36372,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A524:A525</xm:sqref>
+          <xm:sqref>A524</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -43902,490 +43944,490 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A11 A21 A235:A239 A276:A281 A111:A115 A145:A171 A283:A285 A288 A290:A1048576 A174:A200 A134:A137 A104:A107 A117:A130 A16">
-    <cfRule type="containsText" dxfId="209" priority="309" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="213" priority="309" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="208" priority="310" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="212" priority="310" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="207" priority="301" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="211" priority="301" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A20)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="206" priority="302" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="210" priority="302" operator="beginsWith" text="#">
       <formula>LEFT(A20,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="205" priority="299" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="209" priority="299" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="204" priority="300" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="208" priority="300" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A23">
-    <cfRule type="containsText" dxfId="203" priority="297" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="207" priority="297" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A22)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="202" priority="298" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="206" priority="298" operator="beginsWith" text="#">
       <formula>LEFT(A22,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="containsText" dxfId="201" priority="295" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="205" priority="295" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="200" priority="296" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="204" priority="296" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="199" priority="223" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="203" priority="223" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A208)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="224" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="202" priority="224" operator="beginsWith" text="#">
       <formula>LEFT(A208,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173">
-    <cfRule type="containsText" dxfId="197" priority="213" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="201" priority="213" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A173)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="214" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="200" priority="214" operator="beginsWith" text="#">
       <formula>LEFT(A173,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="containsText" dxfId="195" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="199" priority="203" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A108)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="198" priority="204" operator="beginsWith" text="#">
       <formula>LEFT(A108,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209">
-    <cfRule type="containsText" dxfId="193" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="197" priority="181" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A209)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="192" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="196" priority="182" operator="beginsWith" text="#">
       <formula>LEFT(A209,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234">
-    <cfRule type="containsText" dxfId="191" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="195" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A234)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="194" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A234,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="189" priority="201" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="193" priority="201" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="188" priority="202" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="192" priority="202" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A61">
-    <cfRule type="containsText" dxfId="187" priority="1109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="191" priority="1109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="186" priority="1110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="190" priority="1110" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A46">
-    <cfRule type="containsText" dxfId="185" priority="1159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="189" priority="1159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="184" priority="1160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="188" priority="1160" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A50">
-    <cfRule type="containsText" dxfId="183" priority="1329" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="187" priority="1329" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="1330" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="186" priority="1330" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A66">
-    <cfRule type="containsText" dxfId="181" priority="1499" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="185" priority="1499" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="1500" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="184" priority="1500" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="containsText" dxfId="179" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="183" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="182" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A282">
-    <cfRule type="containsText" dxfId="177" priority="159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="181" priority="159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A282)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="180" priority="160" operator="beginsWith" text="#">
       <formula>LEFT(A282,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="containsText" dxfId="175" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="179" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="178" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A241,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="containsText" dxfId="173" priority="151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="177" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A270)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="176" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A270,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="containsText" dxfId="171" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="175" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A131)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="174" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A131,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="containsText" dxfId="169" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="173" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A132)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="172" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A132,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="containsText" dxfId="167" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="171" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A133)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="170" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A133,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245:A246">
-    <cfRule type="containsText" dxfId="165" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="169" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A245)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="168" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A245,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="163" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="167" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="166" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="containsText" dxfId="161" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="165" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="164" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
-    <cfRule type="containsText" dxfId="159" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="163" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="162" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A247,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A243">
-    <cfRule type="containsText" dxfId="157" priority="127" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="161" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A243)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="156" priority="128" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="160" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A243,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250">
-    <cfRule type="containsText" dxfId="155" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="159" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A250)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="158" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A250,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A248">
-    <cfRule type="containsText" dxfId="153" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="157" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A248)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="152" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="156" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A248,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="containsText" dxfId="151" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="155" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A249)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="154" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A249,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="containsText" dxfId="149" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="153" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A244)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="152" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A244,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="containsText" dxfId="147" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="151" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A286)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="150" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A286,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206">
-    <cfRule type="containsText" dxfId="145" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="149" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A206)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="148" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A206,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="containsText" dxfId="143" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="147" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A207)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="142" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="146" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A207,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139">
-    <cfRule type="containsText" dxfId="141" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="145" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="144" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140">
-    <cfRule type="containsText" dxfId="139" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="143" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="142" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="containsText" dxfId="137" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="141" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="136" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="140" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A242,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251">
-    <cfRule type="containsText" dxfId="135" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="139" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A251)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="138" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A251,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252">
-    <cfRule type="containsText" dxfId="133" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="137" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A252)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="136" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A252,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253">
-    <cfRule type="containsText" dxfId="131" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="135" priority="97" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A253)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="134" priority="98" operator="beginsWith" text="#">
       <formula>LEFT(A253,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A203:A205 A69:A70 A72">
-    <cfRule type="containsText" dxfId="129" priority="195" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="133" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="128" priority="196" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="132" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="containsText" dxfId="127" priority="2123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="131" priority="2123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="126" priority="2124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="130" priority="2124" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="containsText" dxfId="125" priority="2235" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="129" priority="2235" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="124" priority="2236" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="128" priority="2236" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="123" priority="95" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="127" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A71)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="122" priority="96" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="126" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A71,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="containsText" dxfId="121" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="125" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="120" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="124" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="119" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="123" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A96)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="118" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="122" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(A96,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="containsText" dxfId="117" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="121" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="116" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="120" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A214">
-    <cfRule type="containsText" dxfId="115" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="119" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A214)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="114" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="118" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A214,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="containsText" dxfId="113" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="117" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="112" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="116" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A98,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="111" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="115" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="114" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="109" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="113" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A99)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="112" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A99,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="containsText" dxfId="107" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="111" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A100)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="106" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="110" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A100,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="containsText" dxfId="105" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A101)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="104" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="108" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A101,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="containsText" dxfId="103" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="107" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A102)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="102" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="106" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A102,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="containsText" dxfId="101" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="105" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A103)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="104" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A103,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="103" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A271)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="98" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="102" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A271,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:A275">
-    <cfRule type="containsText" dxfId="97" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="101" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A272)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="100" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A272,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="99" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A116)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="98" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A116,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="97" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="92" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="96" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="containsText" dxfId="91" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="94" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="92" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45904,266 +45946,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="71" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="70" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="68" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="67" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="62" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="66" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A22">
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="65" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="64" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="62" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="61" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="60" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="59" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A23)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="58" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A23,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="57" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A26)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="56" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A26,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="55" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="54" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A27,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A29)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="52" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A29,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="50" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A28,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="48" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A30,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="47" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="46" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A31,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="44" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A32,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="42" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A33,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="40" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A34,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A35)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="38" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A35,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A36)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="32" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="36" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A36,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A37)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="34" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A37,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="32" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="30" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="28" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="26" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="24" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="22" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A44)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="20" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A44,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="18" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="16" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="14" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A48)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="12" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A48,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A52:A53">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A50)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="10" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A50,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A54)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="8" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A54,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A51)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="6" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A51,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9868" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9878" uniqueCount="1857">
   <si>
     <t>###################################################################################################################################</t>
   </si>
@@ -5708,6 +5708,12 @@
   </si>
   <si>
     <t>"flag to determine if ElastoDyn is computing blade loads (true) or BeamDyn is (false)"</t>
+  </si>
+  <si>
+    <t>BD4Blades</t>
+  </si>
+  <si>
+    <t>"flag to determine if BeamDyn is computing blade loads (true) or ElastoDyn is (false)"</t>
   </si>
 </sst>
 </file>
@@ -5895,7 +5901,262 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="590">
+  <dxfs count="620">
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <u val="none"/>
@@ -11825,10 +12086,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="589" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="619" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="588" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="618" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11838,11 +12099,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K822"/>
+  <dimension ref="A1:K823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A525" sqref="A525:XFD525"/>
+      <pane ySplit="11" topLeftCell="A813" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B818" sqref="B818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12071,38 +12332,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="F25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>1300</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="5" t="s">
+      <c r="J25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -23213,32 +23474,32 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A409" s="5" t="s">
+    <row r="409" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B409" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C409" s="5" t="s">
+      <c r="B409" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D409" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E409" s="5" t="s">
+      <c r="D409" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E409" s="3" t="s">
         <v>1570</v>
       </c>
-      <c r="F409" s="5" t="s">
+      <c r="F409" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G409" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H409" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I409" s="10" t="s">
+      <c r="G409" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I409" s="12" t="s">
         <v>1572</v>
       </c>
     </row>
@@ -23393,90 +23654,90 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A416" s="5" t="s">
+    <row r="416" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B416" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C416" s="5" t="s">
+      <c r="B416" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C416" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D416" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E416" s="5" t="s">
+      <c r="D416" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E416" s="3" t="s">
         <v>1583</v>
       </c>
-      <c r="F416" s="5" t="s">
+      <c r="F416" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G416" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H416" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I416" s="10" t="s">
+      <c r="G416" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I416" s="12" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A417" s="5" t="s">
+    <row r="417" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B417" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C417" s="5" t="s">
+      <c r="B417" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C417" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D417" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E417" s="5" t="s">
+      <c r="D417" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E417" s="3" t="s">
         <v>1584</v>
       </c>
-      <c r="F417" s="5" t="s">
+      <c r="F417" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G417" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H417" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I417" s="10" t="s">
+      <c r="G417" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I417" s="12" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A418" s="5" t="s">
+    <row r="418" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B418" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C418" s="5" t="s">
+      <c r="B418" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D418" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E418" s="5" t="s">
+      <c r="D418" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E418" s="3" t="s">
         <v>1585</v>
       </c>
-      <c r="F418" s="5" t="s">
+      <c r="F418" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G418" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H418" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I418" s="10" t="s">
+      <c r="G418" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I418" s="12" t="s">
         <v>1597</v>
       </c>
     </row>
@@ -23509,61 +23770,61 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A420" s="5" t="s">
+    <row r="420" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B420" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C420" s="5" t="s">
+      <c r="B420" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C420" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D420" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E420" s="5" t="s">
+      <c r="D420" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E420" s="3" t="s">
         <v>1587</v>
       </c>
-      <c r="F420" s="5" t="s">
+      <c r="F420" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G420" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H420" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I420" s="10" t="s">
+      <c r="G420" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I420" s="12" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A421" s="5" t="s">
+    <row r="421" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B421" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C421" s="5" t="s">
+      <c r="B421" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C421" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D421" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E421" s="5" t="s">
+      <c r="D421" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E421" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="F421" s="5" t="s">
+      <c r="F421" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G421" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H421" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I421" s="10" t="s">
+      <c r="G421" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H421" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I421" s="12" t="s">
         <v>1600</v>
       </c>
     </row>
@@ -23596,32 +23857,32 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A423" s="5" t="s">
+    <row r="423" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B423" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C423" s="5" t="s">
+      <c r="B423" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C423" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D423" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E423" s="5" t="s">
+      <c r="D423" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E423" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="F423" s="5" t="s">
+      <c r="F423" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G423" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H423" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I423" s="10" t="s">
+      <c r="G423" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I423" s="12" t="s">
         <v>1602</v>
       </c>
     </row>
@@ -23654,90 +23915,90 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A425" s="5" t="s">
+    <row r="425" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B425" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C425" s="5" t="s">
+      <c r="B425" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D425" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E425" s="5" t="s">
+      <c r="D425" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E425" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="F425" s="5" t="s">
+      <c r="F425" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G425" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H425" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I425" s="10" t="s">
+      <c r="G425" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I425" s="12" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A426" s="5" t="s">
+    <row r="426" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B426" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C426" s="5" t="s">
+      <c r="B426" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C426" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D426" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E426" s="5" t="s">
+      <c r="D426" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E426" s="3" t="s">
         <v>1593</v>
       </c>
-      <c r="F426" s="5" t="s">
+      <c r="F426" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G426" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H426" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I426" s="10" t="s">
+      <c r="G426" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I426" s="12" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A427" s="5" t="s">
+    <row r="427" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B427" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C427" s="5" t="s">
+      <c r="B427" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C427" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D427" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E427" s="5" t="s">
+      <c r="D427" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E427" s="3" t="s">
         <v>1594</v>
       </c>
-      <c r="F427" s="5" t="s">
+      <c r="F427" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G427" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H427" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I427" s="10" t="s">
+      <c r="G427" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I427" s="12" t="s">
         <v>1606</v>
       </c>
     </row>
@@ -25516,61 +25777,61 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A491" s="5" t="s">
+    <row r="491" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B491" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C491" s="5" t="s">
+      <c r="B491" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C491" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D491" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E491" s="5" t="s">
+      <c r="D491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E491" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="F491" s="5">
+      <c r="F491" s="3">
         <v>3</v>
       </c>
-      <c r="G491" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H491" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I491" s="10" t="s">
+      <c r="G491" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H491" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I491" s="12" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A492" s="5" t="s">
+    <row r="492" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A492" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B492" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C492" s="5" t="s">
+      <c r="B492" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D492" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E492" s="5" t="s">
+      <c r="D492" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E492" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="F492" s="5">
+      <c r="F492" s="3">
         <v>3</v>
       </c>
-      <c r="G492" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H492" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I492" s="10" t="s">
+      <c r="G492" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H492" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I492" s="12" t="s">
         <v>767</v>
       </c>
     </row>
@@ -30785,7 +31046,7 @@
       <c r="B681" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C681" s="5" t="s">
+      <c r="C681" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D681" s="15" t="s">
@@ -30959,7 +31220,7 @@
       <c r="B687" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C687" s="5" t="s">
+      <c r="C687" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D687" s="15" t="s">
@@ -31104,7 +31365,7 @@
       <c r="B692" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C692" s="5" t="s">
+      <c r="C692" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D692" s="15" t="s">
@@ -33409,49 +33670,51 @@
         <v>313</v>
       </c>
     </row>
-    <row r="773" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A773" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I773" s="12"/>
+    <row r="772" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A772" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B772" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C772" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D772" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E772" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F772" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G772" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H772" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I772" s="10" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J772" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="774" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I774" s="12"/>
+    </row>
+    <row r="775" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I774" s="12"/>
-    </row>
-    <row r="775" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A775" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B775" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C775" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D775" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E775" s="5" t="s">
-        <v>1808</v>
-      </c>
-      <c r="F775" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G775" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H775" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I775" s="10" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J775" s="17"/>
-    </row>
-    <row r="776" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="I775" s="12"/>
+    </row>
+    <row r="776" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A776" s="5" t="s">
         <v>22</v>
       </c>
@@ -33465,10 +33728,10 @@
         <v>56</v>
       </c>
       <c r="E776" s="5" t="s">
-        <v>1793</v>
+        <v>1808</v>
       </c>
       <c r="F776" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G776" s="5" t="s">
         <v>26</v>
@@ -33477,11 +33740,9 @@
         <v>26</v>
       </c>
       <c r="I776" s="10" t="s">
-        <v>1795</v>
-      </c>
-      <c r="J776" s="17" t="s">
-        <v>1352</v>
-      </c>
+        <v>1848</v>
+      </c>
+      <c r="J776" s="17"/>
     </row>
     <row r="777" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A777" s="5" t="s">
@@ -33497,63 +33758,63 @@
         <v>56</v>
       </c>
       <c r="E777" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F777" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G777" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H777" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I777" s="10" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J777" s="17" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A778" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B778" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C778" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D778" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E778" s="5" t="s">
         <v>1797</v>
       </c>
-      <c r="F777" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G777" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H777" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I777" s="10" t="s">
+      <c r="F778" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G778" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H778" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I778" s="10" t="s">
         <v>1798</v>
       </c>
-      <c r="J777" s="5" t="s">
+      <c r="J778" s="5" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="778" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A778" s="3" t="s">
+    <row r="779" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="3" t="s">
         <v>1794</v>
       </c>
-      <c r="I778" s="12"/>
-    </row>
-    <row r="779" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A779" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B779" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C779" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D779" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E779" s="5" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F779" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G779" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H779" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I779" s="10" t="s">
-        <v>1507</v>
-      </c>
-      <c r="J779" s="15" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I779" s="12"/>
+    </row>
+    <row r="780" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
         <v>22</v>
       </c>
@@ -33567,10 +33828,10 @@
         <v>34</v>
       </c>
       <c r="E780" s="5" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="F780" s="5" t="s">
-        <v>552</v>
+        <v>196</v>
       </c>
       <c r="G780" s="5" t="s">
         <v>26</v>
@@ -33578,11 +33839,11 @@
       <c r="H780" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I780" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="J780" s="5" t="s">
-        <v>1508</v>
+      <c r="I780" s="10" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J780" s="15" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="781" spans="1:10" x14ac:dyDescent="0.25">
@@ -33599,10 +33860,10 @@
         <v>34</v>
       </c>
       <c r="E781" s="5" t="s">
-        <v>1089</v>
+        <v>1509</v>
       </c>
       <c r="F781" s="5" t="s">
-        <v>31</v>
+        <v>552</v>
       </c>
       <c r="G781" s="5" t="s">
         <v>26</v>
@@ -33610,11 +33871,11 @@
       <c r="H781" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I781" s="10" t="s">
-        <v>1090</v>
+      <c r="I781" s="5" t="s">
+        <v>1087</v>
       </c>
       <c r="J781" s="5" t="s">
-        <v>255</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="782" spans="1:10" x14ac:dyDescent="0.25">
@@ -33631,10 +33892,10 @@
         <v>34</v>
       </c>
       <c r="E782" s="5" t="s">
-        <v>1458</v>
+        <v>1089</v>
       </c>
       <c r="F782" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G782" s="5" t="s">
         <v>26</v>
@@ -33643,10 +33904,10 @@
         <v>26</v>
       </c>
       <c r="I782" s="10" t="s">
-        <v>1459</v>
+        <v>1090</v>
       </c>
       <c r="J782" s="5" t="s">
-        <v>1156</v>
+        <v>255</v>
       </c>
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.25">
@@ -33663,7 +33924,7 @@
         <v>34</v>
       </c>
       <c r="E783" s="5" t="s">
-        <v>994</v>
+        <v>1458</v>
       </c>
       <c r="F783" s="5" t="s">
         <v>26</v>
@@ -33675,7 +33936,7 @@
         <v>26</v>
       </c>
       <c r="I783" s="10" t="s">
-        <v>1035</v>
+        <v>1459</v>
       </c>
       <c r="J783" s="5" t="s">
         <v>1156</v>
@@ -33695,7 +33956,7 @@
         <v>34</v>
       </c>
       <c r="E784" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F784" s="5" t="s">
         <v>26</v>
@@ -33707,55 +33968,57 @@
         <v>26</v>
       </c>
       <c r="I784" s="10" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="J784" s="5" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="786" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A786" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I786" s="12"/>
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A785" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B785" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C785" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D785" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E785" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="F785" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G785" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H785" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I785" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J785" s="5" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="787" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A787" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I787" s="12"/>
+    </row>
+    <row r="788" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A788" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I787" s="12"/>
-    </row>
-    <row r="788" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A788" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B788" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C788" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D788" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E788" s="5" t="s">
-        <v>1808</v>
-      </c>
-      <c r="F788" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G788" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H788" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I788" s="10" t="s">
-        <v>1849</v>
-      </c>
-      <c r="J788" s="17"/>
-    </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I788" s="12"/>
+    </row>
+    <row r="789" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A789" s="5" t="s">
         <v>22</v>
       </c>
@@ -33769,10 +34032,10 @@
         <v>56</v>
       </c>
       <c r="E789" s="5" t="s">
-        <v>1793</v>
+        <v>1808</v>
       </c>
       <c r="F789" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G789" s="5" t="s">
         <v>26</v>
@@ -33781,11 +34044,9 @@
         <v>26</v>
       </c>
       <c r="I789" s="10" t="s">
-        <v>1792</v>
-      </c>
-      <c r="J789" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>1849</v>
+      </c>
+      <c r="J789" s="17"/>
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
@@ -33801,51 +34062,54 @@
         <v>56</v>
       </c>
       <c r="E790" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F790" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G790" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H790" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I790" s="10" t="s">
+        <v>1792</v>
+      </c>
+      <c r="J790" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A791" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B791" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C791" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D791" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E791" s="5" t="s">
         <v>1797</v>
       </c>
-      <c r="F790" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G790" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H790" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I790" s="10" t="s">
+      <c r="F791" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G791" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H791" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I791" s="10" t="s">
         <v>1796</v>
       </c>
-      <c r="J790" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A792" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B792" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C792" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D792" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E792" s="5" t="s">
-        <v>1830</v>
-      </c>
-      <c r="F792" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G792" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H792" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I792" s="10" t="s">
-        <v>1831</v>
+      <c r="J791" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.25">
@@ -33862,7 +34126,7 @@
         <v>56</v>
       </c>
       <c r="E793" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="F793" s="5" t="s">
         <v>26</v>
@@ -33874,7 +34138,7 @@
         <v>26</v>
       </c>
       <c r="I793" s="10" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.25">
@@ -33891,7 +34155,7 @@
         <v>56</v>
       </c>
       <c r="E794" s="5" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="F794" s="5" t="s">
         <v>26</v>
@@ -33903,7 +34167,7 @@
         <v>26</v>
       </c>
       <c r="I794" s="10" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="795" spans="1:10" x14ac:dyDescent="0.25">
@@ -33920,7 +34184,7 @@
         <v>56</v>
       </c>
       <c r="E795" s="5" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="F795" s="5" t="s">
         <v>26</v>
@@ -33932,7 +34196,7 @@
         <v>26</v>
       </c>
       <c r="I795" s="10" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.25">
@@ -33949,60 +34213,57 @@
         <v>56</v>
       </c>
       <c r="E796" s="5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F796" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G796" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H796" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I796" s="10" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A797" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B797" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C797" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D797" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E797" s="5" t="s">
         <v>1841</v>
       </c>
-      <c r="F796" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G796" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H796" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I796" s="10" t="s">
+      <c r="F797" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G797" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H797" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I797" s="10" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="798" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A798" s="3" t="s">
+    <row r="799" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A799" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I798" s="12"/>
-    </row>
-    <row r="799" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A799" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B799" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C799" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D799" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E799" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F799" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G799" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H799" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I799" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J799" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I799" s="12"/>
+    </row>
+    <row r="800" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="5" t="s">
         <v>22</v>
       </c>
@@ -34016,7 +34277,7 @@
         <v>34</v>
       </c>
       <c r="E800" s="5" t="s">
-        <v>1088</v>
+        <v>52</v>
       </c>
       <c r="F800" s="5" t="s">
         <v>31</v>
@@ -34028,10 +34289,10 @@
         <v>26</v>
       </c>
       <c r="I800" s="10" t="s">
-        <v>1455</v>
+        <v>85</v>
       </c>
       <c r="J800" s="5" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.25">
@@ -34048,10 +34309,10 @@
         <v>34</v>
       </c>
       <c r="E801" s="5" t="s">
-        <v>1461</v>
+        <v>1088</v>
       </c>
       <c r="F801" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G801" s="5" t="s">
         <v>26</v>
@@ -34059,8 +34320,8 @@
       <c r="H801" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I801" s="5" t="s">
-        <v>1460</v>
+      <c r="I801" s="10" t="s">
+        <v>1455</v>
       </c>
       <c r="J801" s="5" t="s">
         <v>255</v>
@@ -34080,7 +34341,7 @@
         <v>34</v>
       </c>
       <c r="E802" s="5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F802" s="5" t="s">
         <v>26</v>
@@ -34092,10 +34353,10 @@
         <v>26</v>
       </c>
       <c r="I802" s="5" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="J802" s="5" t="s">
-        <v>1161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.25">
@@ -34112,7 +34373,7 @@
         <v>34</v>
       </c>
       <c r="E803" s="5" t="s">
-        <v>1481</v>
+        <v>1462</v>
       </c>
       <c r="F803" s="5" t="s">
         <v>26</v>
@@ -34124,7 +34385,7 @@
         <v>26</v>
       </c>
       <c r="I803" s="5" t="s">
-        <v>1638</v>
+        <v>1463</v>
       </c>
       <c r="J803" s="5" t="s">
         <v>1161</v>
@@ -34144,7 +34405,7 @@
         <v>34</v>
       </c>
       <c r="E804" s="5" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="F804" s="5" t="s">
         <v>26</v>
@@ -34156,7 +34417,7 @@
         <v>26</v>
       </c>
       <c r="I804" s="5" t="s">
-        <v>1497</v>
+        <v>1638</v>
       </c>
       <c r="J804" s="5" t="s">
         <v>1161</v>
@@ -34176,7 +34437,7 @@
         <v>34</v>
       </c>
       <c r="E805" s="5" t="s">
-        <v>1073</v>
+        <v>1496</v>
       </c>
       <c r="F805" s="5" t="s">
         <v>26</v>
@@ -34188,77 +34449,77 @@
         <v>26</v>
       </c>
       <c r="I805" s="5" t="s">
-        <v>1489</v>
+        <v>1497</v>
       </c>
       <c r="J805" s="5" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="806" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A806" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B806" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C806" s="15" t="s">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A806" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B806" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C806" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D806" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E806" s="15" t="s">
+      <c r="D806" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E806" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F806" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G806" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H806" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I806" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J806" s="5" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="807" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A807" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B807" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C807" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D807" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E807" s="15" t="s">
         <v>1504</v>
       </c>
-      <c r="F806" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G806" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H806" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I806" s="16" t="s">
+      <c r="F807" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G807" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H807" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I807" s="16" t="s">
         <v>1622</v>
       </c>
-      <c r="J806" s="15" t="s">
+      <c r="J807" s="15" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A807" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B807" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C807" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D807" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E807" s="5" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F807" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G807" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H807" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I807" s="10" t="s">
-        <v>1650</v>
-      </c>
-      <c r="J807" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="808" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A808" s="5" t="s">
         <v>22</v>
       </c>
@@ -34272,10 +34533,10 @@
         <v>34</v>
       </c>
       <c r="E808" s="5" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="F808" s="5" t="s">
-        <v>748</v>
+        <v>26</v>
       </c>
       <c r="G808" s="5" t="s">
         <v>26</v>
@@ -34284,13 +34545,13 @@
         <v>26</v>
       </c>
       <c r="I808" s="10" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="J808" s="5" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="809" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
         <v>22</v>
       </c>
@@ -34304,10 +34565,10 @@
         <v>34</v>
       </c>
       <c r="E809" s="5" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="F809" s="5" t="s">
-        <v>26</v>
+        <v>748</v>
       </c>
       <c r="G809" s="5" t="s">
         <v>26</v>
@@ -34316,10 +34577,10 @@
         <v>26</v>
       </c>
       <c r="I809" s="10" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="J809" s="5" t="s">
-        <v>1355</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.25">
@@ -34336,7 +34597,7 @@
         <v>34</v>
       </c>
       <c r="E810" s="5" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F810" s="5" t="s">
         <v>26</v>
@@ -34348,7 +34609,7 @@
         <v>26</v>
       </c>
       <c r="I810" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="J810" s="5" t="s">
         <v>1355</v>
@@ -34368,7 +34629,7 @@
         <v>34</v>
       </c>
       <c r="E811" s="5" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="F811" s="5" t="s">
         <v>26</v>
@@ -34380,13 +34641,13 @@
         <v>26</v>
       </c>
       <c r="I811" s="10" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="J811" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="812" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
         <v>22</v>
       </c>
@@ -34400,10 +34661,10 @@
         <v>34</v>
       </c>
       <c r="E812" s="5" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="F812" s="5" t="s">
-        <v>748</v>
+        <v>26</v>
       </c>
       <c r="G812" s="5" t="s">
         <v>26</v>
@@ -34412,10 +34673,10 @@
         <v>26</v>
       </c>
       <c r="I812" s="10" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="J812" s="5" t="s">
-        <v>1156</v>
+        <v>255</v>
       </c>
     </row>
     <row r="813" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -34432,10 +34693,10 @@
         <v>34</v>
       </c>
       <c r="E813" s="5" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F813" s="5" t="s">
-        <v>26</v>
+        <v>748</v>
       </c>
       <c r="G813" s="5" t="s">
         <v>26</v>
@@ -34444,7 +34705,7 @@
         <v>26</v>
       </c>
       <c r="I813" s="10" t="s">
-        <v>1678</v>
+        <v>1667</v>
       </c>
       <c r="J813" s="5" t="s">
         <v>1156</v>
@@ -34464,7 +34725,7 @@
         <v>34</v>
       </c>
       <c r="E814" s="5" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F814" s="5" t="s">
         <v>26</v>
@@ -34496,7 +34757,7 @@
         <v>34</v>
       </c>
       <c r="E815" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F815" s="5" t="s">
         <v>26</v>
@@ -34508,7 +34769,7 @@
         <v>26</v>
       </c>
       <c r="I815" s="10" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="J815" s="5" t="s">
         <v>1156</v>
@@ -34528,7 +34789,7 @@
         <v>34</v>
       </c>
       <c r="E816" s="5" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F816" s="5" t="s">
         <v>26</v>
@@ -34546,7 +34807,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
         <v>22</v>
       </c>
@@ -34560,7 +34821,7 @@
         <v>34</v>
       </c>
       <c r="E817" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F817" s="5" t="s">
         <v>26</v>
@@ -34572,7 +34833,7 @@
         <v>26</v>
       </c>
       <c r="I817" s="10" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="J817" s="5" t="s">
         <v>1156</v>
@@ -34592,7 +34853,7 @@
         <v>34</v>
       </c>
       <c r="E818" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F818" s="5" t="s">
         <v>26</v>
@@ -34604,13 +34865,13 @@
         <v>26</v>
       </c>
       <c r="I818" s="10" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="J818" s="5" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="819" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
         <v>22</v>
       </c>
@@ -34624,7 +34885,7 @@
         <v>34</v>
       </c>
       <c r="E819" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F819" s="5" t="s">
         <v>26</v>
@@ -34636,10 +34897,10 @@
         <v>26</v>
       </c>
       <c r="I819" s="10" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="J819" s="5" t="s">
-        <v>1683</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="820" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -34656,7 +34917,7 @@
         <v>34</v>
       </c>
       <c r="E820" s="5" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F820" s="5" t="s">
         <v>26</v>
@@ -34688,7 +34949,7 @@
         <v>34</v>
       </c>
       <c r="E821" s="5" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F821" s="5" t="s">
         <v>26</v>
@@ -34706,7 +34967,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="822" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A822" s="5" t="s">
         <v>22</v>
       </c>
@@ -34719,1472 +34980,1528 @@
       <c r="D822" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E822" s="10" t="s">
+      <c r="E822" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F822" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G822" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H822" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I822" s="10" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J822" s="5" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="823" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A823" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B823" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C823" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D823" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E823" s="10" t="s">
         <v>1751</v>
       </c>
-      <c r="F822" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G822" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H822" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I822" s="10" t="s">
+      <c r="F823" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G823" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H823" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I823" s="10" t="s">
         <v>1752</v>
       </c>
-      <c r="J822" s="10" t="s">
+      <c r="J823" s="10" t="s">
         <v>1482</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A261:A317 A508:A516 A333 A324 A538:A539 A644:A677 A521 A71 A40:A59 A693:A708 A688:A691 A710:A716 A682:A686 A25:A26 A28:A32 A257:A259 A533 A823:A1048576 A773:A774 A347:A356 A375:A378 A389:A391 A402:A405 A553:A624 A428:A452 A455:A462 A501 A464:A497 A396:A399 A778:A779 A626:A642 A785:A787 A798:A799 A526:A531 A1:A11 A13:A14 A503:A506 A20:A23">
-    <cfRule type="containsText" dxfId="587" priority="847" operator="containsText" text="......">
+  <conditionalFormatting sqref="A261:A317 A508:A516 A333 A324 A538:A539 A644:A677 A521 A71 A40:A59 A693:A708 A688:A691 A710:A716 A682:A686 A26 A28:A32 A257:A259 A533 A824:A1048576 A774:A775 A347:A356 A375:A378 A389:A391 A402:A405 A553:A624 A428:A452 A455:A462 A501 A464:A490 A396:A399 A779:A780 A626:A642 A786:A788 A799:A800 A526:A531 A1:A11 A13:A14 A503:A506 A20:A23 A493:A497">
+    <cfRule type="containsText" dxfId="617" priority="865" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="586" priority="848" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="616" priority="866" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A260">
-    <cfRule type="containsText" dxfId="585" priority="835" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="615" priority="853" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A260)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="584" priority="836" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="614" priority="854" operator="beginsWith" text="#">
       <formula>LEFT(A260,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 A37">
-    <cfRule type="containsText" dxfId="583" priority="829" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="613" priority="847" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="582" priority="830" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="612" priority="848" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A73">
-    <cfRule type="containsText" dxfId="581" priority="825" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="611" priority="843" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A72)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="580" priority="826" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="610" priority="844" operator="beginsWith" text="#">
       <formula>LEFT(A72,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="containsText" dxfId="579" priority="823" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="609" priority="841" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="578" priority="824" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="608" priority="842" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A535">
-    <cfRule type="containsText" dxfId="577" priority="819" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="607" priority="837" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A535)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="576" priority="820" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="606" priority="838" operator="beginsWith" text="#">
       <formula>LEFT(A535,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A534">
-    <cfRule type="containsText" dxfId="575" priority="821" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="605" priority="839" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A534)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="574" priority="822" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="604" priority="840" operator="beginsWith" text="#">
       <formula>LEFT(A534,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A547">
-    <cfRule type="containsText" dxfId="573" priority="817" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="603" priority="835" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A547)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="572" priority="818" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="602" priority="836" operator="beginsWith" text="#">
       <formula>LEFT(A547,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A548">
-    <cfRule type="containsText" dxfId="571" priority="815" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="601" priority="833" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A548)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="570" priority="816" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="600" priority="834" operator="beginsWith" text="#">
       <formula>LEFT(A548,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A545">
-    <cfRule type="containsText" dxfId="569" priority="813" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="599" priority="831" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A545)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="568" priority="814" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="598" priority="832" operator="beginsWith" text="#">
       <formula>LEFT(A545,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A546">
-    <cfRule type="containsText" dxfId="567" priority="811" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="597" priority="829" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A546)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="566" priority="812" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="596" priority="830" operator="beginsWith" text="#">
       <formula>LEFT(A546,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A549">
-    <cfRule type="containsText" dxfId="565" priority="807" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="595" priority="825" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A549)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="564" priority="808" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="594" priority="826" operator="beginsWith" text="#">
       <formula>LEFT(A549,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A507">
-    <cfRule type="containsText" dxfId="563" priority="803" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="593" priority="821" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A507)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="562" priority="804" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="592" priority="822" operator="beginsWith" text="#">
       <formula>LEFT(A507,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A536">
-    <cfRule type="containsText" dxfId="561" priority="801" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="591" priority="819" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A536)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="560" priority="802" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="590" priority="820" operator="beginsWith" text="#">
       <formula>LEFT(A536,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A550">
-    <cfRule type="containsText" dxfId="559" priority="799" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="589" priority="817" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A550)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="558" priority="800" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="588" priority="818" operator="beginsWith" text="#">
       <formula>LEFT(A550,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A643">
-    <cfRule type="containsText" dxfId="557" priority="797" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="587" priority="815" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A643)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="556" priority="798" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="586" priority="816" operator="beginsWith" text="#">
       <formula>LEFT(A643,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A537">
-    <cfRule type="containsText" dxfId="555" priority="791" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="585" priority="809" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A537)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="554" priority="792" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="584" priority="810" operator="beginsWith" text="#">
       <formula>LEFT(A537,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A318:A320">
-    <cfRule type="containsText" dxfId="553" priority="789" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="583" priority="807" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A318)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="552" priority="790" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="582" priority="808" operator="beginsWith" text="#">
       <formula>LEFT(A318,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A321">
-    <cfRule type="containsText" dxfId="551" priority="785" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="581" priority="803" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A321)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="550" priority="786" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="580" priority="804" operator="beginsWith" text="#">
       <formula>LEFT(A321,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A322:A323 A325:A330">
-    <cfRule type="containsText" dxfId="549" priority="783" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="579" priority="801" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A322)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="548" priority="784" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="578" priority="802" operator="beginsWith" text="#">
       <formula>LEFT(A322,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A331:A332 A334:A340 A541">
-    <cfRule type="containsText" dxfId="547" priority="781" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="577" priority="799" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A331)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="546" priority="782" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="576" priority="800" operator="beginsWith" text="#">
       <formula>LEFT(A331,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A540">
-    <cfRule type="containsText" dxfId="545" priority="737" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="575" priority="755" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A540)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="544" priority="738" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="574" priority="756" operator="beginsWith" text="#">
       <formula>LEFT(A540,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A342">
-    <cfRule type="containsText" dxfId="543" priority="725" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="573" priority="743" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A342)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="542" priority="726" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="572" priority="744" operator="beginsWith" text="#">
       <formula>LEFT(A342,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341">
-    <cfRule type="containsText" dxfId="541" priority="727" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="571" priority="745" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A341)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="540" priority="728" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="570" priority="746" operator="beginsWith" text="#">
       <formula>LEFT(A341,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A542">
-    <cfRule type="containsText" dxfId="539" priority="723" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="569" priority="741" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A542)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="538" priority="724" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="568" priority="742" operator="beginsWith" text="#">
       <formula>LEFT(A542,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A543">
-    <cfRule type="containsText" dxfId="537" priority="721" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="567" priority="739" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A543)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="536" priority="722" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="566" priority="740" operator="beginsWith" text="#">
       <formula>LEFT(A543,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343:A344">
-    <cfRule type="containsText" dxfId="535" priority="719" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="565" priority="737" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A343)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="534" priority="720" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="564" priority="738" operator="beginsWith" text="#">
       <formula>LEFT(A343,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A552">
-    <cfRule type="containsText" dxfId="533" priority="711" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="563" priority="729" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A552)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="532" priority="712" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="562" priority="730" operator="beginsWith" text="#">
       <formula>LEFT(A552,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A551">
-    <cfRule type="containsText" dxfId="531" priority="713" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="561" priority="731" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A551)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="530" priority="714" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="560" priority="732" operator="beginsWith" text="#">
       <formula>LEFT(A551,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679">
-    <cfRule type="containsText" dxfId="529" priority="681" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="559" priority="699" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A679)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="528" priority="682" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="558" priority="700" operator="beginsWith" text="#">
       <formula>LEFT(A679,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345:A346 A380">
-    <cfRule type="containsText" dxfId="527" priority="677" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="557" priority="695" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A345)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="526" priority="678" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="556" priority="696" operator="beginsWith" text="#">
       <formula>LEFT(A345,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A401">
-    <cfRule type="containsText" dxfId="525" priority="675" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="555" priority="693" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A401)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="524" priority="676" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="554" priority="694" operator="beginsWith" text="#">
       <formula>LEFT(A401,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A517:A518">
-    <cfRule type="containsText" dxfId="523" priority="671" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="553" priority="689" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A517)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="522" priority="672" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="552" priority="690" operator="beginsWith" text="#">
       <formula>LEFT(A517,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A520">
-    <cfRule type="containsText" dxfId="521" priority="669" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="551" priority="687" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A520)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="520" priority="670" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="550" priority="688" operator="beginsWith" text="#">
       <formula>LEFT(A520,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="519" priority="643" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="549" priority="661" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="518" priority="644" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="548" priority="662" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="517" priority="641" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="547" priority="659" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="516" priority="642" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="546" priority="660" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="515" priority="633" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="545" priority="651" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A60)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="514" priority="634" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="544" priority="652" operator="beginsWith" text="#">
       <formula>LEFT(A60,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="513" priority="631" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="543" priority="649" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A61)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="512" priority="632" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="542" priority="650" operator="beginsWith" text="#">
       <formula>LEFT(A61,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="containsText" dxfId="511" priority="629" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="541" priority="647" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A62)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="510" priority="630" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="540" priority="648" operator="beginsWith" text="#">
       <formula>LEFT(A62,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="containsText" dxfId="509" priority="627" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="539" priority="645" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A63)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="508" priority="628" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="538" priority="646" operator="beginsWith" text="#">
       <formula>LEFT(A63,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A717">
-    <cfRule type="containsText" dxfId="507" priority="625" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="537" priority="643" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A717)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="506" priority="626" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="536" priority="644" operator="beginsWith" text="#">
       <formula>LEFT(A717,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A718">
-    <cfRule type="containsText" dxfId="505" priority="623" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="535" priority="641" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A718)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="504" priority="624" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="534" priority="642" operator="beginsWith" text="#">
       <formula>LEFT(A718,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A719">
-    <cfRule type="containsText" dxfId="503" priority="621" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="533" priority="639" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A719)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="502" priority="622" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="532" priority="640" operator="beginsWith" text="#">
       <formula>LEFT(A719,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A721:A724">
+    <cfRule type="containsText" dxfId="531" priority="633" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A721)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="530" priority="634" operator="beginsWith" text="#">
+      <formula>LEFT(A721,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A720">
+    <cfRule type="containsText" dxfId="529" priority="629" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A720)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="528" priority="630" operator="beginsWith" text="#">
+      <formula>LEFT(A720,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A725:A732">
+    <cfRule type="containsText" dxfId="527" priority="623" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A725)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="526" priority="624" operator="beginsWith" text="#">
+      <formula>LEFT(A725,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A733:A743">
+    <cfRule type="containsText" dxfId="525" priority="617" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A733)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="524" priority="618" operator="beginsWith" text="#">
+      <formula>LEFT(A733,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A744">
+    <cfRule type="containsText" dxfId="523" priority="619" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A744)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="522" priority="620" operator="beginsWith" text="#">
+      <formula>LEFT(A744,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A745:A755">
+    <cfRule type="containsText" dxfId="521" priority="611" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A745)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="520" priority="612" operator="beginsWith" text="#">
+      <formula>LEFT(A745,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A756">
+    <cfRule type="containsText" dxfId="519" priority="613" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A756)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="518" priority="614" operator="beginsWith" text="#">
+      <formula>LEFT(A756,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A757">
+    <cfRule type="containsText" dxfId="517" priority="607" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A757)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="516" priority="608" operator="beginsWith" text="#">
+      <formula>LEFT(A757,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A761:A762">
+    <cfRule type="containsText" dxfId="515" priority="597" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A761)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="514" priority="598" operator="beginsWith" text="#">
+      <formula>LEFT(A761,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A758">
+    <cfRule type="containsText" dxfId="513" priority="603" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A758)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="512" priority="604" operator="beginsWith" text="#">
+      <formula>LEFT(A758,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A759">
+    <cfRule type="containsText" dxfId="511" priority="601" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A759)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="510" priority="602" operator="beginsWith" text="#">
+      <formula>LEFT(A759,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A760">
+    <cfRule type="containsText" dxfId="509" priority="599" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A760)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="508" priority="600" operator="beginsWith" text="#">
+      <formula>LEFT(A760,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A763:A764">
+    <cfRule type="containsText" dxfId="507" priority="593" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A763)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="506" priority="594" operator="beginsWith" text="#">
+      <formula>LEFT(A763,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A765">
+    <cfRule type="containsText" dxfId="505" priority="583" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A765)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="504" priority="584" operator="beginsWith" text="#">
+      <formula>LEFT(A765,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A544">
+    <cfRule type="containsText" dxfId="503" priority="579" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A544)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="502" priority="580" operator="beginsWith" text="#">
+      <formula>LEFT(A544,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A678">
+    <cfRule type="containsText" dxfId="501" priority="549" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A678)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="500" priority="550" operator="beginsWith" text="#">
+      <formula>LEFT(A678,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="containsText" dxfId="499" priority="547" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A65)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="498" priority="548" operator="beginsWith" text="#">
+      <formula>LEFT(A65,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="containsText" dxfId="497" priority="545" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A66)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="496" priority="546" operator="beginsWith" text="#">
+      <formula>LEFT(A66,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A69">
+    <cfRule type="containsText" dxfId="495" priority="543" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A67)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="494" priority="544" operator="beginsWith" text="#">
+      <formula>LEFT(A67,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A709">
+    <cfRule type="containsText" dxfId="493" priority="523" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A709)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="492" priority="524" operator="beginsWith" text="#">
+      <formula>LEFT(A709,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A681">
+    <cfRule type="containsText" dxfId="491" priority="529" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A681)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="490" priority="530" operator="beginsWith" text="#">
+      <formula>LEFT(A681,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A687">
+    <cfRule type="containsText" dxfId="489" priority="525" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A687)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="488" priority="526" operator="beginsWith" text="#">
+      <formula>LEFT(A687,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A692">
+    <cfRule type="containsText" dxfId="487" priority="521" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A692)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="486" priority="522" operator="beginsWith" text="#">
+      <formula>LEFT(A692,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="containsText" dxfId="485" priority="519" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A24)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="484" priority="520" operator="beginsWith" text="#">
+      <formula>LEFT(A24,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="containsText" dxfId="483" priority="509" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="482" priority="510" operator="beginsWith" text="#">
+      <formula>LEFT(A27,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A766">
+    <cfRule type="containsText" dxfId="481" priority="507" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A766)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="480" priority="508" operator="beginsWith" text="#">
+      <formula>LEFT(A766,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110 A120:A122">
+    <cfRule type="containsText" dxfId="479" priority="317" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="478" priority="318" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="containsText" dxfId="477" priority="321" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="476" priority="322" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146 A133">
+    <cfRule type="containsText" dxfId="475" priority="323" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="474" priority="324" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A152 A148">
+    <cfRule type="containsText" dxfId="473" priority="325" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="472" priority="326" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147">
+    <cfRule type="containsText" dxfId="471" priority="327" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="470" priority="328" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150">
+    <cfRule type="containsText" dxfId="469" priority="329" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="468" priority="330" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="containsText" dxfId="467" priority="331" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="466" priority="332" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
+    <cfRule type="containsText" dxfId="465" priority="333" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="464" priority="334" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157">
+    <cfRule type="containsText" dxfId="463" priority="335" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="462" priority="336" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A156 A167">
+    <cfRule type="containsText" dxfId="461" priority="337" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="460" priority="338" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169">
+    <cfRule type="containsText" dxfId="459" priority="339" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="458" priority="340" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171">
+    <cfRule type="containsText" dxfId="457" priority="341" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="456" priority="342" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="containsText" dxfId="455" priority="263" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="454" priority="264" operator="beginsWith" text="#">
+      <formula>LEFT(A33,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="containsText" dxfId="453" priority="261" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="452" priority="262" operator="beginsWith" text="#">
+      <formula>LEFT(A34,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A532">
+    <cfRule type="containsText" dxfId="451" priority="259" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A532)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="450" priority="260" operator="beginsWith" text="#">
+      <formula>LEFT(A532,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A782">
+    <cfRule type="containsText" dxfId="449" priority="257" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A782)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="448" priority="258" operator="beginsWith" text="#">
+      <formula>LEFT(A782,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:A106">
+    <cfRule type="containsText" dxfId="447" priority="1449" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="446" priority="1450" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A801">
+    <cfRule type="containsText" dxfId="445" priority="249" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A801)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="444" priority="250" operator="beginsWith" text="#">
+      <formula>LEFT(A801,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A803">
+    <cfRule type="containsText" dxfId="443" priority="245" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A803)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="442" priority="246" operator="beginsWith" text="#">
+      <formula>LEFT(A803,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A802">
+    <cfRule type="containsText" dxfId="441" priority="247" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A802)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="440" priority="248" operator="beginsWith" text="#">
+      <formula>LEFT(A802,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A805">
+    <cfRule type="containsText" dxfId="439" priority="243" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="438" priority="244" operator="beginsWith" text="#">
+      <formula>LEFT(A805,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A806">
+    <cfRule type="containsText" dxfId="437" priority="227" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A806)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="436" priority="228" operator="beginsWith" text="#">
+      <formula>LEFT(A806,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A680">
+    <cfRule type="containsText" dxfId="435" priority="223" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A680)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="434" priority="224" operator="beginsWith" text="#">
+      <formula>LEFT(A680,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A359">
+    <cfRule type="containsText" dxfId="433" priority="213" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A359)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="432" priority="214" operator="beginsWith" text="#">
+      <formula>LEFT(A359,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A357">
+    <cfRule type="containsText" dxfId="431" priority="217" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A357)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="430" priority="218" operator="beginsWith" text="#">
+      <formula>LEFT(A357,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A358">
+    <cfRule type="containsText" dxfId="429" priority="215" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A358)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="428" priority="216" operator="beginsWith" text="#">
+      <formula>LEFT(A358,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A360">
+    <cfRule type="containsText" dxfId="427" priority="211" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A360)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="426" priority="212" operator="beginsWith" text="#">
+      <formula>LEFT(A360,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A361">
+    <cfRule type="containsText" dxfId="425" priority="209" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A361)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="424" priority="210" operator="beginsWith" text="#">
+      <formula>LEFT(A361,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A362">
+    <cfRule type="containsText" dxfId="423" priority="207" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A362)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="422" priority="208" operator="beginsWith" text="#">
+      <formula>LEFT(A362,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A363">
+    <cfRule type="containsText" dxfId="421" priority="205" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A363)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="420" priority="206" operator="beginsWith" text="#">
+      <formula>LEFT(A363,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A364">
+    <cfRule type="containsText" dxfId="419" priority="203" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A364)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="418" priority="204" operator="beginsWith" text="#">
+      <formula>LEFT(A364,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A365">
+    <cfRule type="containsText" dxfId="417" priority="201" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A365)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="416" priority="202" operator="beginsWith" text="#">
+      <formula>LEFT(A365,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A367">
+    <cfRule type="containsText" dxfId="415" priority="197" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A367)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="414" priority="198" operator="beginsWith" text="#">
+      <formula>LEFT(A367,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A368">
+    <cfRule type="containsText" dxfId="413" priority="195" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A368)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="412" priority="196" operator="beginsWith" text="#">
+      <formula>LEFT(A368,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A369">
+    <cfRule type="containsText" dxfId="411" priority="193" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A369)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="410" priority="194" operator="beginsWith" text="#">
+      <formula>LEFT(A369,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A370">
+    <cfRule type="containsText" dxfId="409" priority="191" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A370)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="408" priority="192" operator="beginsWith" text="#">
+      <formula>LEFT(A370,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A371">
+    <cfRule type="containsText" dxfId="407" priority="189" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A371)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="406" priority="190" operator="beginsWith" text="#">
+      <formula>LEFT(A371,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A372">
+    <cfRule type="containsText" dxfId="405" priority="187" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A372)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="404" priority="188" operator="beginsWith" text="#">
+      <formula>LEFT(A372,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A373">
+    <cfRule type="containsText" dxfId="403" priority="185" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A373)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="402" priority="186" operator="beginsWith" text="#">
+      <formula>LEFT(A373,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A381:A387">
+    <cfRule type="containsText" dxfId="401" priority="183" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A381)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="400" priority="184" operator="beginsWith" text="#">
+      <formula>LEFT(A381,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A379">
+    <cfRule type="containsText" dxfId="399" priority="181" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A379)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="398" priority="182" operator="beginsWith" text="#">
+      <formula>LEFT(A379,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A388 A392:A395">
+    <cfRule type="containsText" dxfId="397" priority="179" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A388)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="396" priority="180" operator="beginsWith" text="#">
+      <formula>LEFT(A388,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A400">
+    <cfRule type="containsText" dxfId="395" priority="177" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A400)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="394" priority="178" operator="beginsWith" text="#">
+      <formula>LEFT(A400,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A411">
+    <cfRule type="containsText" dxfId="393" priority="175" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A411)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="392" priority="176" operator="beginsWith" text="#">
+      <formula>LEFT(A411,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A374">
+    <cfRule type="containsText" dxfId="391" priority="173" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A374)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="390" priority="174" operator="beginsWith" text="#">
+      <formula>LEFT(A374,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A406">
+    <cfRule type="containsText" dxfId="389" priority="171" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A406)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="388" priority="172" operator="beginsWith" text="#">
+      <formula>LEFT(A406,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A407">
+    <cfRule type="containsText" dxfId="387" priority="169" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A407)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="386" priority="170" operator="beginsWith" text="#">
+      <formula>LEFT(A407,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A408">
+    <cfRule type="containsText" dxfId="385" priority="167" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A408)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="384" priority="168" operator="beginsWith" text="#">
+      <formula>LEFT(A408,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A410">
+    <cfRule type="containsText" dxfId="381" priority="163" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A410)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="380" priority="164" operator="beginsWith" text="#">
+      <formula>LEFT(A410,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A412">
+    <cfRule type="containsText" dxfId="379" priority="161" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A412)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="378" priority="162" operator="beginsWith" text="#">
+      <formula>LEFT(A412,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A413">
+    <cfRule type="containsText" dxfId="377" priority="159" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A413)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="376" priority="160" operator="beginsWith" text="#">
+      <formula>LEFT(A413,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A454">
+    <cfRule type="containsText" dxfId="375" priority="157" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A454)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="374" priority="158" operator="beginsWith" text="#">
+      <formula>LEFT(A454,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A414">
+    <cfRule type="containsText" dxfId="373" priority="155" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A414)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="372" priority="156" operator="beginsWith" text="#">
+      <formula>LEFT(A414,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A415 A419 A422">
+    <cfRule type="containsText" dxfId="371" priority="153" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A415)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="370" priority="154" operator="beginsWith" text="#">
+      <formula>LEFT(A415,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A424">
+    <cfRule type="containsText" dxfId="367" priority="149" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A424)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="366" priority="150" operator="beginsWith" text="#">
+      <formula>LEFT(A424,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A767">
+    <cfRule type="containsText" dxfId="359" priority="135" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A767)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="358" priority="136" operator="beginsWith" text="#">
+      <formula>LEFT(A767,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A768">
+    <cfRule type="containsText" dxfId="357" priority="133" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A768)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="356" priority="134" operator="beginsWith" text="#">
+      <formula>LEFT(A768,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A366">
+    <cfRule type="containsText" dxfId="355" priority="131" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A366)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="354" priority="132" operator="beginsWith" text="#">
+      <formula>LEFT(A366,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A498">
+    <cfRule type="containsText" dxfId="353" priority="129" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A498)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="352" priority="130" operator="beginsWith" text="#">
+      <formula>LEFT(A498,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A499">
+    <cfRule type="containsText" dxfId="351" priority="127" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A499)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="350" priority="128" operator="beginsWith" text="#">
+      <formula>LEFT(A499,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A500">
+    <cfRule type="containsText" dxfId="349" priority="125" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A500)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="348" priority="126" operator="beginsWith" text="#">
+      <formula>LEFT(A500,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A523">
+    <cfRule type="containsText" dxfId="347" priority="123" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A523)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="346" priority="124" operator="beginsWith" text="#">
+      <formula>LEFT(A523,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A519">
+    <cfRule type="containsText" dxfId="345" priority="121" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A519)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="344" priority="122" operator="beginsWith" text="#">
+      <formula>LEFT(A519,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A807">
+    <cfRule type="containsText" dxfId="343" priority="117" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A807)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="342" priority="118" operator="beginsWith" text="#">
+      <formula>LEFT(A807,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A769">
+    <cfRule type="containsText" dxfId="341" priority="113" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A769)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="340" priority="114" operator="beginsWith" text="#">
+      <formula>LEFT(A769,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A256">
+    <cfRule type="containsText" dxfId="339" priority="111" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A256)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="338" priority="112" operator="beginsWith" text="#">
+      <formula>LEFT(A256,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A808">
+    <cfRule type="containsText" dxfId="337" priority="101" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A808)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="336" priority="102" operator="beginsWith" text="#">
+      <formula>LEFT(A808,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:A182 A184:A255">
+    <cfRule type="containsText" dxfId="335" priority="427" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="334" priority="428" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168 A170 A160 A162:A166 A81 A83:A84 A87:A95 A97:A98 A102:A104 A74 A76:A79">
+    <cfRule type="containsText" dxfId="333" priority="315" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="332" priority="316" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="containsText" dxfId="331" priority="1463" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="330" priority="1464" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:A155 A158 A134:A145 A117:A118 A109 A107 A111:A115">
+    <cfRule type="containsText" dxfId="329" priority="1745" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="328" priority="1746" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129 A123:A124 A126:A127">
+    <cfRule type="containsText" dxfId="327" priority="1805" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="326" priority="1806" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="containsText" dxfId="325" priority="1867" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="324" priority="1868" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="containsText" dxfId="323" priority="109" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="322" priority="110" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="containsText" dxfId="321" priority="107" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="320" priority="108" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A770">
+    <cfRule type="containsText" dxfId="319" priority="105" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="318" priority="106" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A771">
+    <cfRule type="containsText" dxfId="317" priority="103" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="316" priority="104" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A809">
+    <cfRule type="containsText" dxfId="315" priority="99" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A809)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="314" priority="100" operator="beginsWith" text="#">
+      <formula>LEFT(A809,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A810">
+    <cfRule type="containsText" dxfId="313" priority="97" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A808)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="312" priority="98" operator="beginsWith" text="#">
+      <formula>LEFT(A808,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B815:B822">
+    <cfRule type="containsText" dxfId="311" priority="73" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",B809)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="310" priority="74" operator="beginsWith" text="#">
+      <formula>LEFT(B809,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B811 B814">
+    <cfRule type="containsText" dxfId="309" priority="91" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="308" priority="92" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A811">
+    <cfRule type="containsText" dxfId="307" priority="85" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A811)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="306" priority="86" operator="beginsWith" text="#">
+      <formula>LEFT(A811,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A812">
+    <cfRule type="containsText" dxfId="305" priority="83" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A812)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="304" priority="84" operator="beginsWith" text="#">
+      <formula>LEFT(A812,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B812">
+    <cfRule type="containsText" dxfId="303" priority="81" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="302" priority="82" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A813">
+    <cfRule type="containsText" dxfId="301" priority="79" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A813)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="300" priority="80" operator="beginsWith" text="#">
+      <formula>LEFT(A813,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B813">
+    <cfRule type="containsText" dxfId="299" priority="77" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="298" priority="78" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A814:A822">
+    <cfRule type="containsText" dxfId="297" priority="75" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A814)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="296" priority="76" operator="beginsWith" text="#">
+      <formula>LEFT(A814,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B823">
+    <cfRule type="containsText" dxfId="295" priority="69" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="294" priority="70" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A823">
+    <cfRule type="containsText" dxfId="293" priority="71" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A799)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="292" priority="72" operator="beginsWith" text="#">
+      <formula>LEFT(A799,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A790:A792 A798">
+    <cfRule type="containsText" dxfId="291" priority="65" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A790)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="290" priority="66" operator="beginsWith" text="#">
+      <formula>LEFT(A790,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A777">
+    <cfRule type="containsText" dxfId="289" priority="63" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A777)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="288" priority="64" operator="beginsWith" text="#">
+      <formula>LEFT(A777,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A778">
+    <cfRule type="containsText" dxfId="287" priority="61" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A778)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="286" priority="62" operator="beginsWith" text="#">
+      <formula>LEFT(A778,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="containsText" dxfId="285" priority="57" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="284" priority="58" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A625">
+    <cfRule type="containsText" dxfId="283" priority="53" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="282" priority="54" operator="beginsWith" text="#">
+      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A776">
+    <cfRule type="containsText" dxfId="281" priority="45" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A776)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="280" priority="46" operator="beginsWith" text="#">
+      <formula>LEFT(A776,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A789">
+    <cfRule type="containsText" dxfId="279" priority="43" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A789)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="278" priority="44" operator="beginsWith" text="#">
+      <formula>LEFT(A789,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A502">
+    <cfRule type="containsText" dxfId="277" priority="41" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A502)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="276" priority="42" operator="beginsWith" text="#">
+      <formula>LEFT(A502,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A793">
+    <cfRule type="containsText" dxfId="275" priority="39" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A793)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="274" priority="40" operator="beginsWith" text="#">
+      <formula>LEFT(A793,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A794">
+    <cfRule type="containsText" dxfId="273" priority="35" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A794)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="272" priority="36" operator="beginsWith" text="#">
+      <formula>LEFT(A794,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A795">
+    <cfRule type="containsText" dxfId="271" priority="31" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A795)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="270" priority="32" operator="beginsWith" text="#">
+      <formula>LEFT(A795,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A796">
+    <cfRule type="containsText" dxfId="269" priority="29" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="268" priority="30" operator="beginsWith" text="#">
+      <formula>LEFT(A796,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A797">
+    <cfRule type="containsText" dxfId="267" priority="27" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A797)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="266" priority="28" operator="beginsWith" text="#">
+      <formula>LEFT(A797,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="containsText" dxfId="265" priority="25" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="264" priority="26" operator="beginsWith" text="#">
+      <formula>LEFT(A15,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="containsText" dxfId="263" priority="23" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="262" priority="24" operator="beginsWith" text="#">
+      <formula>LEFT(A12,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A453">
+    <cfRule type="containsText" dxfId="261" priority="21" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A453)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="260" priority="22" operator="beginsWith" text="#">
+      <formula>LEFT(A453,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A525">
+    <cfRule type="containsText" dxfId="259" priority="19" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A525)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="258" priority="20" operator="beginsWith" text="#">
+      <formula>LEFT(A525,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A772">
-    <cfRule type="containsText" dxfId="501" priority="619" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="257" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A772)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="500" priority="620" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="256" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A772,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A721:A724">
-    <cfRule type="containsText" dxfId="499" priority="615" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A721)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="498" priority="616" operator="beginsWith" text="#">
-      <formula>LEFT(A721,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A773">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A773)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="30" priority="16" operator="beginsWith" text="#">
+      <formula>LEFT(A773,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A720">
-    <cfRule type="containsText" dxfId="497" priority="611" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A720)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="496" priority="612" operator="beginsWith" text="#">
-      <formula>LEFT(A720,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A725:A732">
-    <cfRule type="containsText" dxfId="495" priority="605" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A725)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="494" priority="606" operator="beginsWith" text="#">
-      <formula>LEFT(A725,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A733:A743">
-    <cfRule type="containsText" dxfId="493" priority="599" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A733)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="492" priority="600" operator="beginsWith" text="#">
-      <formula>LEFT(A733,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A744">
-    <cfRule type="containsText" dxfId="491" priority="601" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A744)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="490" priority="602" operator="beginsWith" text="#">
-      <formula>LEFT(A744,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A745:A755">
-    <cfRule type="containsText" dxfId="489" priority="593" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A745)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="488" priority="594" operator="beginsWith" text="#">
-      <formula>LEFT(A745,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A756">
-    <cfRule type="containsText" dxfId="487" priority="595" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A756)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="486" priority="596" operator="beginsWith" text="#">
-      <formula>LEFT(A756,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A757">
-    <cfRule type="containsText" dxfId="485" priority="589" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A757)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="484" priority="590" operator="beginsWith" text="#">
-      <formula>LEFT(A757,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A761:A762">
-    <cfRule type="containsText" dxfId="483" priority="579" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A761)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="580" operator="beginsWith" text="#">
-      <formula>LEFT(A761,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A758">
-    <cfRule type="containsText" dxfId="481" priority="585" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A758)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="480" priority="586" operator="beginsWith" text="#">
-      <formula>LEFT(A758,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A759">
-    <cfRule type="containsText" dxfId="479" priority="583" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A759)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="478" priority="584" operator="beginsWith" text="#">
-      <formula>LEFT(A759,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A760">
-    <cfRule type="containsText" dxfId="477" priority="581" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A760)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="476" priority="582" operator="beginsWith" text="#">
-      <formula>LEFT(A760,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A763:A764">
-    <cfRule type="containsText" dxfId="475" priority="575" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A763)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="576" operator="beginsWith" text="#">
-      <formula>LEFT(A763,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A765">
-    <cfRule type="containsText" dxfId="473" priority="565" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A765)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="472" priority="566" operator="beginsWith" text="#">
-      <formula>LEFT(A765,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A544">
-    <cfRule type="containsText" dxfId="471" priority="561" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A544)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="470" priority="562" operator="beginsWith" text="#">
-      <formula>LEFT(A544,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A678">
-    <cfRule type="containsText" dxfId="469" priority="531" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A678)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="532" operator="beginsWith" text="#">
-      <formula>LEFT(A678,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="containsText" dxfId="467" priority="529" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A65)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="530" operator="beginsWith" text="#">
-      <formula>LEFT(A65,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="containsText" dxfId="465" priority="527" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A66)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="528" operator="beginsWith" text="#">
-      <formula>LEFT(A66,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A69">
-    <cfRule type="containsText" dxfId="463" priority="525" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A67)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="462" priority="526" operator="beginsWith" text="#">
-      <formula>LEFT(A67,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A709">
-    <cfRule type="containsText" dxfId="461" priority="505" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A709)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="506" operator="beginsWith" text="#">
-      <formula>LEFT(A709,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A681">
-    <cfRule type="containsText" dxfId="459" priority="511" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A681)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="512" operator="beginsWith" text="#">
-      <formula>LEFT(A681,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A687">
-    <cfRule type="containsText" dxfId="457" priority="507" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A687)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="456" priority="508" operator="beginsWith" text="#">
-      <formula>LEFT(A687,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A692">
-    <cfRule type="containsText" dxfId="455" priority="503" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A692)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="454" priority="504" operator="beginsWith" text="#">
-      <formula>LEFT(A692,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="453" priority="501" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A24)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="502" operator="beginsWith" text="#">
-      <formula>LEFT(A24,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="451" priority="491" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="450" priority="492" operator="beginsWith" text="#">
-      <formula>LEFT(A27,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A766">
-    <cfRule type="containsText" dxfId="449" priority="489" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A766)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="448" priority="490" operator="beginsWith" text="#">
-      <formula>LEFT(A766,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110 A120:A122">
-    <cfRule type="containsText" dxfId="447" priority="299" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="446" priority="300" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
-    <cfRule type="containsText" dxfId="445" priority="303" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="444" priority="304" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146 A133">
-    <cfRule type="containsText" dxfId="443" priority="305" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="442" priority="306" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A152 A148">
-    <cfRule type="containsText" dxfId="441" priority="307" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="308" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147">
-    <cfRule type="containsText" dxfId="439" priority="309" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="438" priority="310" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150">
-    <cfRule type="containsText" dxfId="437" priority="311" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="312" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="containsText" dxfId="435" priority="313" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="314" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149">
-    <cfRule type="containsText" dxfId="433" priority="315" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="316" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157">
-    <cfRule type="containsText" dxfId="431" priority="317" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="430" priority="318" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A156 A167">
-    <cfRule type="containsText" dxfId="429" priority="319" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="320" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169">
-    <cfRule type="containsText" dxfId="427" priority="321" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="322" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A171">
-    <cfRule type="containsText" dxfId="425" priority="323" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="324" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="423" priority="245" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="422" priority="246" operator="beginsWith" text="#">
-      <formula>LEFT(A33,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="421" priority="243" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="244" operator="beginsWith" text="#">
-      <formula>LEFT(A34,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A532">
-    <cfRule type="containsText" dxfId="419" priority="241" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A532)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="242" operator="beginsWith" text="#">
-      <formula>LEFT(A532,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A781">
-    <cfRule type="containsText" dxfId="417" priority="239" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A781)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="240" operator="beginsWith" text="#">
-      <formula>LEFT(A781,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:A106">
-    <cfRule type="containsText" dxfId="415" priority="1431" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="414" priority="1432" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A800">
-    <cfRule type="containsText" dxfId="413" priority="231" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A800)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="412" priority="232" operator="beginsWith" text="#">
-      <formula>LEFT(A800,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A802">
-    <cfRule type="containsText" dxfId="411" priority="227" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A802)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="228" operator="beginsWith" text="#">
-      <formula>LEFT(A802,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A801">
-    <cfRule type="containsText" dxfId="409" priority="229" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A801)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="408" priority="230" operator="beginsWith" text="#">
-      <formula>LEFT(A801,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A804">
-    <cfRule type="containsText" dxfId="407" priority="225" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A804)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="406" priority="226" operator="beginsWith" text="#">
-      <formula>LEFT(A804,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A805">
-    <cfRule type="containsText" dxfId="405" priority="209" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="404" priority="210" operator="beginsWith" text="#">
-      <formula>LEFT(A805,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A680">
-    <cfRule type="containsText" dxfId="403" priority="205" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A680)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="206" operator="beginsWith" text="#">
-      <formula>LEFT(A680,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A359">
-    <cfRule type="containsText" dxfId="401" priority="195" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A359)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="196" operator="beginsWith" text="#">
-      <formula>LEFT(A359,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A357">
-    <cfRule type="containsText" dxfId="399" priority="199" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A357)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="398" priority="200" operator="beginsWith" text="#">
-      <formula>LEFT(A357,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A358">
-    <cfRule type="containsText" dxfId="397" priority="197" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A358)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="198" operator="beginsWith" text="#">
-      <formula>LEFT(A358,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A360">
-    <cfRule type="containsText" dxfId="395" priority="193" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A360)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="194" operator="beginsWith" text="#">
-      <formula>LEFT(A360,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A361">
-    <cfRule type="containsText" dxfId="393" priority="191" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A361)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="392" priority="192" operator="beginsWith" text="#">
-      <formula>LEFT(A361,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A362">
-    <cfRule type="containsText" dxfId="391" priority="189" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A362)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="390" priority="190" operator="beginsWith" text="#">
-      <formula>LEFT(A362,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A363">
-    <cfRule type="containsText" dxfId="389" priority="187" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A363)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="188" operator="beginsWith" text="#">
-      <formula>LEFT(A363,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A364">
-    <cfRule type="containsText" dxfId="387" priority="185" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A364)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="386" priority="186" operator="beginsWith" text="#">
-      <formula>LEFT(A364,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A365">
-    <cfRule type="containsText" dxfId="385" priority="183" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A365)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="384" priority="184" operator="beginsWith" text="#">
-      <formula>LEFT(A365,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A367">
-    <cfRule type="containsText" dxfId="383" priority="179" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A367)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="382" priority="180" operator="beginsWith" text="#">
-      <formula>LEFT(A367,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A368">
-    <cfRule type="containsText" dxfId="381" priority="177" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A368)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="380" priority="178" operator="beginsWith" text="#">
-      <formula>LEFT(A368,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A369">
-    <cfRule type="containsText" dxfId="379" priority="175" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A369)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="378" priority="176" operator="beginsWith" text="#">
-      <formula>LEFT(A369,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A370">
-    <cfRule type="containsText" dxfId="377" priority="173" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A370)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="174" operator="beginsWith" text="#">
-      <formula>LEFT(A370,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A371">
-    <cfRule type="containsText" dxfId="375" priority="171" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A371)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="374" priority="172" operator="beginsWith" text="#">
-      <formula>LEFT(A371,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A372">
-    <cfRule type="containsText" dxfId="373" priority="169" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A372)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="170" operator="beginsWith" text="#">
-      <formula>LEFT(A372,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A373">
-    <cfRule type="containsText" dxfId="371" priority="167" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A373)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="168" operator="beginsWith" text="#">
-      <formula>LEFT(A373,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A381:A387">
-    <cfRule type="containsText" dxfId="369" priority="165" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A381)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="166" operator="beginsWith" text="#">
-      <formula>LEFT(A381,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A379">
-    <cfRule type="containsText" dxfId="367" priority="163" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A379)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="366" priority="164" operator="beginsWith" text="#">
-      <formula>LEFT(A379,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A388 A392:A395">
-    <cfRule type="containsText" dxfId="365" priority="161" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A388)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="162" operator="beginsWith" text="#">
-      <formula>LEFT(A388,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A400">
-    <cfRule type="containsText" dxfId="363" priority="159" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A400)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="160" operator="beginsWith" text="#">
-      <formula>LEFT(A400,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A411">
-    <cfRule type="containsText" dxfId="361" priority="157" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A411)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="158" operator="beginsWith" text="#">
-      <formula>LEFT(A411,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A374">
-    <cfRule type="containsText" dxfId="359" priority="155" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A374)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="358" priority="156" operator="beginsWith" text="#">
-      <formula>LEFT(A374,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A406">
-    <cfRule type="containsText" dxfId="357" priority="153" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A406)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="154" operator="beginsWith" text="#">
-      <formula>LEFT(A406,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A407">
-    <cfRule type="containsText" dxfId="355" priority="151" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A407)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="152" operator="beginsWith" text="#">
-      <formula>LEFT(A407,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A408">
-    <cfRule type="containsText" dxfId="353" priority="149" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A408)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="150" operator="beginsWith" text="#">
-      <formula>LEFT(A408,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A491:A492">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A491)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="26" priority="14" operator="beginsWith" text="#">
+      <formula>LEFT(A491,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A409">
-    <cfRule type="containsText" dxfId="351" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A409)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="350" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="22" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A409,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A410">
-    <cfRule type="containsText" dxfId="349" priority="145" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A410)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="348" priority="146" operator="beginsWith" text="#">
-      <formula>LEFT(A410,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A416:A418">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A416)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="18" priority="10" operator="beginsWith" text="#">
+      <formula>LEFT(A416,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A412">
-    <cfRule type="containsText" dxfId="347" priority="143" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A412)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="144" operator="beginsWith" text="#">
-      <formula>LEFT(A412,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A420:A421">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A420)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="14" priority="8" operator="beginsWith" text="#">
+      <formula>LEFT(A420,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A413">
-    <cfRule type="containsText" dxfId="345" priority="141" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A413)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="344" priority="142" operator="beginsWith" text="#">
-      <formula>LEFT(A413,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A454">
-    <cfRule type="containsText" dxfId="343" priority="139" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A454)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="342" priority="140" operator="beginsWith" text="#">
-      <formula>LEFT(A454,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A414">
-    <cfRule type="containsText" dxfId="341" priority="137" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A414)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="340" priority="138" operator="beginsWith" text="#">
-      <formula>LEFT(A414,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A415:A422">
-    <cfRule type="containsText" dxfId="339" priority="135" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A415)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="136" operator="beginsWith" text="#">
-      <formula>LEFT(A415,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A426">
-    <cfRule type="containsText" dxfId="337" priority="125" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A426)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="126" operator="beginsWith" text="#">
-      <formula>LEFT(A426,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A424">
-    <cfRule type="containsText" dxfId="335" priority="131" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A424)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="334" priority="132" operator="beginsWith" text="#">
-      <formula>LEFT(A424,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A425:A427">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A425)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="6" operator="beginsWith" text="#">
+      <formula>LEFT(A425,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A423">
-    <cfRule type="containsText" dxfId="333" priority="129" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A423)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="130" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="6" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A423,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A425">
-    <cfRule type="containsText" dxfId="331" priority="127" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A425)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="128" operator="beginsWith" text="#">
-      <formula>LEFT(A425,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A427">
-    <cfRule type="containsText" dxfId="329" priority="123" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A427)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="328" priority="124" operator="beginsWith" text="#">
-      <formula>LEFT(A427,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A767">
-    <cfRule type="containsText" dxfId="327" priority="117" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A767)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="326" priority="118" operator="beginsWith" text="#">
-      <formula>LEFT(A767,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A768">
-    <cfRule type="containsText" dxfId="325" priority="115" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A768)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="116" operator="beginsWith" text="#">
-      <formula>LEFT(A768,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A366">
-    <cfRule type="containsText" dxfId="323" priority="113" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A366)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="114" operator="beginsWith" text="#">
-      <formula>LEFT(A366,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A498">
-    <cfRule type="containsText" dxfId="321" priority="111" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A498)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="112" operator="beginsWith" text="#">
-      <formula>LEFT(A498,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A499">
-    <cfRule type="containsText" dxfId="319" priority="109" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A499)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="318" priority="110" operator="beginsWith" text="#">
-      <formula>LEFT(A499,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A500">
-    <cfRule type="containsText" dxfId="317" priority="107" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A500)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="316" priority="108" operator="beginsWith" text="#">
-      <formula>LEFT(A500,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A523">
-    <cfRule type="containsText" dxfId="315" priority="105" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A523)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="314" priority="106" operator="beginsWith" text="#">
-      <formula>LEFT(A523,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A519">
-    <cfRule type="containsText" dxfId="313" priority="103" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A519)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="312" priority="104" operator="beginsWith" text="#">
-      <formula>LEFT(A519,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A806">
-    <cfRule type="containsText" dxfId="311" priority="99" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A806)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="310" priority="100" operator="beginsWith" text="#">
-      <formula>LEFT(A806,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A769">
-    <cfRule type="containsText" dxfId="309" priority="95" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A769)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="308" priority="96" operator="beginsWith" text="#">
-      <formula>LEFT(A769,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A256">
-    <cfRule type="containsText" dxfId="307" priority="93" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A256)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="306" priority="94" operator="beginsWith" text="#">
-      <formula>LEFT(A256,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A807">
-    <cfRule type="containsText" dxfId="305" priority="83" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A807)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="304" priority="84" operator="beginsWith" text="#">
-      <formula>LEFT(A807,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:A182 A184:A255">
-    <cfRule type="containsText" dxfId="303" priority="409" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="302" priority="410" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168 A170 A160 A162:A166 A81 A83:A84 A87:A95 A97:A98 A102:A104 A74 A76:A79">
-    <cfRule type="containsText" dxfId="301" priority="297" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="300" priority="298" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="containsText" dxfId="299" priority="1445" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="298" priority="1446" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:A155 A158 A134:A145 A117:A118 A109 A107 A111:A115">
-    <cfRule type="containsText" dxfId="297" priority="1727" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="296" priority="1728" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129 A123:A124 A126:A127">
-    <cfRule type="containsText" dxfId="295" priority="1787" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="294" priority="1788" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="containsText" dxfId="293" priority="1849" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="292" priority="1850" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
-    <cfRule type="containsText" dxfId="291" priority="91" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="290" priority="92" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="289" priority="89" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="288" priority="90" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A770">
-    <cfRule type="containsText" dxfId="287" priority="87" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="286" priority="88" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A771">
-    <cfRule type="containsText" dxfId="285" priority="85" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="284" priority="86" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A808">
-    <cfRule type="containsText" dxfId="283" priority="81" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A808)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="282" priority="82" operator="beginsWith" text="#">
-      <formula>LEFT(A808,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A809">
-    <cfRule type="containsText" dxfId="281" priority="79" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A807)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="280" priority="80" operator="beginsWith" text="#">
-      <formula>LEFT(A807,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B814:B821">
-    <cfRule type="containsText" dxfId="279" priority="55" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",B808)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="278" priority="56" operator="beginsWith" text="#">
-      <formula>LEFT(B808,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B810 B813">
-    <cfRule type="containsText" dxfId="277" priority="73" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="74" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A810">
-    <cfRule type="containsText" dxfId="275" priority="67" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A810)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="274" priority="68" operator="beginsWith" text="#">
-      <formula>LEFT(A810,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A811">
-    <cfRule type="containsText" dxfId="273" priority="65" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A811)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="272" priority="66" operator="beginsWith" text="#">
-      <formula>LEFT(A811,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B811">
-    <cfRule type="containsText" dxfId="271" priority="63" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="270" priority="64" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A812">
-    <cfRule type="containsText" dxfId="269" priority="61" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A812)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="62" operator="beginsWith" text="#">
-      <formula>LEFT(A812,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B812">
-    <cfRule type="containsText" dxfId="267" priority="59" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="60" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A813:A821">
-    <cfRule type="containsText" dxfId="265" priority="57" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A813)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="264" priority="58" operator="beginsWith" text="#">
-      <formula>LEFT(A813,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B822">
-    <cfRule type="containsText" dxfId="263" priority="51" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="262" priority="52" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A822">
-    <cfRule type="containsText" dxfId="261" priority="53" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="260" priority="54" operator="beginsWith" text="#">
-      <formula>LEFT(A798,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A789:A791 A797">
-    <cfRule type="containsText" dxfId="259" priority="47" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A789)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="258" priority="48" operator="beginsWith" text="#">
-      <formula>LEFT(A789,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A776">
-    <cfRule type="containsText" dxfId="257" priority="45" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A776)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="256" priority="46" operator="beginsWith" text="#">
-      <formula>LEFT(A776,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A777">
-    <cfRule type="containsText" dxfId="255" priority="43" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A777)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="254" priority="44" operator="beginsWith" text="#">
-      <formula>LEFT(A777,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="containsText" dxfId="253" priority="39" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="252" priority="40" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A625">
-    <cfRule type="containsText" dxfId="251" priority="35" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="250" priority="36" operator="beginsWith" text="#">
-      <formula>LEFT(#REF!,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A775">
-    <cfRule type="containsText" dxfId="249" priority="27" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A775)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="248" priority="28" operator="beginsWith" text="#">
-      <formula>LEFT(A775,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A788">
-    <cfRule type="containsText" dxfId="247" priority="25" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A788)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="246" priority="26" operator="beginsWith" text="#">
-      <formula>LEFT(A788,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A502">
-    <cfRule type="containsText" dxfId="245" priority="23" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A502)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="244" priority="24" operator="beginsWith" text="#">
-      <formula>LEFT(A502,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A792">
-    <cfRule type="containsText" dxfId="243" priority="21" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A792)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="22" operator="beginsWith" text="#">
-      <formula>LEFT(A792,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A793">
-    <cfRule type="containsText" dxfId="241" priority="17" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A793)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="240" priority="18" operator="beginsWith" text="#">
-      <formula>LEFT(A793,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A794">
-    <cfRule type="containsText" dxfId="239" priority="13" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A794)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="238" priority="14" operator="beginsWith" text="#">
-      <formula>LEFT(A794,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A795">
-    <cfRule type="containsText" dxfId="237" priority="11" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A795)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="236" priority="12" operator="beginsWith" text="#">
-      <formula>LEFT(A795,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A796">
-    <cfRule type="containsText" dxfId="235" priority="9" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="234" priority="10" operator="beginsWith" text="#">
-      <formula>LEFT(A796,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="233" priority="7" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="232" priority="8" operator="beginsWith" text="#">
-      <formula>LEFT(A15,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="231" priority="5" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="230" priority="6" operator="beginsWith" text="#">
-      <formula>LEFT(A12,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A453">
-    <cfRule type="containsText" dxfId="229" priority="3" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A453)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="228" priority="4" operator="beginsWith" text="#">
-      <formula>LEFT(A453,LEN("#"))="#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A525">
+  <conditionalFormatting sqref="A25">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A525)))</formula>
+      <formula>NOT(ISERROR(SEARCH("......",A25)))</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
-      <formula>LEFT(A525,LEN("#"))="#"</formula>
+      <formula>LEFT(A25,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36193,7 +36510,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="559" operator="containsText" text="......" id="{465F9812-1C00-47A7-97E2-89B77398E1B1}">
+          <x14:cfRule type="containsText" priority="577" operator="containsText" text="......" id="{465F9812-1C00-47A7-97E2-89B77398E1B1}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A812)))</xm:f>
             <x14:dxf>
               <font>
@@ -36202,7 +36519,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="560" operator="beginsWith" text="#" id="{900241AA-A787-44C0-BE12-6FDEB9E0011A}">
+          <x14:cfRule type="beginsWith" priority="578" operator="beginsWith" text="#" id="{900241AA-A787-44C0-BE12-6FDEB9E0011A}">
             <xm:f>LEFT(ServoDyn!A812,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36216,10 +36533,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A783:A784</xm:sqref>
+          <xm:sqref>A784:A785</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="283" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="301" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A624)))</xm:f>
             <x14:dxf>
               <font>
@@ -36228,7 +36545,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="284" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="302" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A624,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36245,7 +36562,7 @@
           <xm:sqref>A522</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="207" operator="containsText" text="......" id="{5A5F5B76-44F7-40B2-B037-173F2905189B}">
+          <x14:cfRule type="containsText" priority="225" operator="containsText" text="......" id="{5A5F5B76-44F7-40B2-B037-173F2905189B}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A818)))</xm:f>
             <x14:dxf>
               <font>
@@ -36254,7 +36571,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="208" operator="beginsWith" text="#" id="{804DB11F-C4AE-4232-8FBE-AF82706C5D95}">
+          <x14:cfRule type="beginsWith" priority="226" operator="beginsWith" text="#" id="{804DB11F-C4AE-4232-8FBE-AF82706C5D95}">
             <xm:f>LEFT(ServoDyn!A818,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36268,10 +36585,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A803</xm:sqref>
+          <xm:sqref>A804</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2331" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="2349" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A602)))</xm:f>
             <x14:dxf>
               <font>
@@ -36280,7 +36597,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2332" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="2350" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A602,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36297,7 +36614,7 @@
           <xm:sqref>A35:A36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2365" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
+          <x14:cfRule type="containsText" priority="2383" operator="containsText" text="......" id="{5FD4013B-8363-458B-8AA3-B485798DA1C8}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A808)))</xm:f>
             <x14:dxf>
               <font>
@@ -36306,7 +36623,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2366" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
+          <x14:cfRule type="beginsWith" priority="2384" operator="beginsWith" text="#" id="{5826827B-E3D9-4440-94B4-857DA3C7325E}">
             <xm:f>LEFT(ServoDyn!A808,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36320,10 +36637,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A782 A780</xm:sqref>
+          <xm:sqref>A783 A781</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2471" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="2489" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A183)))</xm:f>
             <x14:dxf>
               <font>
@@ -36332,7 +36649,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2472" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="2490" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A183,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -36349,7 +36666,7 @@
           <xm:sqref>A96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2487" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
+          <x14:cfRule type="containsText" priority="2505" operator="containsText" text="......" id="{507E48B0-3CAC-4D71-99A1-A3F8378DB61A}">
             <xm:f>NOT(ISERROR(SEARCH("......",ServoDyn!A625)))</xm:f>
             <x14:dxf>
               <font>
@@ -36358,7 +36675,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="beginsWith" priority="2488" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
+          <x14:cfRule type="beginsWith" priority="2506" operator="beginsWith" text="#" id="{898B5379-FC2A-4981-81A9-DB0DC745BCC7}">
             <xm:f>LEFT(ServoDyn!A625,LEN("#"))="#"</xm:f>
             <x14:dxf>
               <font>
@@ -43944,490 +44261,490 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A11 A21 A235:A239 A276:A281 A111:A115 A145:A171 A283:A285 A288 A290:A1048576 A174:A200 A134:A137 A104:A107 A117:A130 A16">
-    <cfRule type="containsText" dxfId="213" priority="309" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="241" priority="309" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="212" priority="310" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="240" priority="310" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="211" priority="301" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="239" priority="301" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A20)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="210" priority="302" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="238" priority="302" operator="beginsWith" text="#">
       <formula>LEFT(A20,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="209" priority="299" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="237" priority="299" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="208" priority="300" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="236" priority="300" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A23">
-    <cfRule type="containsText" dxfId="207" priority="297" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="235" priority="297" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A22)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="206" priority="298" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="234" priority="298" operator="beginsWith" text="#">
       <formula>LEFT(A22,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="containsText" dxfId="205" priority="295" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="233" priority="295" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="204" priority="296" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="232" priority="296" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="203" priority="223" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="231" priority="223" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A208)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="202" priority="224" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="230" priority="224" operator="beginsWith" text="#">
       <formula>LEFT(A208,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173">
-    <cfRule type="containsText" dxfId="201" priority="213" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="229" priority="213" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A173)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="200" priority="214" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="228" priority="214" operator="beginsWith" text="#">
       <formula>LEFT(A173,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="containsText" dxfId="199" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="227" priority="203" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A108)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="226" priority="204" operator="beginsWith" text="#">
       <formula>LEFT(A108,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209">
-    <cfRule type="containsText" dxfId="197" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="225" priority="181" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A209)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="224" priority="182" operator="beginsWith" text="#">
       <formula>LEFT(A209,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234">
-    <cfRule type="containsText" dxfId="195" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="223" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A234)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="222" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A234,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="193" priority="201" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="221" priority="201" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="192" priority="202" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="220" priority="202" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A61">
-    <cfRule type="containsText" dxfId="191" priority="1109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="219" priority="1109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="1110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="218" priority="1110" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A46">
-    <cfRule type="containsText" dxfId="189" priority="1159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="217" priority="1159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="188" priority="1160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="216" priority="1160" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A50">
-    <cfRule type="containsText" dxfId="187" priority="1329" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="215" priority="1329" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="186" priority="1330" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="214" priority="1330" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A66">
-    <cfRule type="containsText" dxfId="185" priority="1499" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="213" priority="1499" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="184" priority="1500" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="212" priority="1500" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="containsText" dxfId="183" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="211" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="210" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A282">
-    <cfRule type="containsText" dxfId="181" priority="159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="209" priority="159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A282)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="208" priority="160" operator="beginsWith" text="#">
       <formula>LEFT(A282,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="containsText" dxfId="179" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="207" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="206" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A241,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="containsText" dxfId="177" priority="151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="205" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A270)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="204" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A270,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="containsText" dxfId="175" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="203" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A131)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="202" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A131,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="containsText" dxfId="173" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="201" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A132)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="200" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A132,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="containsText" dxfId="171" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="199" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A133)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="198" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A133,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245:A246">
-    <cfRule type="containsText" dxfId="169" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="197" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A245)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="196" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A245,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="167" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="195" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="194" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="containsText" dxfId="165" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="193" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="192" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
-    <cfRule type="containsText" dxfId="163" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="191" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="190" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A247,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A243">
-    <cfRule type="containsText" dxfId="161" priority="127" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="189" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A243)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="128" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="188" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A243,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250">
-    <cfRule type="containsText" dxfId="159" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="187" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A250)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="186" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A250,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A248">
-    <cfRule type="containsText" dxfId="157" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="185" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A248)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="156" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="184" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A248,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="containsText" dxfId="155" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="183" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A249)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="182" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A249,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="containsText" dxfId="153" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="181" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A244)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="152" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="180" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A244,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="containsText" dxfId="151" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="179" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A286)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="178" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A286,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206">
-    <cfRule type="containsText" dxfId="149" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="177" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A206)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="176" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A206,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="containsText" dxfId="147" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="175" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A207)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="174" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A207,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139">
-    <cfRule type="containsText" dxfId="145" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="173" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="172" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140">
-    <cfRule type="containsText" dxfId="143" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="171" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="142" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="170" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="containsText" dxfId="141" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="169" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="168" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A242,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251">
-    <cfRule type="containsText" dxfId="139" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="167" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A251)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="166" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A251,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252">
-    <cfRule type="containsText" dxfId="137" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="165" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A252)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="136" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="164" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A252,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253">
-    <cfRule type="containsText" dxfId="135" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="163" priority="97" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A253)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="162" priority="98" operator="beginsWith" text="#">
       <formula>LEFT(A253,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A203:A205 A69:A70 A72">
-    <cfRule type="containsText" dxfId="133" priority="195" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="161" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="196" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="160" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="containsText" dxfId="131" priority="2123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="159" priority="2123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="2124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="158" priority="2124" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="containsText" dxfId="129" priority="2235" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="157" priority="2235" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="128" priority="2236" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="156" priority="2236" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="127" priority="95" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="155" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A71)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="126" priority="96" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="154" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A71,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="containsText" dxfId="125" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="153" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="124" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="152" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="123" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="151" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A96)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="122" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="150" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(A96,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="containsText" dxfId="121" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="149" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="120" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="148" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A214">
-    <cfRule type="containsText" dxfId="119" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="147" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A214)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="118" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="146" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A214,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="containsText" dxfId="117" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="145" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="116" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="144" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A98,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="115" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="143" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="114" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="142" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="113" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="141" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A99)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="112" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="140" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A99,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="containsText" dxfId="111" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="139" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A100)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="138" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A100,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="137" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A101)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="136" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A101,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="containsText" dxfId="107" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="135" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A102)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="106" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="134" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A102,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="containsText" dxfId="105" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="133" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A103)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="104" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="132" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A103,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="containsText" dxfId="103" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A271)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="102" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="130" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A271,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:A275">
-    <cfRule type="containsText" dxfId="101" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="129" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A272)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="128" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A272,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="containsText" dxfId="99" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="127" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A116)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="98" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="126" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A116,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="containsText" dxfId="97" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="124" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="123" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="122" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="92" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="120" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45946,266 +46263,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="71" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="99" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="70" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="98" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="97" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="68" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="96" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="67" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="95" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="94" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A22">
-    <cfRule type="containsText" dxfId="65" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="93" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="92" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="91" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="62" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="90" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="61" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="89" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="88" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="59" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="87" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A23)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="86" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A23,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="57" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="85" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A26)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="84" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A26,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="55" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="83" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="82" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A27,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="81" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A29)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="80" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A29,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="79" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="78" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A28,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="77" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="76" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A30,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="47" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="75" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="74" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A31,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="73" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="72" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A32,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="71" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="70" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A33,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="69" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="68" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A34,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="67" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A35)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="66" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A35,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="65" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A36)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="64" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A36,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A37)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="62" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A37,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="32" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="60" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="58" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="57" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="56" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="54" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="52" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="50" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A44)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="48" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A44,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="46" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="44" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="42" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A48)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="40" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A48,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A52:A53">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A50)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="38" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A50,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A54)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="36" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A54,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A51)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="34" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A51,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -12087,7 +12087,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A524" sqref="A524:XFD524"/>
+      <selection pane="bottomLeft" activeCell="G526" sqref="G526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10935" uniqueCount="1986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11368" uniqueCount="2074">
   <si>
     <t>###################################################################################################################################</t>
   </si>
@@ -6135,6 +6135,270 @@
   </si>
   <si>
     <t>MAP_Registry.txt</t>
+  </si>
+  <si>
+    <t># ..... InflowWind data .......................................................................................................</t>
+  </si>
+  <si>
+    <t>InflowWind_Data</t>
+  </si>
+  <si>
+    <t>"Temporary hack for getting wind-speed outputs from InflowWind"</t>
+  </si>
+  <si>
+    <t>{2}</t>
+  </si>
+  <si>
+    <t>y_prev</t>
+  </si>
+  <si>
+    <t>"previous outputs; a hack because this basically makes them states. Used in BladedDLL"</t>
+  </si>
+  <si>
+    <t>MeshMapType</t>
+  </si>
+  <si>
+    <t># ..... FAST_ModuleMapType data .......................................................................................................</t>
+  </si>
+  <si>
+    <t># ! Data structures for mapping and coupling the various modules together</t>
+  </si>
+  <si>
+    <t>FAST_ModuleMapType</t>
+  </si>
+  <si>
+    <t>ED_P_2_HD_W_P</t>
+  </si>
+  <si>
+    <t>HD_W_P_2_ED_P</t>
+  </si>
+  <si>
+    <t>ED_P_2_HD_M_P</t>
+  </si>
+  <si>
+    <t>HD_M_P_2_ED_P</t>
+  </si>
+  <si>
+    <t>ED_P_2_HD_M_L</t>
+  </si>
+  <si>
+    <t>HD_M_L_2_ED_P</t>
+  </si>
+  <si>
+    <t>ED_P_2_MAP_P</t>
+  </si>
+  <si>
+    <t>MAP_P_2_ED_P</t>
+  </si>
+  <si>
+    <t>ED_P_2_FEAM_P</t>
+  </si>
+  <si>
+    <t>FEAM_P_2_ED_P</t>
+  </si>
+  <si>
+    <t>ED_P_2_SD_TP</t>
+  </si>
+  <si>
+    <t>SD_TP_2_ED_P</t>
+  </si>
+  <si>
+    <t>SD_P_2_HD_M_P</t>
+  </si>
+  <si>
+    <t>HD_M_P_2_SD_P</t>
+  </si>
+  <si>
+    <t>SD_P_2_HD_M_L</t>
+  </si>
+  <si>
+    <t>HD_M_L_2_SD_P</t>
+  </si>
+  <si>
+    <t>ED_L_2_AD_L_B</t>
+  </si>
+  <si>
+    <t>AD_L_2_ED_L_B</t>
+  </si>
+  <si>
+    <t>ED_L_2_AD_L_T</t>
+  </si>
+  <si>
+    <t>AD_L_2_ED_L_T</t>
+  </si>
+  <si>
+    <t>IceF_P_2_SD_P</t>
+  </si>
+  <si>
+    <t>SD_P_2_IceF_P</t>
+  </si>
+  <si>
+    <t>IceD_P_2_SD_P</t>
+  </si>
+  <si>
+    <t>SD_P_2_IceD_P</t>
+  </si>
+  <si>
+    <t># IceD &lt;-&gt; SD</t>
+  </si>
+  <si>
+    <t># IceF &lt;-&gt; SD</t>
+  </si>
+  <si>
+    <t># ED &lt;-&gt; AD</t>
+  </si>
+  <si>
+    <t># SD &lt;-&gt; HD</t>
+  </si>
+  <si>
+    <t># ED &lt;-&gt; SD</t>
+  </si>
+  <si>
+    <t># ED &lt;-&gt; FEAM</t>
+  </si>
+  <si>
+    <t># ED &lt;-&gt; MAP</t>
+  </si>
+  <si>
+    <t># ED &lt;-&gt; HD</t>
+  </si>
+  <si>
+    <t>Jacobian_ED_SD_HD</t>
+  </si>
+  <si>
+    <t>Jacobian_pivot</t>
+  </si>
+  <si>
+    <t>Jac_u_indx</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>u_ED_PlatformPtMesh</t>
+  </si>
+  <si>
+    <t>u_ED_PlatformPtMesh_2</t>
+  </si>
+  <si>
+    <t>u_SD_TPMesh</t>
+  </si>
+  <si>
+    <t>u_SD_LMesh</t>
+  </si>
+  <si>
+    <t>u_SD_LMesh_2</t>
+  </si>
+  <si>
+    <t>u_HD_M_LumpedMesh</t>
+  </si>
+  <si>
+    <t>u_HD_M_DistribMesh</t>
+  </si>
+  <si>
+    <t>u_HD_Mesh</t>
+  </si>
+  <si>
+    <t>"Map ElastoDyn PlatformPtMesh to HydroDyn WAMIT Point"</t>
+  </si>
+  <si>
+    <t>"Map HydroDyn WAMIT Point (from either y%Mesh or y%AllHydroOrigin) to ElastoDyn PlatformPtMesh"</t>
+  </si>
+  <si>
+    <t>"Map ElastoDyn PlatformPtMesh to HydroDyn Morison Point"</t>
+  </si>
+  <si>
+    <t>"Map HydroDyn Morison Point to ElastoDyn PlatformPtMesh"</t>
+  </si>
+  <si>
+    <t>"Map ElastoDyn PlatformPtMesh to HydroDyn Morison Line2"</t>
+  </si>
+  <si>
+    <t>"Map HydroDyn Morison Line2 to ElastoDyn PlatformPtMesh"</t>
+  </si>
+  <si>
+    <t>"Map ElastoDyn PlatformPtMesh to MAP point mesh"</t>
+  </si>
+  <si>
+    <t>"Map MAP point mesh to ElastoDyn PlatformPtMesh"</t>
+  </si>
+  <si>
+    <t>"Map ElastoDyn PlatformPtMesh to FEAM point mesh"</t>
+  </si>
+  <si>
+    <t>"Map FEAM point mesh to ElastoDyn PlatformPtMesh"</t>
+  </si>
+  <si>
+    <t>"Map ElastoDyn PlatformPtMesh to SubDyn transition-piece point mesh"</t>
+  </si>
+  <si>
+    <t>"Map SubDyn transition-piece point mesh to ElastoDyn PlatformPtMesh"</t>
+  </si>
+  <si>
+    <t>"Map SubDyn y2Mesh Point to HydroDyn Morison Point"</t>
+  </si>
+  <si>
+    <t>"Map HydroDyn Morison Point to SubDyn y2Mesh Point"</t>
+  </si>
+  <si>
+    <t>"Map SubDyn y2Mesh Point to HydroDyn Morison Line2"</t>
+  </si>
+  <si>
+    <t>"Map HydroDyn Morison Line2 to SubDyn y2Mesh Point"</t>
+  </si>
+  <si>
+    <t>"Map ElastoDyn BladeLn2Mesh line2 mesh to AeroDyn InputMarkers line2 mesh"</t>
+  </si>
+  <si>
+    <t>"Map AeroDyn InputMarkers line2 mesh to ElastoDyn BladeLn2Mesh line2 mesh"</t>
+  </si>
+  <si>
+    <t>"Map ElastoDyn TowerLn2Mesh line2 mesh to AeroDyn Twr_InputMarkers line2 mesh"</t>
+  </si>
+  <si>
+    <t>"Map AeroDyn Twr_InputMarkers line2 mesh to ElastoDyn TowerLn2Mesh line2 mesh"</t>
+  </si>
+  <si>
+    <t>"Map IceFloe point mesh to SubDyn y2Mesh point mesh"</t>
+  </si>
+  <si>
+    <t>"Map SubDyn y2Mesh point mesh to IceFloe point mesh"</t>
+  </si>
+  <si>
+    <t>"Map IceDyn point mesh to SubDyn y2Mesh point mesh"</t>
+  </si>
+  <si>
+    <t>"Map SubDyn y2Mesh point mesh to IceDyn point mesh"</t>
+  </si>
+  <si>
+    <t>"Stored Jacobian in ED_HD_InputOutputSolve, ED_SD_InputOutputSolve, or ED_SD_HD_InputOutputSolve"</t>
+  </si>
+  <si>
+    <t>"Pivot array used for LU decomposition of Jacobian_ED_SD_HD"</t>
+  </si>
+  <si>
+    <t>"matrix to help fill/pack the u vector in computing the jacobian"</t>
+  </si>
+  <si>
+    <t>"copy of ED input mesh"</t>
+  </si>
+  <si>
+    <t>"copy of SD input mesh"</t>
+  </si>
+  <si>
+    <t>"copy of HD input mesh"</t>
+  </si>
+  <si>
+    <t>"copy of ED input mesh (used only for temporary storage)"</t>
+  </si>
+  <si>
+    <t>"copy of SD input mesh (used only for temporary storage)"</t>
+  </si>
+  <si>
+    <t># Stored Jacobians:</t>
+  </si>
+  <si>
+    <t># Temporary copies of input meshes (stored here so we don't have to keep allocating/destroying them)</t>
   </si>
 </sst>
 </file>
@@ -6346,7 +6610,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="640">
+  <dxfs count="672">
     <dxf>
       <font>
         <u val="none"/>
@@ -11703,19 +11967,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <u val="none"/>
       </font>
@@ -11771,6 +12022,291 @@
         <u val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2"/>
@@ -12701,10 +13237,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="631" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="671" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="630" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="670" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12714,20 +13250,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="11" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" style="27" customWidth="1"/>
     <col min="2" max="2" width="32.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" style="27" bestFit="1" customWidth="1"/>
@@ -12974,7 +13510,7 @@
         <v>1876</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>26</v>
@@ -13003,7 +13539,7 @@
         <v>1877</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="G34" s="27" t="s">
         <v>26</v>
@@ -13032,7 +13568,7 @@
         <v>1878</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="G35" s="27" t="s">
         <v>26</v>
@@ -13356,6 +13892,9 @@
       <c r="E48" s="27" t="s">
         <v>1876</v>
       </c>
+      <c r="F48" s="27" t="s">
+        <v>1989</v>
+      </c>
       <c r="G48" s="27" t="s">
         <v>26</v>
       </c>
@@ -13382,6 +13921,9 @@
       <c r="E49" s="27" t="s">
         <v>1877</v>
       </c>
+      <c r="F49" s="27" t="s">
+        <v>1989</v>
+      </c>
       <c r="G49" s="27" t="s">
         <v>26</v>
       </c>
@@ -13408,6 +13950,9 @@
       <c r="E50" s="27" t="s">
         <v>1878</v>
       </c>
+      <c r="F50" s="27" t="s">
+        <v>1989</v>
+      </c>
       <c r="G50" s="27" t="s">
         <v>26</v>
       </c>
@@ -13434,6 +13979,9 @@
       <c r="E51" s="27" t="s">
         <v>1879</v>
       </c>
+      <c r="F51" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G51" s="27" t="s">
         <v>26</v>
       </c>
@@ -13460,6 +14008,9 @@
       <c r="E52" s="27" t="s">
         <v>1880</v>
       </c>
+      <c r="F52" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G52" s="27" t="s">
         <v>26</v>
       </c>
@@ -13486,6 +14037,9 @@
       <c r="E53" s="27" t="s">
         <v>1881</v>
       </c>
+      <c r="F53" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G53" s="27" t="s">
         <v>26</v>
       </c>
@@ -13512,6 +14066,9 @@
       <c r="E54" s="27" t="s">
         <v>1882</v>
       </c>
+      <c r="F54" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G54" s="27" t="s">
         <v>26</v>
       </c>
@@ -13524,7 +14081,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>27</v>
@@ -13538,6 +14095,9 @@
       <c r="E55" s="27" t="s">
         <v>1883</v>
       </c>
+      <c r="F55" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G55" s="27" t="s">
         <v>26</v>
       </c>
@@ -13550,7 +14110,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>27</v>
@@ -13564,6 +14124,9 @@
       <c r="E56" s="27" t="s">
         <v>1884</v>
       </c>
+      <c r="F56" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G56" s="27" t="s">
         <v>26</v>
       </c>
@@ -13576,7 +14139,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>27</v>
@@ -13590,6 +14153,9 @@
       <c r="E57" s="27" t="s">
         <v>1885</v>
       </c>
+      <c r="F57" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G57" s="27" t="s">
         <v>26</v>
       </c>
@@ -13615,6 +14181,9 @@
       </c>
       <c r="E58" s="27" t="s">
         <v>1886</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G58" s="27" t="s">
         <v>26</v>
@@ -13735,6 +14304,9 @@
       <c r="E65" s="27" t="s">
         <v>1876</v>
       </c>
+      <c r="F65" s="27" t="s">
+        <v>1989</v>
+      </c>
       <c r="G65" s="27" t="s">
         <v>26</v>
       </c>
@@ -13761,6 +14333,9 @@
       <c r="E66" s="27" t="s">
         <v>1877</v>
       </c>
+      <c r="F66" s="27" t="s">
+        <v>1989</v>
+      </c>
       <c r="G66" s="27" t="s">
         <v>26</v>
       </c>
@@ -13787,6 +14362,9 @@
       <c r="E67" s="27" t="s">
         <v>1878</v>
       </c>
+      <c r="F67" s="27" t="s">
+        <v>1989</v>
+      </c>
       <c r="G67" s="27" t="s">
         <v>26</v>
       </c>
@@ -13813,6 +14391,9 @@
       <c r="E68" s="27" t="s">
         <v>1879</v>
       </c>
+      <c r="F68" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G68" s="27" t="s">
         <v>26</v>
       </c>
@@ -13839,6 +14420,9 @@
       <c r="E69" s="27" t="s">
         <v>1880</v>
       </c>
+      <c r="F69" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G69" s="27" t="s">
         <v>26</v>
       </c>
@@ -13865,6 +14449,9 @@
       <c r="E70" s="27" t="s">
         <v>1881</v>
       </c>
+      <c r="F70" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G70" s="27" t="s">
         <v>26</v>
       </c>
@@ -13891,6 +14478,9 @@
       <c r="E71" s="27" t="s">
         <v>1882</v>
       </c>
+      <c r="F71" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G71" s="27" t="s">
         <v>26</v>
       </c>
@@ -13903,7 +14493,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>27</v>
@@ -13917,6 +14507,9 @@
       <c r="E72" s="27" t="s">
         <v>1883</v>
       </c>
+      <c r="F72" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G72" s="27" t="s">
         <v>26</v>
       </c>
@@ -13929,7 +14522,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>27</v>
@@ -13943,6 +14536,9 @@
       <c r="E73" s="27" t="s">
         <v>1884</v>
       </c>
+      <c r="F73" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G73" s="27" t="s">
         <v>26</v>
       </c>
@@ -13955,7 +14551,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B74" s="27" t="s">
         <v>27</v>
@@ -13969,6 +14565,9 @@
       <c r="E74" s="27" t="s">
         <v>1885</v>
       </c>
+      <c r="F74" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G74" s="27" t="s">
         <v>26</v>
       </c>
@@ -13995,6 +14594,9 @@
       <c r="E75" s="27" t="s">
         <v>1886</v>
       </c>
+      <c r="F75" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G75" s="27" t="s">
         <v>26</v>
       </c>
@@ -14061,6 +14663,35 @@
       </c>
       <c r="I77" s="28" t="s">
         <v>1919</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>1991</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -14085,6 +14716,9 @@
       <c r="E81" s="27" t="s">
         <v>1876</v>
       </c>
+      <c r="F81" s="27" t="s">
+        <v>1989</v>
+      </c>
       <c r="G81" s="27" t="s">
         <v>26</v>
       </c>
@@ -14111,6 +14745,9 @@
       <c r="E82" s="27" t="s">
         <v>1877</v>
       </c>
+      <c r="F82" s="27" t="s">
+        <v>1989</v>
+      </c>
       <c r="G82" s="27" t="s">
         <v>26</v>
       </c>
@@ -14137,6 +14774,9 @@
       <c r="E83" s="27" t="s">
         <v>1878</v>
       </c>
+      <c r="F83" s="27" t="s">
+        <v>1989</v>
+      </c>
       <c r="G83" s="27" t="s">
         <v>26</v>
       </c>
@@ -14163,6 +14803,9 @@
       <c r="E84" s="27" t="s">
         <v>1879</v>
       </c>
+      <c r="F84" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G84" s="27" t="s">
         <v>26</v>
       </c>
@@ -14189,6 +14832,9 @@
       <c r="E85" s="27" t="s">
         <v>1880</v>
       </c>
+      <c r="F85" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G85" s="27" t="s">
         <v>26</v>
       </c>
@@ -14215,6 +14861,9 @@
       <c r="E86" s="27" t="s">
         <v>1881</v>
       </c>
+      <c r="F86" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G86" s="27" t="s">
         <v>26</v>
       </c>
@@ -14241,6 +14890,9 @@
       <c r="E87" s="27" t="s">
         <v>1882</v>
       </c>
+      <c r="F87" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G87" s="27" t="s">
         <v>26</v>
       </c>
@@ -14253,7 +14905,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B88" s="27" t="s">
         <v>27</v>
@@ -14267,6 +14919,9 @@
       <c r="E88" s="27" t="s">
         <v>1883</v>
       </c>
+      <c r="F88" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G88" s="27" t="s">
         <v>26</v>
       </c>
@@ -14279,7 +14934,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B89" s="27" t="s">
         <v>27</v>
@@ -14293,6 +14948,9 @@
       <c r="E89" s="27" t="s">
         <v>1884</v>
       </c>
+      <c r="F89" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G89" s="27" t="s">
         <v>26</v>
       </c>
@@ -14305,7 +14963,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B90" s="27" t="s">
         <v>27</v>
@@ -14319,6 +14977,9 @@
       <c r="E90" s="27" t="s">
         <v>1885</v>
       </c>
+      <c r="F90" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G90" s="27" t="s">
         <v>26</v>
       </c>
@@ -14345,6 +15006,9 @@
       <c r="E91" s="27" t="s">
         <v>1886</v>
       </c>
+      <c r="F91" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G91" s="27" t="s">
         <v>26</v>
       </c>
@@ -14415,11 +15079,11 @@
     </row>
     <row r="95" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>1922</v>
+        <v>1986</v>
       </c>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
         <v>22</v>
       </c>
@@ -14427,13 +15091,16 @@
         <v>1867</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>1923</v>
+        <v>1987</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>1911</v>
+        <v>34</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>1876</v>
+        <v>52</v>
+      </c>
+      <c r="F96" s="27">
+        <v>3</v>
       </c>
       <c r="G96" s="27" t="s">
         <v>26</v>
@@ -14442,76 +15109,33 @@
         <v>26</v>
       </c>
       <c r="I96" s="28" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>1912</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G97" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I97" s="28" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G98" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I98" s="28" t="s">
-        <v>1891</v>
-      </c>
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I98" s="12"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>27</v>
+        <v>1867</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>27</v>
+        <v>1923</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>1879</v>
+        <v>1876</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>26</v>
@@ -14520,7 +15144,7 @@
         <v>26</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -14534,10 +15158,13 @@
         <v>27</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>1880</v>
+        <v>1877</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G100" s="27" t="s">
         <v>26</v>
@@ -14546,7 +15173,7 @@
         <v>26</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -14560,10 +15187,13 @@
         <v>27</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>1881</v>
+        <v>1878</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G101" s="27" t="s">
         <v>26</v>
@@ -14572,7 +15202,7 @@
         <v>26</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -14586,10 +15216,13 @@
         <v>27</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>1882</v>
+        <v>1879</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G102" s="27" t="s">
         <v>26</v>
@@ -14598,7 +15231,7 @@
         <v>26</v>
       </c>
       <c r="I102" s="28" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -14612,10 +15245,13 @@
         <v>27</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>1883</v>
+        <v>1880</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G103" s="27" t="s">
         <v>26</v>
@@ -14624,7 +15260,7 @@
         <v>26</v>
       </c>
       <c r="I103" s="28" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -14638,10 +15274,13 @@
         <v>27</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>1884</v>
+        <v>1881</v>
+      </c>
+      <c r="F104" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G104" s="27" t="s">
         <v>26</v>
@@ -14650,7 +15289,7 @@
         <v>26</v>
       </c>
       <c r="I104" s="28" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -14664,10 +15303,13 @@
         <v>27</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>1885</v>
+        <v>1882</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G105" s="27" t="s">
         <v>26</v>
@@ -14676,12 +15318,12 @@
         <v>26</v>
       </c>
       <c r="I105" s="28" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B106" s="27" t="s">
         <v>27</v>
@@ -14690,10 +15332,13 @@
         <v>27</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>1886</v>
+        <v>1883</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G106" s="27" t="s">
         <v>26</v>
@@ -14702,12 +15347,12 @@
         <v>26</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>27</v>
@@ -14716,13 +15361,13 @@
         <v>27</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="F107" s="27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G107" s="27" t="s">
         <v>26</v>
@@ -14731,12 +15376,12 @@
         <v>26</v>
       </c>
       <c r="I107" s="28" t="s">
-        <v>1918</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B108" s="27" t="s">
         <v>27</v>
@@ -14745,45 +15390,100 @@
         <v>27</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>44</v>
+        <v>1913</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="F108" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F110" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G108" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I108" s="28" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>1945</v>
-      </c>
-      <c r="I110" s="12"/>
+      <c r="G110" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" s="28" t="s">
+        <v>1918</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>1867</v>
+        <v>27</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>1946</v>
+        <v>27</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>1947</v>
+        <v>44</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>1876</v>
+        <v>1888</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="G111" s="27" t="s">
         <v>26</v>
@@ -14792,76 +15492,33 @@
         <v>26</v>
       </c>
       <c r="I111" s="28" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>1948</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G112" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I112" s="28" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G113" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H113" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I113" s="28" t="s">
-        <v>1891</v>
-      </c>
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I113" s="12"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>27</v>
+        <v>1867</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>27</v>
+        <v>1946</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>1879</v>
+        <v>1876</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G114" s="27" t="s">
         <v>26</v>
@@ -14870,7 +15527,7 @@
         <v>26</v>
       </c>
       <c r="I114" s="28" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -14884,10 +15541,13 @@
         <v>27</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>1880</v>
+        <v>1877</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G115" s="27" t="s">
         <v>26</v>
@@ -14896,7 +15556,7 @@
         <v>26</v>
       </c>
       <c r="I115" s="28" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -14910,10 +15570,13 @@
         <v>27</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>1881</v>
+        <v>1878</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G116" s="27" t="s">
         <v>26</v>
@@ -14922,7 +15585,7 @@
         <v>26</v>
       </c>
       <c r="I116" s="28" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -14936,10 +15599,13 @@
         <v>27</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>1882</v>
+        <v>1879</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G117" s="27" t="s">
         <v>26</v>
@@ -14948,7 +15614,7 @@
         <v>26</v>
       </c>
       <c r="I117" s="28" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -14962,10 +15628,13 @@
         <v>27</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>1883</v>
+        <v>1880</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G118" s="27" t="s">
         <v>26</v>
@@ -14974,7 +15643,7 @@
         <v>26</v>
       </c>
       <c r="I118" s="28" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -14988,10 +15657,13 @@
         <v>27</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>1884</v>
+        <v>1881</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G119" s="27" t="s">
         <v>26</v>
@@ -15000,7 +15672,7 @@
         <v>26</v>
       </c>
       <c r="I119" s="28" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -15014,10 +15686,13 @@
         <v>27</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>1885</v>
+        <v>1882</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G120" s="27" t="s">
         <v>26</v>
@@ -15026,12 +15701,12 @@
         <v>26</v>
       </c>
       <c r="I120" s="28" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>27</v>
@@ -15040,10 +15715,13 @@
         <v>27</v>
       </c>
       <c r="D121" s="27" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>1886</v>
+        <v>1883</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G121" s="27" t="s">
         <v>26</v>
@@ -15052,12 +15730,12 @@
         <v>26</v>
       </c>
       <c r="I121" s="28" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B122" s="27" t="s">
         <v>27</v>
@@ -15066,13 +15744,13 @@
         <v>27</v>
       </c>
       <c r="D122" s="27" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="F122" s="27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G122" s="27" t="s">
         <v>26</v>
@@ -15081,12 +15759,12 @@
         <v>26</v>
       </c>
       <c r="I122" s="28" t="s">
-        <v>1918</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B123" s="27" t="s">
         <v>27</v>
@@ -15095,45 +15773,100 @@
         <v>27</v>
       </c>
       <c r="D123" s="27" t="s">
-        <v>44</v>
+        <v>1949</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="F123" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" s="28" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="27" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E124" s="27" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" s="28" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E125" s="27" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F125" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G123" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H123" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I123" s="28" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>1954</v>
-      </c>
-      <c r="I125" s="12"/>
+      <c r="G125" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" s="28" t="s">
+        <v>1918</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>1867</v>
+        <v>27</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>1955</v>
+        <v>27</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>1977</v>
+        <v>44</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>1876</v>
+        <v>1888</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="G126" s="27" t="s">
         <v>26</v>
@@ -15142,76 +15875,33 @@
         <v>26</v>
       </c>
       <c r="I126" s="28" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" s="27" t="s">
-        <v>1978</v>
-      </c>
-      <c r="E127" s="27" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I127" s="28" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B128" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="27" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E128" s="27" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G128" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H128" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I128" s="28" t="s">
-        <v>1891</v>
-      </c>
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="I128" s="12"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>27</v>
+        <v>1867</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>27</v>
+        <v>1955</v>
       </c>
       <c r="D129" s="27" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="E129" s="27" t="s">
-        <v>1879</v>
+        <v>1876</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G129" s="27" t="s">
         <v>26</v>
@@ -15220,7 +15910,7 @@
         <v>26</v>
       </c>
       <c r="I129" s="28" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -15234,10 +15924,13 @@
         <v>27</v>
       </c>
       <c r="D130" s="27" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="E130" s="27" t="s">
-        <v>1880</v>
+        <v>1877</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G130" s="27" t="s">
         <v>26</v>
@@ -15246,7 +15939,7 @@
         <v>26</v>
       </c>
       <c r="I130" s="28" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -15260,10 +15953,13 @@
         <v>27</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>1881</v>
+        <v>1878</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G131" s="27" t="s">
         <v>26</v>
@@ -15272,7 +15968,7 @@
         <v>26</v>
       </c>
       <c r="I131" s="28" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -15286,10 +15982,13 @@
         <v>27</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>1882</v>
+        <v>1879</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G132" s="27" t="s">
         <v>26</v>
@@ -15298,7 +15997,7 @@
         <v>26</v>
       </c>
       <c r="I132" s="28" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -15312,10 +16011,13 @@
         <v>27</v>
       </c>
       <c r="D133" s="27" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="E133" s="27" t="s">
-        <v>1883</v>
+        <v>1880</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G133" s="27" t="s">
         <v>26</v>
@@ -15324,7 +16026,7 @@
         <v>26</v>
       </c>
       <c r="I133" s="28" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -15338,10 +16040,13 @@
         <v>27</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="E134" s="27" t="s">
-        <v>1884</v>
+        <v>1881</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G134" s="27" t="s">
         <v>26</v>
@@ -15350,7 +16055,7 @@
         <v>26</v>
       </c>
       <c r="I134" s="28" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -15364,10 +16069,13 @@
         <v>27</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>1885</v>
+        <v>1882</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G135" s="27" t="s">
         <v>26</v>
@@ -15376,12 +16084,12 @@
         <v>26</v>
       </c>
       <c r="I135" s="28" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B136" s="27" t="s">
         <v>27</v>
@@ -15390,10 +16098,13 @@
         <v>27</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>1886</v>
+        <v>1883</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G136" s="27" t="s">
         <v>26</v>
@@ -15402,12 +16113,12 @@
         <v>26</v>
       </c>
       <c r="I136" s="28" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B137" s="27" t="s">
         <v>27</v>
@@ -15416,13 +16127,13 @@
         <v>27</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="E137" s="27" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="F137" s="27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G137" s="27" t="s">
         <v>26</v>
@@ -15431,12 +16142,12 @@
         <v>26</v>
       </c>
       <c r="I137" s="28" t="s">
-        <v>1918</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B138" s="27" t="s">
         <v>27</v>
@@ -15445,45 +16156,100 @@
         <v>27</v>
       </c>
       <c r="D138" s="27" t="s">
-        <v>44</v>
+        <v>1979</v>
       </c>
       <c r="E138" s="27" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="F138" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H138" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" s="28" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" s="27" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H139" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" s="28" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F140" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G138" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H138" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I138" s="28" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>1956</v>
-      </c>
-      <c r="I140" s="12"/>
+      <c r="G140" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H140" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I140" s="28" t="s">
+        <v>1918</v>
+      </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>1867</v>
+        <v>27</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>1984</v>
+        <v>27</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>1957</v>
+        <v>44</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>1876</v>
+        <v>1888</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="G141" s="27" t="s">
         <v>26</v>
@@ -15492,76 +16258,33 @@
         <v>26</v>
       </c>
       <c r="I141" s="28" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>1958</v>
-      </c>
-      <c r="E142" s="27" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G142" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H142" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I142" s="28" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G143" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H143" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I143" s="28" t="s">
-        <v>1891</v>
-      </c>
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I143" s="12"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>27</v>
+        <v>1867</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>27</v>
+        <v>1984</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>1879</v>
+        <v>1876</v>
+      </c>
+      <c r="F144" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G144" s="27" t="s">
         <v>26</v>
@@ -15570,7 +16293,7 @@
         <v>26</v>
       </c>
       <c r="I144" s="28" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -15584,10 +16307,13 @@
         <v>27</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>1880</v>
+        <v>1877</v>
+      </c>
+      <c r="F145" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G145" s="27" t="s">
         <v>26</v>
@@ -15596,7 +16322,7 @@
         <v>26</v>
       </c>
       <c r="I145" s="28" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -15610,10 +16336,13 @@
         <v>27</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="E146" s="27" t="s">
-        <v>1881</v>
+        <v>1878</v>
+      </c>
+      <c r="F146" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G146" s="27" t="s">
         <v>26</v>
@@ -15622,7 +16351,7 @@
         <v>26</v>
       </c>
       <c r="I146" s="28" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -15636,10 +16365,13 @@
         <v>27</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>1882</v>
+        <v>1879</v>
+      </c>
+      <c r="F147" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G147" s="27" t="s">
         <v>26</v>
@@ -15648,7 +16380,7 @@
         <v>26</v>
       </c>
       <c r="I147" s="28" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -15662,10 +16394,13 @@
         <v>27</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>1883</v>
+        <v>1880</v>
+      </c>
+      <c r="F148" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G148" s="27" t="s">
         <v>26</v>
@@ -15674,7 +16409,7 @@
         <v>26</v>
       </c>
       <c r="I148" s="28" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -15688,10 +16423,13 @@
         <v>27</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>1884</v>
+        <v>1881</v>
+      </c>
+      <c r="F149" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G149" s="27" t="s">
         <v>26</v>
@@ -15700,7 +16438,7 @@
         <v>26</v>
       </c>
       <c r="I149" s="28" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -15714,10 +16452,13 @@
         <v>27</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>1885</v>
+        <v>1882</v>
+      </c>
+      <c r="F150" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G150" s="27" t="s">
         <v>26</v>
@@ -15726,12 +16467,12 @@
         <v>26</v>
       </c>
       <c r="I150" s="28" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B151" s="27" t="s">
         <v>27</v>
@@ -15740,10 +16481,13 @@
         <v>27</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>1886</v>
+        <v>1883</v>
+      </c>
+      <c r="F151" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G151" s="27" t="s">
         <v>26</v>
@@ -15752,12 +16496,12 @@
         <v>26</v>
       </c>
       <c r="I151" s="28" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B152" s="27" t="s">
         <v>27</v>
@@ -15766,13 +16510,13 @@
         <v>27</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="E152" s="27" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="F152" s="27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G152" s="27" t="s">
         <v>26</v>
@@ -15781,12 +16525,12 @@
         <v>26</v>
       </c>
       <c r="I152" s="28" t="s">
-        <v>1918</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B153" s="27" t="s">
         <v>27</v>
@@ -15795,45 +16539,100 @@
         <v>27</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>44</v>
+        <v>1959</v>
       </c>
       <c r="E153" s="27" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="F153" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H153" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" s="28" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E154" s="27" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F154" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H154" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" s="28" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" s="27" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E155" s="27" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F155" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G153" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H153" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I153" s="28" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>1964</v>
-      </c>
-      <c r="I155" s="12"/>
+      <c r="G155" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H155" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I155" s="28" t="s">
+        <v>1918</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>1867</v>
+        <v>27</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>1965</v>
+        <v>27</v>
       </c>
       <c r="D156" s="27" t="s">
-        <v>1966</v>
+        <v>44</v>
       </c>
       <c r="E156" s="27" t="s">
-        <v>1876</v>
+        <v>1888</v>
+      </c>
+      <c r="F156" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="G156" s="27" t="s">
         <v>26</v>
@@ -15842,76 +16641,33 @@
         <v>26</v>
       </c>
       <c r="I156" s="28" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D157" s="27" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E157" s="27" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G157" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H157" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I157" s="28" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B158" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D158" s="27" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E158" s="27" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G158" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H158" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I158" s="28" t="s">
-        <v>1891</v>
-      </c>
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="I158" s="12"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>27</v>
+        <v>1867</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>27</v>
+        <v>1965</v>
       </c>
       <c r="D159" s="27" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="E159" s="27" t="s">
-        <v>1879</v>
+        <v>1876</v>
+      </c>
+      <c r="F159" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G159" s="27" t="s">
         <v>26</v>
@@ -15920,7 +16676,7 @@
         <v>26</v>
       </c>
       <c r="I159" s="28" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -15934,10 +16690,13 @@
         <v>27</v>
       </c>
       <c r="D160" s="27" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="E160" s="27" t="s">
-        <v>1880</v>
+        <v>1877</v>
+      </c>
+      <c r="F160" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G160" s="27" t="s">
         <v>26</v>
@@ -15946,7 +16705,7 @@
         <v>26</v>
       </c>
       <c r="I160" s="28" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -15960,10 +16719,13 @@
         <v>27</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="E161" s="27" t="s">
-        <v>1881</v>
+        <v>1878</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>1989</v>
       </c>
       <c r="G161" s="27" t="s">
         <v>26</v>
@@ -15972,7 +16734,7 @@
         <v>26</v>
       </c>
       <c r="I161" s="28" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -15986,10 +16748,13 @@
         <v>27</v>
       </c>
       <c r="D162" s="27" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>1882</v>
+        <v>1879</v>
+      </c>
+      <c r="F162" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G162" s="27" t="s">
         <v>26</v>
@@ -15998,7 +16763,7 @@
         <v>26</v>
       </c>
       <c r="I162" s="28" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -16012,10 +16777,13 @@
         <v>27</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>1883</v>
+        <v>1880</v>
+      </c>
+      <c r="F163" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G163" s="27" t="s">
         <v>26</v>
@@ -16024,7 +16792,7 @@
         <v>26</v>
       </c>
       <c r="I163" s="28" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -16038,10 +16806,13 @@
         <v>27</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="E164" s="27" t="s">
-        <v>1884</v>
+        <v>1881</v>
+      </c>
+      <c r="F164" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G164" s="27" t="s">
         <v>26</v>
@@ -16050,7 +16821,7 @@
         <v>26</v>
       </c>
       <c r="I164" s="28" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -16064,10 +16835,13 @@
         <v>27</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>1885</v>
+        <v>1882</v>
+      </c>
+      <c r="F165" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G165" s="27" t="s">
         <v>26</v>
@@ -16076,12 +16850,12 @@
         <v>26</v>
       </c>
       <c r="I165" s="28" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B166" s="27" t="s">
         <v>27</v>
@@ -16090,10 +16864,13 @@
         <v>27</v>
       </c>
       <c r="D166" s="27" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>1886</v>
+        <v>1883</v>
+      </c>
+      <c r="F166" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G166" s="27" t="s">
         <v>26</v>
@@ -16102,12 +16879,12 @@
         <v>26</v>
       </c>
       <c r="I166" s="28" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B167" s="27" t="s">
         <v>27</v>
@@ -16116,13 +16893,13 @@
         <v>27</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="E167" s="27" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="F167" s="27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G167" s="27" t="s">
         <v>26</v>
@@ -16131,12 +16908,12 @@
         <v>26</v>
       </c>
       <c r="I167" s="28" t="s">
-        <v>1918</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B168" s="27" t="s">
         <v>27</v>
@@ -16145,159 +16922,1421 @@
         <v>27</v>
       </c>
       <c r="D168" s="27" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E168" s="27" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F168" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G168" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H168" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I168" s="28" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E169" s="27" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F169" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G169" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H169" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I169" s="28" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E170" s="27" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H170" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I170" s="28" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E168" s="27" t="s">
+      <c r="E171" s="27" t="s">
         <v>1888</v>
       </c>
-      <c r="F168" s="27" t="s">
+      <c r="F171" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G168" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H168" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I168" s="28" t="s">
+      <c r="G171" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H171" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I171" s="28" t="s">
         <v>1919</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>1993</v>
+      </c>
+      <c r="I173" s="12"/>
+    </row>
+    <row r="174" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="27" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C176" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D176" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E176" s="27" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F176" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H176" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I176" s="28" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A177" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D177" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E177" s="27" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F177" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G177" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H177" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I177" s="28" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D178" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E178" s="27" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F178" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G178" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H178" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I178" s="28" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D179" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E179" s="27" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F179" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G179" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H179" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I179" s="28" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E180" s="27" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F180" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G180" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H180" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I180" s="28" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E181" s="27" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F181" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G181" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H181" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I181" s="28" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E183" s="27" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F183" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G183" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H183" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I183" s="28" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A184" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E184" s="27" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F184" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G184" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H184" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I184" s="28" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E186" s="27" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F186" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G186" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H186" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I186" s="28" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B187" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E187" s="27" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F187" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G187" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H187" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I187" s="28" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B189" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E189" s="27" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F189" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G189" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H189" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I189" s="28" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A190" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D190" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E190" s="27" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F190" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G190" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H190" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I190" s="28" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D192" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E192" s="27" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F192" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G192" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H192" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I192" s="28" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D193" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E193" s="27" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F193" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G193" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H193" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I193" s="28" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D194" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E194" s="27" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F194" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G194" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H194" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I194" s="28" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E195" s="27" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F195" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G195" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H195" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I195" s="28" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D197" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E197" s="27" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F197" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G197" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H197" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I197" s="28" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B198" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D198" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E198" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F198" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G198" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H198" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I198" s="28" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D199" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E199" s="27" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F199" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G199" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H199" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I199" s="28" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D200" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E200" s="27" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F200" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G200" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H200" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I200" s="28" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="I201" s="12"/>
+    </row>
+    <row r="202" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B202" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C202" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D202" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E202" s="27" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F202" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G202" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H202" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I202" s="28" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B203" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C203" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D203" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E203" s="27" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F203" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G203" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H203" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I203" s="28" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="I204" s="12"/>
+    </row>
+    <row r="205" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C205" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D205" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E205" s="27" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F205" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G205" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H205" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I205" s="28" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D206" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E206" s="27" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F206" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G206" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H206" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I206" s="28" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="I207" s="12"/>
+    </row>
+    <row r="208" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A208" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C208" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D208" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" s="27" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F208" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G208" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H208" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I208" s="28" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D209" s="27" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E209" s="27" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F209" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G209" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H209" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I209" s="28" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D210" s="27" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E210" s="27" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F210" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G210" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H210" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I210" s="28" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="I211" s="12"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D212" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E212" s="27" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F212" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G212" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H212" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I212" s="28" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B213" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D213" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E213" s="27" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F213" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G213" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H213" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I213" s="28" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B214" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C214" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D214" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E214" s="27" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F214" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G214" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H214" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I214" s="28" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D215" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E215" s="27" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F215" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G215" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H215" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I215" s="28" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B216" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D216" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E216" s="27" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F216" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G216" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H216" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I216" s="28" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C217" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D217" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E217" s="27" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F217" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G217" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H217" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I217" s="28" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C218" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D218" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E218" s="27" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F218" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G218" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H218" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I218" s="28" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C219" s="27" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D219" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E219" s="27" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F219" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G219" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H219" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I219" s="28" t="s">
+        <v>2069</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A11">
-    <cfRule type="containsText" dxfId="629" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="669" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="628" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="668" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="containsText" dxfId="627" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="667" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A13)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="626" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="666" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A13,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="625" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="665" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="624" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="664" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="623" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="663" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="622" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="662" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="621" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="661" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="620" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="660" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="619" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="659" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="618" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="658" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="617" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="657" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="616" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="656" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A30,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="615" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="655" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="614" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="654" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="containsText" dxfId="613" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="653" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A64)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="612" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="652" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A64,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="containsText" dxfId="651" priority="37" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="650" priority="38" operator="beginsWith" text="#">
+      <formula>LEFT(A98,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="containsText" dxfId="649" priority="35" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="648" priority="36" operator="beginsWith" text="#">
+      <formula>LEFT(A31,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="containsText" dxfId="647" priority="33" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="646" priority="34" operator="beginsWith" text="#">
+      <formula>LEFT(A32,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="containsText" dxfId="645" priority="31" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A80)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="644" priority="32" operator="beginsWith" text="#">
+      <formula>LEFT(A80,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="containsText" dxfId="643" priority="29" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A113)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="642" priority="30" operator="beginsWith" text="#">
+      <formula>LEFT(A113,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="containsText" dxfId="641" priority="27" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A128)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="640" priority="28" operator="beginsWith" text="#">
+      <formula>LEFT(A128,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
+    <cfRule type="containsText" dxfId="639" priority="25" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A143)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="638" priority="26" operator="beginsWith" text="#">
+      <formula>LEFT(A143,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158">
+    <cfRule type="containsText" dxfId="637" priority="23" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A158)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="636" priority="24" operator="beginsWith" text="#">
+      <formula>LEFT(A158,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="containsText" dxfId="611" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="635" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A95)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="610" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="634" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A95,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="609" priority="13" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="608" priority="14" operator="beginsWith" text="#">
-      <formula>LEFT(A31,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="containsText" dxfId="633" priority="19" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A173)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="632" priority="20" operator="beginsWith" text="#">
+      <formula>LEFT(A173,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="607" priority="11" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="606" priority="12" operator="beginsWith" text="#">
-      <formula>LEFT(A32,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A182">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A182)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="34" priority="18" operator="beginsWith" text="#">
+      <formula>LEFT(A182,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="containsText" dxfId="605" priority="9" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A80)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="604" priority="10" operator="beginsWith" text="#">
-      <formula>LEFT(A80,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A185">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A185)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="30" priority="16" operator="beginsWith" text="#">
+      <formula>LEFT(A185,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="containsText" dxfId="603" priority="7" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A110)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="602" priority="8" operator="beginsWith" text="#">
-      <formula>LEFT(A110,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A188">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A188)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="26" priority="14" operator="beginsWith" text="#">
+      <formula>LEFT(A188,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="containsText" dxfId="601" priority="5" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A125)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="600" priority="6" operator="beginsWith" text="#">
-      <formula>LEFT(A125,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A191">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A191)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="22" priority="12" operator="beginsWith" text="#">
+      <formula>LEFT(A191,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A140">
-    <cfRule type="containsText" dxfId="599" priority="3" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A140)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="598" priority="4" operator="beginsWith" text="#">
-      <formula>LEFT(A140,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A196">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A196)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="18" priority="10" operator="beginsWith" text="#">
+      <formula>LEFT(A196,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A155">
-    <cfRule type="containsText" dxfId="597" priority="1" operator="containsText" text="......">
-      <formula>NOT(ISERROR(SEARCH("......",A155)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="596" priority="2" operator="beginsWith" text="#">
-      <formula>LEFT(A155,LEN("#"))="#"</formula>
+  <conditionalFormatting sqref="A201">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A201)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="14" priority="8" operator="beginsWith" text="#">
+      <formula>LEFT(A201,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A204)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="6" operator="beginsWith" text="#">
+      <formula>LEFT(A204,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A207)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="6" priority="4" operator="beginsWith" text="#">
+      <formula>LEFT(A207,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A211">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A211)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+      <formula>LEFT(A211,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39328,1482 +41367,1482 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A261:A317 A508:A516 A333 A324 A541:A542 A647:A680 A521 A71 A40:A59 A696:A711 A691:A694 A713:A719 A685:A689 A26 A28:A32 A257:A259 A536 A827:A1048576 A777:A778 A347:A356 A375:A378 A389:A391 A402:A405 A556:A627 A428:A452 A455:A462 A501 A464:A490 A396:A399 A782:A783 A629:A645 A789:A791 A802:A803 A529:A534 A1:A11 A13:A14 A503:A506 A20:A23 A493:A497">
-    <cfRule type="containsText" dxfId="595" priority="875" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="631" priority="875" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="594" priority="876" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="630" priority="876" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A260">
-    <cfRule type="containsText" dxfId="593" priority="863" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="629" priority="863" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A260)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="592" priority="864" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="628" priority="864" operator="beginsWith" text="#">
       <formula>LEFT(A260,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 A37">
-    <cfRule type="containsText" dxfId="591" priority="857" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="627" priority="857" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="590" priority="858" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="626" priority="858" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A73">
-    <cfRule type="containsText" dxfId="589" priority="853" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="625" priority="853" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A72)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="588" priority="854" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="624" priority="854" operator="beginsWith" text="#">
       <formula>LEFT(A72,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="containsText" dxfId="587" priority="851" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="623" priority="851" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="586" priority="852" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="622" priority="852" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A538">
-    <cfRule type="containsText" dxfId="585" priority="847" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="621" priority="847" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A538)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="584" priority="848" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="620" priority="848" operator="beginsWith" text="#">
       <formula>LEFT(A538,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A537">
-    <cfRule type="containsText" dxfId="583" priority="849" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="619" priority="849" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A537)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="582" priority="850" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="618" priority="850" operator="beginsWith" text="#">
       <formula>LEFT(A537,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A550">
-    <cfRule type="containsText" dxfId="581" priority="845" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="617" priority="845" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A550)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="580" priority="846" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="616" priority="846" operator="beginsWith" text="#">
       <formula>LEFT(A550,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A551">
-    <cfRule type="containsText" dxfId="579" priority="843" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="615" priority="843" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A551)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="578" priority="844" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="614" priority="844" operator="beginsWith" text="#">
       <formula>LEFT(A551,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A548">
-    <cfRule type="containsText" dxfId="577" priority="841" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="613" priority="841" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A548)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="576" priority="842" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="612" priority="842" operator="beginsWith" text="#">
       <formula>LEFT(A548,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A549">
-    <cfRule type="containsText" dxfId="575" priority="839" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="611" priority="839" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A549)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="574" priority="840" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="610" priority="840" operator="beginsWith" text="#">
       <formula>LEFT(A549,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A552">
-    <cfRule type="containsText" dxfId="573" priority="835" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="609" priority="835" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A552)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="572" priority="836" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="608" priority="836" operator="beginsWith" text="#">
       <formula>LEFT(A552,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A507">
-    <cfRule type="containsText" dxfId="571" priority="831" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="607" priority="831" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A507)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="570" priority="832" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="606" priority="832" operator="beginsWith" text="#">
       <formula>LEFT(A507,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A539">
-    <cfRule type="containsText" dxfId="569" priority="829" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="605" priority="829" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A539)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="568" priority="830" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="604" priority="830" operator="beginsWith" text="#">
       <formula>LEFT(A539,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A553">
-    <cfRule type="containsText" dxfId="567" priority="827" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="603" priority="827" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A553)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="566" priority="828" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="602" priority="828" operator="beginsWith" text="#">
       <formula>LEFT(A553,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A646">
-    <cfRule type="containsText" dxfId="565" priority="825" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="601" priority="825" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A646)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="564" priority="826" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="600" priority="826" operator="beginsWith" text="#">
       <formula>LEFT(A646,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A540">
-    <cfRule type="containsText" dxfId="563" priority="819" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="599" priority="819" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A540)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="562" priority="820" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="598" priority="820" operator="beginsWith" text="#">
       <formula>LEFT(A540,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A318:A320">
-    <cfRule type="containsText" dxfId="561" priority="817" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="597" priority="817" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A318)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="560" priority="818" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="596" priority="818" operator="beginsWith" text="#">
       <formula>LEFT(A318,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A321">
-    <cfRule type="containsText" dxfId="559" priority="813" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="595" priority="813" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A321)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="558" priority="814" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="594" priority="814" operator="beginsWith" text="#">
       <formula>LEFT(A321,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A322:A323 A325:A330">
-    <cfRule type="containsText" dxfId="557" priority="811" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="593" priority="811" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A322)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="556" priority="812" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="592" priority="812" operator="beginsWith" text="#">
       <formula>LEFT(A322,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A331:A332 A334:A340 A544">
-    <cfRule type="containsText" dxfId="555" priority="809" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="591" priority="809" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A331)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="554" priority="810" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="590" priority="810" operator="beginsWith" text="#">
       <formula>LEFT(A331,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A543">
-    <cfRule type="containsText" dxfId="553" priority="765" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="589" priority="765" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A543)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="552" priority="766" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="588" priority="766" operator="beginsWith" text="#">
       <formula>LEFT(A543,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A342">
-    <cfRule type="containsText" dxfId="551" priority="753" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="587" priority="753" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A342)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="550" priority="754" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="586" priority="754" operator="beginsWith" text="#">
       <formula>LEFT(A342,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341">
-    <cfRule type="containsText" dxfId="549" priority="755" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="585" priority="755" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A341)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="548" priority="756" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="584" priority="756" operator="beginsWith" text="#">
       <formula>LEFT(A341,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A545">
-    <cfRule type="containsText" dxfId="547" priority="751" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="583" priority="751" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A545)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="546" priority="752" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="582" priority="752" operator="beginsWith" text="#">
       <formula>LEFT(A545,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A546">
-    <cfRule type="containsText" dxfId="545" priority="749" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="581" priority="749" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A546)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="544" priority="750" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="580" priority="750" operator="beginsWith" text="#">
       <formula>LEFT(A546,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343:A344">
-    <cfRule type="containsText" dxfId="543" priority="747" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="579" priority="747" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A343)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="542" priority="748" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="578" priority="748" operator="beginsWith" text="#">
       <formula>LEFT(A343,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A555">
-    <cfRule type="containsText" dxfId="541" priority="739" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="577" priority="739" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A555)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="540" priority="740" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="576" priority="740" operator="beginsWith" text="#">
       <formula>LEFT(A555,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A554">
-    <cfRule type="containsText" dxfId="539" priority="741" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="575" priority="741" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A554)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="538" priority="742" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="574" priority="742" operator="beginsWith" text="#">
       <formula>LEFT(A554,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A682">
-    <cfRule type="containsText" dxfId="537" priority="709" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="573" priority="709" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A682)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="536" priority="710" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="572" priority="710" operator="beginsWith" text="#">
       <formula>LEFT(A682,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345:A346 A380">
-    <cfRule type="containsText" dxfId="535" priority="705" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="571" priority="705" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A345)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="534" priority="706" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="570" priority="706" operator="beginsWith" text="#">
       <formula>LEFT(A345,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A401">
-    <cfRule type="containsText" dxfId="533" priority="703" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="569" priority="703" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A401)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="532" priority="704" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="568" priority="704" operator="beginsWith" text="#">
       <formula>LEFT(A401,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A517:A518">
-    <cfRule type="containsText" dxfId="531" priority="699" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="567" priority="699" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A517)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="530" priority="700" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="566" priority="700" operator="beginsWith" text="#">
       <formula>LEFT(A517,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A520">
-    <cfRule type="containsText" dxfId="529" priority="697" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="565" priority="697" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A520)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="528" priority="698" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="564" priority="698" operator="beginsWith" text="#">
       <formula>LEFT(A520,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="527" priority="671" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="563" priority="671" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="526" priority="672" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="562" priority="672" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="525" priority="669" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="561" priority="669" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="524" priority="670" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="560" priority="670" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="523" priority="661" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="559" priority="661" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A60)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="522" priority="662" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="558" priority="662" operator="beginsWith" text="#">
       <formula>LEFT(A60,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="521" priority="659" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="557" priority="659" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A61)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="520" priority="660" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="556" priority="660" operator="beginsWith" text="#">
       <formula>LEFT(A61,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="containsText" dxfId="519" priority="657" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="555" priority="657" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A62)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="518" priority="658" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="554" priority="658" operator="beginsWith" text="#">
       <formula>LEFT(A62,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="containsText" dxfId="517" priority="655" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="553" priority="655" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A63)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="516" priority="656" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="552" priority="656" operator="beginsWith" text="#">
       <formula>LEFT(A63,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A720">
-    <cfRule type="containsText" dxfId="515" priority="653" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="551" priority="653" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A720)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="514" priority="654" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="550" priority="654" operator="beginsWith" text="#">
       <formula>LEFT(A720,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A721">
-    <cfRule type="containsText" dxfId="513" priority="651" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="549" priority="651" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A721)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="512" priority="652" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="548" priority="652" operator="beginsWith" text="#">
       <formula>LEFT(A721,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A722">
-    <cfRule type="containsText" dxfId="511" priority="649" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="547" priority="649" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A722)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="510" priority="650" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="546" priority="650" operator="beginsWith" text="#">
       <formula>LEFT(A722,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A724:A727">
-    <cfRule type="containsText" dxfId="509" priority="643" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="545" priority="643" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A724)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="508" priority="644" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="544" priority="644" operator="beginsWith" text="#">
       <formula>LEFT(A724,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A723">
-    <cfRule type="containsText" dxfId="507" priority="639" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="543" priority="639" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A723)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="506" priority="640" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="542" priority="640" operator="beginsWith" text="#">
       <formula>LEFT(A723,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A728:A735">
-    <cfRule type="containsText" dxfId="505" priority="633" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="541" priority="633" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A728)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="504" priority="634" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="540" priority="634" operator="beginsWith" text="#">
       <formula>LEFT(A728,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A746">
-    <cfRule type="containsText" dxfId="503" priority="627" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="539" priority="627" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A736)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="502" priority="628" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="538" priority="628" operator="beginsWith" text="#">
       <formula>LEFT(A736,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A747">
-    <cfRule type="containsText" dxfId="501" priority="629" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="537" priority="629" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A747)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="500" priority="630" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="536" priority="630" operator="beginsWith" text="#">
       <formula>LEFT(A747,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A748:A758">
-    <cfRule type="containsText" dxfId="499" priority="621" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="535" priority="621" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A748)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="498" priority="622" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="534" priority="622" operator="beginsWith" text="#">
       <formula>LEFT(A748,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A759">
-    <cfRule type="containsText" dxfId="497" priority="623" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="533" priority="623" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A759)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="496" priority="624" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="532" priority="624" operator="beginsWith" text="#">
       <formula>LEFT(A759,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="containsText" dxfId="495" priority="617" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="531" priority="617" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A760)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="494" priority="618" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="530" priority="618" operator="beginsWith" text="#">
       <formula>LEFT(A760,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="containsText" dxfId="493" priority="607" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="529" priority="607" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A764)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="492" priority="608" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="528" priority="608" operator="beginsWith" text="#">
       <formula>LEFT(A764,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A761">
-    <cfRule type="containsText" dxfId="491" priority="613" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="527" priority="613" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A761)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="490" priority="614" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="526" priority="614" operator="beginsWith" text="#">
       <formula>LEFT(A761,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762">
-    <cfRule type="containsText" dxfId="489" priority="611" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="525" priority="611" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A762)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="488" priority="612" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="524" priority="612" operator="beginsWith" text="#">
       <formula>LEFT(A762,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A763">
-    <cfRule type="containsText" dxfId="487" priority="609" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="523" priority="609" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A763)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="486" priority="610" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="522" priority="610" operator="beginsWith" text="#">
       <formula>LEFT(A763,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A766:A767">
-    <cfRule type="containsText" dxfId="485" priority="603" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="521" priority="603" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A766)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="484" priority="604" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="520" priority="604" operator="beginsWith" text="#">
       <formula>LEFT(A766,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="containsText" dxfId="483" priority="593" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="519" priority="593" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A768)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="594" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="518" priority="594" operator="beginsWith" text="#">
       <formula>LEFT(A768,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A547">
-    <cfRule type="containsText" dxfId="481" priority="589" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="517" priority="589" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A547)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="480" priority="590" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="516" priority="590" operator="beginsWith" text="#">
       <formula>LEFT(A547,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A681">
-    <cfRule type="containsText" dxfId="479" priority="559" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="515" priority="559" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A681)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="478" priority="560" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="514" priority="560" operator="beginsWith" text="#">
       <formula>LEFT(A681,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="containsText" dxfId="477" priority="557" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="513" priority="557" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A65)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="476" priority="558" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="512" priority="558" operator="beginsWith" text="#">
       <formula>LEFT(A65,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="containsText" dxfId="475" priority="555" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="511" priority="555" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A66)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="556" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="510" priority="556" operator="beginsWith" text="#">
       <formula>LEFT(A66,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A69">
-    <cfRule type="containsText" dxfId="473" priority="553" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="509" priority="553" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A67)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="472" priority="554" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="508" priority="554" operator="beginsWith" text="#">
       <formula>LEFT(A67,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A712">
-    <cfRule type="containsText" dxfId="471" priority="533" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="507" priority="533" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A712)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="470" priority="534" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="506" priority="534" operator="beginsWith" text="#">
       <formula>LEFT(A712,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A684">
-    <cfRule type="containsText" dxfId="469" priority="539" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="505" priority="539" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A684)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="540" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="504" priority="540" operator="beginsWith" text="#">
       <formula>LEFT(A684,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A690">
-    <cfRule type="containsText" dxfId="467" priority="535" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="503" priority="535" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A690)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="536" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="502" priority="536" operator="beginsWith" text="#">
       <formula>LEFT(A690,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A695">
-    <cfRule type="containsText" dxfId="465" priority="531" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="501" priority="531" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A695)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="532" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="500" priority="532" operator="beginsWith" text="#">
       <formula>LEFT(A695,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="463" priority="529" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="499" priority="529" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A24)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="462" priority="530" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="498" priority="530" operator="beginsWith" text="#">
       <formula>LEFT(A24,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="461" priority="519" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="497" priority="519" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="520" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="496" priority="520" operator="beginsWith" text="#">
       <formula>LEFT(A27,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769">
-    <cfRule type="containsText" dxfId="459" priority="517" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="495" priority="517" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A769)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="518" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="494" priority="518" operator="beginsWith" text="#">
       <formula>LEFT(A769,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110 A120:A122">
-    <cfRule type="containsText" dxfId="457" priority="327" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="493" priority="327" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="456" priority="328" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="492" priority="328" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="containsText" dxfId="455" priority="331" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="491" priority="331" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="454" priority="332" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="490" priority="332" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146 A133">
-    <cfRule type="containsText" dxfId="453" priority="333" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="489" priority="333" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="334" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="488" priority="334" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A152 A148">
-    <cfRule type="containsText" dxfId="451" priority="335" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="487" priority="335" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="450" priority="336" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="486" priority="336" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147">
-    <cfRule type="containsText" dxfId="449" priority="337" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="485" priority="337" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="448" priority="338" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="484" priority="338" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="containsText" dxfId="447" priority="339" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="483" priority="339" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="446" priority="340" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="482" priority="340" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="containsText" dxfId="445" priority="341" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="481" priority="341" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="444" priority="342" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="480" priority="342" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149">
-    <cfRule type="containsText" dxfId="443" priority="343" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="479" priority="343" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="442" priority="344" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="478" priority="344" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157">
-    <cfRule type="containsText" dxfId="441" priority="345" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="477" priority="345" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="346" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="476" priority="346" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156 A167">
-    <cfRule type="containsText" dxfId="439" priority="347" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="475" priority="347" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="438" priority="348" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="474" priority="348" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169">
-    <cfRule type="containsText" dxfId="437" priority="349" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="473" priority="349" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="350" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="472" priority="350" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171">
-    <cfRule type="containsText" dxfId="435" priority="351" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="471" priority="351" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="352" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="470" priority="352" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="433" priority="273" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="469" priority="273" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="274" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="468" priority="274" operator="beginsWith" text="#">
       <formula>LEFT(A33,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="431" priority="271" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="467" priority="271" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="430" priority="272" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="466" priority="272" operator="beginsWith" text="#">
       <formula>LEFT(A34,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A535">
-    <cfRule type="containsText" dxfId="429" priority="269" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="465" priority="269" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A535)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="270" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="464" priority="270" operator="beginsWith" text="#">
       <formula>LEFT(A535,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A785">
-    <cfRule type="containsText" dxfId="427" priority="267" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="463" priority="267" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A785)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="268" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="462" priority="268" operator="beginsWith" text="#">
       <formula>LEFT(A785,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A106">
-    <cfRule type="containsText" dxfId="425" priority="1459" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="461" priority="1459" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="1460" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="460" priority="1460" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804">
-    <cfRule type="containsText" dxfId="423" priority="259" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="459" priority="259" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A804)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="422" priority="260" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="458" priority="260" operator="beginsWith" text="#">
       <formula>LEFT(A804,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A806">
-    <cfRule type="containsText" dxfId="421" priority="255" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="457" priority="255" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A806)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="256" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="456" priority="256" operator="beginsWith" text="#">
       <formula>LEFT(A806,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A805">
-    <cfRule type="containsText" dxfId="419" priority="257" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="455" priority="257" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A805)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="258" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="454" priority="258" operator="beginsWith" text="#">
       <formula>LEFT(A805,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A808">
-    <cfRule type="containsText" dxfId="417" priority="253" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="453" priority="253" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A808)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="254" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="452" priority="254" operator="beginsWith" text="#">
       <formula>LEFT(A808,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A809">
-    <cfRule type="containsText" dxfId="415" priority="237" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="451" priority="237" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A809)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="414" priority="238" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="450" priority="238" operator="beginsWith" text="#">
       <formula>LEFT(A809,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A683">
-    <cfRule type="containsText" dxfId="413" priority="233" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="449" priority="233" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A683)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="412" priority="234" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="448" priority="234" operator="beginsWith" text="#">
       <formula>LEFT(A683,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A359">
-    <cfRule type="containsText" dxfId="411" priority="223" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="447" priority="223" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A359)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="224" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="446" priority="224" operator="beginsWith" text="#">
       <formula>LEFT(A359,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A357">
-    <cfRule type="containsText" dxfId="409" priority="227" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="445" priority="227" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A357)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="408" priority="228" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="444" priority="228" operator="beginsWith" text="#">
       <formula>LEFT(A357,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A358">
-    <cfRule type="containsText" dxfId="407" priority="225" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="443" priority="225" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A358)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="406" priority="226" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="442" priority="226" operator="beginsWith" text="#">
       <formula>LEFT(A358,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A360">
-    <cfRule type="containsText" dxfId="405" priority="221" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="441" priority="221" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A360)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="404" priority="222" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="440" priority="222" operator="beginsWith" text="#">
       <formula>LEFT(A360,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A361">
-    <cfRule type="containsText" dxfId="403" priority="219" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="439" priority="219" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A361)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="220" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="438" priority="220" operator="beginsWith" text="#">
       <formula>LEFT(A361,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A362">
-    <cfRule type="containsText" dxfId="401" priority="217" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="437" priority="217" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A362)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="218" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="436" priority="218" operator="beginsWith" text="#">
       <formula>LEFT(A362,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363">
-    <cfRule type="containsText" dxfId="399" priority="215" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="435" priority="215" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A363)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="398" priority="216" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="434" priority="216" operator="beginsWith" text="#">
       <formula>LEFT(A363,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A364">
-    <cfRule type="containsText" dxfId="397" priority="213" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="433" priority="213" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A364)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="214" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="432" priority="214" operator="beginsWith" text="#">
       <formula>LEFT(A364,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A365">
-    <cfRule type="containsText" dxfId="395" priority="211" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="431" priority="211" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A365)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="212" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="430" priority="212" operator="beginsWith" text="#">
       <formula>LEFT(A365,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A367">
-    <cfRule type="containsText" dxfId="393" priority="207" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="429" priority="207" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A367)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="392" priority="208" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="428" priority="208" operator="beginsWith" text="#">
       <formula>LEFT(A367,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A368">
-    <cfRule type="containsText" dxfId="391" priority="205" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="427" priority="205" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A368)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="390" priority="206" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="426" priority="206" operator="beginsWith" text="#">
       <formula>LEFT(A368,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A369">
-    <cfRule type="containsText" dxfId="389" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="425" priority="203" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A369)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="424" priority="204" operator="beginsWith" text="#">
       <formula>LEFT(A369,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A370">
-    <cfRule type="containsText" dxfId="387" priority="201" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="423" priority="201" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A370)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="386" priority="202" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="422" priority="202" operator="beginsWith" text="#">
       <formula>LEFT(A370,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A371">
-    <cfRule type="containsText" dxfId="385" priority="199" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="421" priority="199" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A371)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="384" priority="200" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="420" priority="200" operator="beginsWith" text="#">
       <formula>LEFT(A371,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A372">
-    <cfRule type="containsText" dxfId="383" priority="197" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="419" priority="197" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A372)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="382" priority="198" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="418" priority="198" operator="beginsWith" text="#">
       <formula>LEFT(A372,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A373">
-    <cfRule type="containsText" dxfId="381" priority="195" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="417" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A373)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="380" priority="196" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="416" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(A373,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A381:A387">
-    <cfRule type="containsText" dxfId="379" priority="193" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="415" priority="193" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A381)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="378" priority="194" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="414" priority="194" operator="beginsWith" text="#">
       <formula>LEFT(A381,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A379">
-    <cfRule type="containsText" dxfId="377" priority="191" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="413" priority="191" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A379)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="192" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="412" priority="192" operator="beginsWith" text="#">
       <formula>LEFT(A379,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A388 A392:A395">
-    <cfRule type="containsText" dxfId="375" priority="189" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="411" priority="189" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A388)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="374" priority="190" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="410" priority="190" operator="beginsWith" text="#">
       <formula>LEFT(A388,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A400">
-    <cfRule type="containsText" dxfId="373" priority="187" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="409" priority="187" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A400)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="188" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="408" priority="188" operator="beginsWith" text="#">
       <formula>LEFT(A400,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A411">
-    <cfRule type="containsText" dxfId="371" priority="185" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="407" priority="185" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A411)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="186" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="406" priority="186" operator="beginsWith" text="#">
       <formula>LEFT(A411,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A374">
-    <cfRule type="containsText" dxfId="369" priority="183" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="405" priority="183" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A374)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="184" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="404" priority="184" operator="beginsWith" text="#">
       <formula>LEFT(A374,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A406">
-    <cfRule type="containsText" dxfId="367" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="403" priority="181" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A406)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="366" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="402" priority="182" operator="beginsWith" text="#">
       <formula>LEFT(A406,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A407">
-    <cfRule type="containsText" dxfId="365" priority="179" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="401" priority="179" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A407)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="180" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="400" priority="180" operator="beginsWith" text="#">
       <formula>LEFT(A407,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A408">
-    <cfRule type="containsText" dxfId="363" priority="177" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="399" priority="177" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A408)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="178" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="398" priority="178" operator="beginsWith" text="#">
       <formula>LEFT(A408,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A410">
-    <cfRule type="containsText" dxfId="361" priority="173" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="397" priority="173" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A410)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="174" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="396" priority="174" operator="beginsWith" text="#">
       <formula>LEFT(A410,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A412">
-    <cfRule type="containsText" dxfId="359" priority="171" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="395" priority="171" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A412)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="358" priority="172" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="394" priority="172" operator="beginsWith" text="#">
       <formula>LEFT(A412,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A413">
-    <cfRule type="containsText" dxfId="357" priority="169" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="393" priority="169" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A413)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="170" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="392" priority="170" operator="beginsWith" text="#">
       <formula>LEFT(A413,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A454">
-    <cfRule type="containsText" dxfId="355" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="391" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A454)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="390" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(A454,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A414">
-    <cfRule type="containsText" dxfId="353" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="389" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A414)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="388" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A414,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A415 A419 A422">
-    <cfRule type="containsText" dxfId="351" priority="163" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="387" priority="163" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A415)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="350" priority="164" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="386" priority="164" operator="beginsWith" text="#">
       <formula>LEFT(A415,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A424">
-    <cfRule type="containsText" dxfId="349" priority="159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="385" priority="159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A424)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="348" priority="160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="384" priority="160" operator="beginsWith" text="#">
       <formula>LEFT(A424,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A770">
-    <cfRule type="containsText" dxfId="347" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="383" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A770)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="382" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A770,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A771">
-    <cfRule type="containsText" dxfId="345" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="381" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A771)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="344" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="380" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A771,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A366">
-    <cfRule type="containsText" dxfId="343" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="379" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A366)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="342" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="378" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A366,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A498">
-    <cfRule type="containsText" dxfId="341" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="377" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A498)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="340" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="376" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(A498,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A499">
-    <cfRule type="containsText" dxfId="339" priority="137" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="375" priority="137" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A499)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="138" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="374" priority="138" operator="beginsWith" text="#">
       <formula>LEFT(A499,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A500">
-    <cfRule type="containsText" dxfId="337" priority="135" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="373" priority="135" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A500)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="136" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="372" priority="136" operator="beginsWith" text="#">
       <formula>LEFT(A500,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A523">
-    <cfRule type="containsText" dxfId="335" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="371" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A523)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="334" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="370" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(A523,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A519">
-    <cfRule type="containsText" dxfId="333" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="369" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A519)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="368" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A519,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A810">
-    <cfRule type="containsText" dxfId="331" priority="127" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="367" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A810)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="128" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="366" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A810,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A772">
-    <cfRule type="containsText" dxfId="329" priority="123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="365" priority="123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A772)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="328" priority="124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="364" priority="124" operator="beginsWith" text="#">
       <formula>LEFT(A772,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A256">
-    <cfRule type="containsText" dxfId="327" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="363" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A256)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="326" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="362" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A256,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A811">
-    <cfRule type="containsText" dxfId="325" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="361" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A811)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="360" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A811,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:A182 A184:A255">
-    <cfRule type="containsText" dxfId="323" priority="437" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="359" priority="437" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="438" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="358" priority="438" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168 A170 A160 A162:A166 A81 A83:A84 A87:A95 A97:A98 A102:A104 A74 A76:A79">
-    <cfRule type="containsText" dxfId="321" priority="325" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="357" priority="325" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="326" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="356" priority="326" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="containsText" dxfId="319" priority="1473" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="355" priority="1473" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="318" priority="1474" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="354" priority="1474" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:A155 A158 A134:A145 A117:A118 A109 A107 A111:A115">
-    <cfRule type="containsText" dxfId="317" priority="1755" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="353" priority="1755" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="316" priority="1756" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="352" priority="1756" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129 A123:A124 A126:A127">
-    <cfRule type="containsText" dxfId="315" priority="1815" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="351" priority="1815" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="314" priority="1816" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="350" priority="1816" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="containsText" dxfId="313" priority="1877" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="349" priority="1877" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="312" priority="1878" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="348" priority="1878" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="containsText" dxfId="311" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="347" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="310" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="346" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="containsText" dxfId="309" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="345" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="308" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="344" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A773">
-    <cfRule type="containsText" dxfId="307" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="343" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="306" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="342" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A774">
-    <cfRule type="containsText" dxfId="305" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="341" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="304" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="340" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A812">
-    <cfRule type="containsText" dxfId="303" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="339" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A812)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="302" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="338" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(A812,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A813">
-    <cfRule type="containsText" dxfId="301" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="337" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A811)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="300" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="336" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(A811,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:B825">
-    <cfRule type="containsText" dxfId="299" priority="83" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="335" priority="83" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",B812)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="298" priority="84" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="334" priority="84" operator="beginsWith" text="#">
       <formula>LEFT(B812,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B814 B817">
-    <cfRule type="containsText" dxfId="297" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="333" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="296" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="332" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A814">
-    <cfRule type="containsText" dxfId="295" priority="95" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="331" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A814)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="294" priority="96" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="330" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A814,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A815">
-    <cfRule type="containsText" dxfId="293" priority="93" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="329" priority="93" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A815)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="292" priority="94" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="328" priority="94" operator="beginsWith" text="#">
       <formula>LEFT(A815,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B815">
-    <cfRule type="containsText" dxfId="291" priority="91" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="327" priority="91" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="290" priority="92" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="326" priority="92" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A816">
-    <cfRule type="containsText" dxfId="289" priority="89" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="325" priority="89" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A816)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="288" priority="90" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="324" priority="90" operator="beginsWith" text="#">
       <formula>LEFT(A816,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B816">
-    <cfRule type="containsText" dxfId="287" priority="87" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="323" priority="87" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="286" priority="88" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="322" priority="88" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A817:A825">
-    <cfRule type="containsText" dxfId="285" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="321" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A817)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="284" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="320" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(A817,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B826">
-    <cfRule type="containsText" dxfId="283" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="319" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="282" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="318" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A826">
-    <cfRule type="containsText" dxfId="281" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="317" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A802)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="280" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="316" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(A802,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A793:A795 A801">
-    <cfRule type="containsText" dxfId="279" priority="75" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="315" priority="75" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A793)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="278" priority="76" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="314" priority="76" operator="beginsWith" text="#">
       <formula>LEFT(A793,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A780">
-    <cfRule type="containsText" dxfId="277" priority="73" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="313" priority="73" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A780)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="74" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="312" priority="74" operator="beginsWith" text="#">
       <formula>LEFT(A780,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A781">
-    <cfRule type="containsText" dxfId="275" priority="71" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="311" priority="71" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A781)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="274" priority="72" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="310" priority="72" operator="beginsWith" text="#">
       <formula>LEFT(A781,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="containsText" dxfId="273" priority="67" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="309" priority="67" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="272" priority="68" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="308" priority="68" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A628">
-    <cfRule type="containsText" dxfId="271" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="307" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="270" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="306" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A779">
-    <cfRule type="containsText" dxfId="269" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="305" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A779)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="304" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A779,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A792">
-    <cfRule type="containsText" dxfId="267" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="303" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A792)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="302" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A792,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A502">
-    <cfRule type="containsText" dxfId="265" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="301" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A502)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="264" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="300" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A502,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A796">
-    <cfRule type="containsText" dxfId="263" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="299" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A796)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="262" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="298" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A796,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A797">
-    <cfRule type="containsText" dxfId="261" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="297" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A797)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="260" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="296" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A797,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A798">
-    <cfRule type="containsText" dxfId="259" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="295" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A798)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="258" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="294" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A798,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A799">
-    <cfRule type="containsText" dxfId="257" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="293" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A799)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="256" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="292" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A799,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A800">
-    <cfRule type="containsText" dxfId="255" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="291" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A800)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="254" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="290" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A800,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="253" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="289" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="252" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="288" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="251" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="287" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="250" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="286" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A453">
-    <cfRule type="containsText" dxfId="249" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="285" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A453)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="248" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="284" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A453,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A528">
-    <cfRule type="containsText" dxfId="247" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="283" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A528)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="246" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="282" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A528,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A775">
-    <cfRule type="containsText" dxfId="245" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="281" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A775)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="244" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="280" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A775,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A776">
-    <cfRule type="containsText" dxfId="243" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="279" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A776)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="278" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A776,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A491:A492">
-    <cfRule type="containsText" dxfId="241" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="277" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A491)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="240" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="276" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A491,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A409">
-    <cfRule type="containsText" dxfId="239" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="275" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A409)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="238" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="274" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A409,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A416:A418">
-    <cfRule type="containsText" dxfId="237" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="273" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A416)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="236" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="272" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A416,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A420:A421">
-    <cfRule type="containsText" dxfId="235" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="271" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A420)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="234" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="270" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A420,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A425:A427">
-    <cfRule type="containsText" dxfId="233" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="269" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A425)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="232" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="268" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A425,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A423">
-    <cfRule type="containsText" dxfId="231" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="267" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A423)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="230" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="266" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A423,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="229" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="265" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A25)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="228" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="264" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A25,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A524">
-    <cfRule type="containsText" dxfId="227" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="263" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A524)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="226" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="262" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A524,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48590,490 +50629,490 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A11 A21 A235:A239 A276:A281 A111:A115 A145:A171 A283:A285 A288 A290:A1048576 A174:A200 A134:A137 A104:A107 A117:A130 A16">
-    <cfRule type="containsText" dxfId="209" priority="309" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="245" priority="309" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="208" priority="310" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="244" priority="310" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="207" priority="301" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="243" priority="301" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A20)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="206" priority="302" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="242" priority="302" operator="beginsWith" text="#">
       <formula>LEFT(A20,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="205" priority="299" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="241" priority="299" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="204" priority="300" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="240" priority="300" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A23">
-    <cfRule type="containsText" dxfId="203" priority="297" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="239" priority="297" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A22)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="202" priority="298" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="238" priority="298" operator="beginsWith" text="#">
       <formula>LEFT(A22,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="containsText" dxfId="201" priority="295" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="237" priority="295" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A18)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="200" priority="296" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="236" priority="296" operator="beginsWith" text="#">
       <formula>LEFT(A18,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="containsText" dxfId="199" priority="223" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="235" priority="223" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A208)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="224" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="234" priority="224" operator="beginsWith" text="#">
       <formula>LEFT(A208,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173">
-    <cfRule type="containsText" dxfId="197" priority="213" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="233" priority="213" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A173)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="214" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="232" priority="214" operator="beginsWith" text="#">
       <formula>LEFT(A173,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="containsText" dxfId="195" priority="203" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="231" priority="203" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A108)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="204" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="230" priority="204" operator="beginsWith" text="#">
       <formula>LEFT(A108,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209">
-    <cfRule type="containsText" dxfId="193" priority="181" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="229" priority="181" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A209)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="192" priority="182" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="228" priority="182" operator="beginsWith" text="#">
       <formula>LEFT(A209,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234">
-    <cfRule type="containsText" dxfId="191" priority="165" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="227" priority="165" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A234)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="166" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="226" priority="166" operator="beginsWith" text="#">
       <formula>LEFT(A234,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="containsText" dxfId="189" priority="201" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="225" priority="201" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="188" priority="202" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="224" priority="202" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A61">
-    <cfRule type="containsText" dxfId="187" priority="1109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="223" priority="1109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="186" priority="1110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="222" priority="1110" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A46">
-    <cfRule type="containsText" dxfId="185" priority="1159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="221" priority="1159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="184" priority="1160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="220" priority="1160" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A50">
-    <cfRule type="containsText" dxfId="183" priority="1329" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="219" priority="1329" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="1330" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="218" priority="1330" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A66">
-    <cfRule type="containsText" dxfId="181" priority="1499" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="217" priority="1499" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="1500" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="216" priority="1500" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="containsText" dxfId="179" priority="167" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="215" priority="167" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="168" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="214" priority="168" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A282">
-    <cfRule type="containsText" dxfId="177" priority="159" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="213" priority="159" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A282)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="160" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="212" priority="160" operator="beginsWith" text="#">
       <formula>LEFT(A282,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="containsText" dxfId="175" priority="149" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="211" priority="149" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A241)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="150" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="210" priority="150" operator="beginsWith" text="#">
       <formula>LEFT(A241,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="containsText" dxfId="173" priority="151" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="209" priority="151" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A270)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="152" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="208" priority="152" operator="beginsWith" text="#">
       <formula>LEFT(A270,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="containsText" dxfId="171" priority="147" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="207" priority="147" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A131)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="148" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="206" priority="148" operator="beginsWith" text="#">
       <formula>LEFT(A131,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="containsText" dxfId="169" priority="145" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="205" priority="145" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A132)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="146" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="204" priority="146" operator="beginsWith" text="#">
       <formula>LEFT(A132,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="containsText" dxfId="167" priority="143" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="203" priority="143" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A133)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="144" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="202" priority="144" operator="beginsWith" text="#">
       <formula>LEFT(A133,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245:A246">
-    <cfRule type="containsText" dxfId="165" priority="141" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="201" priority="141" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A245)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="142" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="200" priority="142" operator="beginsWith" text="#">
       <formula>LEFT(A245,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="containsText" dxfId="163" priority="139" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="199" priority="139" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="140" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="198" priority="140" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="containsText" dxfId="161" priority="133" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="197" priority="133" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="134" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="196" priority="134" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
-    <cfRule type="containsText" dxfId="159" priority="131" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="195" priority="131" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A247)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="132" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="194" priority="132" operator="beginsWith" text="#">
       <formula>LEFT(A247,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A243">
-    <cfRule type="containsText" dxfId="157" priority="127" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="193" priority="127" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A243)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="156" priority="128" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="192" priority="128" operator="beginsWith" text="#">
       <formula>LEFT(A243,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250">
-    <cfRule type="containsText" dxfId="155" priority="125" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="191" priority="125" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A250)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="126" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="190" priority="126" operator="beginsWith" text="#">
       <formula>LEFT(A250,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A248">
-    <cfRule type="containsText" dxfId="153" priority="121" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="189" priority="121" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A248)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="152" priority="122" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="188" priority="122" operator="beginsWith" text="#">
       <formula>LEFT(A248,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="containsText" dxfId="151" priority="119" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="187" priority="119" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A249)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="120" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="186" priority="120" operator="beginsWith" text="#">
       <formula>LEFT(A249,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="containsText" dxfId="149" priority="117" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="185" priority="117" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A244)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="118" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="184" priority="118" operator="beginsWith" text="#">
       <formula>LEFT(A244,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="containsText" dxfId="147" priority="115" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="183" priority="115" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A286)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="116" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="182" priority="116" operator="beginsWith" text="#">
       <formula>LEFT(A286,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206">
-    <cfRule type="containsText" dxfId="145" priority="113" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="181" priority="113" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A206)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="144" priority="114" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="180" priority="114" operator="beginsWith" text="#">
       <formula>LEFT(A206,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="containsText" dxfId="143" priority="111" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="179" priority="111" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A207)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="142" priority="112" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="178" priority="112" operator="beginsWith" text="#">
       <formula>LEFT(A207,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139">
-    <cfRule type="containsText" dxfId="141" priority="109" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="177" priority="109" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="110" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="176" priority="110" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140">
-    <cfRule type="containsText" dxfId="139" priority="107" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="175" priority="107" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="108" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="174" priority="108" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="containsText" dxfId="137" priority="103" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="173" priority="103" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A242)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="136" priority="104" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="172" priority="104" operator="beginsWith" text="#">
       <formula>LEFT(A242,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251">
-    <cfRule type="containsText" dxfId="135" priority="101" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="171" priority="101" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A251)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="102" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="170" priority="102" operator="beginsWith" text="#">
       <formula>LEFT(A251,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252">
-    <cfRule type="containsText" dxfId="133" priority="99" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="169" priority="99" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A252)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="100" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="168" priority="100" operator="beginsWith" text="#">
       <formula>LEFT(A252,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253">
-    <cfRule type="containsText" dxfId="131" priority="97" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="167" priority="97" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A253)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="98" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="166" priority="98" operator="beginsWith" text="#">
       <formula>LEFT(A253,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A203:A205 A69:A70 A72">
-    <cfRule type="containsText" dxfId="129" priority="195" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="165" priority="195" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="128" priority="196" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="164" priority="196" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A63">
-    <cfRule type="containsText" dxfId="127" priority="2123" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="163" priority="2123" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="126" priority="2124" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="162" priority="2124" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="containsText" dxfId="125" priority="2235" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="161" priority="2235" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="124" priority="2236" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="160" priority="2236" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="123" priority="95" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="159" priority="95" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A71)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="122" priority="96" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="158" priority="96" operator="beginsWith" text="#">
       <formula>LEFT(A71,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="containsText" dxfId="121" priority="85" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="157" priority="85" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="120" priority="86" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="156" priority="86" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="containsText" dxfId="119" priority="81" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="155" priority="81" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A96)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="118" priority="82" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="154" priority="82" operator="beginsWith" text="#">
       <formula>LEFT(A96,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="containsText" dxfId="117" priority="79" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="153" priority="79" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="116" priority="80" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="152" priority="80" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A214">
-    <cfRule type="containsText" dxfId="115" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="151" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A214)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="114" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="150" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A214,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="containsText" dxfId="113" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="149" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="112" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="148" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A98,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="containsText" dxfId="111" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="147" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A240)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="146" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A240,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="containsText" dxfId="109" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="145" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A99)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="144" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A99,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="containsText" dxfId="107" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="143" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A100)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="106" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="142" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A100,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="containsText" dxfId="105" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A101)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="104" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="140" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A101,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="containsText" dxfId="103" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="139" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A102)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="102" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="138" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A102,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="containsText" dxfId="101" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="137" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A103)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="136" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A103,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="135" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A271)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="98" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="134" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A271,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:A275">
-    <cfRule type="containsText" dxfId="97" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="133" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A272)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="132" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A272,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="131" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A116)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="130" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A116,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="129" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="92" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="128" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="containsText" dxfId="91" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="127" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="126" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="125" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",#REF!)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="124" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(#REF!,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50592,266 +52631,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="103" priority="65" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="66" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="102" priority="66" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="101" priority="63" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A14)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="64" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="100" priority="64" operator="beginsWith" text="#">
       <formula>LEFT(A14,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="99" priority="61" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="62" priority="62" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="98" priority="62" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A22">
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="97" priority="59" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A19)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="60" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="96" priority="60" operator="beginsWith" text="#">
       <formula>LEFT(A19,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="95" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="58" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="94" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="93" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="92" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="91" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A23)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="90" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A23,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="89" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A26)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="88" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A26,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="87" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A27)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="86" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A27,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="85" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A29)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="84" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A29,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="83" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A28)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="82" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A28,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="81" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="80" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A30,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="79" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="78" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A31,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="77" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="76" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A32,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="75" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A33)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="74" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A33,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="73" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A34)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="72" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A34,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="71" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A35)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="70" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A35,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="69" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A36)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="32" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="68" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A36,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="67" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A37)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="66" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A37,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="65" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A38)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="64" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A38,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A39)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="62" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A39,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="61" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A40)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="60" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A40,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="59" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A41)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="58" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A41,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A42)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="56" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A42,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A43)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="54" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A43,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A44)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="52" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A44,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A45)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="50" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A45,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A46)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="48" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A46,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="46" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A48)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="44" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A48,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A52:A53">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A50)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="42" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A50,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A54)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="40" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A54,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A51)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="38" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A51,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules-local/fast-library/src/RegistryEntries.xlsx
+++ b/modules-local/fast-library/src/RegistryEntries.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11368" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11477" uniqueCount="2104">
   <si>
     <t>###################################################################################################################################</t>
   </si>
@@ -6399,6 +6399,96 @@
   </si>
   <si>
     <t># Temporary copies of input meshes (stored here so we don't have to keep allocating/destroying them)</t>
+  </si>
+  <si>
+    <t>TiLstPrn</t>
+  </si>
+  <si>
+    <t>"The simulation time of the last print (to file)"</t>
+  </si>
+  <si>
+    <t>(s)</t>
+  </si>
+  <si>
+    <t>t_global</t>
+  </si>
+  <si>
+    <t>"Current simulation time (for global/FAST simulation)"</t>
+  </si>
+  <si>
+    <t>NextJacCalcTime</t>
+  </si>
+  <si>
+    <t>"Time between calculating Jacobians in the HD-ED and SD-ED simulations"</t>
+  </si>
+  <si>
+    <t>PrevClockTime</t>
+  </si>
+  <si>
+    <t>UsrTime1</t>
+  </si>
+  <si>
+    <t>UsrTime2</t>
+  </si>
+  <si>
+    <t>StrtTime</t>
+  </si>
+  <si>
+    <t>SimStrtTime</t>
+  </si>
+  <si>
+    <t>{8}</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>"User CPU time for simulation initialization"</t>
+  </si>
+  <si>
+    <t>"User CPU time for simulation (without intialization)"</t>
+  </si>
+  <si>
+    <t>"Clock time at start of simulation in seconds"</t>
+  </si>
+  <si>
+    <t>"Start time of simulation (including intialization)"</t>
+  </si>
+  <si>
+    <t>"Start time of simulation (after initialization)"</t>
+  </si>
+  <si>
+    <t>n_TMax_m1</t>
+  </si>
+  <si>
+    <t>calcJacobian</t>
+  </si>
+  <si>
+    <t>Logical</t>
+  </si>
+  <si>
+    <t>"Should we calculate Jacobians in Option 1?"</t>
+  </si>
+  <si>
+    <t>(flag)</t>
+  </si>
+  <si>
+    <t>"The time step of TMax - dt (the end time of the simulation)"</t>
+  </si>
+  <si>
+    <t>(-)</t>
+  </si>
+  <si>
+    <t># ..... FAST_MiscVarType data .......................................................................................................</t>
+  </si>
+  <si>
+    <t>FAST_MiscVarType</t>
+  </si>
+  <si>
+    <t>n_t_global</t>
+  </si>
+  <si>
+    <t>"simulation time step, loop counter for global (FAST) simulation"</t>
   </si>
 </sst>
 </file>
@@ -6610,7 +6700,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="672">
+  <dxfs count="658">
     <dxf>
       <font>
         <u val="none"/>
@@ -12171,10 +12261,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
           <bgColor theme="2"/>
@@ -12192,121 +12278,6 @@
         <u val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2"/>
@@ -12877,12 +12848,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -12914,12 +12885,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -12951,22 +12922,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -12998,22 +12969,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -13045,7 +13016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -13237,10 +13208,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="671" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="655" priority="1" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="670" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="654" priority="2" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13250,11 +13221,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
+      <pane ySplit="11" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13698,7 +13669,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>27</v>
@@ -13727,7 +13698,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>27</v>
@@ -13756,7 +13727,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>27</v>
@@ -17818,7 +17789,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="27" t="s">
         <v>22</v>
       </c>
@@ -17847,7 +17818,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="27" t="s">
         <v>22</v>
       </c>
@@ -17876,13 +17847,13 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>2073</v>
       </c>
       <c r="I211" s="12"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="27" t="s">
         <v>22</v>
       </c>
@@ -17911,7 +17882,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="27" t="s">
         <v>22</v>
       </c>
@@ -17940,7 +17911,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="27" t="s">
         <v>22</v>
       </c>
@@ -17969,7 +17940,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="27" t="s">
         <v>22</v>
       </c>
@@ -17998,7 +17969,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="27" t="s">
         <v>22</v>
       </c>
@@ -18027,7 +17998,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="27" t="s">
         <v>22</v>
       </c>
@@ -18056,7 +18027,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="27" t="s">
         <v>22</v>
       </c>
@@ -18085,7 +18056,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="27" t="s">
         <v>22</v>
       </c>
@@ -18114,229 +18085,589 @@
         <v>2069</v>
       </c>
     </row>
+    <row r="221" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>2100</v>
+      </c>
+      <c r="I221" s="12"/>
+    </row>
+    <row r="222" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" s="27" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C222" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D222" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E222" s="27" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F222" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G222" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H222" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I222" s="28" t="s">
+        <v>2075</v>
+      </c>
+      <c r="J222" s="27" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D223" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E223" s="27" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F223" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G223" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H223" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I223" s="28" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J223" s="27" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D224" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E224" s="27" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F224" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G224" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H224" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I224" s="28" t="s">
+        <v>2080</v>
+      </c>
+      <c r="J224" s="27" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D225" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E225" s="27" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F225" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G225" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H225" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I225" s="28" t="s">
+        <v>2090</v>
+      </c>
+      <c r="J225" s="27" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C226" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D226" s="27" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E226" s="27" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F226" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G226" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H226" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I226" s="28" t="s">
+        <v>2088</v>
+      </c>
+      <c r="J226" s="27" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C227" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E227" s="27" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F227" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G227" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H227" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I227" s="28" t="s">
+        <v>2089</v>
+      </c>
+      <c r="J227" s="27" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C228" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D228" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E228" s="27" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F228" s="27" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G228" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H228" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I228" s="28" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C229" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D229" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E229" s="27" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F229" s="27" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G229" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H229" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I229" s="28" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A230" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B230" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C230" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E230" s="27" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G230" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H230" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I230" s="28" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J230" s="27" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C231" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D231" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E231" s="27" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F231" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H231" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I231" s="28" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J231" s="27" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C232" s="27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E232" s="27" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F232" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G232" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H232" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I232" s="28" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J232" s="27" t="s">
+        <v>2097</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A11">
-    <cfRule type="containsText" dxfId="669" priority="55" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="653" priority="57" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="668" priority="56" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="652" priority="58" operator="beginsWith" text="#">
       <formula>LEFT(A1,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="containsText" dxfId="667" priority="53" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="651" priority="55" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A13)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="666" priority="54" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="650" priority="56" operator="beginsWith" text="#">
       <formula>LEFT(A13,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="665" priority="51" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="649" priority="53" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A17)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="664" priority="52" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="648" priority="54" operator="beginsWith" text="#">
       <formula>LEFT(A17,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="663" priority="49" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="647" priority="51" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A16)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="662" priority="50" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="646" priority="52" operator="beginsWith" text="#">
       <formula>LEFT(A16,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="661" priority="47" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="645" priority="49" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A15)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="660" priority="48" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="644" priority="50" operator="beginsWith" text="#">
       <formula>LEFT(A15,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="659" priority="45" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="643" priority="47" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="658" priority="46" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="642" priority="48" operator="beginsWith" text="#">
       <formula>LEFT(A12,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="657" priority="43" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="641" priority="45" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A30)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="656" priority="44" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="640" priority="46" operator="beginsWith" text="#">
       <formula>LEFT(A30,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="containsText" dxfId="655" priority="41" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="639" priority="43" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A47)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="654" priority="42" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="638" priority="44" operator="beginsWith" text="#">
       <formula>LEFT(A47,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="containsText" dxfId="653" priority="39" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="637" priority="41" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A64)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="652" priority="40" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="636" priority="42" operator="beginsWith" text="#">
       <formula>LEFT(A64,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="containsText" dxfId="651" priority="37" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="635" priority="39" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A98)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="650" priority="38" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="634" priority="40" operator="beginsWith" text="#">
       <formula>LEFT(A98,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="649" priority="35" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="633" priority="37" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A31)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="648" priority="36" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="632" priority="38" operator="beginsWith" text="#">
       <formula>LEFT(A31,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="647" priority="33" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="631" priority="35" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A32)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="646" priority="34" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="630" priority="36" operator="beginsWith" text="#">
       <formula>LEFT(A32,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="containsText" dxfId="645" priority="31" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="629" priority="33" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A80)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="644" priority="32" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="628" priority="34" operator="beginsWith" text="#">
       <formula>LEFT(A80,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="643" priority="29" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="627" priority="31" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A113)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="642" priority="30" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="626" priority="32" operator="beginsWith" text="#">
       <formula>LEFT(A113,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="containsText" dxfId="641" priority="27" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="625" priority="29" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A128)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="640" priority="28" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="624" priority="30" operator="beginsWith" text="#">
       <formula>LEFT(A128,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="containsText" dxfId="639" priority="25" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="623" priority="27" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A143)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="638" priority="26" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="622" priority="28" operator="beginsWith" text="#">
       <formula>LEFT(A143,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158">
-    <cfRule type="containsText" dxfId="637" priority="23" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="621" priority="25" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A158)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="636" priority="24" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="620" priority="26" operator="beginsWith" text="#">
       <formula>LEFT(A158,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="containsText" dxfId="635" priority="21" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="619" priority="23" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A95)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="634" priority="22" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="618" priority="24" operator="beginsWith" text="#">
       <formula>LEFT(A95,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A175">
-    <cfRule type="containsText" dxfId="633" priority="19" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="617" priority="21" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A173)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="632" priority="20" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="616" priority="22" operator="beginsWith" text="#">
       <formula>LEFT(A173,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="615" priority="19" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A182)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="18" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="614" priority="20" operator="beginsWith" text="#">
       <formula>LEFT(A182,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="613" priority="17" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A185)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="16" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="612" priority="18" operator="beginsWith" text="#">
       <formula>LEFT(A185,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188">
-    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="611" priority="15" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A188)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="14" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="610" priority="16" operator="beginsWith" text="#">
       <formula>LEFT(A188,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191">
-    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="609" priority="13" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A191)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="12" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="608" priority="14" operator="beginsWith" text="#">
       <formula>LEFT(A191,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="607" priority="11" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A196)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="10" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="606" priority="12" operator="beginsWith" text="#">
       <formula>LEFT(A196,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="605" priority="9" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A201)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="8" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="604" priority="10" operator="beginsWith" text="#">
       <formula>LEFT(A201,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="603" priority="7" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A204)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="602" priority="8" operator="beginsWith" text="#">
       <formula>LEFT(A204,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="601" priority="5" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A207)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="4" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="600" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A207,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A211">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="......">
+    <cfRule type="containsText" dxfId="599" priority="3" operator="containsText" text="......">
       <formula>NOT(ISERROR(SEARCH("......",A211)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="598" priority="4" operator="beginsWith" text="#">
       <formula>LEFT(A211,LEN("#"))="#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
+    <cfRule type="containsText" dxfId="597" priority="1" operator="containsText" text="......">
+      <formula>NOT(ISERROR(SEARCH("......",A221)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="596" priority="2" operator="beginsWith" text="#">
+      <formula>LEFT(A221,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18681,7 +19012,7 @@
       </c>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
@@ -18713,7 +19044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
@@ -18745,7 +19076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>22</v>
       </c>
@@ -18777,7 +19108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
@@ -18809,7 +19140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
@@ -18841,7 +19172,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
@@ -18873,7 +19204,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>22</v>
       </c>
@@ -18905,13 +19236,13 @@
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>904</v>
       </c>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>22</v>
       </c>
@@ -18943,7 +19274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>22</v>
       </c>
@@ -18975,7 +19306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>22</v>
       </c>
@@ -19007,7 +19338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
@@ -19039,7 +19370,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>22</v>
       </c>
@@ -19068,7 +19399,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>22</v>
       </c>
@@ -19097,7 +19428,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
@@ -19126,7 +19457,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>22</v>
       </c>
@@ -19155,7 +19486,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>22</v>
       </c>
@@ -19184,7 +19515,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>22</v>
       </c>
@@ -19213,7 +19544,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -19242,7 +19573,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -19271,7 +19602,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>22</v>
       </c>
@@ -19300,7 +19631,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>22</v>
       </c>
@@ -19329,7 +19660,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>22</v>
       </c>
@@ -19358,7 +19689,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>22</v>
       </c>
@@ -19387,7 +19718,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>22</v>
       </c>
@@ -19416,7 +19747,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>22</v>
       </c>
@@ -19445,7 +19776,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>22</v>
       </c>
@@ -19474,7 +19805,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>22</v>
       </c>
@@ -19503,7 +19834,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>22</v>
       </c>
@@ -19532,7 +19863,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>22</v>
       </c>
@@ -19561,7 +19892,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>22</v>
       </c>
@@ -19590,7 +19921,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>22</v>
       </c>
@@ -19619,13 +19950,13 @@
         <v>912</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>1197</v>
       </c>
       <c r="I65" s="12"/>
     </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>22</v>
       </c>
@@ -19657,7 +19988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>22</v>
       </c>
@@ -19686,7 +20017,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>22</v>
       </c>
@@ -19718,7 +20049,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>22</v>
       </c>
@@ -19747,25 +20078,25 @@
         <v>867</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>206</v>
       </c>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>246</v>
       </c>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>1354</v>
       </c>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>22</v>
       </c>
@@ -19797,7 +20128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>22</v>
       </c>
@@ -19829,7 +20160,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>22</v>
       </c>
@@ -19861,7 +20192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>22</v>
       </c>
@@ -19893,7 +20224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>22</v>
       </c>
@@ -19925,7 +20256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>22</v>
       </c>
@@ -19957,7 +20288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>22</v>
       </c>
@@ -19989,7 +20320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>22</v>
       </c>
@@ -20021,7 +20352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>22</v>
       </c>
@@ -20053,7 +20384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>22</v>
       </c>
@@ -20085,7 +20416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>22</v>
       </c>
@@ -20117,7 +20448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>22</v>
       </c>
@@ -20149,7 +20480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>22</v>
       </c>
@@ -20181,7 +20512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>22</v>
       </c>
@@ -20213,7 +20544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>22</v>
       </c>
@@ -20245,7 +20576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>22</v>
       </c>
@@ -20277,7 +20608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>22</v>
       </c>
@@ -20309,7 +20640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>22</v>
       </c>
@@ -20341,7 +20672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>22</v>
       </c>
@@ -20373,7 +20704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>22</v>
       </c>
@@ -20405,7 +20736,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>22</v>
       </c>
@@ -20437,7 +20768,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>22</v>
       </c>
@@ -20469,7 +20800,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>22</v>
       </c>
@@ -20501,7 +20832,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>22</v>
       </c>
@@ -20533,7 +20864,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>22</v>
       </c>
@@ -20565,7 +20896,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>22</v>
       </c>
@@ -20597,7 +20928,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>22</v>
       </c>
@@ -20629,7 +20960,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>22</v>
       </c>
@@ -20661,7 +20992,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>22</v>
       </c>
@@ -20693,7 +21024,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>22</v>
       </c>
@@ -20725,7 +21056,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>22</v>
       </c>
@@ -20757,7 +21088,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>22</v>
       </c>
@@ -20789,7 +21120,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>22</v>
       </c>
@@ -20821,7 +21152,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="108" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>22</v>
       </c>
@@ -20853,7 +21184,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>22</v>
       </c>
@@ -20885,7 +21216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>22</v>
       </c>
@@ -20917,7 +21248,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>22</v>
       </c>
@@ -20949,7 +21280,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>22</v>
       </c>
@@ -20981,7 +21312,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>22</v>
       </c>
@@ -21013,7 +21344,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>22</v>
       </c>
@@ -21045,7 +21376,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>22</v>
       </c>
@@ -21077,7 +21408,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>22</v>
       </c>
@@ -21109,7 +21440,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>22</v>
       </c>
@@ -21141,7 +21472,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>22</v>
       </c>
@@ -21173,7 +21504,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>22</v>
       </c>
@@ -21205,7 +21536,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>22</v>
       </c>
@@ -21237,7 +21568,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>22</v>
       </c>
@@ -21269,7 +21600,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>22</v>
       </c>
@@ -21301,7 +21632,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>22</v>
       </c>
@@ -21333,7 +21664,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>22</v>
       </c>
@@ -21365,7 +21696,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="125" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>22</v>
       </c>
@@ -21397,7 +21728,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>22</v>
       </c>
@@ -21429,7 +21760,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>22</v>
       </c>
@@ -21461,7 +21792,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>22</v>
       </c>
@@ -21493,7 +21824,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>22</v>
       </c>
@@ -21525,7 +21856,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>22</v>
       </c>
@@ -21557,7 +21888,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>22</v>
       </c>
@@ -21589,7 +21920,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>22</v>
       </c>
@@ -21621,7 +21952,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>22</v>
       </c>
@@ -21653,7 +21984,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>22</v>
       </c>
@@ -21685,7 +22016,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>22</v>
       </c>
@@ -21717,7 +22048,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>22</v>
       </c>
@@ -21749,7 +22080,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>22</v>
       </c>
@@ -21781,7 +22112,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>22</v>
       </c>
@@ -21813,7 +22144,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>22</v>
       </c>
@@ -21845,7 +22176,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>22</v>
       </c>
@@ -21877,7 +22208,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>22</v>
       </c>
@@ -21909,7 +22240,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>22</v>
       </c>
@@ -21941,7 +22272,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>22</v>
       </c>
@@ -21973,7 +22304,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>22</v>
       </c>
@@ -22005,7 +22336,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>22</v>
       </c>
@@ -22037,7 +22368,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>22</v>
       </c>
@@ -22069,7 +22400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>22</v>
       </c>
@@ -22101,7 +22432,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>22</v>
       </c>
@@ -22133,7 +22464,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>22</v>
       </c>
@@ -22165,7 +22496,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>22</v>
       </c>
@@ -22197,7 +22528,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>22</v>
       </c>
@@ -22229,7 +22560,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>22</v>
       </c>
@@ -22261,7 +22592,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>22</v>
       </c>
@@ -22293,7 +22624,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>22</v>
       </c>
@@ -22325,7 +22656,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>22</v>
       </c>
@@ -22357,7 +22688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>22</v>
       </c>
@@ -22389,7 +22720,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>22</v>
       </c>
@@ -22421,7 +22752,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>22</v>
       </c>
@@ -22453,7 +22784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>22</v>
       </c>
@@ -22485,7 +22816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>22</v>
       </c>
@@ -22517,7 +22848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>22</v>
       </c>
@@ -22549,7 +22880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>47</v>
       </c>
@@ -22581,7 +22912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>22</v>
       </c>
@@ -22613,7 +22944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>22</v>
       </c>
@@ -22645,7 +22976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>22</v>
       </c>
@@ -22677,7 +23008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>22</v>
       </c>
@@ -22709,7 +23040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>22</v>
       </c>
@@ -22741,7 +23072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>22</v>
       </c>
@@ -22773,7 +23104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>22</v>
       </c>
@@ -22805,7 +23136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>22</v>
       </c>
@@ -22837,7 +23168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>22</v>
       </c>
@@ -22869,7 +23200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>22</v>
       </c>
@@ -22901,14 +23232,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>1348</v>
       </c>
       <c r="I174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>22</v>
       </c>
@@ -22940,7 +23271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>22</v>
       </c>
@@ -22972,7 +23303,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>22</v>
       </c>
@@ -23004,7 +23335,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>22</v>
       </c>
@@ -23036,7 +23367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>22</v>
       </c>
@@ -23068,7 +23399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>22</v>
       </c>
@@ -23100,7 +23431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>22</v>
       </c>
@@ -23132,7 +23463,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>22</v>
       </c>
@@ -23164,7 +23495,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="183" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>22</v>
       </c>
@@ -23196,7 +23527,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>22</v>
       </c>
@@ -23228,7 +23559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>22</v>
       </c>
@@ -23260,7 +23591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>22</v>
       </c>
@@ -23292,7 +23623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>22</v>
       </c>
@@ -23324,13 +23655,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>1351</v>
       </c>
       <c r="I188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>22</v>
       </c>
@@ -23362,7 +23693,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>22</v>
       </c>
@@ -23394,7 +23725,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>22</v>
       </c>
@@ -23426,7 +23757,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>22</v>
       </c>
@@ -23458,7 +23789,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>22</v>
       </c>
@@ -23490,7 +23821,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>22</v>
       </c>
@@ -23522,13 +23853,13 @@
         <v>313</v>
       </c>
     </row>
-    <row r="195" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>1343</v>
       </c>
       <c r="I195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>22</v>
       </c>
@@ -23560,7 +23891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>22</v>
       </c>
@@ -23592,7 +23923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>22</v>
       </c>
@@ -23624,7 +23955,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>22</v>
       </c>
@@ -23656,7 +23987,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>22</v>
       </c>
@@ -23688,7 +24019,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>22</v>
       </c>
@@ -23720,7 +24051,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>22</v>
       </c>
@@ -23752,7 +24083,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>22</v>
       </c>
@@ -23784,7 +24115,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>22</v>
       </c>
@@ -23816,7 +24147,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>22</v>
       </c>
@@ -23848,7 +24179,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>22</v>
       </c>
@@ -23880,7 +24211,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>22</v>
       </c>
@@ -23912,7 +24243,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>22</v>
       </c>
@@ -23944,7 +24275,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>22</v>
       </c>
@@ -23976,7 +24307,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>22</v>
       </c>
@@ -24008,7 +24339,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>22</v>
       </c>
@@ -24040,7 +24371,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>22</v>
       </c>
@@ -24072,7 +24403,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>22</v>
       </c>
@@ -24104,7 +24435,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>22</v>
       </c>
@@ -24136,7 +24467,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>22</v>
       </c>
@@ -24168,7 +24499,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>22</v>
       </c>
@@ -24200,7 +24531,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>22</v>
       </c>
@@ -24232,7 +24563,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>22</v>
       </c>
@@ -24264,7 +24595,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>22</v>
       </c>
@@ -24296,7 +24627,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>22</v>
       </c>
@@ -24328,7 +24659,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>22</v>
       </c>
@@ -24360,7 +24691,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>22</v>
       </c>
@@ -24392,7 +24723,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>22</v>
       </c>
@@ -24424,7 +24755,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>22</v>
       </c>
@@ -24456,7 +24787,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>22</v>
       </c>
@@ -24488,7 +24819,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>22</v>
       </c>
@@ -24520,7 +24851,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>22</v>
       </c>
@@ -24552,7 +24883,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>22</v>
       </c>
@@ -24584,7 +24915,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>22</v>
       </c>
@@ -24616,7 +24947,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>22</v>
       </c>
@@ -24648,7 +24979,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="231" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>22</v>
       </c>
@@ -24680,7 +25011,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>22</v>
       </c>
@@ -24712,7 +25043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>22</v>
       </c>
@@ -24744,7 +25075,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>22</v>
       </c>
@@ -24776,7 +25107,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>22</v>
       </c>
@@ -24808,7 +25139,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>22</v>
       </c>
@@ -24840,7 +25171,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>22</v>
       </c>
@@ -24872,7 +25203,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>22</v>
       </c>
@@ -24904,7 +25235,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>22</v>
       </c>
@@ -24936,7 +25267,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>22</v>
       </c>
@@ -24968,7 +25299,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>22</v>
       </c>
@@ -25000,7 +25331,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>22</v>
       </c>
@@ -25032,7 +25363,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>22</v>
       </c>
@@ -25064,7 +25395,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>22</v>
       </c>
@@ -25096,7 +25427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>22</v>
       </c>
@@ -25128,7 +25459,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>22</v>
       </c>
@@ -25160,7 +25491,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>22</v>
       </c>
@@ -25192,7 +25523,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>22</v>
       </c>
@@ -25224,7 +25555,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>22</v>
       </c>
@@ -25256,7 +25587,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>22</v>
       </c>
@@ -25288,7 +25619,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>22</v>
       </c>
@@ -25320,7 +25651,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>22</v>
       </c>
@@ -25352,7 +25683,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>22</v>
       </c>
@@ -25384,7 +25715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>22</v>
       </c>
@@ -25416,7 +25747,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>22</v>
       </c>
@@ -25448,7 +25779,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>22</v>
       </c>
@@ -25480,31 +25811,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I259" s="12"/>
     </row>
-    <row r="261" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>205</v>
       </c>
       <c r="I261" s="12"/>
     </row>
-    <row r="262" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>203</v>
       </c>
       <c r="I262" s="12"/>
     </row>
-    <row r="263" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>204</v>
       </c>
       <c r="I263" s="12"/>
     </row>
-    <row r="264" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>22</v>
       </c>
@@ -25536,7 +25867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>22</v>
       </c>
@@ -25568,7 +25899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>22</v>
       </c>
@@ -25600,7 +25931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>22</v>
       </c>
@@ -25632,7 +25963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>22</v>
       </c>
@@ -25664,7 +25995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>22</v>
       </c>
@@ -25696,7 +26027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>22</v>
       </c>
@@ -25728,7 +26059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>22</v>
       </c>
@@ -25760,7 +26091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -25792,7 +26123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>22</v>
       </c>
@@ -25824,7 +26155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>22</v>
       </c>
@@ -25856,7 +26187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>22</v>
       </c>
@@ -25888,7 +26219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>22</v>
       </c>
@@ -25920,7 +26251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>22</v>
       </c>
@@ -25952,7 +26283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>22</v>
       </c>
@@ -25984,7 +26315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>22</v>
       </c>
@@ -26016,7 +26347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>22</v>
       </c>
@@ -26048,7 +26379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>22</v>
       </c>
@@ -26080,7 +26411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>22</v>
       </c>
@@ -26112,7 +26443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>22</v>
       </c>
@@ -26144,7 +26475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:10" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>22</v>
       </c>
@@ -26176,7 +26507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:10" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>22</v>
       </c>
@@ -26208,7 +265